--- a/cms/CMS.xlsx
+++ b/cms/CMS.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="160">
   <si>
     <t>Title</t>
   </si>
@@ -487,9 +487,6 @@
   </si>
   <si>
     <t>http://timbeek.com/royalty-free-music/genre/electronic/</t>
-  </si>
-  <si>
-    <t>«hall-of-fame-info»</t>
   </si>
   <si>
     <t>Support the «SITE-NAME»</t>
@@ -968,10 +965,10 @@
   <dimension ref="A1:AF39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H5" sqref="H5"/>
+      <selection pane="bottomRight" activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1197,7 +1194,7 @@
         <v>37</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H3" s="7" t="str">
         <f>"«"&amp;A3&amp;"»"</f>
@@ -1697,7 +1694,7 @@
         <v>37</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H9" s="7" t="str">
         <f>"«"&amp;A9&amp;"»"</f>
@@ -1772,7 +1769,7 @@
         <v>138</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I10" s="16"/>
       <c r="J10" s="23" t="s">
@@ -1904,8 +1901,9 @@
       <c r="G12" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="H12" s="9" t="s">
-        <v>157</v>
+      <c r="H12" s="7" t="str">
+        <f>"«"&amp;A12&amp;"»"</f>
+        <v>«hall-of-fame»</v>
       </c>
       <c r="I12" s="3">
         <v>43265</v>

--- a/cms/CMS.xlsx
+++ b/cms/CMS.xlsx
@@ -138,9 +138,6 @@
     <t>«ARCHIVE-OF-POST-BY-DATE»</t>
   </si>
   <si>
-    <t>«ARCHIVE-OF-TAGS»</t>
-  </si>
-  <si>
     <t>21e9fc4a7638c2740034c679365b75d1</t>
   </si>
   <si>
@@ -496,6 +493,9 @@
   </si>
   <si>
     <t>About</t>
+  </si>
+  <si>
+    <t>«ARCHIVE-OF-CLASS»</t>
   </si>
 </sst>
 </file>
@@ -965,10 +965,10 @@
   <dimension ref="A1:AF39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E12" sqref="E12"/>
+      <selection pane="bottomRight" activeCell="Q5" sqref="Q5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1028,13 +1028,13 @@
         <v>3</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="L1" s="5" t="s">
         <v>1</v>
@@ -1061,48 +1061,48 @@
         <v>7</v>
       </c>
       <c r="T1" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="U1" s="5" t="s">
         <v>11</v>
       </c>
       <c r="V1" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="W1" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="X1" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="Y1" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="Z1" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AA1" s="5" t="s">
         <v>29</v>
       </c>
       <c r="AB1" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AC1" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AD1" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="AE1" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="AE1" s="5" t="s">
+      <c r="AF1" s="5" t="s">
         <v>141</v>
-      </c>
-      <c r="AF1" s="5" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A2" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>5</v>
@@ -1114,7 +1114,7 @@
         <v>37</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H2" s="7" t="str">
         <f>"«"&amp;A2&amp;"»"</f>
@@ -1159,7 +1159,7 @@
         <v>5</v>
       </c>
       <c r="S2" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="T2" s="7" t="str">
         <f>$T$9</f>
@@ -1181,7 +1181,7 @@
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A3" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>5</v>
@@ -1194,7 +1194,7 @@
         <v>37</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H3" s="7" t="str">
         <f>"«"&amp;A3&amp;"»"</f>
@@ -1239,7 +1239,7 @@
         <v>5</v>
       </c>
       <c r="S3" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="T3" s="7" t="str">
         <f>$T$9</f>
@@ -1261,7 +1261,7 @@
     </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A4" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>5</v>
@@ -1274,7 +1274,7 @@
         <v>37</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H4" s="7" t="str">
         <f>"«"&amp;A4&amp;"»"</f>
@@ -1312,14 +1312,14 @@
         <v>3</v>
       </c>
       <c r="Q4" s="2" t="str">
-        <f>Tags!$A$4</f>
-        <v>Post</v>
+        <f>Tags!$A$5&amp;", "&amp;Tags!$A$4</f>
+        <v>Finance, Post</v>
       </c>
       <c r="R4" s="2" t="s">
         <v>5</v>
       </c>
       <c r="S4" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="T4" s="7" t="str">
         <f>$T$9</f>
@@ -1341,7 +1341,7 @@
     </row>
     <row r="5" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A5" s="16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>5</v>
@@ -1355,13 +1355,13 @@
         <v>«fleur-de-lis»</v>
       </c>
       <c r="F5" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H5" s="9" t="s">
         <v>72</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="H5" s="9" t="s">
-        <v>73</v>
       </c>
       <c r="I5" s="16">
         <v>43145</v>
@@ -1390,7 +1390,7 @@
         <v>2018</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="Q5" s="2" t="str">
         <f>Tags!$A$7&amp;", "&amp;Tags!$A$8&amp;", "&amp;Tags!$A$9</f>
@@ -1404,14 +1404,14 @@
         <v>mosaic/fleur-de-lis.png</v>
       </c>
       <c r="T5" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="U5" s="7" t="str">
         <f t="shared" si="1"/>
         <v>«fleur-de-lis:MarkShort»</v>
       </c>
       <c r="V5" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="W5" s="16"/>
       <c r="X5" s="16" t="str">
@@ -1424,7 +1424,7 @@
     </row>
     <row r="6" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A6" s="16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>5</v>
@@ -1438,10 +1438,10 @@
         <v>«scales»</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H6" s="7" t="str">
         <f>$H$5</f>
@@ -1489,14 +1489,14 @@
         <v>mosaic/scales.png</v>
       </c>
       <c r="T6" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="U6" s="7" t="str">
         <f t="shared" si="1"/>
         <v>«scales:MarkShort»</v>
       </c>
       <c r="V6" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="W6" s="16"/>
       <c r="X6" s="16" t="str">
@@ -1507,7 +1507,7 @@
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A7" s="16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>5</v>
@@ -1521,10 +1521,10 @@
         <v>«veronese»</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H7" s="7" t="str">
         <f>$H$5</f>
@@ -1557,7 +1557,7 @@
         <v>2018</v>
       </c>
       <c r="P7" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="Q7" s="2" t="str">
         <f>Tags!$A$7&amp;", "&amp;Tags!$A$8&amp;", "&amp;Tags!$A$9</f>
@@ -1571,14 +1571,14 @@
         <v>mosaic/veronese.png</v>
       </c>
       <c r="T7" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="U7" s="7" t="str">
         <f t="shared" si="1"/>
         <v>«veronese:MarkShort»</v>
       </c>
       <c r="V7" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="W7" s="16"/>
       <c r="X7" s="16" t="str">
@@ -1591,7 +1591,7 @@
     </row>
     <row r="8" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A8" s="16" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>5</v>
@@ -1605,10 +1605,10 @@
         <v>«viking-carpet»</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H8" s="7" t="str">
         <f>$H$5</f>
@@ -1641,7 +1641,7 @@
         <v>2017</v>
       </c>
       <c r="P8" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="Q8" s="2" t="str">
         <f>Tags!$A$7&amp;", "&amp;Tags!$A$8&amp;", "&amp;Tags!$A$9</f>
@@ -1655,14 +1655,14 @@
         <v>mosaic/viking-carpet.png</v>
       </c>
       <c r="T8" s="9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="U8" s="7" t="str">
         <f t="shared" si="1"/>
         <v>«viking-carpet:MarkShort»</v>
       </c>
       <c r="V8" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="W8" s="16"/>
       <c r="X8" s="16" t="str">
@@ -1694,7 +1694,7 @@
         <v>37</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H9" s="7" t="str">
         <f>"«"&amp;A9&amp;"»"</f>
@@ -1738,17 +1738,17 @@
         <v>5</v>
       </c>
       <c r="S9" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="T9" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="U9" s="7" t="str">
         <f t="shared" si="1"/>
         <v>«about:MarkShort»</v>
       </c>
       <c r="V9" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="X9" s="7" t="str">
         <f t="shared" si="2"/>
@@ -1757,23 +1757,23 @@
     </row>
     <row r="10" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A10" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I10" s="16"/>
       <c r="J10" s="23" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K10" s="10" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -1863,14 +1863,14 @@
         <v>Creative-Archive</v>
       </c>
       <c r="S11" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="T11" s="7" t="str">
         <f>$T$9</f>
         <v>Octaflower, the Creative Archive's logo. A geometric lotus flower composed of eight rows of eight petals in rainbow progression.</v>
       </c>
       <c r="U11" s="9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="V11" s="7" t="str">
         <f>IF(P11="Post","article","website")</f>
@@ -1893,27 +1893,27 @@
         <v>32</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>37</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H12" s="7" t="str">
-        <f>"«"&amp;A12&amp;"»"</f>
+        <f t="shared" ref="H12:H17" si="8">"«"&amp;A12&amp;"»"</f>
         <v>«hall-of-fame»</v>
       </c>
       <c r="I12" s="3">
         <v>43265</v>
       </c>
       <c r="J12" s="10" t="str">
-        <f t="shared" ref="J12:J21" si="8">YEAR(I12)&amp;TEXT("-"&amp;MONTH(I12),"00")&amp;TEXT("-"&amp;DAY(I12),"00")</f>
+        <f t="shared" ref="J12:J21" si="9">YEAR(I12)&amp;TEXT("-"&amp;MONTH(I12),"00")&amp;TEXT("-"&amp;DAY(I12),"00")</f>
         <v>2018-06-14</v>
       </c>
       <c r="K12" s="10" t="str">
-        <f t="shared" ref="K12" ca="1" si="9">IF(TODAY()-DATEVALUE(J12)&lt;15,"weekly",IF(TODAY()-DATEVALUE(J12)&lt;60,"monthly","yearly"))</f>
+        <f t="shared" ref="K12" ca="1" si="10">IF(TODAY()-DATEVALUE(J12)&lt;15,"weekly",IF(TODAY()-DATEVALUE(J12)&lt;60,"monthly","yearly"))</f>
         <v>monthly</v>
       </c>
       <c r="L12" s="3">
@@ -1928,25 +1928,25 @@
         <v>3</v>
       </c>
       <c r="O12" s="6">
-        <f t="shared" ref="O12" si="10">YEAR(L12)</f>
+        <f t="shared" ref="O12" si="11">YEAR(L12)</f>
         <v>2018</v>
       </c>
       <c r="P12" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="Q12" s="2" t="str">
         <f>Tags!$A$6</f>
         <v>Creative-Archive</v>
       </c>
       <c r="S12" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="T12" s="7" t="str">
         <f>$T$9</f>
         <v>Octaflower, the Creative Archive's logo. A geometric lotus flower composed of eight rows of eight petals in rainbow progression.</v>
       </c>
       <c r="U12" s="9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="V12" s="7" t="str">
         <f>IF(P12="Post","article","website")</f>
@@ -1959,17 +1959,17 @@
     </row>
     <row r="13" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A13" s="7" t="str">
-        <f t="shared" ref="A13:A16" si="11">SUBSTITUTE(LOWER(G13)," ","-")</f>
+        <f t="shared" ref="A13:A16" si="12">SUBSTITUTE(LOWER(G13)," ","-")</f>
         <v>tetrastrophe</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>37</v>
@@ -1978,18 +1978,18 @@
         <v>26</v>
       </c>
       <c r="H13" s="7" t="str">
-        <f>"«"&amp;A13&amp;"»"</f>
+        <f t="shared" si="8"/>
         <v>«tetrastrophe»</v>
       </c>
       <c r="I13" s="3">
         <v>43132</v>
       </c>
       <c r="J13" s="10" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2018-02-01</v>
       </c>
       <c r="K13" s="10" t="str">
-        <f t="shared" ref="K13:K18" ca="1" si="12">IF(TODAY()-DATEVALUE(J13)&lt;15,"weekly",IF(TODAY()-DATEVALUE(J13)&lt;60,"monthly","yearly"))</f>
+        <f t="shared" ref="K13:K18" ca="1" si="13">IF(TODAY()-DATEVALUE(J13)&lt;15,"weekly",IF(TODAY()-DATEVALUE(J13)&lt;60,"monthly","yearly"))</f>
         <v>yearly</v>
       </c>
       <c r="L13" s="3">
@@ -2004,7 +2004,7 @@
         <v>5</v>
       </c>
       <c r="O13" s="6">
-        <f t="shared" ref="O13:O21" si="13">YEAR(L13)</f>
+        <f t="shared" ref="O13:O21" si="14">YEAR(L13)</f>
         <v>2014</v>
       </c>
       <c r="P13" s="2" t="s">
@@ -2030,7 +2030,7 @@
         <v>«tetrastrophe:MarkShort»</v>
       </c>
       <c r="V13" s="7" t="str">
-        <f t="shared" ref="V13:V18" si="14">IF(P13="Post","article",IF(P13="Game","game","website"))</f>
+        <f t="shared" ref="V13:V18" si="15">IF(P13="Post","article",IF(P13="Game","game","website"))</f>
         <v>game</v>
       </c>
       <c r="X13" s="7" t="str">
@@ -2041,21 +2041,21 @@
         <v>27</v>
       </c>
       <c r="AC13" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AD13" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="AE13" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="AF13" s="4" t="s">
         <v>149</v>
-      </c>
-      <c r="AE13" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="AF13" s="4" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="14" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A14" s="7" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>blockworks</v>
       </c>
       <c r="B14" s="2" t="s">
@@ -2066,43 +2066,43 @@
         <v>«PAGE-GAME-FULLSCREEN»</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F14" s="28" t="str">
         <f>$F$13</f>
         <v>prose</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H14" s="7" t="str">
-        <f>"«"&amp;A14&amp;"»"</f>
+        <f t="shared" si="8"/>
         <v>«blockworks»</v>
       </c>
       <c r="I14" s="3">
         <v>43150</v>
       </c>
       <c r="J14" s="10" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2018-02-19</v>
       </c>
       <c r="K14" s="10" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="13"/>
         <v>yearly</v>
       </c>
       <c r="L14" s="3">
         <v>43135</v>
       </c>
       <c r="M14" s="13">
-        <f t="shared" ref="M14" si="15">DAY(L14)</f>
+        <f t="shared" ref="M14" si="16">DAY(L14)</f>
         <v>4</v>
       </c>
       <c r="N14" s="6">
-        <f t="shared" ref="N14" si="16">MONTH(L14)</f>
+        <f t="shared" ref="N14" si="17">MONTH(L14)</f>
         <v>2</v>
       </c>
       <c r="O14" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>2018</v>
       </c>
       <c r="P14" s="2" t="s">
@@ -2128,7 +2128,7 @@
         <v>«blockworks:MarkShort»</v>
       </c>
       <c r="V14" s="7" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>game</v>
       </c>
       <c r="X14" s="7" t="str">
@@ -2136,74 +2136,74 @@
         <v>«SITE-HTTP»/blockworks</v>
       </c>
       <c r="Y14" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="Z14" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AC14" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AD14" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="AE14" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="AE14" s="2" t="s">
-        <v>144</v>
-      </c>
       <c r="AF14" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="15" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A15" s="7" t="str">
-        <f t="shared" ref="A15" si="17">SUBSTITUTE(LOWER(G15)," ","-")</f>
+        <f t="shared" ref="A15" si="18">SUBSTITUTE(LOWER(G15)," ","-")</f>
         <v>whirlpuzzle</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D15" s="28" t="str">
-        <f t="shared" ref="D15:D19" si="18">$D$13</f>
+        <f t="shared" ref="D15:D19" si="19">$D$13</f>
         <v>«PAGE-GAME-FULLSCREEN»</v>
       </c>
       <c r="E15" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F15" s="28" t="str">
+        <f t="shared" ref="F15:F19" si="20">$F$13</f>
+        <v>prose</v>
+      </c>
+      <c r="G15" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="F15" s="28" t="str">
-        <f t="shared" ref="F15:F19" si="19">$F$13</f>
-        <v>prose</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>84</v>
-      </c>
       <c r="H15" s="7" t="str">
-        <f>"«"&amp;A15&amp;"»"</f>
+        <f t="shared" si="8"/>
         <v>«whirlpuzzle»</v>
       </c>
       <c r="I15" s="3">
         <v>43160</v>
       </c>
       <c r="J15" s="10" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2018-03-01</v>
       </c>
       <c r="K15" s="10" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="13"/>
         <v>yearly</v>
       </c>
       <c r="L15" s="3">
         <v>43160</v>
       </c>
       <c r="M15" s="13">
-        <f t="shared" ref="M15" si="20">DAY(L15)</f>
+        <f t="shared" ref="M15" si="21">DAY(L15)</f>
         <v>1</v>
       </c>
       <c r="N15" s="6">
-        <f t="shared" ref="N15" si="21">MONTH(L15)</f>
+        <f t="shared" ref="N15" si="22">MONTH(L15)</f>
         <v>3</v>
       </c>
       <c r="O15" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>2018</v>
       </c>
       <c r="P15" s="2" t="s">
@@ -2229,7 +2229,7 @@
         <v>«whirlpuzzle:MarkShort»</v>
       </c>
       <c r="V15" s="7" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>game</v>
       </c>
       <c r="X15" s="7" t="str">
@@ -2238,71 +2238,71 @@
       </c>
       <c r="Z15" s="18"/>
       <c r="AB15" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC15" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AD15" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="AE15" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="AE15" s="2" t="s">
-        <v>146</v>
-      </c>
       <c r="AF15" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="16" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A16" s="7" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>unlucky-unlock</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D16" s="28" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>«PAGE-GAME-FULLSCREEN»</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F16" s="28" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>prose</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>28</v>
       </c>
       <c r="H16" s="7" t="str">
-        <f>"«"&amp;A16&amp;"»"</f>
+        <f t="shared" si="8"/>
         <v>«unlucky-unlock»</v>
       </c>
       <c r="I16" s="3">
         <v>43133</v>
       </c>
       <c r="J16" s="10" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2018-02-02</v>
       </c>
       <c r="K16" s="10" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="13"/>
         <v>yearly</v>
       </c>
       <c r="L16" s="3">
         <v>41838</v>
       </c>
       <c r="M16" s="13">
-        <f t="shared" ref="M16" si="22">DAY(L16)</f>
+        <f t="shared" ref="M16" si="23">DAY(L16)</f>
         <v>18</v>
       </c>
       <c r="N16" s="6">
-        <f t="shared" ref="N16" si="23">MONTH(L16)</f>
+        <f t="shared" ref="N16" si="24">MONTH(L16)</f>
         <v>7</v>
       </c>
       <c r="O16" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>2014</v>
       </c>
       <c r="P16" s="2" t="s">
@@ -2328,7 +2328,7 @@
         <v>«unlucky-unlock:MarkShort»</v>
       </c>
       <c r="V16" s="7" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>game</v>
       </c>
       <c r="X16" s="7" t="str">
@@ -2342,70 +2342,70 @@
         <v>30</v>
       </c>
       <c r="AB16" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC16" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AD16" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="AE16" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="AF16" s="4" t="s">
         <v>152</v>
-      </c>
-      <c r="AE16" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="AF16" s="4" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="17" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A17" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D17" s="28" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>«PAGE-GAME-FULLSCREEN»</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F17" s="28" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>prose</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H17" s="7" t="str">
-        <f>"«"&amp;A17&amp;"»"</f>
+        <f t="shared" si="8"/>
         <v>«pmgrp»</v>
       </c>
       <c r="I17" s="3">
         <v>43179</v>
       </c>
       <c r="J17" s="10" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2018-03-20</v>
       </c>
       <c r="K17" s="10" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="13"/>
         <v>yearly</v>
       </c>
       <c r="L17" s="3">
         <v>43179</v>
       </c>
       <c r="M17" s="13">
-        <f t="shared" ref="M17" si="24">DAY(L17)</f>
+        <f t="shared" ref="M17" si="25">DAY(L17)</f>
         <v>20</v>
       </c>
       <c r="N17" s="6">
-        <f t="shared" ref="N17" si="25">MONTH(L17)</f>
+        <f t="shared" ref="N17" si="26">MONTH(L17)</f>
         <v>3</v>
       </c>
       <c r="O17" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>2018</v>
       </c>
       <c r="P17" s="2" t="s">
@@ -2431,7 +2431,7 @@
         <v>«pmgrp:MarkShort»</v>
       </c>
       <c r="V17" s="7" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>game</v>
       </c>
       <c r="X17" s="7" t="str">
@@ -2439,33 +2439,33 @@
         <v>«SITE-HTTP»/pmgrp</v>
       </c>
       <c r="AC17" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AD17" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="AE17" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="AF17" s="4" t="s">
         <v>155</v>
-      </c>
-      <c r="AE17" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="AF17" s="4" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="18" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A18" s="31" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>5</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F18" s="28" t="s">
         <v>37</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H18" s="9" t="str">
         <f>"«combinatura»"</f>
@@ -2476,26 +2476,26 @@
         <v>43287</v>
       </c>
       <c r="J18" s="10" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2018-07-06</v>
       </c>
       <c r="K18" s="10" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="13"/>
         <v>weekly</v>
       </c>
       <c r="L18" s="3">
         <v>43287</v>
       </c>
       <c r="M18" s="13">
-        <f t="shared" ref="M18:M19" si="26">DAY(L18)</f>
+        <f t="shared" ref="M18:M19" si="27">DAY(L18)</f>
         <v>6</v>
       </c>
       <c r="N18" s="6">
-        <f t="shared" ref="N18:N19" si="27">MONTH(L18)</f>
+        <f t="shared" ref="N18:N19" si="28">MONTH(L18)</f>
         <v>7</v>
       </c>
       <c r="O18" s="6">
-        <f t="shared" ref="O18:O19" si="28">YEAR(L18)</f>
+        <f t="shared" ref="O18:O19" si="29">YEAR(L18)</f>
         <v>2018</v>
       </c>
       <c r="P18" s="2" t="s">
@@ -2517,43 +2517,43 @@
         <v>The combinatura game logo.</v>
       </c>
       <c r="U18" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="V18" s="7" t="str">
+        <f t="shared" si="15"/>
+        <v>game</v>
+      </c>
+      <c r="X18" s="31" t="s">
+        <v>130</v>
+      </c>
+      <c r="Y18" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="V18" s="7" t="str">
-        <f t="shared" si="14"/>
-        <v>game</v>
-      </c>
-      <c r="X18" s="31" t="s">
-        <v>131</v>
-      </c>
-      <c r="Y18" s="2" t="s">
-        <v>126</v>
-      </c>
       <c r="AC18" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="19" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A19" s="7" t="str">
-        <f t="shared" ref="A19" si="29">SUBSTITUTE(LOWER(G19)," ","-")</f>
+        <f t="shared" ref="A19" si="30">SUBSTITUTE(LOWER(G19)," ","-")</f>
         <v>hastefulll</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D19" s="28" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>«PAGE-GAME-FULLSCREEN»</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F19" s="28" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>prose</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H19" s="7" t="str">
         <f>"«"&amp;A19&amp;"»"</f>
@@ -2564,26 +2564,26 @@
         <v>43293</v>
       </c>
       <c r="J19" s="10" t="str">
-        <f t="shared" ref="J19" si="30">YEAR(I19)&amp;TEXT("-"&amp;MONTH(I19),"00")&amp;TEXT("-"&amp;DAY(I19),"00")</f>
+        <f t="shared" ref="J19" si="31">YEAR(I19)&amp;TEXT("-"&amp;MONTH(I19),"00")&amp;TEXT("-"&amp;DAY(I19),"00")</f>
         <v>2018-07-12</v>
       </c>
       <c r="K19" s="10" t="str">
-        <f t="shared" ref="K19" ca="1" si="31">IF(TODAY()-DATEVALUE(J19)&lt;15,"weekly",IF(TODAY()-DATEVALUE(J19)&lt;60,"monthly","yearly"))</f>
+        <f t="shared" ref="K19" ca="1" si="32">IF(TODAY()-DATEVALUE(J19)&lt;15,"weekly",IF(TODAY()-DATEVALUE(J19)&lt;60,"monthly","yearly"))</f>
         <v>weekly</v>
       </c>
       <c r="L19" s="3">
         <v>43293</v>
       </c>
       <c r="M19" s="13">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>12</v>
       </c>
       <c r="N19" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>7</v>
       </c>
       <c r="O19" s="6">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>2018</v>
       </c>
       <c r="P19" s="2" t="s">
@@ -2609,24 +2609,24 @@
         <v>«hastefulll:MarkShort»</v>
       </c>
       <c r="V19" s="7" t="str">
-        <f t="shared" ref="V19" si="32">IF(P19="Post","article",IF(P19="Game","game","website"))</f>
+        <f t="shared" ref="V19" si="33">IF(P19="Post","article",IF(P19="Game","game","website"))</f>
         <v>game</v>
       </c>
       <c r="X19" s="7" t="str">
-        <f t="shared" ref="X19" si="33">"«SITE-HTTP»/"&amp;A19</f>
+        <f t="shared" ref="X19" si="34">"«SITE-HTTP»/"&amp;A19</f>
         <v>«SITE-HTTP»/hastefulll</v>
       </c>
       <c r="AC19" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AD19" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AE19" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AF19" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="20" spans="1:32" x14ac:dyDescent="0.35">
@@ -2656,7 +2656,7 @@
         <v>43069</v>
       </c>
       <c r="J20" s="10" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2017-11-30</v>
       </c>
       <c r="K20" s="10" t="str">
@@ -2667,15 +2667,15 @@
         <v>43069</v>
       </c>
       <c r="M20" s="13">
-        <f t="shared" ref="M20" si="34">DAY(L20)</f>
+        <f t="shared" ref="M20" si="35">DAY(L20)</f>
         <v>30</v>
       </c>
       <c r="N20" s="6">
-        <f t="shared" ref="N20" si="35">MONTH(L20)</f>
+        <f t="shared" ref="N20" si="36">MONTH(L20)</f>
         <v>11</v>
       </c>
       <c r="O20" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>2017</v>
       </c>
       <c r="P20" s="2" t="s">
@@ -2689,7 +2689,7 @@
         <v>5</v>
       </c>
       <c r="S20" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="T20" s="7" t="str">
         <f>$T$9</f>
@@ -2704,7 +2704,7 @@
         <v>article</v>
       </c>
       <c r="X20" s="7" t="str">
-        <f t="shared" ref="X20:X27" si="36">"«SITE-HTTP»/"&amp;A20</f>
+        <f t="shared" ref="X20:X27" si="37">"«SITE-HTTP»/"&amp;A20</f>
         <v>«SITE-HTTP»/terms-of-use</v>
       </c>
     </row>
@@ -2724,7 +2724,7 @@
         <v>37</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H21" s="7" t="str">
         <f>"«"&amp;A21&amp;"»"</f>
@@ -2734,26 +2734,26 @@
         <v>43169</v>
       </c>
       <c r="J21" s="10" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2018-03-10</v>
       </c>
       <c r="K21" s="10" t="str">
-        <f t="shared" ref="K21:K35" ca="1" si="37">IF(TODAY()-DATEVALUE(J21)&lt;15,"weekly",IF(TODAY()-DATEVALUE(J21)&lt;60,"monthly","yearly"))</f>
+        <f t="shared" ref="K21:K35" ca="1" si="38">IF(TODAY()-DATEVALUE(J21)&lt;15,"weekly",IF(TODAY()-DATEVALUE(J21)&lt;60,"monthly","yearly"))</f>
         <v>yearly</v>
       </c>
       <c r="L21" s="3">
         <v>43141</v>
       </c>
       <c r="M21" s="13">
-        <f t="shared" ref="M21" si="38">DAY(L21)</f>
+        <f t="shared" ref="M21" si="39">DAY(L21)</f>
         <v>10</v>
       </c>
       <c r="N21" s="6">
-        <f t="shared" ref="N21" si="39">MONTH(L21)</f>
+        <f t="shared" ref="N21" si="40">MONTH(L21)</f>
         <v>2</v>
       </c>
       <c r="O21" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>2018</v>
       </c>
       <c r="P21" s="2" t="s">
@@ -2767,7 +2767,7 @@
         <v>5</v>
       </c>
       <c r="S21" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="T21" s="7" t="str">
         <f>$T$9</f>
@@ -2782,7 +2782,7 @@
         <v>article</v>
       </c>
       <c r="X21" s="7" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>«SITE-HTTP»/privacy-policy</v>
       </c>
     </row>
@@ -2844,7 +2844,7 @@
         <v>website</v>
       </c>
       <c r="X22" s="7" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>«SITE-HTTP»/posts-by-date</v>
       </c>
     </row>
@@ -2863,13 +2863,13 @@
         <v>22</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>40</v>
+        <v>159</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>38</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I23" s="19"/>
       <c r="J23" s="24" t="str">
@@ -2906,13 +2906,13 @@
         <v>website</v>
       </c>
       <c r="X23" s="7" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>«SITE-HTTP»/posts-by-tag</v>
       </c>
     </row>
     <row r="24" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A24" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>5</v>
@@ -2921,10 +2921,10 @@
         <v>5</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>38</v>
@@ -2945,28 +2945,28 @@
         <v>43141</v>
       </c>
       <c r="M24" s="13">
-        <f t="shared" ref="M24" si="40">DAY(L24)</f>
+        <f t="shared" ref="M24" si="41">DAY(L24)</f>
         <v>10</v>
       </c>
       <c r="N24" s="6">
-        <f t="shared" ref="N24" si="41">MONTH(L24)</f>
+        <f t="shared" ref="N24" si="42">MONTH(L24)</f>
         <v>2</v>
       </c>
       <c r="O24" s="6">
-        <f t="shared" ref="O24" si="42">YEAR(L24)</f>
+        <f t="shared" ref="O24" si="43">YEAR(L24)</f>
         <v>2018</v>
       </c>
       <c r="P24" s="2" t="s">
         <v>16</v>
       </c>
       <c r="Q24" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="R24" s="2" t="s">
         <v>5</v>
       </c>
       <c r="S24" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="T24" s="7" t="str">
         <f>$T$9</f>
@@ -2981,60 +2981,60 @@
         <v>website</v>
       </c>
       <c r="X24" s="7" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>«SITE-HTTP»/games</v>
       </c>
     </row>
     <row r="25" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A25" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="M25" s="14"/>
       <c r="W25" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="X25" s="9" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>«SITE-HTTP»/robots</v>
       </c>
     </row>
     <row r="26" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A26" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D26" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E26" s="2" t="s">
         <v>98</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>99</v>
       </c>
       <c r="M26" s="14"/>
       <c r="W26" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="X26" s="9" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>«SITE-HTTP»/sitemap</v>
       </c>
     </row>
     <row r="27" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A27" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I27" s="19"/>
       <c r="J27" s="24" t="str">
@@ -3042,16 +3042,16 @@
         <v>2018-03-02</v>
       </c>
       <c r="K27" s="10" t="str">
-        <f t="shared" ref="K27" ca="1" si="43">IF(TODAY()-DATEVALUE(J27)&lt;15,"weekly",IF(TODAY()-DATEVALUE(J27)&lt;60,"monthly","yearly"))</f>
+        <f t="shared" ref="K27" ca="1" si="44">IF(TODAY()-DATEVALUE(J27)&lt;15,"weekly",IF(TODAY()-DATEVALUE(J27)&lt;60,"monthly","yearly"))</f>
         <v>yearly</v>
       </c>
       <c r="L27" s="21"/>
       <c r="M27" s="14"/>
       <c r="W27" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="X27" s="9" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>«SITE-HTTP»/rss</v>
       </c>
     </row>
@@ -3086,26 +3086,26 @@
       </c>
       <c r="I28" s="22"/>
       <c r="J28" s="22" t="str">
-        <f t="shared" ref="J28:J39" si="44">YEAR($J$10)&amp;TEXT("-"&amp;MONTH($J$10),"00")&amp;TEXT("-"&amp;DAY($J$10),"00")</f>
+        <f t="shared" ref="J28:J39" si="45">YEAR($J$10)&amp;TEXT("-"&amp;MONTH($J$10),"00")&amp;TEXT("-"&amp;DAY($J$10),"00")</f>
         <v>2018-03-02</v>
       </c>
       <c r="K28" s="22" t="str">
-        <f t="shared" ca="1" si="37"/>
+        <f t="shared" ca="1" si="38"/>
         <v>yearly</v>
       </c>
       <c r="L28" s="29">
         <v>41773</v>
       </c>
       <c r="M28" s="15">
-        <f t="shared" ref="M28:M38" si="45">DAY(L28)</f>
+        <f t="shared" ref="M28:M38" si="46">DAY(L28)</f>
         <v>14</v>
       </c>
       <c r="N28" s="30">
-        <f t="shared" ref="N28:N38" si="46">MONTH(L28)</f>
+        <f t="shared" ref="N28:N38" si="47">MONTH(L28)</f>
         <v>5</v>
       </c>
       <c r="O28" s="30">
-        <f t="shared" ref="O28:O38" si="47">YEAR(L28)</f>
+        <f t="shared" ref="O28:O38" si="48">YEAR(L28)</f>
         <v>2014</v>
       </c>
       <c r="P28" s="12" t="s">
@@ -3117,7 +3117,7 @@
       </c>
       <c r="R28" s="12"/>
       <c r="S28" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="T28" s="11" t="str">
         <f>$T$9</f>
@@ -3130,7 +3130,7 @@
       <c r="V28" s="12"/>
       <c r="W28" s="11"/>
       <c r="X28" s="11" t="str">
-        <f t="shared" ref="X28:X39" si="48">"«SITE-HTTP»/"&amp;A28</f>
+        <f t="shared" ref="X28:X39" si="49">"«SITE-HTTP»/"&amp;A28</f>
         <v>«SITE-HTTP»/tag-Platformer</v>
       </c>
       <c r="Y28" s="12"/>
@@ -3174,26 +3174,26 @@
       </c>
       <c r="I29" s="22"/>
       <c r="J29" s="22" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>2018-03-02</v>
       </c>
       <c r="K29" s="22" t="str">
-        <f t="shared" ca="1" si="37"/>
+        <f t="shared" ca="1" si="38"/>
         <v>yearly</v>
       </c>
       <c r="L29" s="29">
         <v>41773</v>
       </c>
       <c r="M29" s="15">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>14</v>
       </c>
       <c r="N29" s="30">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>5</v>
       </c>
       <c r="O29" s="30">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>2014</v>
       </c>
       <c r="P29" s="25" t="str">
@@ -3206,20 +3206,20 @@
       </c>
       <c r="R29" s="12"/>
       <c r="S29" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="T29" s="11" t="str">
-        <f t="shared" ref="T29:T39" si="49">$T$9</f>
+        <f t="shared" ref="T29:T39" si="50">$T$9</f>
         <v>Octaflower, the Creative Archive's logo. A geometric lotus flower composed of eight rows of eight petals in rainbow progression.</v>
       </c>
       <c r="U29" s="11" t="str">
-        <f t="shared" ref="U29:U38" si="50">"All content classified under "&amp;H29</f>
+        <f t="shared" ref="U29:U38" si="51">"All content classified under "&amp;H29</f>
         <v>All content classified under Puzzle</v>
       </c>
       <c r="V29" s="12"/>
       <c r="W29" s="11"/>
       <c r="X29" s="11" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>«SITE-HTTP»/tag-Puzzle</v>
       </c>
       <c r="Y29" s="12"/>
@@ -3245,10 +3245,10 @@
         <v>22</v>
       </c>
       <c r="E30" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F30" s="25" t="str">
-        <f t="shared" ref="F30:F39" si="51">F$28</f>
+        <f t="shared" ref="F30:F39" si="52">F$28</f>
         <v>archive</v>
       </c>
       <c r="G30" s="11" t="str">
@@ -3261,30 +3261,30 @@
       </c>
       <c r="I30" s="22"/>
       <c r="J30" s="22" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>2018-03-02</v>
       </c>
       <c r="K30" s="22" t="str">
-        <f t="shared" ca="1" si="37"/>
+        <f t="shared" ca="1" si="38"/>
         <v>yearly</v>
       </c>
       <c r="L30" s="29">
         <v>43070</v>
       </c>
       <c r="M30" s="15">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>1</v>
       </c>
       <c r="N30" s="30">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>12</v>
       </c>
       <c r="O30" s="30">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>2017</v>
       </c>
       <c r="P30" s="25" t="str">
-        <f t="shared" ref="P30:P39" si="52">$P$28</f>
+        <f t="shared" ref="P30:P39" si="53">$P$28</f>
         <v>Tag</v>
       </c>
       <c r="Q30" s="25" t="str">
@@ -3293,20 +3293,20 @@
       </c>
       <c r="R30" s="12"/>
       <c r="S30" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="T30" s="11" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>Octaflower, the Creative Archive's logo. A geometric lotus flower composed of eight rows of eight petals in rainbow progression.</v>
       </c>
       <c r="U30" s="11" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>All content classified under Post</v>
       </c>
       <c r="V30" s="12"/>
       <c r="W30" s="11"/>
       <c r="X30" s="11" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>«SITE-HTTP»/tag-Post</v>
       </c>
       <c r="Y30" s="12"/>
@@ -3337,7 +3337,7 @@
         <v>«TAGSELECT:Filter{"Tags"-&gt;_?(StringMatchQ[#,___~~"«POST:Load»"~~___]&amp;),"Type"-&gt;_,"Day"-&gt;_?NumberQ,"Month"-&gt;_?NumberQ,"Year"-&gt;_?NumberQ}»</v>
       </c>
       <c r="F31" s="25" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>archive</v>
       </c>
       <c r="G31" s="11" t="str">
@@ -3350,30 +3350,30 @@
       </c>
       <c r="I31" s="22"/>
       <c r="J31" s="22" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>2018-03-02</v>
       </c>
       <c r="K31" s="22" t="str">
-        <f t="shared" ca="1" si="37"/>
+        <f t="shared" ca="1" si="38"/>
         <v>yearly</v>
       </c>
       <c r="L31" s="29">
         <v>43139</v>
       </c>
       <c r="M31" s="15">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>8</v>
       </c>
       <c r="N31" s="30">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>2</v>
       </c>
       <c r="O31" s="30">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>2018</v>
       </c>
       <c r="P31" s="25" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>Tag</v>
       </c>
       <c r="Q31" s="25" t="str">
@@ -3382,20 +3382,20 @@
       </c>
       <c r="R31" s="12"/>
       <c r="S31" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="T31" s="11" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>Octaflower, the Creative Archive's logo. A geometric lotus flower composed of eight rows of eight petals in rainbow progression.</v>
       </c>
       <c r="U31" s="11" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>All content classified under Finance</v>
       </c>
       <c r="V31" s="12"/>
       <c r="W31" s="11"/>
       <c r="X31" s="11" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>«SITE-HTTP»/tag-Finance</v>
       </c>
       <c r="Y31" s="12"/>
@@ -3426,7 +3426,7 @@
         <v>«TAGSELECT:Filter{"Tags"-&gt;_?(StringMatchQ[#,___~~"«POST:Load»"~~___]&amp;),"Type"-&gt;_,"Day"-&gt;_?NumberQ,"Month"-&gt;_?NumberQ,"Year"-&gt;_?NumberQ}»</v>
       </c>
       <c r="F32" s="25" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>archive</v>
       </c>
       <c r="G32" s="11" t="str">
@@ -3439,30 +3439,30 @@
       </c>
       <c r="I32" s="22"/>
       <c r="J32" s="22" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>2018-03-02</v>
       </c>
       <c r="K32" s="22" t="str">
-        <f t="shared" ca="1" si="37"/>
+        <f t="shared" ca="1" si="38"/>
         <v>yearly</v>
       </c>
       <c r="L32" s="29">
         <v>43069</v>
       </c>
       <c r="M32" s="15">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>30</v>
       </c>
       <c r="N32" s="30">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>11</v>
       </c>
       <c r="O32" s="30">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>2017</v>
       </c>
       <c r="P32" s="25" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>Tag</v>
       </c>
       <c r="Q32" s="25" t="str">
@@ -3471,20 +3471,20 @@
       </c>
       <c r="R32" s="12"/>
       <c r="S32" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="T32" s="11" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>Octaflower, the Creative Archive's logo. A geometric lotus flower composed of eight rows of eight petals in rainbow progression.</v>
       </c>
       <c r="U32" s="11" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>All content classified under Creative-Archive</v>
       </c>
       <c r="V32" s="12"/>
       <c r="W32" s="11"/>
       <c r="X32" s="11" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>«SITE-HTTP»/tag-Creative-Archive</v>
       </c>
       <c r="Y32" s="12"/>
@@ -3509,13 +3509,13 @@
         <v>6</v>
       </c>
       <c r="D33" s="12" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E33" s="12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F33" s="25" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>archive</v>
       </c>
       <c r="G33" s="11" t="str">
@@ -3528,30 +3528,30 @@
       </c>
       <c r="I33" s="22"/>
       <c r="J33" s="22" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>2018-03-02</v>
       </c>
       <c r="K33" s="22" t="str">
-        <f t="shared" ca="1" si="37"/>
+        <f t="shared" ca="1" si="38"/>
         <v>yearly</v>
       </c>
       <c r="L33" s="29">
         <v>43018</v>
       </c>
       <c r="M33" s="15">
-        <f t="shared" si="45"/>
-        <v>10</v>
-      </c>
-      <c r="N33" s="30">
         <f t="shared" si="46"/>
         <v>10</v>
       </c>
+      <c r="N33" s="30">
+        <f t="shared" si="47"/>
+        <v>10</v>
+      </c>
       <c r="O33" s="30">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>2017</v>
       </c>
       <c r="P33" s="25" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>Tag</v>
       </c>
       <c r="Q33" s="25" t="str">
@@ -3560,20 +3560,20 @@
       </c>
       <c r="R33" s="12"/>
       <c r="S33" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="T33" s="11" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>Octaflower, the Creative Archive's logo. A geometric lotus flower composed of eight rows of eight petals in rainbow progression.</v>
       </c>
       <c r="U33" s="11" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>All content classified under Mosaic</v>
       </c>
       <c r="V33" s="12"/>
       <c r="W33" s="11"/>
       <c r="X33" s="11" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>«SITE-HTTP»/tag-Mosaic</v>
       </c>
       <c r="Y33" s="12"/>
@@ -3604,7 +3604,7 @@
         <v>«TAGSELECT:Filter{"Tags"-&gt;_?(StringMatchQ[#,___~~"«POST:Load»"~~___]&amp;),"Type"-&gt;_,"Day"-&gt;_?NumberQ,"Month"-&gt;_?NumberQ,"Year"-&gt;_?NumberQ}»</v>
       </c>
       <c r="F34" s="25" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>archive</v>
       </c>
       <c r="G34" s="11" t="str">
@@ -3617,30 +3617,30 @@
       </c>
       <c r="I34" s="22"/>
       <c r="J34" s="22" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>2018-03-02</v>
       </c>
       <c r="K34" s="22" t="str">
-        <f t="shared" ca="1" si="37"/>
+        <f t="shared" ca="1" si="38"/>
         <v>yearly</v>
       </c>
       <c r="L34" s="29">
         <v>43018</v>
       </c>
       <c r="M34" s="15">
-        <f t="shared" si="45"/>
-        <v>10</v>
-      </c>
-      <c r="N34" s="30">
         <f t="shared" si="46"/>
         <v>10</v>
       </c>
+      <c r="N34" s="30">
+        <f t="shared" si="47"/>
+        <v>10</v>
+      </c>
       <c r="O34" s="30">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>2017</v>
       </c>
       <c r="P34" s="25" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>Tag</v>
       </c>
       <c r="Q34" s="25" t="str">
@@ -3649,20 +3649,20 @@
       </c>
       <c r="R34" s="12"/>
       <c r="S34" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="T34" s="11" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>Octaflower, the Creative Archive's logo. A geometric lotus flower composed of eight rows of eight petals in rainbow progression.</v>
       </c>
       <c r="U34" s="11" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>All content classified under Travel</v>
       </c>
       <c r="V34" s="12"/>
       <c r="W34" s="11"/>
       <c r="X34" s="11" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>«SITE-HTTP»/tag-Travel</v>
       </c>
       <c r="Y34" s="12"/>
@@ -3693,7 +3693,7 @@
         <v>«FEATURED-ITEM:Filter{"Tags"-&gt;_?(StringMatchQ[#,___~~"«POST:Load»"~~___]&amp;),"Type"-&gt;_,"Day"-&gt;_?NumberQ,"Month"-&gt;_?NumberQ,"Year"-&gt;_?NumberQ}»</v>
       </c>
       <c r="F35" s="25" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>archive</v>
       </c>
       <c r="G35" s="11" t="str">
@@ -3706,30 +3706,30 @@
       </c>
       <c r="I35" s="22"/>
       <c r="J35" s="22" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>2018-03-02</v>
       </c>
       <c r="K35" s="22" t="str">
-        <f t="shared" ca="1" si="37"/>
+        <f t="shared" ca="1" si="38"/>
         <v>yearly</v>
       </c>
       <c r="L35" s="29">
         <v>43018</v>
       </c>
       <c r="M35" s="15">
-        <f t="shared" si="45"/>
-        <v>10</v>
-      </c>
-      <c r="N35" s="30">
         <f t="shared" si="46"/>
         <v>10</v>
       </c>
+      <c r="N35" s="30">
+        <f t="shared" si="47"/>
+        <v>10</v>
+      </c>
       <c r="O35" s="30">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>2017</v>
       </c>
       <c r="P35" s="25" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>Tag</v>
       </c>
       <c r="Q35" s="25" t="str">
@@ -3738,20 +3738,20 @@
       </c>
       <c r="R35" s="12"/>
       <c r="S35" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="T35" s="11" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>Octaflower, the Creative Archive's logo. A geometric lotus flower composed of eight rows of eight petals in rainbow progression.</v>
       </c>
       <c r="U35" s="11" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>All content classified under Wallpaper</v>
       </c>
       <c r="V35" s="12"/>
       <c r="W35" s="11"/>
       <c r="X35" s="11" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>«SITE-HTTP»/tag-Wallpaper</v>
       </c>
       <c r="Y35" s="12"/>
@@ -3782,7 +3782,7 @@
         <v>«FEATURED-ITEM:Filter{"Tags"-&gt;_?(StringMatchQ[#,___~~"«POST:Load»"~~___]&amp;),"Type"-&gt;_,"Day"-&gt;_?NumberQ,"Month"-&gt;_?NumberQ,"Year"-&gt;_?NumberQ}»</v>
       </c>
       <c r="F36" s="25" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>archive</v>
       </c>
       <c r="G36" s="11" t="str">
@@ -3795,30 +3795,30 @@
       </c>
       <c r="I36" s="22"/>
       <c r="J36" s="22" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>2018-03-02</v>
       </c>
       <c r="K36" s="22" t="str">
-        <f t="shared" ref="K36" ca="1" si="53">IF(TODAY()-DATEVALUE(J36)&lt;15,"weekly",IF(TODAY()-DATEVALUE(J36)&lt;60,"monthly","yearly"))</f>
+        <f t="shared" ref="K36" ca="1" si="54">IF(TODAY()-DATEVALUE(J36)&lt;15,"weekly",IF(TODAY()-DATEVALUE(J36)&lt;60,"monthly","yearly"))</f>
         <v>yearly</v>
       </c>
       <c r="L36" s="29">
         <v>41773</v>
       </c>
       <c r="M36" s="15">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>14</v>
       </c>
       <c r="N36" s="30">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>5</v>
       </c>
       <c r="O36" s="30">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>2014</v>
       </c>
       <c r="P36" s="25" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>Tag</v>
       </c>
       <c r="Q36" s="25" t="str">
@@ -3827,20 +3827,20 @@
       </c>
       <c r="R36" s="12"/>
       <c r="S36" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="T36" s="11" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>Octaflower, the Creative Archive's logo. A geometric lotus flower composed of eight rows of eight petals in rainbow progression.</v>
       </c>
       <c r="U36" s="11" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>All content classified under Game</v>
       </c>
       <c r="V36" s="12"/>
       <c r="W36" s="11"/>
       <c r="X36" s="11" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>«SITE-HTTP»/tag-Game</v>
       </c>
       <c r="Y36" s="12"/>
@@ -3871,7 +3871,7 @@
         <v>«TAGSELECT:Filter{"Tags"-&gt;_?(StringMatchQ[#,___~~"«POST:Load»"~~___]&amp;),"Type"-&gt;_,"Day"-&gt;_?NumberQ,"Month"-&gt;_?NumberQ,"Year"-&gt;_?NumberQ}»</v>
       </c>
       <c r="F37" s="25" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>archive</v>
       </c>
       <c r="G37" s="11" t="str">
@@ -3884,30 +3884,30 @@
       </c>
       <c r="I37" s="22"/>
       <c r="J37" s="22" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>2018-03-02</v>
       </c>
       <c r="K37" s="22" t="str">
-        <f t="shared" ref="K37" ca="1" si="54">IF(TODAY()-DATEVALUE(J37)&lt;15,"weekly",IF(TODAY()-DATEVALUE(J37)&lt;60,"monthly","yearly"))</f>
+        <f t="shared" ref="K37" ca="1" si="55">IF(TODAY()-DATEVALUE(J37)&lt;15,"weekly",IF(TODAY()-DATEVALUE(J37)&lt;60,"monthly","yearly"))</f>
         <v>yearly</v>
       </c>
       <c r="L37" s="29">
         <v>43070</v>
       </c>
       <c r="M37" s="15">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>1</v>
       </c>
       <c r="N37" s="30">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>12</v>
       </c>
       <c r="O37" s="30">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>2017</v>
       </c>
       <c r="P37" s="25" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>Tag</v>
       </c>
       <c r="Q37" s="25" t="str">
@@ -3916,20 +3916,20 @@
       </c>
       <c r="R37" s="12"/>
       <c r="S37" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="T37" s="11" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>Octaflower, the Creative Archive's logo. A geometric lotus flower composed of eight rows of eight petals in rainbow progression.</v>
       </c>
       <c r="U37" s="11" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>All content classified under Sitemap</v>
       </c>
       <c r="V37" s="12"/>
       <c r="W37" s="11"/>
       <c r="X37" s="11" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>«SITE-HTTP»/tag-Sitemap</v>
       </c>
       <c r="Y37" s="12"/>
@@ -3960,7 +3960,7 @@
         <v>«TAGSELECT:Filter{"Tags"-&gt;_?(StringMatchQ[#,___~~"«POST:Load»"~~___]&amp;),"Type"-&gt;_,"Day"-&gt;_?NumberQ,"Month"-&gt;_?NumberQ,"Year"-&gt;_?NumberQ}»</v>
       </c>
       <c r="F38" s="25" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>archive</v>
       </c>
       <c r="G38" s="11" t="str">
@@ -3973,30 +3973,30 @@
       </c>
       <c r="I38" s="22"/>
       <c r="J38" s="22" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>2018-03-02</v>
       </c>
       <c r="K38" s="22" t="str">
-        <f t="shared" ref="K38" ca="1" si="55">IF(TODAY()-DATEVALUE(J38)&lt;15,"weekly",IF(TODAY()-DATEVALUE(J38)&lt;60,"monthly","yearly"))</f>
+        <f t="shared" ref="K38" ca="1" si="56">IF(TODAY()-DATEVALUE(J38)&lt;15,"weekly",IF(TODAY()-DATEVALUE(J38)&lt;60,"monthly","yearly"))</f>
         <v>yearly</v>
       </c>
       <c r="L38" s="29">
         <v>41773</v>
       </c>
       <c r="M38" s="15">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>14</v>
       </c>
       <c r="N38" s="30">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>5</v>
       </c>
       <c r="O38" s="30">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>2014</v>
       </c>
       <c r="P38" s="25" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>Tag</v>
       </c>
       <c r="Q38" s="25" t="str">
@@ -4005,20 +4005,20 @@
       </c>
       <c r="R38" s="12"/>
       <c r="S38" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="T38" s="11" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>Octaflower, the Creative Archive's logo. A geometric lotus flower composed of eight rows of eight petals in rainbow progression.</v>
       </c>
       <c r="U38" s="11" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>All content classified under Class</v>
       </c>
       <c r="V38" s="12"/>
       <c r="W38" s="11"/>
       <c r="X38" s="11" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>«SITE-HTTP»/tag-Class</v>
       </c>
       <c r="Y38" s="12"/>
@@ -4049,7 +4049,7 @@
         <v>«TAGSELECT:Filter{"Tags"-&gt;_?(StringMatchQ[#,___~~"«POST:Load»"~~___]&amp;),"Type"-&gt;_,"Day"-&gt;_?NumberQ,"Month"-&gt;_?NumberQ,"Year"-&gt;_?NumberQ}»</v>
       </c>
       <c r="F39" s="25" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>archive</v>
       </c>
       <c r="G39" s="11" t="str">
@@ -4062,30 +4062,30 @@
       </c>
       <c r="I39" s="22"/>
       <c r="J39" s="22" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>2018-03-02</v>
       </c>
       <c r="K39" s="22" t="str">
-        <f t="shared" ref="K39" ca="1" si="56">IF(TODAY()-DATEVALUE(J39)&lt;15,"weekly",IF(TODAY()-DATEVALUE(J39)&lt;60,"monthly","yearly"))</f>
+        <f t="shared" ref="K39" ca="1" si="57">IF(TODAY()-DATEVALUE(J39)&lt;15,"weekly",IF(TODAY()-DATEVALUE(J39)&lt;60,"monthly","yearly"))</f>
         <v>yearly</v>
       </c>
       <c r="L39" s="29">
         <v>43225</v>
       </c>
       <c r="M39" s="15">
-        <f t="shared" ref="M39" si="57">DAY(L39)</f>
+        <f t="shared" ref="M39" si="58">DAY(L39)</f>
         <v>5</v>
       </c>
       <c r="N39" s="30">
-        <f t="shared" ref="N39" si="58">MONTH(L39)</f>
+        <f t="shared" ref="N39" si="59">MONTH(L39)</f>
         <v>5</v>
       </c>
       <c r="O39" s="30">
-        <f t="shared" ref="O39" si="59">YEAR(L39)</f>
+        <f t="shared" ref="O39" si="60">YEAR(L39)</f>
         <v>2018</v>
       </c>
       <c r="P39" s="25" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>Tag</v>
       </c>
       <c r="Q39" s="25" t="str">
@@ -4094,20 +4094,20 @@
       </c>
       <c r="R39" s="12"/>
       <c r="S39" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="T39" s="11" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>Octaflower, the Creative Archive's logo. A geometric lotus flower composed of eight rows of eight petals in rainbow progression.</v>
       </c>
       <c r="U39" s="11" t="str">
-        <f t="shared" ref="U39" si="60">"All content classified under "&amp;H39</f>
+        <f t="shared" ref="U39" si="61">"All content classified under "&amp;H39</f>
         <v>All content classified under Nature</v>
       </c>
       <c r="V39" s="12"/>
       <c r="W39" s="11"/>
       <c r="X39" s="11" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>«SITE-HTTP»/tag-Nature</v>
       </c>
       <c r="Y39" s="12"/>
@@ -4143,12 +4143,12 @@
         <v>2</v>
       </c>
       <c r="B1" s="27" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B2" s="26" t="str">
         <f>IF(COUNTIFS(EN!$Q$1:$Q$21,"*"&amp;Tags!$A2&amp;"*",EN!$B$1:$B$21,"Yes")&gt;0,"Yes","No")</f>
@@ -4157,7 +4157,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B3" s="26" t="str">
         <f>IF(COUNTIFS(EN!$Q$1:$Q$21,"*"&amp;Tags!$A3&amp;"*",EN!$B$1:$B$21,"Yes")&gt;0,"Yes","No")</f>
@@ -4175,7 +4175,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B5" s="26" t="str">
         <f>IF(COUNTIFS(EN!$Q$1:$Q$21,"*"&amp;Tags!$A5&amp;"*",EN!$B$1:$B$21,"Yes")&gt;0,"Yes","No")</f>
@@ -4184,7 +4184,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B6" s="26" t="str">
         <f>IF(COUNTIFS(EN!$Q$1:$Q$21,"*"&amp;Tags!$A6&amp;"*",EN!$B$1:$B$21,"Yes")&gt;0,"Yes","No")</f>
@@ -4193,7 +4193,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B7" s="26" t="str">
         <f>IF(COUNTIFS(EN!$Q$1:$Q$21,"*"&amp;Tags!$A7&amp;"*",EN!$B$1:$B$21,"Yes")&gt;0,"Yes","No")</f>
@@ -4202,7 +4202,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B8" s="26" t="str">
         <f>IF(COUNTIFS(EN!$Q$1:$Q$21,"*"&amp;Tags!$A8&amp;"*",EN!$B$1:$B$21,"Yes")&gt;0,"Yes","No")</f>
@@ -4211,7 +4211,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B9" s="26" t="str">
         <f>IF(COUNTIFS(EN!$Q$1:$Q$21,"*"&amp;Tags!$A9&amp;"*",EN!$B$1:$B$21,"Yes")&gt;0,"Yes","No")</f>
@@ -4229,7 +4229,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B11" s="26" t="str">
         <f>IF(COUNTIFS(EN!$Q$1:$Q$21,"*"&amp;Tags!$A11&amp;"*",EN!$B$1:$B$21,"Yes")&gt;0,"Yes","No")</f>
@@ -4238,7 +4238,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B12" s="26" t="str">
         <f>IF(COUNTIFS(EN!$Q$1:$Q$21,"*"&amp;Tags!$A12&amp;"*",EN!$B$1:$B$21,"Yes")&gt;0,"Yes","No")</f>
@@ -4247,7 +4247,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B13" s="26" t="str">
         <f>IF(COUNTIFS(EN!$Q$1:$Q$21,"*"&amp;Tags!$A13&amp;"*",EN!$B$1:$B$21,"Yes")&gt;0,"Yes","No")</f>
@@ -4377,7 +4377,7 @@
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.35">
       <c r="P2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.35">

--- a/cms/CMS.xlsx
+++ b/cms/CMS.xlsx
@@ -965,10 +965,10 @@
   <dimension ref="A1:AF39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Q5" sqref="Q5"/>
+      <selection pane="bottomRight" activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4130,7 +4130,7 @@
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/cms/CMS.xlsx
+++ b/cms/CMS.xlsx
@@ -174,9 +174,6 @@
     <t>Posts by tag</t>
   </si>
   <si>
-    <t>The purpose of this site</t>
-  </si>
-  <si>
     <t>«PAGE-GAME-FULLSCREEN»</t>
   </si>
   <si>
@@ -496,6 +493,9 @@
   </si>
   <si>
     <t>«ARCHIVE-OF-CLASS»</t>
+  </si>
+  <si>
+    <t>The purpose of the «SITE-NAME»</t>
   </si>
 </sst>
 </file>
@@ -965,10 +965,10 @@
   <dimension ref="A1:AF39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H3" sqref="H3"/>
+      <selection pane="bottomRight" activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1028,13 +1028,13 @@
         <v>3</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L1" s="5" t="s">
         <v>1</v>
@@ -1061,43 +1061,43 @@
         <v>7</v>
       </c>
       <c r="T1" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="U1" s="5" t="s">
         <v>11</v>
       </c>
       <c r="V1" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="W1" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="X1" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="Y1" s="5" t="s">
         <v>42</v>
       </c>
       <c r="Z1" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AA1" s="5" t="s">
         <v>29</v>
       </c>
       <c r="AB1" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AC1" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AD1" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="AE1" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="AE1" s="5" t="s">
+      <c r="AF1" s="5" t="s">
         <v>140</v>
-      </c>
-      <c r="AF1" s="5" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.35">
@@ -1114,7 +1114,7 @@
         <v>37</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>52</v>
+        <v>159</v>
       </c>
       <c r="H2" s="7" t="str">
         <f>"«"&amp;A2&amp;"»"</f>
@@ -1181,7 +1181,7 @@
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A3" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>5</v>
@@ -1194,7 +1194,7 @@
         <v>37</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H3" s="7" t="str">
         <f>"«"&amp;A3&amp;"»"</f>
@@ -1341,7 +1341,7 @@
     </row>
     <row r="5" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A5" s="16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>5</v>
@@ -1355,13 +1355,13 @@
         <v>«fleur-de-lis»</v>
       </c>
       <c r="F5" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H5" s="9" t="s">
         <v>71</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="H5" s="9" t="s">
-        <v>72</v>
       </c>
       <c r="I5" s="16">
         <v>43145</v>
@@ -1390,7 +1390,7 @@
         <v>2018</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="Q5" s="2" t="str">
         <f>Tags!$A$7&amp;", "&amp;Tags!$A$8&amp;", "&amp;Tags!$A$9</f>
@@ -1404,14 +1404,14 @@
         <v>mosaic/fleur-de-lis.png</v>
       </c>
       <c r="T5" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="U5" s="7" t="str">
         <f t="shared" si="1"/>
         <v>«fleur-de-lis:MarkShort»</v>
       </c>
       <c r="V5" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="W5" s="16"/>
       <c r="X5" s="16" t="str">
@@ -1424,7 +1424,7 @@
     </row>
     <row r="6" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A6" s="16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>5</v>
@@ -1438,10 +1438,10 @@
         <v>«scales»</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H6" s="7" t="str">
         <f>$H$5</f>
@@ -1489,14 +1489,14 @@
         <v>mosaic/scales.png</v>
       </c>
       <c r="T6" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="U6" s="7" t="str">
         <f t="shared" si="1"/>
         <v>«scales:MarkShort»</v>
       </c>
       <c r="V6" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="W6" s="16"/>
       <c r="X6" s="16" t="str">
@@ -1507,7 +1507,7 @@
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A7" s="16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>5</v>
@@ -1521,10 +1521,10 @@
         <v>«veronese»</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H7" s="7" t="str">
         <f>$H$5</f>
@@ -1557,7 +1557,7 @@
         <v>2018</v>
       </c>
       <c r="P7" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="Q7" s="2" t="str">
         <f>Tags!$A$7&amp;", "&amp;Tags!$A$8&amp;", "&amp;Tags!$A$9</f>
@@ -1571,14 +1571,14 @@
         <v>mosaic/veronese.png</v>
       </c>
       <c r="T7" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="U7" s="7" t="str">
         <f t="shared" si="1"/>
         <v>«veronese:MarkShort»</v>
       </c>
       <c r="V7" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="W7" s="16"/>
       <c r="X7" s="16" t="str">
@@ -1591,7 +1591,7 @@
     </row>
     <row r="8" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A8" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>5</v>
@@ -1605,10 +1605,10 @@
         <v>«viking-carpet»</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H8" s="7" t="str">
         <f>$H$5</f>
@@ -1641,7 +1641,7 @@
         <v>2017</v>
       </c>
       <c r="P8" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="Q8" s="2" t="str">
         <f>Tags!$A$7&amp;", "&amp;Tags!$A$8&amp;", "&amp;Tags!$A$9</f>
@@ -1655,14 +1655,14 @@
         <v>mosaic/viking-carpet.png</v>
       </c>
       <c r="T8" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="U8" s="7" t="str">
         <f t="shared" si="1"/>
         <v>«viking-carpet:MarkShort»</v>
       </c>
       <c r="V8" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="W8" s="16"/>
       <c r="X8" s="16" t="str">
@@ -1694,7 +1694,7 @@
         <v>37</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H9" s="7" t="str">
         <f>"«"&amp;A9&amp;"»"</f>
@@ -1738,17 +1738,17 @@
         <v>5</v>
       </c>
       <c r="S9" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="T9" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="U9" s="7" t="str">
         <f t="shared" si="1"/>
         <v>«about:MarkShort»</v>
       </c>
       <c r="V9" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="X9" s="7" t="str">
         <f t="shared" si="2"/>
@@ -1763,17 +1763,17 @@
         <v>6</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I10" s="16"/>
       <c r="J10" s="23" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K10" s="10" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -1870,7 +1870,7 @@
         <v>Octaflower, the Creative Archive's logo. A geometric lotus flower composed of eight rows of eight petals in rainbow progression.</v>
       </c>
       <c r="U11" s="9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="V11" s="7" t="str">
         <f>IF(P11="Post","article","website")</f>
@@ -1893,13 +1893,13 @@
         <v>32</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>37</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H12" s="7" t="str">
         <f t="shared" ref="H12:H17" si="8">"«"&amp;A12&amp;"»"</f>
@@ -1932,7 +1932,7 @@
         <v>2018</v>
       </c>
       <c r="P12" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="Q12" s="2" t="str">
         <f>Tags!$A$6</f>
@@ -1946,7 +1946,7 @@
         <v>Octaflower, the Creative Archive's logo. A geometric lotus flower composed of eight rows of eight petals in rainbow progression.</v>
       </c>
       <c r="U12" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="V12" s="7" t="str">
         <f>IF(P12="Post","article","website")</f>
@@ -1966,7 +1966,7 @@
         <v>6</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>41</v>
@@ -2041,16 +2041,16 @@
         <v>27</v>
       </c>
       <c r="AC13" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AD13" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="AE13" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="AF13" s="4" t="s">
         <v>148</v>
-      </c>
-      <c r="AE13" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="AF13" s="4" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="14" spans="1:32" x14ac:dyDescent="0.35">
@@ -2139,19 +2139,19 @@
         <v>47</v>
       </c>
       <c r="Z14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AC14" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AD14" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="AE14" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="AE14" s="2" t="s">
-        <v>143</v>
-      </c>
       <c r="AF14" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="15" spans="1:32" x14ac:dyDescent="0.35">
@@ -2167,14 +2167,14 @@
         <v>«PAGE-GAME-FULLSCREEN»</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F15" s="28" t="str">
         <f t="shared" ref="F15:F19" si="20">$F$13</f>
         <v>prose</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H15" s="7" t="str">
         <f t="shared" si="8"/>
@@ -2238,19 +2238,19 @@
       </c>
       <c r="Z15" s="18"/>
       <c r="AB15" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AC15" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AD15" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="AE15" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="AE15" s="2" t="s">
-        <v>145</v>
-      </c>
       <c r="AF15" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="16" spans="1:32" x14ac:dyDescent="0.35">
@@ -2342,24 +2342,24 @@
         <v>30</v>
       </c>
       <c r="AB16" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AC16" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AD16" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="AE16" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="AF16" s="4" t="s">
         <v>151</v>
-      </c>
-      <c r="AE16" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="AF16" s="4" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="17" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A17" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>6</v>
@@ -2369,14 +2369,14 @@
         <v>«PAGE-GAME-FULLSCREEN»</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F17" s="28" t="str">
         <f t="shared" si="20"/>
         <v>prose</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H17" s="7" t="str">
         <f t="shared" si="8"/>
@@ -2439,33 +2439,33 @@
         <v>«SITE-HTTP»/pmgrp</v>
       </c>
       <c r="AC17" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AD17" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="AE17" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="AF17" s="4" t="s">
         <v>154</v>
-      </c>
-      <c r="AE17" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="AF17" s="4" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="18" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A18" s="31" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>5</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F18" s="28" t="s">
         <v>37</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H18" s="9" t="str">
         <f>"«combinatura»"</f>
@@ -2517,20 +2517,20 @@
         <v>The combinatura game logo.</v>
       </c>
       <c r="U18" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="V18" s="7" t="str">
         <f t="shared" si="15"/>
         <v>game</v>
       </c>
       <c r="X18" s="31" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="Y18" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AC18" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="19" spans="1:32" x14ac:dyDescent="0.35">
@@ -2546,14 +2546,14 @@
         <v>«PAGE-GAME-FULLSCREEN»</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F19" s="28" t="str">
         <f t="shared" si="20"/>
         <v>prose</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H19" s="7" t="str">
         <f>"«"&amp;A19&amp;"»"</f>
@@ -2617,16 +2617,16 @@
         <v>«SITE-HTTP»/hastefulll</v>
       </c>
       <c r="AC19" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AD19" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AE19" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AF19" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="20" spans="1:32" x14ac:dyDescent="0.35">
@@ -2724,7 +2724,7 @@
         <v>37</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H21" s="7" t="str">
         <f>"«"&amp;A21&amp;"»"</f>
@@ -2863,7 +2863,7 @@
         <v>22</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>38</v>
@@ -2912,7 +2912,7 @@
     </row>
     <row r="24" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A24" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>5</v>
@@ -2921,10 +2921,10 @@
         <v>5</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>38</v>
@@ -2960,7 +2960,7 @@
         <v>16</v>
       </c>
       <c r="Q24" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="R24" s="2" t="s">
         <v>5</v>
@@ -2987,17 +2987,17 @@
     </row>
     <row r="25" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A25" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="M25" s="14"/>
       <c r="W25" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="X25" s="9" t="str">
         <f t="shared" si="37"/>
@@ -3006,20 +3006,20 @@
     </row>
     <row r="26" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A26" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D26" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E26" s="2" t="s">
         <v>97</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>98</v>
       </c>
       <c r="M26" s="14"/>
       <c r="W26" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="X26" s="9" t="str">
         <f t="shared" si="37"/>
@@ -3028,13 +3028,13 @@
     </row>
     <row r="27" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A27" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I27" s="19"/>
       <c r="J27" s="24" t="str">
@@ -3048,7 +3048,7 @@
       <c r="L27" s="21"/>
       <c r="M27" s="14"/>
       <c r="W27" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="X27" s="9" t="str">
         <f t="shared" si="37"/>
@@ -3245,7 +3245,7 @@
         <v>22</v>
       </c>
       <c r="E30" s="12" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F30" s="25" t="str">
         <f t="shared" ref="F30:F39" si="52">F$28</f>
@@ -3509,10 +3509,10 @@
         <v>6</v>
       </c>
       <c r="D33" s="12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E33" s="12" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F33" s="25" t="str">
         <f t="shared" si="52"/>
@@ -4143,12 +4143,12 @@
         <v>2</v>
       </c>
       <c r="B1" s="27" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B2" s="26" t="str">
         <f>IF(COUNTIFS(EN!$Q$1:$Q$21,"*"&amp;Tags!$A2&amp;"*",EN!$B$1:$B$21,"Yes")&gt;0,"Yes","No")</f>
@@ -4175,7 +4175,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B5" s="26" t="str">
         <f>IF(COUNTIFS(EN!$Q$1:$Q$21,"*"&amp;Tags!$A5&amp;"*",EN!$B$1:$B$21,"Yes")&gt;0,"Yes","No")</f>
@@ -4184,7 +4184,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B6" s="26" t="str">
         <f>IF(COUNTIFS(EN!$Q$1:$Q$21,"*"&amp;Tags!$A6&amp;"*",EN!$B$1:$B$21,"Yes")&gt;0,"Yes","No")</f>
@@ -4193,7 +4193,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B7" s="26" t="str">
         <f>IF(COUNTIFS(EN!$Q$1:$Q$21,"*"&amp;Tags!$A7&amp;"*",EN!$B$1:$B$21,"Yes")&gt;0,"Yes","No")</f>
@@ -4202,7 +4202,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B8" s="26" t="str">
         <f>IF(COUNTIFS(EN!$Q$1:$Q$21,"*"&amp;Tags!$A8&amp;"*",EN!$B$1:$B$21,"Yes")&gt;0,"Yes","No")</f>
@@ -4211,7 +4211,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B9" s="26" t="str">
         <f>IF(COUNTIFS(EN!$Q$1:$Q$21,"*"&amp;Tags!$A9&amp;"*",EN!$B$1:$B$21,"Yes")&gt;0,"Yes","No")</f>
@@ -4229,7 +4229,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B11" s="26" t="str">
         <f>IF(COUNTIFS(EN!$Q$1:$Q$21,"*"&amp;Tags!$A11&amp;"*",EN!$B$1:$B$21,"Yes")&gt;0,"Yes","No")</f>
@@ -4238,7 +4238,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B12" s="26" t="str">
         <f>IF(COUNTIFS(EN!$Q$1:$Q$21,"*"&amp;Tags!$A12&amp;"*",EN!$B$1:$B$21,"Yes")&gt;0,"Yes","No")</f>
@@ -4247,7 +4247,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B13" s="26" t="str">
         <f>IF(COUNTIFS(EN!$Q$1:$Q$21,"*"&amp;Tags!$A13&amp;"*",EN!$B$1:$B$21,"Yes")&gt;0,"Yes","No")</f>
@@ -4377,7 +4377,7 @@
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.35">
       <c r="P2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.35">

--- a/cms/CMS.xlsx
+++ b/cms/CMS.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="163">
   <si>
     <t>Title</t>
   </si>
@@ -496,6 +496,15 @@
   </si>
   <si>
     <t>The purpose of the «SITE-NAME»</t>
+  </si>
+  <si>
+    <t>Guestbook</t>
+  </si>
+  <si>
+    <t>The Guestbook of the «SITE-NAME»</t>
+  </si>
+  <si>
+    <t>«GUESTBOOK-AREA»</t>
   </si>
 </sst>
 </file>
@@ -962,13 +971,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AF39"/>
+  <dimension ref="A1:AF40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M2" sqref="M2"/>
+      <selection pane="bottomRight" activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1129,7 +1138,7 @@
         <v>2017-12-01</v>
       </c>
       <c r="K2" s="10" t="str">
-        <f t="shared" ref="K2:K11" ca="1" si="0">IF(TODAY()-DATEVALUE(J2)&lt;15,"weekly",IF(TODAY()-DATEVALUE(J2)&lt;60,"monthly","yearly"))</f>
+        <f t="shared" ref="K2:K12" ca="1" si="0">IF(TODAY()-DATEVALUE(J2)&lt;15,"weekly",IF(TODAY()-DATEVALUE(J2)&lt;60,"monthly","yearly"))</f>
         <v>yearly</v>
       </c>
       <c r="L2" s="10">
@@ -1175,7 +1184,7 @@
       </c>
       <c r="W2" s="9"/>
       <c r="X2" s="9" t="str">
-        <f t="shared" ref="X2:X17" si="2">"«SITE-HTTP»/"&amp;A2</f>
+        <f t="shared" ref="X2:X18" si="2">"«SITE-HTTP»/"&amp;A2</f>
         <v>«SITE-HTTP»/2017-12-01-first-post</v>
       </c>
     </row>
@@ -1825,43 +1834,66 @@
     <row r="11" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A11" s="7" t="str">
         <f>SUBSTITUTE(LOWER(G11)," ","-")</f>
-        <v>contact</v>
+        <v>guestbook</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C11" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>32</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="F11" s="4"/>
+        <v>162</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>37</v>
+      </c>
       <c r="G11" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H11" s="8"/>
-      <c r="I11" s="16"/>
-      <c r="J11" s="24" t="str">
-        <f>YEAR($J$10)&amp;TEXT("-"&amp;MONTH($J$10),"00")&amp;TEXT("-"&amp;DAY($J$10),"00")</f>
-        <v>2018-03-02</v>
+        <v>160</v>
+      </c>
+      <c r="H11" s="7" t="str">
+        <f t="shared" ref="H11:H18" si="8">"«"&amp;A11&amp;"»"</f>
+        <v>«guestbook»</v>
+      </c>
+      <c r="I11" s="3">
+        <v>43303</v>
+      </c>
+      <c r="J11" s="10" t="str">
+        <f t="shared" ref="J11" si="9">YEAR(I11)&amp;TEXT("-"&amp;MONTH(I11),"00")&amp;TEXT("-"&amp;DAY(I11),"00")</f>
+        <v>2018-07-22</v>
       </c>
       <c r="K11" s="10" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>yearly</v>
-      </c>
-      <c r="L11" s="20"/>
-      <c r="M11" s="13"/>
+        <v>weekly</v>
+      </c>
+      <c r="L11" s="3">
+        <v>43303</v>
+      </c>
+      <c r="M11" s="13">
+        <f t="shared" ref="M11" si="10">DAY(L11)</f>
+        <v>22</v>
+      </c>
+      <c r="N11" s="6">
+        <f t="shared" ref="N11" si="11">MONTH(L11)</f>
+        <v>7</v>
+      </c>
+      <c r="O11" s="6">
+        <f t="shared" ref="O11" si="12">YEAR(L11)</f>
+        <v>2018</v>
+      </c>
       <c r="P11" s="2" t="s">
-        <v>13</v>
+        <v>160</v>
       </c>
       <c r="Q11" s="2" t="str">
         <f>Tags!$A$6</f>
         <v>Creative-Archive</v>
       </c>
+      <c r="R11" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="S11" s="7" t="s">
         <v>44</v>
       </c>
@@ -1870,69 +1902,52 @@
         <v>Octaflower, the Creative Archive's logo. A geometric lotus flower composed of eight rows of eight petals in rainbow progression.</v>
       </c>
       <c r="U11" s="9" t="s">
-        <v>127</v>
+        <v>161</v>
       </c>
       <c r="V11" s="7" t="str">
         <f>IF(P11="Post","article","website")</f>
         <v>website</v>
       </c>
       <c r="X11" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v>«SITE-HTTP»/contact</v>
+        <f t="shared" ref="X11" si="13">"«SITE-HTTP»/"&amp;A11</f>
+        <v>«SITE-HTTP»/guestbook</v>
       </c>
     </row>
     <row r="12" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A12" s="7" t="str">
         <f>SUBSTITUTE(LOWER(G12)," ","-")</f>
-        <v>hall-of-fame</v>
+        <v>contact</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="C12" s="2">
+        <v>2</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>32</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>37</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="F12" s="4"/>
       <c r="G12" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="H12" s="7" t="str">
-        <f t="shared" ref="H12:H17" si="8">"«"&amp;A12&amp;"»"</f>
-        <v>«hall-of-fame»</v>
-      </c>
-      <c r="I12" s="3">
-        <v>43265</v>
-      </c>
-      <c r="J12" s="10" t="str">
-        <f t="shared" ref="J12:J21" si="9">YEAR(I12)&amp;TEXT("-"&amp;MONTH(I12),"00")&amp;TEXT("-"&amp;DAY(I12),"00")</f>
-        <v>2018-06-14</v>
+        <v>13</v>
+      </c>
+      <c r="H12" s="8"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="24" t="str">
+        <f>YEAR($J$10)&amp;TEXT("-"&amp;MONTH($J$10),"00")&amp;TEXT("-"&amp;DAY($J$10),"00")</f>
+        <v>2018-03-02</v>
       </c>
       <c r="K12" s="10" t="str">
-        <f t="shared" ref="K12" ca="1" si="10">IF(TODAY()-DATEVALUE(J12)&lt;15,"weekly",IF(TODAY()-DATEVALUE(J12)&lt;60,"monthly","yearly"))</f>
-        <v>monthly</v>
-      </c>
-      <c r="L12" s="3">
-        <v>43185</v>
-      </c>
-      <c r="M12" s="13">
-        <f>DAY(L12)</f>
-        <v>26</v>
-      </c>
-      <c r="N12" s="6">
-        <f>MONTH(L12)</f>
-        <v>3</v>
-      </c>
-      <c r="O12" s="6">
-        <f t="shared" ref="O12" si="11">YEAR(L12)</f>
-        <v>2018</v>
-      </c>
+        <f t="shared" ca="1" si="0"/>
+        <v>yearly</v>
+      </c>
+      <c r="L12" s="20"/>
+      <c r="M12" s="13"/>
       <c r="P12" s="2" t="s">
-        <v>111</v>
+        <v>13</v>
       </c>
       <c r="Q12" s="2" t="str">
         <f>Tags!$A$6</f>
@@ -1946,7 +1961,7 @@
         <v>Octaflower, the Creative Archive's logo. A geometric lotus flower composed of eight rows of eight petals in rainbow progression.</v>
       </c>
       <c r="U12" s="9" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="V12" s="7" t="str">
         <f>IF(P12="Post","article","website")</f>
@@ -1954,156 +1969,137 @@
       </c>
       <c r="X12" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>«SITE-HTTP»/hall-of-fame</v>
+        <v>«SITE-HTTP»/contact</v>
       </c>
     </row>
     <row r="13" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A13" s="7" t="str">
-        <f t="shared" ref="A13:A16" si="12">SUBSTITUTE(LOWER(G13)," ","-")</f>
-        <v>tetrastrophe</v>
+        <f>SUBSTITUTE(LOWER(G13)," ","-")</f>
+        <v>hall-of-fame</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F13" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="F13" s="4" t="s">
         <v>37</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>26</v>
+        <v>111</v>
       </c>
       <c r="H13" s="7" t="str">
         <f t="shared" si="8"/>
-        <v>«tetrastrophe»</v>
+        <v>«hall-of-fame»</v>
       </c>
       <c r="I13" s="3">
-        <v>43132</v>
+        <v>43265</v>
       </c>
       <c r="J13" s="10" t="str">
-        <f t="shared" si="9"/>
-        <v>2018-02-01</v>
+        <f t="shared" ref="J13:J22" si="14">YEAR(I13)&amp;TEXT("-"&amp;MONTH(I13),"00")&amp;TEXT("-"&amp;DAY(I13),"00")</f>
+        <v>2018-06-14</v>
       </c>
       <c r="K13" s="10" t="str">
-        <f t="shared" ref="K13:K18" ca="1" si="13">IF(TODAY()-DATEVALUE(J13)&lt;15,"weekly",IF(TODAY()-DATEVALUE(J13)&lt;60,"monthly","yearly"))</f>
-        <v>yearly</v>
+        <f t="shared" ref="K13" ca="1" si="15">IF(TODAY()-DATEVALUE(J13)&lt;15,"weekly",IF(TODAY()-DATEVALUE(J13)&lt;60,"monthly","yearly"))</f>
+        <v>monthly</v>
       </c>
       <c r="L13" s="3">
-        <v>41773</v>
+        <v>43185</v>
       </c>
       <c r="M13" s="13">
         <f>DAY(L13)</f>
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="N13" s="6">
         <f>MONTH(L13)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O13" s="6">
-        <f t="shared" ref="O13:O21" si="14">YEAR(L13)</f>
-        <v>2014</v>
+        <f t="shared" ref="O13" si="16">YEAR(L13)</f>
+        <v>2018</v>
       </c>
       <c r="P13" s="2" t="s">
-        <v>25</v>
+        <v>111</v>
       </c>
       <c r="Q13" s="2" t="str">
-        <f>Tags!$A$10&amp;", "&amp;Tags!$A$2&amp;", "&amp;Tags!$A$3</f>
-        <v>Game, Platformer, Puzzle</v>
+        <f>Tags!$A$6</f>
+        <v>Creative-Archive</v>
       </c>
       <c r="R13" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="S13" s="7" t="str">
-        <f>A13&amp;".png"</f>
-        <v>tetrastrophe.png</v>
+      <c r="S13" s="7" t="s">
+        <v>44</v>
       </c>
       <c r="T13" s="7" t="str">
-        <f>"A level of the "&amp;A13&amp;" game."</f>
-        <v>A level of the tetrastrophe game.</v>
-      </c>
-      <c r="U13" s="7" t="str">
-        <f>"«"&amp;A13&amp;":MarkShort»"</f>
-        <v>«tetrastrophe:MarkShort»</v>
+        <f>$T$9</f>
+        <v>Octaflower, the Creative Archive's logo. A geometric lotus flower composed of eight rows of eight petals in rainbow progression.</v>
+      </c>
+      <c r="U13" s="9" t="s">
+        <v>126</v>
       </c>
       <c r="V13" s="7" t="str">
-        <f t="shared" ref="V13:V18" si="15">IF(P13="Post","article",IF(P13="Game","game","website"))</f>
-        <v>game</v>
+        <f>IF(P13="Post","article","website")</f>
+        <v>website</v>
       </c>
       <c r="X13" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>«SITE-HTTP»/tetrastrophe</v>
-      </c>
-      <c r="Y13" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC13" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="AD13" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="AE13" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="AF13" s="4" t="s">
-        <v>148</v>
+        <v>«SITE-HTTP»/hall-of-fame</v>
       </c>
     </row>
     <row r="14" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A14" s="7" t="str">
-        <f t="shared" si="12"/>
-        <v>blockworks</v>
+        <f t="shared" ref="A14:A17" si="17">SUBSTITUTE(LOWER(G14)," ","-")</f>
+        <v>tetrastrophe</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D14" s="28" t="str">
-        <f>$D$13</f>
-        <v>«PAGE-GAME-FULLSCREEN»</v>
+        <v>5</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>52</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F14" s="28" t="str">
-        <f>$F$13</f>
-        <v>prose</v>
+        <v>41</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>37</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="H14" s="7" t="str">
         <f t="shared" si="8"/>
-        <v>«blockworks»</v>
+        <v>«tetrastrophe»</v>
       </c>
       <c r="I14" s="3">
-        <v>43150</v>
+        <v>43132</v>
       </c>
       <c r="J14" s="10" t="str">
-        <f t="shared" si="9"/>
-        <v>2018-02-19</v>
+        <f t="shared" si="14"/>
+        <v>2018-02-01</v>
       </c>
       <c r="K14" s="10" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ref="K14:K19" ca="1" si="18">IF(TODAY()-DATEVALUE(J14)&lt;15,"weekly",IF(TODAY()-DATEVALUE(J14)&lt;60,"monthly","yearly"))</f>
         <v>yearly</v>
       </c>
       <c r="L14" s="3">
-        <v>43135</v>
+        <v>41773</v>
       </c>
       <c r="M14" s="13">
-        <f t="shared" ref="M14" si="16">DAY(L14)</f>
-        <v>4</v>
+        <f>DAY(L14)</f>
+        <v>14</v>
       </c>
       <c r="N14" s="6">
-        <f t="shared" ref="N14" si="17">MONTH(L14)</f>
-        <v>2</v>
+        <f>MONTH(L14)</f>
+        <v>5</v>
       </c>
       <c r="O14" s="6">
-        <f t="shared" si="14"/>
-        <v>2018</v>
+        <f t="shared" ref="O14:O22" si="19">YEAR(L14)</f>
+        <v>2014</v>
       </c>
       <c r="P14" s="2" t="s">
         <v>25</v>
@@ -2117,193 +2113,192 @@
       </c>
       <c r="S14" s="7" t="str">
         <f>A14&amp;".png"</f>
-        <v>blockworks.png</v>
+        <v>tetrastrophe.png</v>
       </c>
       <c r="T14" s="7" t="str">
         <f>"A level of the "&amp;A14&amp;" game."</f>
-        <v>A level of the blockworks game.</v>
+        <v>A level of the tetrastrophe game.</v>
       </c>
       <c r="U14" s="7" t="str">
         <f>"«"&amp;A14&amp;":MarkShort»"</f>
-        <v>«blockworks:MarkShort»</v>
+        <v>«tetrastrophe:MarkShort»</v>
       </c>
       <c r="V14" s="7" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" ref="V14:V19" si="20">IF(P14="Post","article",IF(P14="Game","game","website"))</f>
         <v>game</v>
       </c>
       <c r="X14" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>«SITE-HTTP»/blockworks</v>
+        <v>«SITE-HTTP»/tetrastrophe</v>
       </c>
       <c r="Y14" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="Z14" t="s">
-        <v>76</v>
+        <v>27</v>
       </c>
       <c r="AC14" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AD14" s="2" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="AE14" s="2" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="AF14" s="4" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
     </row>
     <row r="15" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A15" s="7" t="str">
-        <f t="shared" ref="A15" si="18">SUBSTITUTE(LOWER(G15)," ","-")</f>
-        <v>whirlpuzzle</v>
+        <f t="shared" si="17"/>
+        <v>blockworks</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D15" s="28" t="str">
-        <f t="shared" ref="D15:D19" si="19">$D$13</f>
+        <f>$D$14</f>
         <v>«PAGE-GAME-FULLSCREEN»</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>81</v>
+        <v>47</v>
       </c>
       <c r="F15" s="28" t="str">
-        <f t="shared" ref="F15:F19" si="20">$F$13</f>
+        <f>$F$14</f>
         <v>prose</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>82</v>
+        <v>48</v>
       </c>
       <c r="H15" s="7" t="str">
         <f t="shared" si="8"/>
-        <v>«whirlpuzzle»</v>
+        <v>«blockworks»</v>
       </c>
       <c r="I15" s="3">
-        <v>43160</v>
+        <v>43150</v>
       </c>
       <c r="J15" s="10" t="str">
-        <f t="shared" si="9"/>
-        <v>2018-03-01</v>
+        <f t="shared" si="14"/>
+        <v>2018-02-19</v>
       </c>
       <c r="K15" s="10" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="18"/>
         <v>yearly</v>
       </c>
       <c r="L15" s="3">
-        <v>43160</v>
+        <v>43135</v>
       </c>
       <c r="M15" s="13">
         <f t="shared" ref="M15" si="21">DAY(L15)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N15" s="6">
         <f t="shared" ref="N15" si="22">MONTH(L15)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O15" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>2018</v>
       </c>
       <c r="P15" s="2" t="s">
         <v>25</v>
       </c>
       <c r="Q15" s="2" t="str">
-        <f>Tags!$A$10&amp;", "&amp;Tags!$A$3</f>
-        <v>Game, Puzzle</v>
+        <f>Tags!$A$10&amp;", "&amp;Tags!$A$2&amp;", "&amp;Tags!$A$3</f>
+        <v>Game, Platformer, Puzzle</v>
       </c>
       <c r="R15" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="S15" s="7" t="str">
         <f>A15&amp;".png"</f>
-        <v>whirlpuzzle.png</v>
+        <v>blockworks.png</v>
       </c>
       <c r="T15" s="7" t="str">
         <f>"A level of the "&amp;A15&amp;" game."</f>
-        <v>A level of the whirlpuzzle game.</v>
+        <v>A level of the blockworks game.</v>
       </c>
       <c r="U15" s="7" t="str">
         <f>"«"&amp;A15&amp;":MarkShort»"</f>
-        <v>«whirlpuzzle:MarkShort»</v>
+        <v>«blockworks:MarkShort»</v>
       </c>
       <c r="V15" s="7" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>game</v>
       </c>
       <c r="X15" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>«SITE-HTTP»/whirlpuzzle</v>
-      </c>
-      <c r="Z15" s="18"/>
-      <c r="AB15" s="2" t="s">
-        <v>90</v>
+        <v>«SITE-HTTP»/blockworks</v>
+      </c>
+      <c r="Y15" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>76</v>
       </c>
       <c r="AC15" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AD15" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="AE15" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="AF15" s="4" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="16" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A16" s="7" t="str">
-        <f t="shared" si="12"/>
-        <v>unlucky-unlock</v>
+        <f t="shared" ref="A16" si="23">SUBSTITUTE(LOWER(G16)," ","-")</f>
+        <v>whirlpuzzle</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D16" s="28" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" ref="D16:D20" si="24">$D$14</f>
         <v>«PAGE-GAME-FULLSCREEN»</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="F16" s="28" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" ref="F16:F20" si="25">$F$14</f>
         <v>prose</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>28</v>
+        <v>82</v>
       </c>
       <c r="H16" s="7" t="str">
         <f t="shared" si="8"/>
-        <v>«unlucky-unlock»</v>
+        <v>«whirlpuzzle»</v>
       </c>
       <c r="I16" s="3">
-        <v>43133</v>
+        <v>43160</v>
       </c>
       <c r="J16" s="10" t="str">
-        <f t="shared" si="9"/>
-        <v>2018-02-02</v>
+        <f t="shared" si="14"/>
+        <v>2018-03-01</v>
       </c>
       <c r="K16" s="10" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="18"/>
         <v>yearly</v>
       </c>
       <c r="L16" s="3">
-        <v>41838</v>
+        <v>43160</v>
       </c>
       <c r="M16" s="13">
-        <f t="shared" ref="M16" si="23">DAY(L16)</f>
-        <v>18</v>
+        <f t="shared" ref="M16" si="26">DAY(L16)</f>
+        <v>1</v>
       </c>
       <c r="N16" s="6">
-        <f t="shared" ref="N16" si="24">MONTH(L16)</f>
-        <v>7</v>
+        <f t="shared" ref="N16" si="27">MONTH(L16)</f>
+        <v>3</v>
       </c>
       <c r="O16" s="6">
-        <f t="shared" si="14"/>
-        <v>2014</v>
+        <f t="shared" si="19"/>
+        <v>2018</v>
       </c>
       <c r="P16" s="2" t="s">
         <v>25</v>
@@ -2317,401 +2312,421 @@
       </c>
       <c r="S16" s="7" t="str">
         <f>A16&amp;".png"</f>
-        <v>unlucky-unlock.png</v>
+        <v>whirlpuzzle.png</v>
       </c>
       <c r="T16" s="7" t="str">
         <f>"A level of the "&amp;A16&amp;" game."</f>
-        <v>A level of the unlucky-unlock game.</v>
+        <v>A level of the whirlpuzzle game.</v>
       </c>
       <c r="U16" s="7" t="str">
         <f>"«"&amp;A16&amp;":MarkShort»"</f>
-        <v>«unlucky-unlock:MarkShort»</v>
+        <v>«whirlpuzzle:MarkShort»</v>
       </c>
       <c r="V16" s="7" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>game</v>
       </c>
       <c r="X16" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>«SITE-HTTP»/unlucky-unlock</v>
-      </c>
-      <c r="Y16" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA16" s="2" t="s">
-        <v>30</v>
-      </c>
+        <v>«SITE-HTTP»/whirlpuzzle</v>
+      </c>
+      <c r="Z16" s="18"/>
       <c r="AB16" s="2" t="s">
         <v>90</v>
       </c>
       <c r="AC16" s="2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="AD16" s="2" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="AE16" s="2" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="AF16" s="4" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="17" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A17" s="9" t="s">
-        <v>102</v>
+      <c r="A17" s="7" t="str">
+        <f t="shared" si="17"/>
+        <v>unlucky-unlock</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D17" s="28" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>«PAGE-GAME-FULLSCREEN»</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="F17" s="28" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="25"/>
         <v>prose</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>103</v>
+        <v>28</v>
       </c>
       <c r="H17" s="7" t="str">
         <f t="shared" si="8"/>
-        <v>«pmgrp»</v>
+        <v>«unlucky-unlock»</v>
       </c>
       <c r="I17" s="3">
-        <v>43179</v>
+        <v>43133</v>
       </c>
       <c r="J17" s="10" t="str">
-        <f t="shared" si="9"/>
-        <v>2018-03-20</v>
+        <f t="shared" si="14"/>
+        <v>2018-02-02</v>
       </c>
       <c r="K17" s="10" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="18"/>
         <v>yearly</v>
       </c>
       <c r="L17" s="3">
-        <v>43179</v>
+        <v>41838</v>
       </c>
       <c r="M17" s="13">
-        <f t="shared" ref="M17" si="25">DAY(L17)</f>
-        <v>20</v>
+        <f t="shared" ref="M17" si="28">DAY(L17)</f>
+        <v>18</v>
       </c>
       <c r="N17" s="6">
-        <f t="shared" ref="N17" si="26">MONTH(L17)</f>
-        <v>3</v>
+        <f t="shared" ref="N17" si="29">MONTH(L17)</f>
+        <v>7</v>
       </c>
       <c r="O17" s="6">
-        <f t="shared" si="14"/>
-        <v>2018</v>
+        <f t="shared" si="19"/>
+        <v>2014</v>
       </c>
       <c r="P17" s="2" t="s">
         <v>25</v>
       </c>
       <c r="Q17" s="2" t="str">
+        <f>Tags!$A$10&amp;", "&amp;Tags!$A$3</f>
+        <v>Game, Puzzle</v>
+      </c>
+      <c r="R17" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="S17" s="7" t="str">
+        <f>A17&amp;".png"</f>
+        <v>unlucky-unlock.png</v>
+      </c>
+      <c r="T17" s="7" t="str">
+        <f>"A level of the "&amp;A17&amp;" game."</f>
+        <v>A level of the unlucky-unlock game.</v>
+      </c>
+      <c r="U17" s="7" t="str">
+        <f>"«"&amp;A17&amp;":MarkShort»"</f>
+        <v>«unlucky-unlock:MarkShort»</v>
+      </c>
+      <c r="V17" s="7" t="str">
+        <f t="shared" si="20"/>
+        <v>game</v>
+      </c>
+      <c r="X17" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>«SITE-HTTP»/unlucky-unlock</v>
+      </c>
+      <c r="Y17" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AA17" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB17" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="AC17" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="AD17" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="AE17" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="AF17" s="4" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="18" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A18" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" s="28" t="str">
+        <f t="shared" si="24"/>
+        <v>«PAGE-GAME-FULLSCREEN»</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F18" s="28" t="str">
+        <f t="shared" si="25"/>
+        <v>prose</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="H18" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v>«pmgrp»</v>
+      </c>
+      <c r="I18" s="3">
+        <v>43179</v>
+      </c>
+      <c r="J18" s="10" t="str">
+        <f t="shared" si="14"/>
+        <v>2018-03-20</v>
+      </c>
+      <c r="K18" s="10" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v>yearly</v>
+      </c>
+      <c r="L18" s="3">
+        <v>43179</v>
+      </c>
+      <c r="M18" s="13">
+        <f t="shared" ref="M18" si="30">DAY(L18)</f>
+        <v>20</v>
+      </c>
+      <c r="N18" s="6">
+        <f t="shared" ref="N18" si="31">MONTH(L18)</f>
+        <v>3</v>
+      </c>
+      <c r="O18" s="6">
+        <f t="shared" si="19"/>
+        <v>2018</v>
+      </c>
+      <c r="P18" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q18" s="2" t="str">
         <f>Tags!$A$10&amp;", "&amp;Tags!$A$2&amp;", "&amp;Tags!$A$3</f>
         <v>Game, Platformer, Puzzle</v>
       </c>
-      <c r="R17" s="2" t="s">
+      <c r="R18" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="S17" s="7" t="str">
-        <f>A17&amp;".png"</f>
+      <c r="S18" s="7" t="str">
+        <f>A18&amp;".png"</f>
         <v>pmgrp.png</v>
       </c>
-      <c r="T17" s="7" t="str">
-        <f>"A level of the "&amp;A17&amp;" game."</f>
+      <c r="T18" s="7" t="str">
+        <f>"A level of the "&amp;A18&amp;" game."</f>
         <v>A level of the pmgrp game.</v>
       </c>
-      <c r="U17" s="7" t="str">
-        <f>"«"&amp;A17&amp;":MarkShort»"</f>
+      <c r="U18" s="7" t="str">
+        <f>"«"&amp;A18&amp;":MarkShort»"</f>
         <v>«pmgrp:MarkShort»</v>
       </c>
-      <c r="V17" s="7" t="str">
-        <f t="shared" si="15"/>
+      <c r="V18" s="7" t="str">
+        <f t="shared" si="20"/>
         <v>game</v>
       </c>
-      <c r="X17" s="7" t="str">
+      <c r="X18" s="7" t="str">
         <f t="shared" si="2"/>
         <v>«SITE-HTTP»/pmgrp</v>
       </c>
-      <c r="AC17" s="2" t="s">
+      <c r="AC18" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="AD17" s="2" t="s">
+      <c r="AD18" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="AE17" s="2" t="s">
+      <c r="AE18" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="AF17" s="4" t="s">
+      <c r="AF18" s="4" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A18" s="31" t="s">
+    <row r="19" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A19" s="31" t="s">
         <v>125</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B19" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="E19" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="F18" s="28" t="s">
+      <c r="F19" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="G18" s="2" t="s">
+      <c r="G19" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="H18" s="9" t="str">
+      <c r="H19" s="9" t="str">
         <f>"«combinatura»"</f>
         <v>«combinatura»</v>
       </c>
-      <c r="I18" s="10">
-        <f>L18</f>
+      <c r="I19" s="10">
+        <f>L19</f>
         <v>43287</v>
       </c>
-      <c r="J18" s="10" t="str">
-        <f t="shared" si="9"/>
+      <c r="J19" s="10" t="str">
+        <f t="shared" si="14"/>
         <v>2018-07-06</v>
       </c>
-      <c r="K18" s="10" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v>weekly</v>
-      </c>
-      <c r="L18" s="3">
+      <c r="K19" s="10" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v>monthly</v>
+      </c>
+      <c r="L19" s="3">
         <v>43287</v>
       </c>
-      <c r="M18" s="13">
-        <f t="shared" ref="M18:M19" si="27">DAY(L18)</f>
+      <c r="M19" s="13">
+        <f t="shared" ref="M19:M20" si="32">DAY(L19)</f>
         <v>6</v>
       </c>
-      <c r="N18" s="6">
-        <f t="shared" ref="N18:N19" si="28">MONTH(L18)</f>
+      <c r="N19" s="6">
+        <f t="shared" ref="N19:N20" si="33">MONTH(L19)</f>
         <v>7</v>
       </c>
-      <c r="O18" s="6">
-        <f t="shared" ref="O18:O19" si="29">YEAR(L18)</f>
+      <c r="O19" s="6">
+        <f t="shared" ref="O19:O20" si="34">YEAR(L19)</f>
         <v>2018</v>
       </c>
-      <c r="P18" s="2" t="s">
+      <c r="P19" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="Q18" s="2" t="str">
+      <c r="Q19" s="2" t="str">
         <f>Tags!$A$10&amp;", "&amp;Tags!$A$13&amp;", "&amp;Tags!$A$8</f>
         <v>Game, Nature, Travel</v>
       </c>
-      <c r="R18" s="2" t="s">
+      <c r="R19" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="S18" s="7" t="str">
-        <f>Y18&amp;".png"</f>
+      <c r="S19" s="7" t="str">
+        <f>Y19&amp;".png"</f>
         <v>combinatura.png</v>
       </c>
-      <c r="T18" s="7" t="str">
-        <f>"The "&amp;Y18&amp;" game logo."</f>
+      <c r="T19" s="7" t="str">
+        <f>"The "&amp;Y19&amp;" game logo."</f>
         <v>The combinatura game logo.</v>
       </c>
-      <c r="U18" s="9" t="s">
+      <c r="U19" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="V18" s="7" t="str">
-        <f t="shared" si="15"/>
+      <c r="V19" s="7" t="str">
+        <f t="shared" si="20"/>
         <v>game</v>
       </c>
-      <c r="X18" s="31" t="s">
+      <c r="X19" s="31" t="s">
         <v>129</v>
       </c>
-      <c r="Y18" s="2" t="s">
+      <c r="Y19" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="AC18" s="2" t="s">
+      <c r="AC19" s="2" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="19" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A19" s="7" t="str">
-        <f t="shared" ref="A19" si="30">SUBSTITUTE(LOWER(G19)," ","-")</f>
+    <row r="20" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A20" s="7" t="str">
+        <f t="shared" ref="A20" si="35">SUBSTITUTE(LOWER(G20)," ","-")</f>
         <v>hastefulll</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B20" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D19" s="28" t="str">
-        <f t="shared" si="19"/>
+      <c r="D20" s="28" t="str">
+        <f t="shared" si="24"/>
         <v>«PAGE-GAME-FULLSCREEN»</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="E20" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="F19" s="28" t="str">
-        <f t="shared" si="20"/>
+      <c r="F20" s="28" t="str">
+        <f t="shared" si="25"/>
         <v>prose</v>
       </c>
-      <c r="G19" s="2" t="s">
+      <c r="G20" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="H19" s="7" t="str">
-        <f>"«"&amp;A19&amp;"»"</f>
+      <c r="H20" s="7" t="str">
+        <f>"«"&amp;A20&amp;"»"</f>
         <v>«hastefulll»</v>
       </c>
-      <c r="I19" s="10">
-        <f>L19</f>
+      <c r="I20" s="10">
+        <f>L20</f>
         <v>43293</v>
       </c>
-      <c r="J19" s="10" t="str">
-        <f t="shared" ref="J19" si="31">YEAR(I19)&amp;TEXT("-"&amp;MONTH(I19),"00")&amp;TEXT("-"&amp;DAY(I19),"00")</f>
+      <c r="J20" s="10" t="str">
+        <f t="shared" ref="J20" si="36">YEAR(I20)&amp;TEXT("-"&amp;MONTH(I20),"00")&amp;TEXT("-"&amp;DAY(I20),"00")</f>
         <v>2018-07-12</v>
       </c>
-      <c r="K19" s="10" t="str">
-        <f t="shared" ref="K19" ca="1" si="32">IF(TODAY()-DATEVALUE(J19)&lt;15,"weekly",IF(TODAY()-DATEVALUE(J19)&lt;60,"monthly","yearly"))</f>
+      <c r="K20" s="10" t="str">
+        <f t="shared" ref="K20" ca="1" si="37">IF(TODAY()-DATEVALUE(J20)&lt;15,"weekly",IF(TODAY()-DATEVALUE(J20)&lt;60,"monthly","yearly"))</f>
         <v>weekly</v>
       </c>
-      <c r="L19" s="3">
+      <c r="L20" s="3">
         <v>43293</v>
       </c>
-      <c r="M19" s="13">
-        <f t="shared" si="27"/>
+      <c r="M20" s="13">
+        <f t="shared" si="32"/>
         <v>12</v>
       </c>
-      <c r="N19" s="6">
-        <f t="shared" si="28"/>
+      <c r="N20" s="6">
+        <f t="shared" si="33"/>
         <v>7</v>
       </c>
-      <c r="O19" s="6">
-        <f t="shared" si="29"/>
+      <c r="O20" s="6">
+        <f t="shared" si="34"/>
         <v>2018</v>
       </c>
-      <c r="P19" s="2" t="s">
+      <c r="P20" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="Q19" s="2" t="str">
+      <c r="Q20" s="2" t="str">
         <f>Tags!$A$10&amp;", "&amp;Tags!$A$2&amp;", "&amp;Tags!$A$3</f>
         <v>Game, Platformer, Puzzle</v>
       </c>
-      <c r="R19" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="S19" s="7" t="str">
-        <f>A19&amp;".png"</f>
-        <v>hastefulll.png</v>
-      </c>
-      <c r="T19" s="7" t="str">
-        <f>"A level of the "&amp;A19&amp;" game."</f>
-        <v>A level of the hastefulll game.</v>
-      </c>
-      <c r="U19" s="7" t="str">
-        <f>"«"&amp;A19&amp;":MarkShort»"</f>
-        <v>«hastefulll:MarkShort»</v>
-      </c>
-      <c r="V19" s="7" t="str">
-        <f t="shared" ref="V19" si="33">IF(P19="Post","article",IF(P19="Game","game","website"))</f>
-        <v>game</v>
-      </c>
-      <c r="X19" s="7" t="str">
-        <f t="shared" ref="X19" si="34">"«SITE-HTTP»/"&amp;A19</f>
-        <v>«SITE-HTTP»/hastefulll</v>
-      </c>
-      <c r="AC19" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="AD19" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="AE19" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="AF19" s="4" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="20" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A20" s="7" t="str">
-        <f>SUBSTITUTE(LOWER(G20)," ","-")</f>
-        <v>terms-of-use</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D20" s="7" t="str">
-        <f>$D$2</f>
-        <v>«PAGE-POST-MD»</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H20" s="7" t="str">
-        <f>"«"&amp;A20&amp;"»"</f>
-        <v>«terms-of-use»</v>
-      </c>
-      <c r="I20" s="10">
-        <f>L20</f>
-        <v>43069</v>
-      </c>
-      <c r="J20" s="10" t="str">
-        <f t="shared" si="9"/>
-        <v>2017-11-30</v>
-      </c>
-      <c r="K20" s="10" t="str">
-        <f ca="1">IF(TODAY()-DATEVALUE(J20)&lt;15,"weekly",IF(TODAY()-DATEVALUE(J20)&lt;60,"monthly","yearly"))</f>
-        <v>yearly</v>
-      </c>
-      <c r="L20" s="3">
-        <v>43069</v>
-      </c>
-      <c r="M20" s="13">
-        <f t="shared" ref="M20" si="35">DAY(L20)</f>
-        <v>30</v>
-      </c>
-      <c r="N20" s="6">
-        <f t="shared" ref="N20" si="36">MONTH(L20)</f>
-        <v>11</v>
-      </c>
-      <c r="O20" s="6">
-        <f t="shared" si="14"/>
-        <v>2017</v>
-      </c>
-      <c r="P20" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q20" s="2" t="str">
-        <f>Tags!$A$6&amp;", "&amp;Tags!$A$4</f>
-        <v>Creative-Archive, Post</v>
-      </c>
       <c r="R20" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="S20" s="7" t="s">
-        <v>44</v>
+      <c r="S20" s="7" t="str">
+        <f>A20&amp;".png"</f>
+        <v>hastefulll.png</v>
       </c>
       <c r="T20" s="7" t="str">
-        <f>$T$9</f>
-        <v>Octaflower, the Creative Archive's logo. A geometric lotus flower composed of eight rows of eight petals in rainbow progression.</v>
+        <f>"A level of the "&amp;A20&amp;" game."</f>
+        <v>A level of the hastefulll game.</v>
       </c>
       <c r="U20" s="7" t="str">
         <f>"«"&amp;A20&amp;":MarkShort»"</f>
-        <v>«terms-of-use:MarkShort»</v>
+        <v>«hastefulll:MarkShort»</v>
       </c>
       <c r="V20" s="7" t="str">
-        <f>IF(P20="Post","article",IF(P20="Game","game","website"))</f>
-        <v>article</v>
+        <f t="shared" ref="V20" si="38">IF(P20="Post","article",IF(P20="Game","game","website"))</f>
+        <v>game</v>
       </c>
       <c r="X20" s="7" t="str">
-        <f t="shared" ref="X20:X27" si="37">"«SITE-HTTP»/"&amp;A20</f>
-        <v>«SITE-HTTP»/terms-of-use</v>
+        <f t="shared" ref="X20" si="39">"«SITE-HTTP»/"&amp;A20</f>
+        <v>«SITE-HTTP»/hastefulll</v>
+      </c>
+      <c r="AC20" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="AD20" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="AE20" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="AF20" s="4" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="21" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A21" s="7" t="str">
         <f>SUBSTITUTE(LOWER(G21)," ","-")</f>
-        <v>privacy-policy</v>
+        <v>terms-of-use</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>5</v>
@@ -2724,37 +2739,38 @@
         <v>37</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>57</v>
+        <v>23</v>
       </c>
       <c r="H21" s="7" t="str">
         <f>"«"&amp;A21&amp;"»"</f>
-        <v>«privacy-policy»</v>
-      </c>
-      <c r="I21" s="16">
-        <v>43169</v>
+        <v>«terms-of-use»</v>
+      </c>
+      <c r="I21" s="10">
+        <f>L21</f>
+        <v>43069</v>
       </c>
       <c r="J21" s="10" t="str">
-        <f t="shared" si="9"/>
-        <v>2018-03-10</v>
+        <f t="shared" si="14"/>
+        <v>2017-11-30</v>
       </c>
       <c r="K21" s="10" t="str">
-        <f t="shared" ref="K21:K35" ca="1" si="38">IF(TODAY()-DATEVALUE(J21)&lt;15,"weekly",IF(TODAY()-DATEVALUE(J21)&lt;60,"monthly","yearly"))</f>
+        <f ca="1">IF(TODAY()-DATEVALUE(J21)&lt;15,"weekly",IF(TODAY()-DATEVALUE(J21)&lt;60,"monthly","yearly"))</f>
         <v>yearly</v>
       </c>
       <c r="L21" s="3">
-        <v>43141</v>
+        <v>43069</v>
       </c>
       <c r="M21" s="13">
-        <f t="shared" ref="M21" si="39">DAY(L21)</f>
-        <v>10</v>
+        <f t="shared" ref="M21" si="40">DAY(L21)</f>
+        <v>30</v>
       </c>
       <c r="N21" s="6">
-        <f t="shared" ref="N21" si="40">MONTH(L21)</f>
-        <v>2</v>
+        <f t="shared" ref="N21" si="41">MONTH(L21)</f>
+        <v>11</v>
       </c>
       <c r="O21" s="6">
-        <f t="shared" si="14"/>
-        <v>2018</v>
+        <f t="shared" si="19"/>
+        <v>2017</v>
       </c>
       <c r="P21" s="2" t="s">
         <v>3</v>
@@ -2775,83 +2791,99 @@
       </c>
       <c r="U21" s="7" t="str">
         <f>"«"&amp;A21&amp;":MarkShort»"</f>
-        <v>«privacy-policy:MarkShort»</v>
+        <v>«terms-of-use:MarkShort»</v>
       </c>
       <c r="V21" s="7" t="str">
         <f>IF(P21="Post","article",IF(P21="Game","game","website"))</f>
         <v>article</v>
       </c>
       <c r="X21" s="7" t="str">
-        <f t="shared" si="37"/>
-        <v>«SITE-HTTP»/privacy-policy</v>
+        <f t="shared" ref="X21:X28" si="42">"«SITE-HTTP»/"&amp;A21</f>
+        <v>«SITE-HTTP»/terms-of-use</v>
       </c>
     </row>
     <row r="22" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A22" s="7" t="str">
         <f>SUBSTITUTE(LOWER(G22)," ","-")</f>
-        <v>posts-by-date</v>
+        <v>privacy-policy</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C22" s="2">
+      <c r="D22" s="7" t="str">
+        <f>$D$2</f>
+        <v>«PAGE-POST-MD»</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H22" s="7" t="str">
+        <f>"«"&amp;A22&amp;"»"</f>
+        <v>«privacy-policy»</v>
+      </c>
+      <c r="I22" s="16">
+        <v>43169</v>
+      </c>
+      <c r="J22" s="10" t="str">
+        <f t="shared" si="14"/>
+        <v>2018-03-10</v>
+      </c>
+      <c r="K22" s="10" t="str">
+        <f t="shared" ref="K22:K36" ca="1" si="43">IF(TODAY()-DATEVALUE(J22)&lt;15,"weekly",IF(TODAY()-DATEVALUE(J22)&lt;60,"monthly","yearly"))</f>
+        <v>yearly</v>
+      </c>
+      <c r="L22" s="3">
+        <v>43141</v>
+      </c>
+      <c r="M22" s="13">
+        <f t="shared" ref="M22" si="44">DAY(L22)</f>
+        <v>10</v>
+      </c>
+      <c r="N22" s="6">
+        <f t="shared" ref="N22" si="45">MONTH(L22)</f>
+        <v>2</v>
+      </c>
+      <c r="O22" s="6">
+        <f t="shared" si="19"/>
+        <v>2018</v>
+      </c>
+      <c r="P22" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D22" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I22" s="19"/>
-      <c r="J22" s="24" t="str">
-        <f>YEAR($J$10)&amp;TEXT("-"&amp;MONTH($J$10),"00")&amp;TEXT("-"&amp;DAY($J$10),"00")</f>
-        <v>2018-03-02</v>
-      </c>
-      <c r="K22" s="10" t="str">
-        <f ca="1">IF(TODAY()-DATEVALUE(J22)&lt;15,"weekly",IF(TODAY()-DATEVALUE(J22)&lt;60,"monthly","yearly"))</f>
-        <v>yearly</v>
-      </c>
-      <c r="L22" s="20"/>
-      <c r="M22" s="13"/>
-      <c r="P22" s="2" t="s">
-        <v>16</v>
-      </c>
       <c r="Q22" s="2" t="str">
-        <f>Tags!$A$11</f>
-        <v>Sitemap</v>
-      </c>
-      <c r="S22" s="7" t="str">
-        <f>$S$9</f>
-        <v>logo.png</v>
+        <f>Tags!$A$6&amp;", "&amp;Tags!$A$4</f>
+        <v>Creative-Archive, Post</v>
+      </c>
+      <c r="R22" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="S22" s="7" t="s">
+        <v>44</v>
       </c>
       <c r="T22" s="7" t="str">
         <f>$T$9</f>
         <v>Octaflower, the Creative Archive's logo. A geometric lotus flower composed of eight rows of eight petals in rainbow progression.</v>
       </c>
       <c r="U22" s="7" t="str">
-        <f>"Archive of "&amp;G22</f>
-        <v>Archive of Posts by date</v>
+        <f>"«"&amp;A22&amp;":MarkShort»"</f>
+        <v>«privacy-policy:MarkShort»</v>
       </c>
       <c r="V22" s="7" t="str">
         <f>IF(P22="Post","article",IF(P22="Game","game","website"))</f>
-        <v>website</v>
+        <v>article</v>
       </c>
       <c r="X22" s="7" t="str">
-        <f t="shared" si="37"/>
-        <v>«SITE-HTTP»/posts-by-date</v>
+        <f t="shared" si="42"/>
+        <v>«SITE-HTTP»/privacy-policy</v>
       </c>
     </row>
     <row r="23" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A23" s="7" t="str">
         <f>SUBSTITUTE(LOWER(G23)," ","-")</f>
-        <v>posts-by-tag</v>
+        <v>posts-by-date</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>5</v>
@@ -2863,13 +2895,13 @@
         <v>22</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>158</v>
+        <v>39</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>38</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="I23" s="19"/>
       <c r="J23" s="24" t="str">
@@ -2899,20 +2931,21 @@
       </c>
       <c r="U23" s="7" t="str">
         <f>"Archive of "&amp;G23</f>
-        <v>Archive of Posts by tag</v>
+        <v>Archive of Posts by date</v>
       </c>
       <c r="V23" s="7" t="str">
         <f>IF(P23="Post","article",IF(P23="Game","game","website"))</f>
         <v>website</v>
       </c>
       <c r="X23" s="7" t="str">
-        <f t="shared" si="37"/>
-        <v>«SITE-HTTP»/posts-by-tag</v>
+        <f t="shared" si="42"/>
+        <v>«SITE-HTTP»/posts-by-date</v>
       </c>
     </row>
     <row r="24" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A24" s="7" t="s">
-        <v>130</v>
+      <c r="A24" s="7" t="str">
+        <f>SUBSTITUTE(LOWER(G24)," ","-")</f>
+        <v>posts-by-tag</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>5</v>
@@ -2921,18 +2954,18 @@
         <v>5</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>131</v>
+        <v>22</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>137</v>
+        <v>158</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>38</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="I24" s="10"/>
+        <v>51</v>
+      </c>
+      <c r="I24" s="19"/>
       <c r="J24" s="24" t="str">
         <f>YEAR($J$10)&amp;TEXT("-"&amp;MONTH($J$10),"00")&amp;TEXT("-"&amp;DAY($J$10),"00")</f>
         <v>2018-03-02</v>
@@ -2941,32 +2974,18 @@
         <f ca="1">IF(TODAY()-DATEVALUE(J24)&lt;15,"weekly",IF(TODAY()-DATEVALUE(J24)&lt;60,"monthly","yearly"))</f>
         <v>yearly</v>
       </c>
-      <c r="L24" s="3">
-        <v>43141</v>
-      </c>
-      <c r="M24" s="13">
-        <f t="shared" ref="M24" si="41">DAY(L24)</f>
-        <v>10</v>
-      </c>
-      <c r="N24" s="6">
-        <f t="shared" ref="N24" si="42">MONTH(L24)</f>
-        <v>2</v>
-      </c>
-      <c r="O24" s="6">
-        <f t="shared" ref="O24" si="43">YEAR(L24)</f>
-        <v>2018</v>
-      </c>
+      <c r="L24" s="20"/>
+      <c r="M24" s="13"/>
       <c r="P24" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="Q24" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="R24" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="S24" s="7" t="s">
-        <v>44</v>
+      <c r="Q24" s="2" t="str">
+        <f>Tags!$A$11</f>
+        <v>Sitemap</v>
+      </c>
+      <c r="S24" s="7" t="str">
+        <f>$S$9</f>
+        <v>logo.png</v>
       </c>
       <c r="T24" s="7" t="str">
         <f>$T$9</f>
@@ -2974,231 +2993,217 @@
       </c>
       <c r="U24" s="7" t="str">
         <f>"Archive of "&amp;G24</f>
-        <v>Archive of Games</v>
+        <v>Archive of Posts by tag</v>
       </c>
       <c r="V24" s="7" t="str">
         <f>IF(P24="Post","article",IF(P24="Game","game","website"))</f>
         <v>website</v>
       </c>
       <c r="X24" s="7" t="str">
-        <f t="shared" si="37"/>
-        <v>«SITE-HTTP»/games</v>
+        <f t="shared" si="42"/>
+        <v>«SITE-HTTP»/posts-by-tag</v>
       </c>
     </row>
     <row r="25" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A25" s="7" t="s">
-        <v>92</v>
+        <v>130</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="C25" s="2">
+        <v>6</v>
+      </c>
       <c r="D25" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="M25" s="14"/>
-      <c r="W25" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="X25" s="9" t="str">
-        <f t="shared" si="37"/>
-        <v>«SITE-HTTP»/robots</v>
+        <v>131</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I25" s="10"/>
+      <c r="J25" s="24" t="str">
+        <f>YEAR($J$10)&amp;TEXT("-"&amp;MONTH($J$10),"00")&amp;TEXT("-"&amp;DAY($J$10),"00")</f>
+        <v>2018-03-02</v>
+      </c>
+      <c r="K25" s="10" t="str">
+        <f ca="1">IF(TODAY()-DATEVALUE(J25)&lt;15,"weekly",IF(TODAY()-DATEVALUE(J25)&lt;60,"monthly","yearly"))</f>
+        <v>yearly</v>
+      </c>
+      <c r="L25" s="3">
+        <v>43141</v>
+      </c>
+      <c r="M25" s="13">
+        <f t="shared" ref="M25" si="46">DAY(L25)</f>
+        <v>10</v>
+      </c>
+      <c r="N25" s="6">
+        <f t="shared" ref="N25" si="47">MONTH(L25)</f>
+        <v>2</v>
+      </c>
+      <c r="O25" s="6">
+        <f t="shared" ref="O25" si="48">YEAR(L25)</f>
+        <v>2018</v>
+      </c>
+      <c r="P25" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q25" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="R25" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="S25" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="T25" s="7" t="str">
+        <f>$T$9</f>
+        <v>Octaflower, the Creative Archive's logo. A geometric lotus flower composed of eight rows of eight petals in rainbow progression.</v>
+      </c>
+      <c r="U25" s="7" t="str">
+        <f>"Archive of "&amp;G25</f>
+        <v>Archive of Games</v>
+      </c>
+      <c r="V25" s="7" t="str">
+        <f>IF(P25="Post","article",IF(P25="Game","game","website"))</f>
+        <v>website</v>
+      </c>
+      <c r="X25" s="7" t="str">
+        <f t="shared" si="42"/>
+        <v>«SITE-HTTP»/games</v>
       </c>
     </row>
     <row r="26" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A26" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="M26" s="14"/>
       <c r="W26" s="9" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="X26" s="9" t="str">
-        <f t="shared" si="37"/>
-        <v>«SITE-HTTP»/sitemap</v>
+        <f t="shared" si="42"/>
+        <v>«SITE-HTTP»/robots</v>
       </c>
     </row>
     <row r="27" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A27" s="7" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="I27" s="19"/>
-      <c r="J27" s="24" t="str">
-        <f>YEAR($J$10)&amp;TEXT("-"&amp;MONTH($J$10),"00")&amp;TEXT("-"&amp;DAY($J$10),"00")</f>
-        <v>2018-03-02</v>
-      </c>
-      <c r="K27" s="10" t="str">
-        <f t="shared" ref="K27" ca="1" si="44">IF(TODAY()-DATEVALUE(J27)&lt;15,"weekly",IF(TODAY()-DATEVALUE(J27)&lt;60,"monthly","yearly"))</f>
-        <v>yearly</v>
-      </c>
-      <c r="L27" s="21"/>
+        <v>96</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>97</v>
+      </c>
       <c r="M27" s="14"/>
       <c r="W27" s="9" t="s">
         <v>86</v>
       </c>
       <c r="X27" s="9" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="42"/>
+        <v>«SITE-HTTP»/sitemap</v>
+      </c>
+    </row>
+    <row r="28" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A28" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="I28" s="19"/>
+      <c r="J28" s="24" t="str">
+        <f>YEAR($J$10)&amp;TEXT("-"&amp;MONTH($J$10),"00")&amp;TEXT("-"&amp;DAY($J$10),"00")</f>
+        <v>2018-03-02</v>
+      </c>
+      <c r="K28" s="10" t="str">
+        <f t="shared" ref="K28" ca="1" si="49">IF(TODAY()-DATEVALUE(J28)&lt;15,"weekly",IF(TODAY()-DATEVALUE(J28)&lt;60,"monthly","yearly"))</f>
+        <v>yearly</v>
+      </c>
+      <c r="L28" s="21"/>
+      <c r="M28" s="14"/>
+      <c r="W28" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="X28" s="9" t="str">
+        <f t="shared" si="42"/>
         <v>«SITE-HTTP»/rss</v>
       </c>
     </row>
-    <row r="28" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A28" s="11" t="str">
+    <row r="29" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A29" s="11" t="str">
         <f>"tag-"&amp;SUBSTITUTE(Tags!$A2," ","-")</f>
         <v>tag-Platformer</v>
       </c>
-      <c r="B28" s="25" t="str">
+      <c r="B29" s="25" t="str">
         <f>Tags!$B2</f>
         <v>Yes</v>
       </c>
-      <c r="C28" s="25"/>
-      <c r="D28" s="11" t="str">
-        <f>D$33</f>
+      <c r="C29" s="25"/>
+      <c r="D29" s="11" t="str">
+        <f>D$34</f>
         <v>«PAGE-FEATURED-EMPTY»</v>
       </c>
-      <c r="E28" s="11" t="str">
-        <f>$E$33</f>
+      <c r="E29" s="11" t="str">
+        <f>$E$34</f>
         <v>«FEATURED-ITEM:Filter{"Tags"-&gt;_?(StringMatchQ[#,___~~"«POST:Load»"~~___]&amp;),"Type"-&gt;_,"Day"-&gt;_?NumberQ,"Month"-&gt;_?NumberQ,"Year"-&gt;_?NumberQ}»</v>
       </c>
-      <c r="F28" s="12" t="s">
+      <c r="F29" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="G28" s="11" t="str">
-        <f>"All"&amp;" "&amp;H28&amp;"s"</f>
+      <c r="G29" s="11" t="str">
+        <f>"All"&amp;" "&amp;H29&amp;"s"</f>
         <v>All Platformers</v>
       </c>
-      <c r="H28" s="11" t="str">
+      <c r="H29" s="11" t="str">
         <f>Tags!$A2</f>
         <v>Platformer</v>
       </c>
-      <c r="I28" s="22"/>
-      <c r="J28" s="22" t="str">
-        <f t="shared" ref="J28:J39" si="45">YEAR($J$10)&amp;TEXT("-"&amp;MONTH($J$10),"00")&amp;TEXT("-"&amp;DAY($J$10),"00")</f>
-        <v>2018-03-02</v>
-      </c>
-      <c r="K28" s="22" t="str">
-        <f t="shared" ca="1" si="38"/>
-        <v>yearly</v>
-      </c>
-      <c r="L28" s="29">
-        <v>41773</v>
-      </c>
-      <c r="M28" s="15">
-        <f t="shared" ref="M28:M38" si="46">DAY(L28)</f>
-        <v>14</v>
-      </c>
-      <c r="N28" s="30">
-        <f t="shared" ref="N28:N38" si="47">MONTH(L28)</f>
-        <v>5</v>
-      </c>
-      <c r="O28" s="30">
-        <f t="shared" ref="O28:O38" si="48">YEAR(L28)</f>
-        <v>2014</v>
-      </c>
-      <c r="P28" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q28" s="25" t="str">
-        <f>Tags!$A$12</f>
-        <v>Class</v>
-      </c>
-      <c r="R28" s="12"/>
-      <c r="S28" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="T28" s="11" t="str">
-        <f>$T$9</f>
-        <v>Octaflower, the Creative Archive's logo. A geometric lotus flower composed of eight rows of eight petals in rainbow progression.</v>
-      </c>
-      <c r="U28" s="11" t="str">
-        <f>"All content classified under "&amp;H28</f>
-        <v>All content classified under Platformer</v>
-      </c>
-      <c r="V28" s="12"/>
-      <c r="W28" s="11"/>
-      <c r="X28" s="11" t="str">
-        <f t="shared" ref="X28:X39" si="49">"«SITE-HTTP»/"&amp;A28</f>
-        <v>«SITE-HTTP»/tag-Platformer</v>
-      </c>
-      <c r="Y28" s="12"/>
-      <c r="Z28" s="12"/>
-      <c r="AA28" s="12"/>
-      <c r="AB28" s="12"/>
-      <c r="AC28" s="12"/>
-      <c r="AD28" s="12"/>
-      <c r="AE28" s="12"/>
-      <c r="AF28" s="12"/>
-    </row>
-    <row r="29" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A29" s="11" t="str">
-        <f>"tag-"&amp;SUBSTITUTE(Tags!$A3," ","-")</f>
-        <v>tag-Puzzle</v>
-      </c>
-      <c r="B29" s="25" t="str">
-        <f>Tags!$B3</f>
-        <v>Yes</v>
-      </c>
-      <c r="C29" s="25"/>
-      <c r="D29" s="11" t="str">
-        <f>D$33</f>
-        <v>«PAGE-FEATURED-EMPTY»</v>
-      </c>
-      <c r="E29" s="11" t="str">
-        <f>$E$33</f>
-        <v>«FEATURED-ITEM:Filter{"Tags"-&gt;_?(StringMatchQ[#,___~~"«POST:Load»"~~___]&amp;),"Type"-&gt;_,"Day"-&gt;_?NumberQ,"Month"-&gt;_?NumberQ,"Year"-&gt;_?NumberQ}»</v>
-      </c>
-      <c r="F29" s="25" t="str">
-        <f>F$28</f>
-        <v>archive</v>
-      </c>
-      <c r="G29" s="11" t="str">
-        <f>"All"&amp;" "&amp;H29&amp;"s"</f>
-        <v>All Puzzles</v>
-      </c>
-      <c r="H29" s="11" t="str">
-        <f>Tags!$A3</f>
-        <v>Puzzle</v>
-      </c>
       <c r="I29" s="22"/>
       <c r="J29" s="22" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" ref="J29:J40" si="50">YEAR($J$10)&amp;TEXT("-"&amp;MONTH($J$10),"00")&amp;TEXT("-"&amp;DAY($J$10),"00")</f>
         <v>2018-03-02</v>
       </c>
       <c r="K29" s="22" t="str">
-        <f t="shared" ca="1" si="38"/>
+        <f t="shared" ca="1" si="43"/>
         <v>yearly</v>
       </c>
       <c r="L29" s="29">
         <v>41773</v>
       </c>
       <c r="M29" s="15">
-        <f t="shared" si="46"/>
+        <f t="shared" ref="M29:M39" si="51">DAY(L29)</f>
         <v>14</v>
       </c>
       <c r="N29" s="30">
-        <f t="shared" si="47"/>
+        <f t="shared" ref="N29:N39" si="52">MONTH(L29)</f>
         <v>5</v>
       </c>
       <c r="O29" s="30">
-        <f t="shared" si="48"/>
+        <f t="shared" ref="O29:O39" si="53">YEAR(L29)</f>
         <v>2014</v>
       </c>
-      <c r="P29" s="25" t="str">
-        <f>$P$28</f>
-        <v>Tag</v>
+      <c r="P29" s="12" t="s">
+        <v>20</v>
       </c>
       <c r="Q29" s="25" t="str">
         <f>Tags!$A$12</f>
@@ -3209,18 +3214,18 @@
         <v>44</v>
       </c>
       <c r="T29" s="11" t="str">
-        <f t="shared" ref="T29:T39" si="50">$T$9</f>
+        <f>$T$9</f>
         <v>Octaflower, the Creative Archive's logo. A geometric lotus flower composed of eight rows of eight petals in rainbow progression.</v>
       </c>
       <c r="U29" s="11" t="str">
-        <f t="shared" ref="U29:U38" si="51">"All content classified under "&amp;H29</f>
-        <v>All content classified under Puzzle</v>
+        <f>"All content classified under "&amp;H29</f>
+        <v>All content classified under Platformer</v>
       </c>
       <c r="V29" s="12"/>
       <c r="W29" s="11"/>
       <c r="X29" s="11" t="str">
-        <f t="shared" si="49"/>
-        <v>«SITE-HTTP»/tag-Puzzle</v>
+        <f t="shared" ref="X29:X40" si="54">"«SITE-HTTP»/"&amp;A29</f>
+        <v>«SITE-HTTP»/tag-Platformer</v>
       </c>
       <c r="Y29" s="12"/>
       <c r="Z29" s="12"/>
@@ -3233,58 +3238,60 @@
     </row>
     <row r="30" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A30" s="11" t="str">
-        <f>"tag-"&amp;SUBSTITUTE(Tags!$A4," ","-")</f>
-        <v>tag-Post</v>
+        <f>"tag-"&amp;SUBSTITUTE(Tags!$A3," ","-")</f>
+        <v>tag-Puzzle</v>
       </c>
       <c r="B30" s="25" t="str">
-        <f>Tags!$B4</f>
-        <v>No</v>
+        <f>Tags!$B3</f>
+        <v>Yes</v>
       </c>
       <c r="C30" s="25"/>
-      <c r="D30" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="E30" s="12" t="s">
-        <v>107</v>
+      <c r="D30" s="11" t="str">
+        <f>D$34</f>
+        <v>«PAGE-FEATURED-EMPTY»</v>
+      </c>
+      <c r="E30" s="11" t="str">
+        <f>$E$34</f>
+        <v>«FEATURED-ITEM:Filter{"Tags"-&gt;_?(StringMatchQ[#,___~~"«POST:Load»"~~___]&amp;),"Type"-&gt;_,"Day"-&gt;_?NumberQ,"Month"-&gt;_?NumberQ,"Year"-&gt;_?NumberQ}»</v>
       </c>
       <c r="F30" s="25" t="str">
-        <f t="shared" ref="F30:F39" si="52">F$28</f>
+        <f>F$29</f>
         <v>archive</v>
       </c>
       <c r="G30" s="11" t="str">
         <f>"All"&amp;" "&amp;H30&amp;"s"</f>
-        <v>All Posts</v>
+        <v>All Puzzles</v>
       </c>
       <c r="H30" s="11" t="str">
-        <f>Tags!$A4</f>
-        <v>Post</v>
+        <f>Tags!$A3</f>
+        <v>Puzzle</v>
       </c>
       <c r="I30" s="22"/>
       <c r="J30" s="22" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="50"/>
         <v>2018-03-02</v>
       </c>
       <c r="K30" s="22" t="str">
-        <f t="shared" ca="1" si="38"/>
+        <f t="shared" ca="1" si="43"/>
         <v>yearly</v>
       </c>
       <c r="L30" s="29">
-        <v>43070</v>
+        <v>41773</v>
       </c>
       <c r="M30" s="15">
-        <f t="shared" si="46"/>
-        <v>1</v>
+        <f t="shared" si="51"/>
+        <v>14</v>
       </c>
       <c r="N30" s="30">
-        <f t="shared" si="47"/>
-        <v>12</v>
+        <f t="shared" si="52"/>
+        <v>5</v>
       </c>
       <c r="O30" s="30">
-        <f t="shared" si="48"/>
-        <v>2017</v>
+        <f t="shared" si="53"/>
+        <v>2014</v>
       </c>
       <c r="P30" s="25" t="str">
-        <f t="shared" ref="P30:P39" si="53">$P$28</f>
+        <f>$P$29</f>
         <v>Tag</v>
       </c>
       <c r="Q30" s="25" t="str">
@@ -3296,18 +3303,18 @@
         <v>44</v>
       </c>
       <c r="T30" s="11" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" ref="T30:T40" si="55">$T$9</f>
         <v>Octaflower, the Creative Archive's logo. A geometric lotus flower composed of eight rows of eight petals in rainbow progression.</v>
       </c>
       <c r="U30" s="11" t="str">
-        <f t="shared" si="51"/>
-        <v>All content classified under Post</v>
+        <f t="shared" ref="U30:U39" si="56">"All content classified under "&amp;H30</f>
+        <v>All content classified under Puzzle</v>
       </c>
       <c r="V30" s="12"/>
       <c r="W30" s="11"/>
       <c r="X30" s="11" t="str">
-        <f t="shared" si="49"/>
-        <v>«SITE-HTTP»/tag-Post</v>
+        <f t="shared" si="54"/>
+        <v>«SITE-HTTP»/tag-Puzzle</v>
       </c>
       <c r="Y30" s="12"/>
       <c r="Z30" s="12"/>
@@ -3320,60 +3327,58 @@
     </row>
     <row r="31" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A31" s="11" t="str">
-        <f>"tag-"&amp;SUBSTITUTE(Tags!$A5," ","-")</f>
-        <v>tag-Finance</v>
+        <f>"tag-"&amp;SUBSTITUTE(Tags!$A4," ","-")</f>
+        <v>tag-Post</v>
       </c>
       <c r="B31" s="25" t="str">
-        <f>Tags!$B5</f>
+        <f>Tags!$B4</f>
         <v>No</v>
       </c>
       <c r="C31" s="25"/>
-      <c r="D31" s="11" t="str">
-        <f>$D$30</f>
-        <v>«PAGE-SIMPLE»</v>
-      </c>
-      <c r="E31" s="11" t="str">
-        <f>$E$30</f>
-        <v>«TAGSELECT:Filter{"Tags"-&gt;_?(StringMatchQ[#,___~~"«POST:Load»"~~___]&amp;),"Type"-&gt;_,"Day"-&gt;_?NumberQ,"Month"-&gt;_?NumberQ,"Year"-&gt;_?NumberQ}»</v>
+      <c r="D31" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E31" s="12" t="s">
+        <v>107</v>
       </c>
       <c r="F31" s="25" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" ref="F31:F40" si="57">F$29</f>
         <v>archive</v>
       </c>
       <c r="G31" s="11" t="str">
-        <f>"Classed as '"&amp;Tags!$A5&amp;"'"</f>
-        <v>Classed as 'Finance'</v>
+        <f>"All"&amp;" "&amp;H31&amp;"s"</f>
+        <v>All Posts</v>
       </c>
       <c r="H31" s="11" t="str">
-        <f>Tags!$A5</f>
-        <v>Finance</v>
+        <f>Tags!$A4</f>
+        <v>Post</v>
       </c>
       <c r="I31" s="22"/>
       <c r="J31" s="22" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="50"/>
         <v>2018-03-02</v>
       </c>
       <c r="K31" s="22" t="str">
-        <f t="shared" ca="1" si="38"/>
+        <f t="shared" ca="1" si="43"/>
         <v>yearly</v>
       </c>
       <c r="L31" s="29">
-        <v>43139</v>
+        <v>43070</v>
       </c>
       <c r="M31" s="15">
-        <f t="shared" si="46"/>
-        <v>8</v>
+        <f t="shared" si="51"/>
+        <v>1</v>
       </c>
       <c r="N31" s="30">
-        <f t="shared" si="47"/>
-        <v>2</v>
+        <f t="shared" si="52"/>
+        <v>12</v>
       </c>
       <c r="O31" s="30">
-        <f t="shared" si="48"/>
-        <v>2018</v>
+        <f t="shared" si="53"/>
+        <v>2017</v>
       </c>
       <c r="P31" s="25" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" ref="P31:P40" si="58">$P$29</f>
         <v>Tag</v>
       </c>
       <c r="Q31" s="25" t="str">
@@ -3385,18 +3390,18 @@
         <v>44</v>
       </c>
       <c r="T31" s="11" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="55"/>
         <v>Octaflower, the Creative Archive's logo. A geometric lotus flower composed of eight rows of eight petals in rainbow progression.</v>
       </c>
       <c r="U31" s="11" t="str">
-        <f t="shared" si="51"/>
-        <v>All content classified under Finance</v>
+        <f t="shared" si="56"/>
+        <v>All content classified under Post</v>
       </c>
       <c r="V31" s="12"/>
       <c r="W31" s="11"/>
       <c r="X31" s="11" t="str">
-        <f t="shared" si="49"/>
-        <v>«SITE-HTTP»/tag-Finance</v>
+        <f t="shared" si="54"/>
+        <v>«SITE-HTTP»/tag-Post</v>
       </c>
       <c r="Y31" s="12"/>
       <c r="Z31" s="12"/>
@@ -3409,60 +3414,60 @@
     </row>
     <row r="32" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A32" s="11" t="str">
-        <f>"tag-"&amp;SUBSTITUTE(Tags!$A6," ","-")</f>
-        <v>tag-Creative-Archive</v>
+        <f>"tag-"&amp;SUBSTITUTE(Tags!$A5," ","-")</f>
+        <v>tag-Finance</v>
       </c>
       <c r="B32" s="25" t="str">
-        <f>Tags!$B6</f>
-        <v>Yes</v>
+        <f>Tags!$B5</f>
+        <v>No</v>
       </c>
       <c r="C32" s="25"/>
       <c r="D32" s="11" t="str">
-        <f>$D$30</f>
+        <f>$D$31</f>
         <v>«PAGE-SIMPLE»</v>
       </c>
       <c r="E32" s="11" t="str">
-        <f>$E$30</f>
+        <f>$E$31</f>
         <v>«TAGSELECT:Filter{"Tags"-&gt;_?(StringMatchQ[#,___~~"«POST:Load»"~~___]&amp;),"Type"-&gt;_,"Day"-&gt;_?NumberQ,"Month"-&gt;_?NumberQ,"Year"-&gt;_?NumberQ}»</v>
       </c>
       <c r="F32" s="25" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v>archive</v>
       </c>
       <c r="G32" s="11" t="str">
-        <f>"Classed as '"&amp;Tags!$A6&amp;"'"</f>
-        <v>Classed as 'Creative-Archive'</v>
+        <f>"Classed as '"&amp;Tags!$A5&amp;"'"</f>
+        <v>Classed as 'Finance'</v>
       </c>
       <c r="H32" s="11" t="str">
-        <f>Tags!$A6</f>
-        <v>Creative-Archive</v>
+        <f>Tags!$A5</f>
+        <v>Finance</v>
       </c>
       <c r="I32" s="22"/>
       <c r="J32" s="22" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="50"/>
         <v>2018-03-02</v>
       </c>
       <c r="K32" s="22" t="str">
-        <f t="shared" ca="1" si="38"/>
+        <f t="shared" ca="1" si="43"/>
         <v>yearly</v>
       </c>
       <c r="L32" s="29">
-        <v>43069</v>
+        <v>43139</v>
       </c>
       <c r="M32" s="15">
-        <f t="shared" si="46"/>
-        <v>30</v>
+        <f t="shared" si="51"/>
+        <v>8</v>
       </c>
       <c r="N32" s="30">
-        <f t="shared" si="47"/>
-        <v>11</v>
+        <f t="shared" si="52"/>
+        <v>2</v>
       </c>
       <c r="O32" s="30">
-        <f t="shared" si="48"/>
-        <v>2017</v>
+        <f t="shared" si="53"/>
+        <v>2018</v>
       </c>
       <c r="P32" s="25" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="58"/>
         <v>Tag</v>
       </c>
       <c r="Q32" s="25" t="str">
@@ -3474,18 +3479,18 @@
         <v>44</v>
       </c>
       <c r="T32" s="11" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="55"/>
         <v>Octaflower, the Creative Archive's logo. A geometric lotus flower composed of eight rows of eight petals in rainbow progression.</v>
       </c>
       <c r="U32" s="11" t="str">
-        <f t="shared" si="51"/>
-        <v>All content classified under Creative-Archive</v>
+        <f t="shared" si="56"/>
+        <v>All content classified under Finance</v>
       </c>
       <c r="V32" s="12"/>
       <c r="W32" s="11"/>
       <c r="X32" s="11" t="str">
-        <f t="shared" si="49"/>
-        <v>«SITE-HTTP»/tag-Creative-Archive</v>
+        <f t="shared" si="54"/>
+        <v>«SITE-HTTP»/tag-Finance</v>
       </c>
       <c r="Y32" s="12"/>
       <c r="Z32" s="12"/>
@@ -3498,60 +3503,60 @@
     </row>
     <row r="33" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A33" s="11" t="str">
-        <f>"tag-"&amp;SUBSTITUTE(Tags!$A7," ","-")</f>
-        <v>tag-Mosaic</v>
+        <f>"tag-"&amp;SUBSTITUTE(Tags!$A6," ","-")</f>
+        <v>tag-Creative-Archive</v>
       </c>
       <c r="B33" s="25" t="str">
-        <f>Tags!$B7</f>
-        <v>No</v>
-      </c>
-      <c r="C33" s="25">
-        <v>6</v>
-      </c>
-      <c r="D33" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="E33" s="12" t="s">
-        <v>112</v>
+        <f>Tags!$B6</f>
+        <v>Yes</v>
+      </c>
+      <c r="C33" s="25"/>
+      <c r="D33" s="11" t="str">
+        <f>$D$31</f>
+        <v>«PAGE-SIMPLE»</v>
+      </c>
+      <c r="E33" s="11" t="str">
+        <f>$E$31</f>
+        <v>«TAGSELECT:Filter{"Tags"-&gt;_?(StringMatchQ[#,___~~"«POST:Load»"~~___]&amp;),"Type"-&gt;_,"Day"-&gt;_?NumberQ,"Month"-&gt;_?NumberQ,"Year"-&gt;_?NumberQ}»</v>
       </c>
       <c r="F33" s="25" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v>archive</v>
       </c>
       <c r="G33" s="11" t="str">
-        <f>H33&amp;"s"</f>
-        <v>Mosaics</v>
+        <f>"Classed as '"&amp;Tags!$A6&amp;"'"</f>
+        <v>Classed as 'Creative-Archive'</v>
       </c>
       <c r="H33" s="11" t="str">
-        <f>Tags!$A7</f>
-        <v>Mosaic</v>
+        <f>Tags!$A6</f>
+        <v>Creative-Archive</v>
       </c>
       <c r="I33" s="22"/>
       <c r="J33" s="22" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="50"/>
         <v>2018-03-02</v>
       </c>
       <c r="K33" s="22" t="str">
-        <f t="shared" ca="1" si="38"/>
+        <f t="shared" ca="1" si="43"/>
         <v>yearly</v>
       </c>
       <c r="L33" s="29">
-        <v>43018</v>
+        <v>43069</v>
       </c>
       <c r="M33" s="15">
-        <f t="shared" si="46"/>
-        <v>10</v>
+        <f t="shared" si="51"/>
+        <v>30</v>
       </c>
       <c r="N33" s="30">
-        <f t="shared" si="47"/>
-        <v>10</v>
+        <f t="shared" si="52"/>
+        <v>11</v>
       </c>
       <c r="O33" s="30">
-        <f t="shared" si="48"/>
+        <f t="shared" si="53"/>
         <v>2017</v>
       </c>
       <c r="P33" s="25" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="58"/>
         <v>Tag</v>
       </c>
       <c r="Q33" s="25" t="str">
@@ -3563,18 +3568,18 @@
         <v>44</v>
       </c>
       <c r="T33" s="11" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="55"/>
         <v>Octaflower, the Creative Archive's logo. A geometric lotus flower composed of eight rows of eight petals in rainbow progression.</v>
       </c>
       <c r="U33" s="11" t="str">
-        <f t="shared" si="51"/>
-        <v>All content classified under Mosaic</v>
+        <f t="shared" si="56"/>
+        <v>All content classified under Creative-Archive</v>
       </c>
       <c r="V33" s="12"/>
       <c r="W33" s="11"/>
       <c r="X33" s="11" t="str">
-        <f t="shared" si="49"/>
-        <v>«SITE-HTTP»/tag-Mosaic</v>
+        <f t="shared" si="54"/>
+        <v>«SITE-HTTP»/tag-Creative-Archive</v>
       </c>
       <c r="Y33" s="12"/>
       <c r="Z33" s="12"/>
@@ -3587,60 +3592,60 @@
     </row>
     <row r="34" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A34" s="11" t="str">
-        <f>"tag-"&amp;SUBSTITUTE(Tags!$A8," ","-")</f>
-        <v>tag-Travel</v>
+        <f>"tag-"&amp;SUBSTITUTE(Tags!$A7," ","-")</f>
+        <v>tag-Mosaic</v>
       </c>
       <c r="B34" s="25" t="str">
-        <f>Tags!$B8</f>
+        <f>Tags!$B7</f>
         <v>No</v>
       </c>
-      <c r="C34" s="25"/>
-      <c r="D34" s="11" t="str">
-        <f>$D$30</f>
-        <v>«PAGE-SIMPLE»</v>
-      </c>
-      <c r="E34" s="11" t="str">
-        <f>$E$30</f>
-        <v>«TAGSELECT:Filter{"Tags"-&gt;_?(StringMatchQ[#,___~~"«POST:Load»"~~___]&amp;),"Type"-&gt;_,"Day"-&gt;_?NumberQ,"Month"-&gt;_?NumberQ,"Year"-&gt;_?NumberQ}»</v>
+      <c r="C34" s="25">
+        <v>6</v>
+      </c>
+      <c r="D34" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="E34" s="12" t="s">
+        <v>112</v>
       </c>
       <c r="F34" s="25" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v>archive</v>
       </c>
       <c r="G34" s="11" t="str">
-        <f>"Classed as '"&amp;Tags!$A8&amp;"'"</f>
-        <v>Classed as 'Travel'</v>
+        <f>H34&amp;"s"</f>
+        <v>Mosaics</v>
       </c>
       <c r="H34" s="11" t="str">
-        <f>Tags!$A8</f>
-        <v>Travel</v>
+        <f>Tags!$A7</f>
+        <v>Mosaic</v>
       </c>
       <c r="I34" s="22"/>
       <c r="J34" s="22" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="50"/>
         <v>2018-03-02</v>
       </c>
       <c r="K34" s="22" t="str">
-        <f t="shared" ca="1" si="38"/>
+        <f t="shared" ca="1" si="43"/>
         <v>yearly</v>
       </c>
       <c r="L34" s="29">
         <v>43018</v>
       </c>
       <c r="M34" s="15">
-        <f t="shared" si="46"/>
+        <f t="shared" si="51"/>
         <v>10</v>
       </c>
       <c r="N34" s="30">
-        <f t="shared" si="47"/>
+        <f t="shared" si="52"/>
         <v>10</v>
       </c>
       <c r="O34" s="30">
-        <f t="shared" si="48"/>
+        <f t="shared" si="53"/>
         <v>2017</v>
       </c>
       <c r="P34" s="25" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="58"/>
         <v>Tag</v>
       </c>
       <c r="Q34" s="25" t="str">
@@ -3652,18 +3657,18 @@
         <v>44</v>
       </c>
       <c r="T34" s="11" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="55"/>
         <v>Octaflower, the Creative Archive's logo. A geometric lotus flower composed of eight rows of eight petals in rainbow progression.</v>
       </c>
       <c r="U34" s="11" t="str">
-        <f t="shared" si="51"/>
-        <v>All content classified under Travel</v>
+        <f t="shared" si="56"/>
+        <v>All content classified under Mosaic</v>
       </c>
       <c r="V34" s="12"/>
       <c r="W34" s="11"/>
       <c r="X34" s="11" t="str">
-        <f t="shared" si="49"/>
-        <v>«SITE-HTTP»/tag-Travel</v>
+        <f t="shared" si="54"/>
+        <v>«SITE-HTTP»/tag-Mosaic</v>
       </c>
       <c r="Y34" s="12"/>
       <c r="Z34" s="12"/>
@@ -3676,60 +3681,60 @@
     </row>
     <row r="35" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A35" s="11" t="str">
-        <f>"tag-"&amp;SUBSTITUTE(Tags!$A9," ","-")</f>
-        <v>tag-Wallpaper</v>
+        <f>"tag-"&amp;SUBSTITUTE(Tags!$A8," ","-")</f>
+        <v>tag-Travel</v>
       </c>
       <c r="B35" s="25" t="str">
-        <f>Tags!$B9</f>
+        <f>Tags!$B8</f>
         <v>No</v>
       </c>
       <c r="C35" s="25"/>
       <c r="D35" s="11" t="str">
-        <f>D$33</f>
-        <v>«PAGE-FEATURED-EMPTY»</v>
+        <f>$D$31</f>
+        <v>«PAGE-SIMPLE»</v>
       </c>
       <c r="E35" s="11" t="str">
-        <f>E$33</f>
-        <v>«FEATURED-ITEM:Filter{"Tags"-&gt;_?(StringMatchQ[#,___~~"«POST:Load»"~~___]&amp;),"Type"-&gt;_,"Day"-&gt;_?NumberQ,"Month"-&gt;_?NumberQ,"Year"-&gt;_?NumberQ}»</v>
+        <f>$E$31</f>
+        <v>«TAGSELECT:Filter{"Tags"-&gt;_?(StringMatchQ[#,___~~"«POST:Load»"~~___]&amp;),"Type"-&gt;_,"Day"-&gt;_?NumberQ,"Month"-&gt;_?NumberQ,"Year"-&gt;_?NumberQ}»</v>
       </c>
       <c r="F35" s="25" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v>archive</v>
       </c>
       <c r="G35" s="11" t="str">
-        <f>"All"&amp;" "&amp;H35&amp;"s"</f>
-        <v>All Wallpapers</v>
+        <f>"Classed as '"&amp;Tags!$A8&amp;"'"</f>
+        <v>Classed as 'Travel'</v>
       </c>
       <c r="H35" s="11" t="str">
-        <f>Tags!$A9</f>
-        <v>Wallpaper</v>
+        <f>Tags!$A8</f>
+        <v>Travel</v>
       </c>
       <c r="I35" s="22"/>
       <c r="J35" s="22" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="50"/>
         <v>2018-03-02</v>
       </c>
       <c r="K35" s="22" t="str">
-        <f t="shared" ca="1" si="38"/>
+        <f t="shared" ca="1" si="43"/>
         <v>yearly</v>
       </c>
       <c r="L35" s="29">
         <v>43018</v>
       </c>
       <c r="M35" s="15">
-        <f t="shared" si="46"/>
+        <f t="shared" si="51"/>
         <v>10</v>
       </c>
       <c r="N35" s="30">
-        <f t="shared" si="47"/>
+        <f t="shared" si="52"/>
         <v>10</v>
       </c>
       <c r="O35" s="30">
-        <f t="shared" si="48"/>
+        <f t="shared" si="53"/>
         <v>2017</v>
       </c>
       <c r="P35" s="25" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="58"/>
         <v>Tag</v>
       </c>
       <c r="Q35" s="25" t="str">
@@ -3741,18 +3746,18 @@
         <v>44</v>
       </c>
       <c r="T35" s="11" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="55"/>
         <v>Octaflower, the Creative Archive's logo. A geometric lotus flower composed of eight rows of eight petals in rainbow progression.</v>
       </c>
       <c r="U35" s="11" t="str">
-        <f t="shared" si="51"/>
-        <v>All content classified under Wallpaper</v>
+        <f t="shared" si="56"/>
+        <v>All content classified under Travel</v>
       </c>
       <c r="V35" s="12"/>
       <c r="W35" s="11"/>
       <c r="X35" s="11" t="str">
-        <f t="shared" si="49"/>
-        <v>«SITE-HTTP»/tag-Wallpaper</v>
+        <f t="shared" si="54"/>
+        <v>«SITE-HTTP»/tag-Travel</v>
       </c>
       <c r="Y35" s="12"/>
       <c r="Z35" s="12"/>
@@ -3765,60 +3770,60 @@
     </row>
     <row r="36" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A36" s="11" t="str">
-        <f>"tag-"&amp;SUBSTITUTE(Tags!$A10," ","-")</f>
-        <v>tag-Game</v>
+        <f>"tag-"&amp;SUBSTITUTE(Tags!$A9," ","-")</f>
+        <v>tag-Wallpaper</v>
       </c>
       <c r="B36" s="25" t="str">
-        <f>Tags!$B10</f>
-        <v>Yes</v>
+        <f>Tags!$B9</f>
+        <v>No</v>
       </c>
       <c r="C36" s="25"/>
       <c r="D36" s="11" t="str">
-        <f>D$33</f>
+        <f>D$34</f>
         <v>«PAGE-FEATURED-EMPTY»</v>
       </c>
       <c r="E36" s="11" t="str">
-        <f>$E$33</f>
+        <f>E$34</f>
         <v>«FEATURED-ITEM:Filter{"Tags"-&gt;_?(StringMatchQ[#,___~~"«POST:Load»"~~___]&amp;),"Type"-&gt;_,"Day"-&gt;_?NumberQ,"Month"-&gt;_?NumberQ,"Year"-&gt;_?NumberQ}»</v>
       </c>
       <c r="F36" s="25" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v>archive</v>
       </c>
       <c r="G36" s="11" t="str">
         <f>"All"&amp;" "&amp;H36&amp;"s"</f>
-        <v>All Games</v>
+        <v>All Wallpapers</v>
       </c>
       <c r="H36" s="11" t="str">
-        <f>Tags!$A10</f>
-        <v>Game</v>
+        <f>Tags!$A9</f>
+        <v>Wallpaper</v>
       </c>
       <c r="I36" s="22"/>
       <c r="J36" s="22" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="50"/>
         <v>2018-03-02</v>
       </c>
       <c r="K36" s="22" t="str">
-        <f t="shared" ref="K36" ca="1" si="54">IF(TODAY()-DATEVALUE(J36)&lt;15,"weekly",IF(TODAY()-DATEVALUE(J36)&lt;60,"monthly","yearly"))</f>
+        <f t="shared" ca="1" si="43"/>
         <v>yearly</v>
       </c>
       <c r="L36" s="29">
-        <v>41773</v>
+        <v>43018</v>
       </c>
       <c r="M36" s="15">
-        <f t="shared" si="46"/>
-        <v>14</v>
+        <f t="shared" si="51"/>
+        <v>10</v>
       </c>
       <c r="N36" s="30">
-        <f t="shared" si="47"/>
-        <v>5</v>
+        <f t="shared" si="52"/>
+        <v>10</v>
       </c>
       <c r="O36" s="30">
-        <f t="shared" si="48"/>
-        <v>2014</v>
+        <f t="shared" si="53"/>
+        <v>2017</v>
       </c>
       <c r="P36" s="25" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="58"/>
         <v>Tag</v>
       </c>
       <c r="Q36" s="25" t="str">
@@ -3830,18 +3835,18 @@
         <v>44</v>
       </c>
       <c r="T36" s="11" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="55"/>
         <v>Octaflower, the Creative Archive's logo. A geometric lotus flower composed of eight rows of eight petals in rainbow progression.</v>
       </c>
       <c r="U36" s="11" t="str">
-        <f t="shared" si="51"/>
-        <v>All content classified under Game</v>
+        <f t="shared" si="56"/>
+        <v>All content classified under Wallpaper</v>
       </c>
       <c r="V36" s="12"/>
       <c r="W36" s="11"/>
       <c r="X36" s="11" t="str">
-        <f t="shared" si="49"/>
-        <v>«SITE-HTTP»/tag-Game</v>
+        <f t="shared" si="54"/>
+        <v>«SITE-HTTP»/tag-Wallpaper</v>
       </c>
       <c r="Y36" s="12"/>
       <c r="Z36" s="12"/>
@@ -3854,60 +3859,60 @@
     </row>
     <row r="37" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A37" s="11" t="str">
-        <f>"tag-"&amp;SUBSTITUTE(Tags!$A11," ","-")</f>
-        <v>tag-Sitemap</v>
+        <f>"tag-"&amp;SUBSTITUTE(Tags!$A10," ","-")</f>
+        <v>tag-Game</v>
       </c>
       <c r="B37" s="25" t="str">
-        <f>Tags!$B11</f>
+        <f>Tags!$B10</f>
         <v>Yes</v>
       </c>
       <c r="C37" s="25"/>
       <c r="D37" s="11" t="str">
-        <f>$D$30</f>
-        <v>«PAGE-SIMPLE»</v>
+        <f>D$34</f>
+        <v>«PAGE-FEATURED-EMPTY»</v>
       </c>
       <c r="E37" s="11" t="str">
-        <f>$E$30</f>
-        <v>«TAGSELECT:Filter{"Tags"-&gt;_?(StringMatchQ[#,___~~"«POST:Load»"~~___]&amp;),"Type"-&gt;_,"Day"-&gt;_?NumberQ,"Month"-&gt;_?NumberQ,"Year"-&gt;_?NumberQ}»</v>
+        <f>$E$34</f>
+        <v>«FEATURED-ITEM:Filter{"Tags"-&gt;_?(StringMatchQ[#,___~~"«POST:Load»"~~___]&amp;),"Type"-&gt;_,"Day"-&gt;_?NumberQ,"Month"-&gt;_?NumberQ,"Year"-&gt;_?NumberQ}»</v>
       </c>
       <c r="F37" s="25" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v>archive</v>
       </c>
       <c r="G37" s="11" t="str">
-        <f>"Classed as '"&amp;Tags!$A11&amp;"'"</f>
-        <v>Classed as 'Sitemap'</v>
+        <f>"All"&amp;" "&amp;H37&amp;"s"</f>
+        <v>All Games</v>
       </c>
       <c r="H37" s="11" t="str">
-        <f>Tags!$A11</f>
-        <v>Sitemap</v>
+        <f>Tags!$A10</f>
+        <v>Game</v>
       </c>
       <c r="I37" s="22"/>
       <c r="J37" s="22" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="50"/>
         <v>2018-03-02</v>
       </c>
       <c r="K37" s="22" t="str">
-        <f t="shared" ref="K37" ca="1" si="55">IF(TODAY()-DATEVALUE(J37)&lt;15,"weekly",IF(TODAY()-DATEVALUE(J37)&lt;60,"monthly","yearly"))</f>
+        <f t="shared" ref="K37" ca="1" si="59">IF(TODAY()-DATEVALUE(J37)&lt;15,"weekly",IF(TODAY()-DATEVALUE(J37)&lt;60,"monthly","yearly"))</f>
         <v>yearly</v>
       </c>
       <c r="L37" s="29">
-        <v>43070</v>
+        <v>41773</v>
       </c>
       <c r="M37" s="15">
-        <f t="shared" si="46"/>
-        <v>1</v>
+        <f t="shared" si="51"/>
+        <v>14</v>
       </c>
       <c r="N37" s="30">
-        <f t="shared" si="47"/>
-        <v>12</v>
+        <f t="shared" si="52"/>
+        <v>5</v>
       </c>
       <c r="O37" s="30">
-        <f t="shared" si="48"/>
-        <v>2017</v>
+        <f t="shared" si="53"/>
+        <v>2014</v>
       </c>
       <c r="P37" s="25" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="58"/>
         <v>Tag</v>
       </c>
       <c r="Q37" s="25" t="str">
@@ -3919,18 +3924,18 @@
         <v>44</v>
       </c>
       <c r="T37" s="11" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="55"/>
         <v>Octaflower, the Creative Archive's logo. A geometric lotus flower composed of eight rows of eight petals in rainbow progression.</v>
       </c>
       <c r="U37" s="11" t="str">
-        <f t="shared" si="51"/>
-        <v>All content classified under Sitemap</v>
+        <f t="shared" si="56"/>
+        <v>All content classified under Game</v>
       </c>
       <c r="V37" s="12"/>
       <c r="W37" s="11"/>
       <c r="X37" s="11" t="str">
-        <f t="shared" si="49"/>
-        <v>«SITE-HTTP»/tag-Sitemap</v>
+        <f t="shared" si="54"/>
+        <v>«SITE-HTTP»/tag-Game</v>
       </c>
       <c r="Y37" s="12"/>
       <c r="Z37" s="12"/>
@@ -3943,60 +3948,60 @@
     </row>
     <row r="38" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A38" s="11" t="str">
-        <f>"tag-"&amp;SUBSTITUTE(Tags!$A12," ","-")</f>
-        <v>tag-Class</v>
+        <f>"tag-"&amp;SUBSTITUTE(Tags!$A11," ","-")</f>
+        <v>tag-Sitemap</v>
       </c>
       <c r="B38" s="25" t="str">
-        <f>Tags!$B12</f>
-        <v>No</v>
+        <f>Tags!$B11</f>
+        <v>Yes</v>
       </c>
       <c r="C38" s="25"/>
       <c r="D38" s="11" t="str">
-        <f>$D$30</f>
+        <f>$D$31</f>
         <v>«PAGE-SIMPLE»</v>
       </c>
       <c r="E38" s="11" t="str">
-        <f>$E$30</f>
+        <f>$E$31</f>
         <v>«TAGSELECT:Filter{"Tags"-&gt;_?(StringMatchQ[#,___~~"«POST:Load»"~~___]&amp;),"Type"-&gt;_,"Day"-&gt;_?NumberQ,"Month"-&gt;_?NumberQ,"Year"-&gt;_?NumberQ}»</v>
       </c>
       <c r="F38" s="25" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v>archive</v>
       </c>
       <c r="G38" s="11" t="str">
-        <f>"All"&amp;" "&amp;H38&amp;"es"</f>
-        <v>All Classes</v>
+        <f>"Classed as '"&amp;Tags!$A11&amp;"'"</f>
+        <v>Classed as 'Sitemap'</v>
       </c>
       <c r="H38" s="11" t="str">
-        <f>Tags!$A12</f>
-        <v>Class</v>
+        <f>Tags!$A11</f>
+        <v>Sitemap</v>
       </c>
       <c r="I38" s="22"/>
       <c r="J38" s="22" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="50"/>
         <v>2018-03-02</v>
       </c>
       <c r="K38" s="22" t="str">
-        <f t="shared" ref="K38" ca="1" si="56">IF(TODAY()-DATEVALUE(J38)&lt;15,"weekly",IF(TODAY()-DATEVALUE(J38)&lt;60,"monthly","yearly"))</f>
+        <f t="shared" ref="K38" ca="1" si="60">IF(TODAY()-DATEVALUE(J38)&lt;15,"weekly",IF(TODAY()-DATEVALUE(J38)&lt;60,"monthly","yearly"))</f>
         <v>yearly</v>
       </c>
       <c r="L38" s="29">
-        <v>41773</v>
+        <v>43070</v>
       </c>
       <c r="M38" s="15">
-        <f t="shared" si="46"/>
-        <v>14</v>
+        <f t="shared" si="51"/>
+        <v>1</v>
       </c>
       <c r="N38" s="30">
-        <f t="shared" si="47"/>
-        <v>5</v>
+        <f t="shared" si="52"/>
+        <v>12</v>
       </c>
       <c r="O38" s="30">
-        <f t="shared" si="48"/>
-        <v>2014</v>
+        <f t="shared" si="53"/>
+        <v>2017</v>
       </c>
       <c r="P38" s="25" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="58"/>
         <v>Tag</v>
       </c>
       <c r="Q38" s="25" t="str">
@@ -4008,18 +4013,18 @@
         <v>44</v>
       </c>
       <c r="T38" s="11" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="55"/>
         <v>Octaflower, the Creative Archive's logo. A geometric lotus flower composed of eight rows of eight petals in rainbow progression.</v>
       </c>
       <c r="U38" s="11" t="str">
-        <f t="shared" si="51"/>
-        <v>All content classified under Class</v>
+        <f t="shared" si="56"/>
+        <v>All content classified under Sitemap</v>
       </c>
       <c r="V38" s="12"/>
       <c r="W38" s="11"/>
       <c r="X38" s="11" t="str">
-        <f t="shared" si="49"/>
-        <v>«SITE-HTTP»/tag-Class</v>
+        <f t="shared" si="54"/>
+        <v>«SITE-HTTP»/tag-Sitemap</v>
       </c>
       <c r="Y38" s="12"/>
       <c r="Z38" s="12"/>
@@ -4032,60 +4037,60 @@
     </row>
     <row r="39" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A39" s="11" t="str">
-        <f>"tag-"&amp;SUBSTITUTE(Tags!$A13," ","-")</f>
-        <v>tag-Nature</v>
+        <f>"tag-"&amp;SUBSTITUTE(Tags!$A12," ","-")</f>
+        <v>tag-Class</v>
       </c>
       <c r="B39" s="25" t="str">
-        <f>Tags!$B13</f>
+        <f>Tags!$B12</f>
         <v>No</v>
       </c>
       <c r="C39" s="25"/>
       <c r="D39" s="11" t="str">
-        <f>$D$30</f>
+        <f>$D$31</f>
         <v>«PAGE-SIMPLE»</v>
       </c>
       <c r="E39" s="11" t="str">
-        <f>$E$30</f>
+        <f>$E$31</f>
         <v>«TAGSELECT:Filter{"Tags"-&gt;_?(StringMatchQ[#,___~~"«POST:Load»"~~___]&amp;),"Type"-&gt;_,"Day"-&gt;_?NumberQ,"Month"-&gt;_?NumberQ,"Year"-&gt;_?NumberQ}»</v>
       </c>
       <c r="F39" s="25" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v>archive</v>
       </c>
       <c r="G39" s="11" t="str">
-        <f>"Classed as '"&amp;Tags!$A13&amp;"'"</f>
-        <v>Classed as 'Nature'</v>
+        <f>"All"&amp;" "&amp;H39&amp;"es"</f>
+        <v>All Classes</v>
       </c>
       <c r="H39" s="11" t="str">
-        <f>Tags!$A13</f>
-        <v>Nature</v>
+        <f>Tags!$A12</f>
+        <v>Class</v>
       </c>
       <c r="I39" s="22"/>
       <c r="J39" s="22" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="50"/>
         <v>2018-03-02</v>
       </c>
       <c r="K39" s="22" t="str">
-        <f t="shared" ref="K39" ca="1" si="57">IF(TODAY()-DATEVALUE(J39)&lt;15,"weekly",IF(TODAY()-DATEVALUE(J39)&lt;60,"monthly","yearly"))</f>
+        <f t="shared" ref="K39" ca="1" si="61">IF(TODAY()-DATEVALUE(J39)&lt;15,"weekly",IF(TODAY()-DATEVALUE(J39)&lt;60,"monthly","yearly"))</f>
         <v>yearly</v>
       </c>
       <c r="L39" s="29">
-        <v>43225</v>
+        <v>41773</v>
       </c>
       <c r="M39" s="15">
-        <f t="shared" ref="M39" si="58">DAY(L39)</f>
+        <f t="shared" si="51"/>
+        <v>14</v>
+      </c>
+      <c r="N39" s="30">
+        <f t="shared" si="52"/>
         <v>5</v>
       </c>
-      <c r="N39" s="30">
-        <f t="shared" ref="N39" si="59">MONTH(L39)</f>
-        <v>5</v>
-      </c>
       <c r="O39" s="30">
-        <f t="shared" ref="O39" si="60">YEAR(L39)</f>
-        <v>2018</v>
+        <f t="shared" si="53"/>
+        <v>2014</v>
       </c>
       <c r="P39" s="25" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="58"/>
         <v>Tag</v>
       </c>
       <c r="Q39" s="25" t="str">
@@ -4097,18 +4102,18 @@
         <v>44</v>
       </c>
       <c r="T39" s="11" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="55"/>
         <v>Octaflower, the Creative Archive's logo. A geometric lotus flower composed of eight rows of eight petals in rainbow progression.</v>
       </c>
       <c r="U39" s="11" t="str">
-        <f t="shared" ref="U39" si="61">"All content classified under "&amp;H39</f>
-        <v>All content classified under Nature</v>
+        <f t="shared" si="56"/>
+        <v>All content classified under Class</v>
       </c>
       <c r="V39" s="12"/>
       <c r="W39" s="11"/>
       <c r="X39" s="11" t="str">
-        <f t="shared" si="49"/>
-        <v>«SITE-HTTP»/tag-Nature</v>
+        <f t="shared" si="54"/>
+        <v>«SITE-HTTP»/tag-Class</v>
       </c>
       <c r="Y39" s="12"/>
       <c r="Z39" s="12"/>
@@ -4118,6 +4123,95 @@
       <c r="AD39" s="12"/>
       <c r="AE39" s="12"/>
       <c r="AF39" s="12"/>
+    </row>
+    <row r="40" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A40" s="11" t="str">
+        <f>"tag-"&amp;SUBSTITUTE(Tags!$A13," ","-")</f>
+        <v>tag-Nature</v>
+      </c>
+      <c r="B40" s="25" t="str">
+        <f>Tags!$B13</f>
+        <v>No</v>
+      </c>
+      <c r="C40" s="25"/>
+      <c r="D40" s="11" t="str">
+        <f>$D$31</f>
+        <v>«PAGE-SIMPLE»</v>
+      </c>
+      <c r="E40" s="11" t="str">
+        <f>$E$31</f>
+        <v>«TAGSELECT:Filter{"Tags"-&gt;_?(StringMatchQ[#,___~~"«POST:Load»"~~___]&amp;),"Type"-&gt;_,"Day"-&gt;_?NumberQ,"Month"-&gt;_?NumberQ,"Year"-&gt;_?NumberQ}»</v>
+      </c>
+      <c r="F40" s="25" t="str">
+        <f t="shared" si="57"/>
+        <v>archive</v>
+      </c>
+      <c r="G40" s="11" t="str">
+        <f>"Classed as '"&amp;Tags!$A13&amp;"'"</f>
+        <v>Classed as 'Nature'</v>
+      </c>
+      <c r="H40" s="11" t="str">
+        <f>Tags!$A13</f>
+        <v>Nature</v>
+      </c>
+      <c r="I40" s="22"/>
+      <c r="J40" s="22" t="str">
+        <f t="shared" si="50"/>
+        <v>2018-03-02</v>
+      </c>
+      <c r="K40" s="22" t="str">
+        <f t="shared" ref="K40" ca="1" si="62">IF(TODAY()-DATEVALUE(J40)&lt;15,"weekly",IF(TODAY()-DATEVALUE(J40)&lt;60,"monthly","yearly"))</f>
+        <v>yearly</v>
+      </c>
+      <c r="L40" s="29">
+        <v>43225</v>
+      </c>
+      <c r="M40" s="15">
+        <f t="shared" ref="M40" si="63">DAY(L40)</f>
+        <v>5</v>
+      </c>
+      <c r="N40" s="30">
+        <f t="shared" ref="N40" si="64">MONTH(L40)</f>
+        <v>5</v>
+      </c>
+      <c r="O40" s="30">
+        <f t="shared" ref="O40" si="65">YEAR(L40)</f>
+        <v>2018</v>
+      </c>
+      <c r="P40" s="25" t="str">
+        <f t="shared" si="58"/>
+        <v>Tag</v>
+      </c>
+      <c r="Q40" s="25" t="str">
+        <f>Tags!$A$12</f>
+        <v>Class</v>
+      </c>
+      <c r="R40" s="12"/>
+      <c r="S40" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="T40" s="11" t="str">
+        <f t="shared" si="55"/>
+        <v>Octaflower, the Creative Archive's logo. A geometric lotus flower composed of eight rows of eight petals in rainbow progression.</v>
+      </c>
+      <c r="U40" s="11" t="str">
+        <f t="shared" ref="U40" si="66">"All content classified under "&amp;H40</f>
+        <v>All content classified under Nature</v>
+      </c>
+      <c r="V40" s="12"/>
+      <c r="W40" s="11"/>
+      <c r="X40" s="11" t="str">
+        <f t="shared" si="54"/>
+        <v>«SITE-HTTP»/tag-Nature</v>
+      </c>
+      <c r="Y40" s="12"/>
+      <c r="Z40" s="12"/>
+      <c r="AA40" s="12"/>
+      <c r="AB40" s="12"/>
+      <c r="AC40" s="12"/>
+      <c r="AD40" s="12"/>
+      <c r="AE40" s="12"/>
+      <c r="AF40" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4151,7 +4245,7 @@
         <v>101</v>
       </c>
       <c r="B2" s="26" t="str">
-        <f>IF(COUNTIFS(EN!$Q$1:$Q$21,"*"&amp;Tags!$A2&amp;"*",EN!$B$1:$B$21,"Yes")&gt;0,"Yes","No")</f>
+        <f>IF(COUNTIFS(EN!$Q$1:$Q$22,"*"&amp;Tags!$A2&amp;"*",EN!$B$1:$B$22,"Yes")&gt;0,"Yes","No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -4160,7 +4254,7 @@
         <v>43</v>
       </c>
       <c r="B3" s="26" t="str">
-        <f>IF(COUNTIFS(EN!$Q$1:$Q$21,"*"&amp;Tags!$A3&amp;"*",EN!$B$1:$B$21,"Yes")&gt;0,"Yes","No")</f>
+        <f>IF(COUNTIFS(EN!$Q$1:$Q$22,"*"&amp;Tags!$A3&amp;"*",EN!$B$1:$B$22,"Yes")&gt;0,"Yes","No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -4169,7 +4263,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="26" t="str">
-        <f>IF(COUNTIFS(EN!$Q$1:$Q$21,"*"&amp;Tags!$A4&amp;"*",EN!$B$1:$B$21,"Yes")&gt;0,"Yes","No")</f>
+        <f>IF(COUNTIFS(EN!$Q$1:$Q$22,"*"&amp;Tags!$A4&amp;"*",EN!$B$1:$B$22,"Yes")&gt;0,"Yes","No")</f>
         <v>No</v>
       </c>
     </row>
@@ -4178,7 +4272,7 @@
         <v>106</v>
       </c>
       <c r="B5" s="26" t="str">
-        <f>IF(COUNTIFS(EN!$Q$1:$Q$21,"*"&amp;Tags!$A5&amp;"*",EN!$B$1:$B$21,"Yes")&gt;0,"Yes","No")</f>
+        <f>IF(COUNTIFS(EN!$Q$1:$Q$22,"*"&amp;Tags!$A5&amp;"*",EN!$B$1:$B$22,"Yes")&gt;0,"Yes","No")</f>
         <v>No</v>
       </c>
     </row>
@@ -4187,7 +4281,7 @@
         <v>59</v>
       </c>
       <c r="B6" s="26" t="str">
-        <f>IF(COUNTIFS(EN!$Q$1:$Q$21,"*"&amp;Tags!$A6&amp;"*",EN!$B$1:$B$21,"Yes")&gt;0,"Yes","No")</f>
+        <f>IF(COUNTIFS(EN!$Q$1:$Q$22,"*"&amp;Tags!$A6&amp;"*",EN!$B$1:$B$22,"Yes")&gt;0,"Yes","No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -4196,7 +4290,7 @@
         <v>64</v>
       </c>
       <c r="B7" s="26" t="str">
-        <f>IF(COUNTIFS(EN!$Q$1:$Q$21,"*"&amp;Tags!$A7&amp;"*",EN!$B$1:$B$21,"Yes")&gt;0,"Yes","No")</f>
+        <f>IF(COUNTIFS(EN!$Q$1:$Q$22,"*"&amp;Tags!$A7&amp;"*",EN!$B$1:$B$22,"Yes")&gt;0,"Yes","No")</f>
         <v>No</v>
       </c>
     </row>
@@ -4205,7 +4299,7 @@
         <v>61</v>
       </c>
       <c r="B8" s="26" t="str">
-        <f>IF(COUNTIFS(EN!$Q$1:$Q$21,"*"&amp;Tags!$A8&amp;"*",EN!$B$1:$B$21,"Yes")&gt;0,"Yes","No")</f>
+        <f>IF(COUNTIFS(EN!$Q$1:$Q$22,"*"&amp;Tags!$A8&amp;"*",EN!$B$1:$B$22,"Yes")&gt;0,"Yes","No")</f>
         <v>No</v>
       </c>
     </row>
@@ -4214,7 +4308,7 @@
         <v>60</v>
       </c>
       <c r="B9" s="26" t="str">
-        <f>IF(COUNTIFS(EN!$Q$1:$Q$21,"*"&amp;Tags!$A9&amp;"*",EN!$B$1:$B$21,"Yes")&gt;0,"Yes","No")</f>
+        <f>IF(COUNTIFS(EN!$Q$1:$Q$22,"*"&amp;Tags!$A9&amp;"*",EN!$B$1:$B$22,"Yes")&gt;0,"Yes","No")</f>
         <v>No</v>
       </c>
     </row>
@@ -4223,7 +4317,7 @@
         <v>25</v>
       </c>
       <c r="B10" s="26" t="str">
-        <f>IF(COUNTIFS(EN!$Q$1:$Q$21,"*"&amp;Tags!$A10&amp;"*",EN!$B$1:$B$21,"Yes")&gt;0,"Yes","No")</f>
+        <f>IF(COUNTIFS(EN!$Q$1:$Q$22,"*"&amp;Tags!$A10&amp;"*",EN!$B$1:$B$22,"Yes")&gt;0,"Yes","No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -4232,7 +4326,7 @@
         <v>105</v>
       </c>
       <c r="B11" s="26" t="str">
-        <f>IF(COUNTIFS(EN!$Q$1:$Q$21,"*"&amp;Tags!$A11&amp;"*",EN!$B$1:$B$21,"Yes")&gt;0,"Yes","No")</f>
+        <f>IF(COUNTIFS(EN!$Q$1:$Q$22,"*"&amp;Tags!$A11&amp;"*",EN!$B$1:$B$22,"Yes")&gt;0,"Yes","No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -4241,7 +4335,7 @@
         <v>109</v>
       </c>
       <c r="B12" s="26" t="str">
-        <f>IF(COUNTIFS(EN!$Q$1:$Q$21,"*"&amp;Tags!$A12&amp;"*",EN!$B$1:$B$21,"Yes")&gt;0,"Yes","No")</f>
+        <f>IF(COUNTIFS(EN!$Q$1:$Q$22,"*"&amp;Tags!$A12&amp;"*",EN!$B$1:$B$22,"Yes")&gt;0,"Yes","No")</f>
         <v>No</v>
       </c>
     </row>
@@ -4250,7 +4344,7 @@
         <v>120</v>
       </c>
       <c r="B13" s="26" t="str">
-        <f>IF(COUNTIFS(EN!$Q$1:$Q$21,"*"&amp;Tags!$A13&amp;"*",EN!$B$1:$B$21,"Yes")&gt;0,"Yes","No")</f>
+        <f>IF(COUNTIFS(EN!$Q$1:$Q$22,"*"&amp;Tags!$A13&amp;"*",EN!$B$1:$B$22,"Yes")&gt;0,"Yes","No")</f>
         <v>No</v>
       </c>
     </row>

--- a/cms/CMS.xlsx
+++ b/cms/CMS.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="169">
   <si>
     <t>Title</t>
   </si>
@@ -105,12 +105,6 @@
     <t>Unlucky Unlock</t>
   </si>
   <si>
-    <t>Reviews</t>
-  </si>
-  <si>
-    <t>http://www.bontegames.com/2014/07/unlucky-unlock.html</t>
-  </si>
-  <si>
     <t>6e1e4c24d22dc93d9fdf</t>
   </si>
   <si>
@@ -246,12 +240,6 @@
     <t>Veronese tricolor wallpaper</t>
   </si>
   <si>
-    <t>https://youtu.be/O0bgxNeMX-o</t>
-  </si>
-  <si>
-    <t>Trailer</t>
-  </si>
-  <si>
     <t>viking-carpet</t>
   </si>
   <si>
@@ -505,6 +493,36 @@
   </si>
   <si>
     <t>«GUESTBOOK-AREA»</t>
+  </si>
+  <si>
+    <t>Whitesand</t>
+  </si>
+  <si>
+    <t>Legend of The King</t>
+  </si>
+  <si>
+    <t>https://twitter.com/martynlaur</t>
+  </si>
+  <si>
+    <t>Role-playing</t>
+  </si>
+  <si>
+    <t>04e9b3dc13d2708e64a0adc4ddb916a0</t>
+  </si>
+  <si>
+    <t>Tiaradventur</t>
+  </si>
+  <si>
+    <t>GN</t>
+  </si>
+  <si>
+    <t>«GAME-NAVIGATION»</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Honours</t>
   </si>
 </sst>
 </file>
@@ -971,13 +989,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AF40"/>
+  <dimension ref="A1:AF42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="X14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H11" sqref="H11"/>
+      <selection pane="bottomRight" activeCell="Z25" sqref="Z25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1006,7 +1024,9 @@
     <col min="22" max="22" width="15.90625" style="2"/>
     <col min="23" max="23" width="4.453125" style="7" customWidth="1"/>
     <col min="24" max="24" width="22.1796875" style="7" customWidth="1"/>
-    <col min="25" max="31" width="15.90625" style="2"/>
+    <col min="25" max="25" width="15.90625" style="2"/>
+    <col min="26" max="26" width="25.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="27" max="31" width="15.90625" style="2"/>
     <col min="32" max="32" width="23.1796875" style="2" bestFit="1" customWidth="1"/>
     <col min="33" max="16384" width="15.90625" style="2"/>
   </cols>
@@ -1025,10 +1045,10 @@
         <v>15</v>
       </c>
       <c r="E1" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>34</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>36</v>
       </c>
       <c r="G1" s="5" t="s">
         <v>0</v>
@@ -1037,13 +1057,13 @@
         <v>3</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="L1" s="5" t="s">
         <v>1</v>
@@ -1070,60 +1090,60 @@
         <v>7</v>
       </c>
       <c r="T1" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="U1" s="5" t="s">
         <v>11</v>
       </c>
       <c r="V1" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="W1" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="X1" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="Y1" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z1" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="AA1" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="AB1" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="X1" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="Y1" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="Z1" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="AA1" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="AB1" s="5" t="s">
-        <v>89</v>
-      </c>
       <c r="AC1" s="5" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="AD1" s="5" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="AE1" s="5" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="AF1" s="5" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A2" s="9" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>37</v>
-      </c>
       <c r="G2" s="2" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="H2" s="7" t="str">
         <f>"«"&amp;A2&amp;"»"</f>
@@ -1168,7 +1188,7 @@
         <v>5</v>
       </c>
       <c r="S2" s="7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="T2" s="7" t="str">
         <f>$T$9</f>
@@ -1190,7 +1210,7 @@
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A3" s="9" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>5</v>
@@ -1200,10 +1220,10 @@
         <v>«PAGE-POST-MD»</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="H3" s="7" t="str">
         <f>"«"&amp;A3&amp;"»"</f>
@@ -1248,7 +1268,7 @@
         <v>5</v>
       </c>
       <c r="S3" s="7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="T3" s="7" t="str">
         <f>$T$9</f>
@@ -1270,7 +1290,7 @@
     </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A4" s="9" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>5</v>
@@ -1280,10 +1300,10 @@
         <v>«PAGE-POST-MD»</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H4" s="7" t="str">
         <f>"«"&amp;A4&amp;"»"</f>
@@ -1328,7 +1348,7 @@
         <v>5</v>
       </c>
       <c r="S4" s="7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="T4" s="7" t="str">
         <f>$T$9</f>
@@ -1350,7 +1370,7 @@
     </row>
     <row r="5" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A5" s="16" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>5</v>
@@ -1364,13 +1384,13 @@
         <v>«fleur-de-lis»</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="I5" s="16">
         <v>43145</v>
@@ -1399,7 +1419,7 @@
         <v>2018</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="Q5" s="2" t="str">
         <f>Tags!$A$7&amp;", "&amp;Tags!$A$8&amp;", "&amp;Tags!$A$9</f>
@@ -1413,14 +1433,14 @@
         <v>mosaic/fleur-de-lis.png</v>
       </c>
       <c r="T5" s="9" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="U5" s="7" t="str">
         <f t="shared" si="1"/>
         <v>«fleur-de-lis:MarkShort»</v>
       </c>
       <c r="V5" s="9" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="W5" s="16"/>
       <c r="X5" s="16" t="str">
@@ -1433,7 +1453,7 @@
     </row>
     <row r="6" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A6" s="16" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>5</v>
@@ -1447,10 +1467,10 @@
         <v>«scales»</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H6" s="7" t="str">
         <f>$H$5</f>
@@ -1498,14 +1518,14 @@
         <v>mosaic/scales.png</v>
       </c>
       <c r="T6" s="9" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="U6" s="7" t="str">
         <f t="shared" si="1"/>
         <v>«scales:MarkShort»</v>
       </c>
       <c r="V6" s="9" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="W6" s="16"/>
       <c r="X6" s="16" t="str">
@@ -1516,7 +1536,7 @@
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A7" s="16" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>5</v>
@@ -1530,10 +1550,10 @@
         <v>«veronese»</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H7" s="7" t="str">
         <f>$H$5</f>
@@ -1566,7 +1586,7 @@
         <v>2018</v>
       </c>
       <c r="P7" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="Q7" s="2" t="str">
         <f>Tags!$A$7&amp;", "&amp;Tags!$A$8&amp;", "&amp;Tags!$A$9</f>
@@ -1580,14 +1600,14 @@
         <v>mosaic/veronese.png</v>
       </c>
       <c r="T7" s="9" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="U7" s="7" t="str">
         <f t="shared" si="1"/>
         <v>«veronese:MarkShort»</v>
       </c>
       <c r="V7" s="9" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="W7" s="16"/>
       <c r="X7" s="16" t="str">
@@ -1600,7 +1620,7 @@
     </row>
     <row r="8" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A8" s="16" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>5</v>
@@ -1614,10 +1634,10 @@
         <v>«viking-carpet»</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="H8" s="7" t="str">
         <f>$H$5</f>
@@ -1650,7 +1670,7 @@
         <v>2017</v>
       </c>
       <c r="P8" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="Q8" s="2" t="str">
         <f>Tags!$A$7&amp;", "&amp;Tags!$A$8&amp;", "&amp;Tags!$A$9</f>
@@ -1664,14 +1684,14 @@
         <v>mosaic/viking-carpet.png</v>
       </c>
       <c r="T8" s="9" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="U8" s="7" t="str">
         <f t="shared" si="1"/>
         <v>«viking-carpet:MarkShort»</v>
       </c>
       <c r="V8" s="9" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="W8" s="16"/>
       <c r="X8" s="16" t="str">
@@ -1700,10 +1720,10 @@
         <v>«about»</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="H9" s="7" t="str">
         <f>"«"&amp;A9&amp;"»"</f>
@@ -1747,17 +1767,17 @@
         <v>5</v>
       </c>
       <c r="S9" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="T9" s="9" t="s">
         <v>56</v>
-      </c>
-      <c r="T9" s="9" t="s">
-        <v>58</v>
       </c>
       <c r="U9" s="7" t="str">
         <f t="shared" si="1"/>
         <v>«about:MarkShort»</v>
       </c>
       <c r="V9" s="9" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="X9" s="7" t="str">
         <f t="shared" si="2"/>
@@ -1766,23 +1786,23 @@
     </row>
     <row r="10" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A10" s="9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="I10" s="16"/>
       <c r="J10" s="23" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="K10" s="10" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -1843,16 +1863,16 @@
         <v>3</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="H11" s="7" t="str">
         <f t="shared" ref="H11:H18" si="8">"«"&amp;A11&amp;"»"</f>
@@ -1867,7 +1887,7 @@
       </c>
       <c r="K11" s="10" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>weekly</v>
+        <v>monthly</v>
       </c>
       <c r="L11" s="3">
         <v>43303</v>
@@ -1885,7 +1905,7 @@
         <v>2018</v>
       </c>
       <c r="P11" s="2" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="Q11" s="2" t="str">
         <f>Tags!$A$6</f>
@@ -1895,14 +1915,14 @@
         <v>5</v>
       </c>
       <c r="S11" s="7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="T11" s="7" t="str">
         <f>$T$9</f>
         <v>Octaflower, the Creative Archive's logo. A geometric lotus flower composed of eight rows of eight petals in rainbow progression.</v>
       </c>
       <c r="U11" s="9" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="V11" s="7" t="str">
         <f>IF(P11="Post","article","website")</f>
@@ -1925,10 +1945,10 @@
         <v>2</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F12" s="4"/>
       <c r="G12" s="2" t="s">
@@ -1954,14 +1974,14 @@
         <v>Creative-Archive</v>
       </c>
       <c r="S12" s="7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="T12" s="7" t="str">
         <f>$T$9</f>
         <v>Octaflower, the Creative Archive's logo. A geometric lotus flower composed of eight rows of eight petals in rainbow progression.</v>
       </c>
       <c r="U12" s="9" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="V12" s="7" t="str">
         <f>IF(P12="Post","article","website")</f>
@@ -1981,16 +2001,16 @@
         <v>5</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="H13" s="7" t="str">
         <f t="shared" si="8"/>
@@ -2000,12 +2020,12 @@
         <v>43265</v>
       </c>
       <c r="J13" s="10" t="str">
-        <f t="shared" ref="J13:J22" si="14">YEAR(I13)&amp;TEXT("-"&amp;MONTH(I13),"00")&amp;TEXT("-"&amp;DAY(I13),"00")</f>
+        <f t="shared" ref="J13:J23" si="14">YEAR(I13)&amp;TEXT("-"&amp;MONTH(I13),"00")&amp;TEXT("-"&amp;DAY(I13),"00")</f>
         <v>2018-06-14</v>
       </c>
       <c r="K13" s="10" t="str">
         <f t="shared" ref="K13" ca="1" si="15">IF(TODAY()-DATEVALUE(J13)&lt;15,"weekly",IF(TODAY()-DATEVALUE(J13)&lt;60,"monthly","yearly"))</f>
-        <v>monthly</v>
+        <v>yearly</v>
       </c>
       <c r="L13" s="3">
         <v>43185</v>
@@ -2023,7 +2043,7 @@
         <v>2018</v>
       </c>
       <c r="P13" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="Q13" s="2" t="str">
         <f>Tags!$A$6</f>
@@ -2033,14 +2053,14 @@
         <v>5</v>
       </c>
       <c r="S13" s="7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="T13" s="7" t="str">
         <f>$T$9</f>
         <v>Octaflower, the Creative Archive's logo. A geometric lotus flower composed of eight rows of eight petals in rainbow progression.</v>
       </c>
       <c r="U13" s="9" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="V13" s="7" t="str">
         <f>IF(P13="Post","article","website")</f>
@@ -2060,13 +2080,13 @@
         <v>5</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>26</v>
@@ -2083,7 +2103,7 @@
         <v>2018-02-01</v>
       </c>
       <c r="K14" s="10" t="str">
-        <f t="shared" ref="K14:K19" ca="1" si="18">IF(TODAY()-DATEVALUE(J14)&lt;15,"weekly",IF(TODAY()-DATEVALUE(J14)&lt;60,"monthly","yearly"))</f>
+        <f t="shared" ref="K14:K20" ca="1" si="18">IF(TODAY()-DATEVALUE(J14)&lt;15,"weekly",IF(TODAY()-DATEVALUE(J14)&lt;60,"monthly","yearly"))</f>
         <v>yearly</v>
       </c>
       <c r="L14" s="3">
@@ -2098,7 +2118,7 @@
         <v>5</v>
       </c>
       <c r="O14" s="6">
-        <f t="shared" ref="O14:O22" si="19">YEAR(L14)</f>
+        <f t="shared" ref="O14:O23" si="19">YEAR(L14)</f>
         <v>2014</v>
       </c>
       <c r="P14" s="2" t="s">
@@ -2124,7 +2144,7 @@
         <v>«tetrastrophe:MarkShort»</v>
       </c>
       <c r="V14" s="7" t="str">
-        <f t="shared" ref="V14:V19" si="20">IF(P14="Post","article",IF(P14="Game","game","website"))</f>
+        <f t="shared" ref="V14:V20" si="20">IF(P14="Post","article",IF(P14="Game","game","website"))</f>
         <v>game</v>
       </c>
       <c r="X14" s="7" t="str">
@@ -2134,17 +2154,20 @@
       <c r="Y14" s="2" t="s">
         <v>27</v>
       </c>
+      <c r="AA14" s="2" t="s">
+        <v>166</v>
+      </c>
       <c r="AC14" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="AD14" s="2" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="AE14" s="2" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="AF14" s="4" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="15" spans="1:32" x14ac:dyDescent="0.35">
@@ -2160,14 +2183,14 @@
         <v>«PAGE-GAME-FULLSCREEN»</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F15" s="28" t="str">
         <f>$F$14</f>
         <v>prose</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H15" s="7" t="str">
         <f t="shared" si="8"/>
@@ -2230,22 +2253,23 @@
         <v>«SITE-HTTP»/blockworks</v>
       </c>
       <c r="Y15" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="Z15" t="s">
-        <v>76</v>
+        <v>45</v>
+      </c>
+      <c r="Z15"/>
+      <c r="AA15" s="2" t="s">
+        <v>166</v>
       </c>
       <c r="AC15" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="AD15" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="AE15" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="AF15" s="4" t="s">
         <v>141</v>
-      </c>
-      <c r="AE15" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="AF15" s="4" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="16" spans="1:32" x14ac:dyDescent="0.35">
@@ -2257,18 +2281,18 @@
         <v>5</v>
       </c>
       <c r="D16" s="28" t="str">
-        <f t="shared" ref="D16:D20" si="24">$D$14</f>
+        <f t="shared" ref="D16:D21" si="24">$D$14</f>
         <v>«PAGE-GAME-FULLSCREEN»</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F16" s="28" t="str">
-        <f t="shared" ref="F16:F20" si="25">$F$14</f>
+        <f t="shared" ref="F16:F21" si="25">$F$14</f>
         <v>prose</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="H16" s="7" t="str">
         <f t="shared" si="8"/>
@@ -2331,20 +2355,23 @@
         <v>«SITE-HTTP»/whirlpuzzle</v>
       </c>
       <c r="Z16" s="18"/>
+      <c r="AA16" s="2" t="s">
+        <v>166</v>
+      </c>
       <c r="AB16" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="AC16" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="AD16" s="2" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="AE16" s="2" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="AF16" s="4" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="17" spans="1:32" x14ac:dyDescent="0.35">
@@ -2360,7 +2387,7 @@
         <v>«PAGE-GAME-FULLSCREEN»</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F17" s="28" t="str">
         <f t="shared" si="25"/>
@@ -2430,30 +2457,30 @@
         <v>«SITE-HTTP»/unlucky-unlock</v>
       </c>
       <c r="Y17" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AA17" s="2" t="s">
-        <v>30</v>
+        <v>166</v>
       </c>
       <c r="AB17" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="AC17" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="AD17" s="2" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="AE17" s="2" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="AF17" s="4" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="18" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A18" s="9" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>5</v>
@@ -2463,14 +2490,14 @@
         <v>«PAGE-GAME-FULLSCREEN»</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F18" s="28" t="str">
         <f t="shared" si="25"/>
         <v>prose</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="H18" s="7" t="str">
         <f t="shared" si="8"/>
@@ -2532,34 +2559,37 @@
         <f t="shared" si="2"/>
         <v>«SITE-HTTP»/pmgrp</v>
       </c>
+      <c r="AA18" s="2" t="s">
+        <v>166</v>
+      </c>
       <c r="AC18" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="AD18" s="2" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="AE18" s="2" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="AF18" s="4" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="19" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A19" s="31" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>5</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="F19" s="28" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="H19" s="9" t="str">
         <f>"«combinatura»"</f>
@@ -2581,15 +2611,15 @@
         <v>43287</v>
       </c>
       <c r="M19" s="13">
-        <f t="shared" ref="M19:M20" si="32">DAY(L19)</f>
+        <f t="shared" ref="M19:M21" si="32">DAY(L19)</f>
         <v>6</v>
       </c>
       <c r="N19" s="6">
-        <f t="shared" ref="N19:N20" si="33">MONTH(L19)</f>
+        <f t="shared" ref="N19:N21" si="33">MONTH(L19)</f>
         <v>7</v>
       </c>
       <c r="O19" s="6">
-        <f t="shared" ref="O19:O20" si="34">YEAR(L19)</f>
+        <f t="shared" ref="O19:O21" si="34">YEAR(L19)</f>
         <v>2018</v>
       </c>
       <c r="P19" s="2" t="s">
@@ -2611,25 +2641,28 @@
         <v>The combinatura game logo.</v>
       </c>
       <c r="U19" s="9" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="V19" s="7" t="str">
         <f t="shared" si="20"/>
         <v>game</v>
       </c>
       <c r="X19" s="31" t="s">
+        <v>125</v>
+      </c>
+      <c r="Y19" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="AA19" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="AC19" s="2" t="s">
         <v>129</v>
-      </c>
-      <c r="Y19" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="AC19" s="2" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="20" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A20" s="7" t="str">
-        <f t="shared" ref="A20" si="35">SUBSTITUTE(LOWER(G20)," ","-")</f>
+        <f t="shared" ref="A20:A21" si="35">SUBSTITUTE(LOWER(G20)," ","-")</f>
         <v>hastefulll</v>
       </c>
       <c r="B20" s="2" t="s">
@@ -2640,14 +2673,14 @@
         <v>«PAGE-GAME-FULLSCREEN»</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="F20" s="28" t="str">
         <f t="shared" si="25"/>
         <v>prose</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="H20" s="7" t="str">
         <f>"«"&amp;A20&amp;"»"</f>
@@ -2658,26 +2691,26 @@
         <v>43293</v>
       </c>
       <c r="J20" s="10" t="str">
-        <f t="shared" ref="J20" si="36">YEAR(I20)&amp;TEXT("-"&amp;MONTH(I20),"00")&amp;TEXT("-"&amp;DAY(I20),"00")</f>
+        <f t="shared" si="14"/>
         <v>2018-07-12</v>
       </c>
       <c r="K20" s="10" t="str">
-        <f t="shared" ref="K20" ca="1" si="37">IF(TODAY()-DATEVALUE(J20)&lt;15,"weekly",IF(TODAY()-DATEVALUE(J20)&lt;60,"monthly","yearly"))</f>
-        <v>weekly</v>
+        <f t="shared" ca="1" si="18"/>
+        <v>monthly</v>
       </c>
       <c r="L20" s="3">
         <v>43293</v>
       </c>
       <c r="M20" s="13">
-        <f t="shared" si="32"/>
+        <f t="shared" ref="M20" si="36">DAY(L20)</f>
         <v>12</v>
       </c>
       <c r="N20" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" ref="N20" si="37">MONTH(L20)</f>
         <v>7</v>
       </c>
       <c r="O20" s="6">
-        <f t="shared" si="34"/>
+        <f t="shared" ref="O20" si="38">YEAR(L20)</f>
         <v>2018</v>
       </c>
       <c r="P20" s="2" t="s">
@@ -2703,152 +2736,180 @@
         <v>«hastefulll:MarkShort»</v>
       </c>
       <c r="V20" s="7" t="str">
-        <f t="shared" ref="V20" si="38">IF(P20="Post","article",IF(P20="Game","game","website"))</f>
+        <f t="shared" si="20"/>
         <v>game</v>
       </c>
       <c r="X20" s="7" t="str">
         <f t="shared" ref="X20" si="39">"«SITE-HTTP»/"&amp;A20</f>
         <v>«SITE-HTTP»/hastefulll</v>
       </c>
+      <c r="AA20" s="2" t="s">
+        <v>166</v>
+      </c>
       <c r="AC20" s="2" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="AD20" s="2" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="AE20" s="2" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="AF20" s="4" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="21" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A21" s="7" t="str">
-        <f>SUBSTITUTE(LOWER(G21)," ","-")</f>
-        <v>terms-of-use</v>
+        <f t="shared" si="35"/>
+        <v>tiaradventur</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D21" s="7" t="str">
-        <f>$D$2</f>
-        <v>«PAGE-POST-MD»</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>37</v>
+        <v>6</v>
+      </c>
+      <c r="D21" s="28" t="str">
+        <f t="shared" si="24"/>
+        <v>«PAGE-GAME-FULLSCREEN»</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="F21" s="28" t="str">
+        <f t="shared" si="25"/>
+        <v>prose</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>23</v>
+        <v>164</v>
       </c>
       <c r="H21" s="7" t="str">
         <f>"«"&amp;A21&amp;"»"</f>
-        <v>«terms-of-use»</v>
+        <v>«tiaradventur»</v>
       </c>
       <c r="I21" s="10">
         <f>L21</f>
-        <v>43069</v>
+        <v>43340</v>
       </c>
       <c r="J21" s="10" t="str">
-        <f t="shared" si="14"/>
-        <v>2017-11-30</v>
+        <f t="shared" ref="J21" si="40">YEAR(I21)&amp;TEXT("-"&amp;MONTH(I21),"00")&amp;TEXT("-"&amp;DAY(I21),"00")</f>
+        <v>2018-08-28</v>
       </c>
       <c r="K21" s="10" t="str">
-        <f ca="1">IF(TODAY()-DATEVALUE(J21)&lt;15,"weekly",IF(TODAY()-DATEVALUE(J21)&lt;60,"monthly","yearly"))</f>
-        <v>yearly</v>
+        <f t="shared" ref="K21" ca="1" si="41">IF(TODAY()-DATEVALUE(J21)&lt;15,"weekly",IF(TODAY()-DATEVALUE(J21)&lt;60,"monthly","yearly"))</f>
+        <v>weekly</v>
       </c>
       <c r="L21" s="3">
-        <v>43069</v>
+        <v>43340</v>
       </c>
       <c r="M21" s="13">
-        <f t="shared" ref="M21" si="40">DAY(L21)</f>
-        <v>30</v>
+        <f t="shared" si="32"/>
+        <v>28</v>
       </c>
       <c r="N21" s="6">
-        <f t="shared" ref="N21" si="41">MONTH(L21)</f>
-        <v>11</v>
+        <f t="shared" si="33"/>
+        <v>8</v>
       </c>
       <c r="O21" s="6">
-        <f t="shared" si="19"/>
-        <v>2017</v>
+        <f t="shared" si="34"/>
+        <v>2018</v>
       </c>
       <c r="P21" s="2" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="Q21" s="2" t="str">
-        <f>Tags!$A$6&amp;", "&amp;Tags!$A$4</f>
-        <v>Creative-Archive, Post</v>
+        <f>Tags!$A$10&amp;",  "&amp;Tags!$A$3&amp;",  "&amp;Tags!$A$14</f>
+        <v>Game,  Puzzle,  Role-playing</v>
       </c>
       <c r="R21" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="S21" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="T21" s="7" t="str">
-        <f>$T$9</f>
-        <v>Octaflower, the Creative Archive's logo. A geometric lotus flower composed of eight rows of eight petals in rainbow progression.</v>
+        <v>6</v>
+      </c>
+      <c r="S21" s="7" t="str">
+        <f>A21&amp;".png"</f>
+        <v>tiaradventur.png</v>
+      </c>
+      <c r="T21" s="9" t="str">
+        <f>"The legend of "&amp;A21&amp;"."</f>
+        <v>The legend of tiaradventur.</v>
       </c>
       <c r="U21" s="7" t="str">
         <f>"«"&amp;A21&amp;":MarkShort»"</f>
-        <v>«terms-of-use:MarkShort»</v>
+        <v>«tiaradventur:MarkShort»</v>
       </c>
       <c r="V21" s="7" t="str">
-        <f>IF(P21="Post","article",IF(P21="Game","game","website"))</f>
-        <v>article</v>
+        <f t="shared" ref="V21" si="42">IF(P21="Post","article",IF(P21="Game","game","website"))</f>
+        <v>game</v>
       </c>
       <c r="X21" s="7" t="str">
-        <f t="shared" ref="X21:X28" si="42">"«SITE-HTTP»/"&amp;A21</f>
-        <v>«SITE-HTTP»/terms-of-use</v>
+        <f t="shared" ref="X21" si="43">"«SITE-HTTP»/"&amp;A21</f>
+        <v>«SITE-HTTP»/tiaradventur</v>
+      </c>
+      <c r="Z21" s="28" t="str">
+        <f>"«HONOURS-"&amp;UPPER(A21)&amp;"»"</f>
+        <v>«HONOURS-TIARADVENTUR»</v>
+      </c>
+      <c r="AA21" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="AC21" t="s">
+        <v>129</v>
+      </c>
+      <c r="AD21" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="AE21" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="AF21" s="4" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="22" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A22" s="7" t="str">
         <f>SUBSTITUTE(LOWER(G22)," ","-")</f>
-        <v>privacy-policy</v>
+        <v>terms-of-use</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D22" s="7" t="str">
         <f>$D$2</f>
         <v>«PAGE-POST-MD»</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>57</v>
+        <v>23</v>
       </c>
       <c r="H22" s="7" t="str">
         <f>"«"&amp;A22&amp;"»"</f>
-        <v>«privacy-policy»</v>
-      </c>
-      <c r="I22" s="16">
-        <v>43169</v>
+        <v>«terms-of-use»</v>
+      </c>
+      <c r="I22" s="10">
+        <f>L22</f>
+        <v>43069</v>
       </c>
       <c r="J22" s="10" t="str">
         <f t="shared" si="14"/>
-        <v>2018-03-10</v>
+        <v>2017-11-30</v>
       </c>
       <c r="K22" s="10" t="str">
-        <f t="shared" ref="K22:K36" ca="1" si="43">IF(TODAY()-DATEVALUE(J22)&lt;15,"weekly",IF(TODAY()-DATEVALUE(J22)&lt;60,"monthly","yearly"))</f>
+        <f ca="1">IF(TODAY()-DATEVALUE(J22)&lt;15,"weekly",IF(TODAY()-DATEVALUE(J22)&lt;60,"monthly","yearly"))</f>
         <v>yearly</v>
       </c>
       <c r="L22" s="3">
-        <v>43141</v>
+        <v>43069</v>
       </c>
       <c r="M22" s="13">
         <f t="shared" ref="M22" si="44">DAY(L22)</f>
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="N22" s="6">
         <f t="shared" ref="N22" si="45">MONTH(L22)</f>
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="O22" s="6">
         <f t="shared" si="19"/>
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="P22" s="2" t="s">
         <v>3</v>
@@ -2861,7 +2922,7 @@
         <v>5</v>
       </c>
       <c r="S22" s="7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="T22" s="7" t="str">
         <f>$T$9</f>
@@ -2869,101 +2930,117 @@
       </c>
       <c r="U22" s="7" t="str">
         <f>"«"&amp;A22&amp;":MarkShort»"</f>
-        <v>«privacy-policy:MarkShort»</v>
+        <v>«terms-of-use:MarkShort»</v>
       </c>
       <c r="V22" s="7" t="str">
         <f>IF(P22="Post","article",IF(P22="Game","game","website"))</f>
         <v>article</v>
       </c>
       <c r="X22" s="7" t="str">
-        <f t="shared" si="42"/>
-        <v>«SITE-HTTP»/privacy-policy</v>
+        <f t="shared" ref="X22:X29" si="46">"«SITE-HTTP»/"&amp;A22</f>
+        <v>«SITE-HTTP»/terms-of-use</v>
       </c>
     </row>
     <row r="23" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A23" s="7" t="str">
         <f>SUBSTITUTE(LOWER(G23)," ","-")</f>
-        <v>posts-by-date</v>
+        <v>privacy-policy</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C23" s="2">
-        <v>4</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>39</v>
+      <c r="D23" s="7" t="str">
+        <f>$D$2</f>
+        <v>«PAGE-POST-MD»</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I23" s="19"/>
-      <c r="J23" s="24" t="str">
-        <f>YEAR($J$10)&amp;TEXT("-"&amp;MONTH($J$10),"00")&amp;TEXT("-"&amp;DAY($J$10),"00")</f>
-        <v>2018-03-02</v>
+        <v>55</v>
+      </c>
+      <c r="H23" s="7" t="str">
+        <f>"«"&amp;A23&amp;"»"</f>
+        <v>«privacy-policy»</v>
+      </c>
+      <c r="I23" s="16">
+        <v>43169</v>
+      </c>
+      <c r="J23" s="10" t="str">
+        <f t="shared" si="14"/>
+        <v>2018-03-10</v>
       </c>
       <c r="K23" s="10" t="str">
-        <f ca="1">IF(TODAY()-DATEVALUE(J23)&lt;15,"weekly",IF(TODAY()-DATEVALUE(J23)&lt;60,"monthly","yearly"))</f>
+        <f t="shared" ref="K23:K37" ca="1" si="47">IF(TODAY()-DATEVALUE(J23)&lt;15,"weekly",IF(TODAY()-DATEVALUE(J23)&lt;60,"monthly","yearly"))</f>
         <v>yearly</v>
       </c>
-      <c r="L23" s="20"/>
-      <c r="M23" s="13"/>
+      <c r="L23" s="3">
+        <v>43141</v>
+      </c>
+      <c r="M23" s="13">
+        <f t="shared" ref="M23" si="48">DAY(L23)</f>
+        <v>10</v>
+      </c>
+      <c r="N23" s="6">
+        <f t="shared" ref="N23" si="49">MONTH(L23)</f>
+        <v>2</v>
+      </c>
+      <c r="O23" s="6">
+        <f t="shared" si="19"/>
+        <v>2018</v>
+      </c>
       <c r="P23" s="2" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="Q23" s="2" t="str">
-        <f>Tags!$A$11</f>
-        <v>Sitemap</v>
-      </c>
-      <c r="S23" s="7" t="str">
-        <f>$S$9</f>
-        <v>logo.png</v>
+        <f>Tags!$A$6&amp;", "&amp;Tags!$A$4</f>
+        <v>Creative-Archive, Post</v>
+      </c>
+      <c r="R23" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="S23" s="7" t="s">
+        <v>42</v>
       </c>
       <c r="T23" s="7" t="str">
         <f>$T$9</f>
         <v>Octaflower, the Creative Archive's logo. A geometric lotus flower composed of eight rows of eight petals in rainbow progression.</v>
       </c>
       <c r="U23" s="7" t="str">
-        <f>"Archive of "&amp;G23</f>
-        <v>Archive of Posts by date</v>
+        <f>"«"&amp;A23&amp;":MarkShort»"</f>
+        <v>«privacy-policy:MarkShort»</v>
       </c>
       <c r="V23" s="7" t="str">
         <f>IF(P23="Post","article",IF(P23="Game","game","website"))</f>
-        <v>website</v>
+        <v>article</v>
       </c>
       <c r="X23" s="7" t="str">
-        <f t="shared" si="42"/>
-        <v>«SITE-HTTP»/posts-by-date</v>
+        <f t="shared" si="46"/>
+        <v>«SITE-HTTP»/privacy-policy</v>
       </c>
     </row>
     <row r="24" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A24" s="7" t="str">
         <f>SUBSTITUTE(LOWER(G24)," ","-")</f>
-        <v>posts-by-tag</v>
+        <v>posts-by-date</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C24" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>158</v>
+        <v>37</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="I24" s="19"/>
       <c r="J24" s="24" t="str">
@@ -2993,40 +3070,41 @@
       </c>
       <c r="U24" s="7" t="str">
         <f>"Archive of "&amp;G24</f>
-        <v>Archive of Posts by tag</v>
+        <v>Archive of Posts by date</v>
       </c>
       <c r="V24" s="7" t="str">
         <f>IF(P24="Post","article",IF(P24="Game","game","website"))</f>
         <v>website</v>
       </c>
       <c r="X24" s="7" t="str">
-        <f t="shared" si="42"/>
-        <v>«SITE-HTTP»/posts-by-tag</v>
+        <f t="shared" si="46"/>
+        <v>«SITE-HTTP»/posts-by-date</v>
       </c>
     </row>
     <row r="25" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A25" s="7" t="s">
-        <v>130</v>
+      <c r="A25" s="7" t="str">
+        <f>SUBSTITUTE(LOWER(G25)," ","-")</f>
+        <v>posts-by-tag</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C25" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>131</v>
+        <v>22</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>137</v>
+        <v>154</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="I25" s="10"/>
+        <v>49</v>
+      </c>
+      <c r="I25" s="19"/>
       <c r="J25" s="24" t="str">
         <f>YEAR($J$10)&amp;TEXT("-"&amp;MONTH($J$10),"00")&amp;TEXT("-"&amp;DAY($J$10),"00")</f>
         <v>2018-03-02</v>
@@ -3035,32 +3113,18 @@
         <f ca="1">IF(TODAY()-DATEVALUE(J25)&lt;15,"weekly",IF(TODAY()-DATEVALUE(J25)&lt;60,"monthly","yearly"))</f>
         <v>yearly</v>
       </c>
-      <c r="L25" s="3">
-        <v>43141</v>
-      </c>
-      <c r="M25" s="13">
-        <f t="shared" ref="M25" si="46">DAY(L25)</f>
-        <v>10</v>
-      </c>
-      <c r="N25" s="6">
-        <f t="shared" ref="N25" si="47">MONTH(L25)</f>
-        <v>2</v>
-      </c>
-      <c r="O25" s="6">
-        <f t="shared" ref="O25" si="48">YEAR(L25)</f>
-        <v>2018</v>
-      </c>
+      <c r="L25" s="20"/>
+      <c r="M25" s="13"/>
       <c r="P25" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="Q25" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="R25" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="S25" s="7" t="s">
-        <v>44</v>
+      <c r="Q25" s="2" t="str">
+        <f>Tags!$A$11</f>
+        <v>Sitemap</v>
+      </c>
+      <c r="S25" s="7" t="str">
+        <f>$S$9</f>
+        <v>logo.png</v>
       </c>
       <c r="T25" s="7" t="str">
         <f>$T$9</f>
@@ -3068,231 +3132,217 @@
       </c>
       <c r="U25" s="7" t="str">
         <f>"Archive of "&amp;G25</f>
-        <v>Archive of Games</v>
+        <v>Archive of Posts by tag</v>
       </c>
       <c r="V25" s="7" t="str">
         <f>IF(P25="Post","article",IF(P25="Game","game","website"))</f>
         <v>website</v>
       </c>
       <c r="X25" s="7" t="str">
-        <f t="shared" si="42"/>
-        <v>«SITE-HTTP»/games</v>
+        <f t="shared" si="46"/>
+        <v>«SITE-HTTP»/posts-by-tag</v>
       </c>
     </row>
     <row r="26" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A26" s="7" t="s">
-        <v>92</v>
+        <v>126</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="C26" s="2">
+        <v>6</v>
+      </c>
       <c r="D26" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="M26" s="14"/>
-      <c r="W26" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="X26" s="9" t="str">
-        <f t="shared" si="42"/>
-        <v>«SITE-HTTP»/robots</v>
+        <v>127</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I26" s="10"/>
+      <c r="J26" s="24" t="str">
+        <f>YEAR($J$10)&amp;TEXT("-"&amp;MONTH($J$10),"00")&amp;TEXT("-"&amp;DAY($J$10),"00")</f>
+        <v>2018-03-02</v>
+      </c>
+      <c r="K26" s="10" t="str">
+        <f ca="1">IF(TODAY()-DATEVALUE(J26)&lt;15,"weekly",IF(TODAY()-DATEVALUE(J26)&lt;60,"monthly","yearly"))</f>
+        <v>yearly</v>
+      </c>
+      <c r="L26" s="3">
+        <v>43141</v>
+      </c>
+      <c r="M26" s="13">
+        <f t="shared" ref="M26" si="50">DAY(L26)</f>
+        <v>10</v>
+      </c>
+      <c r="N26" s="6">
+        <f t="shared" ref="N26" si="51">MONTH(L26)</f>
+        <v>2</v>
+      </c>
+      <c r="O26" s="6">
+        <f t="shared" ref="O26" si="52">YEAR(L26)</f>
+        <v>2018</v>
+      </c>
+      <c r="P26" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q26" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="R26" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="S26" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="T26" s="7" t="str">
+        <f>$T$9</f>
+        <v>Octaflower, the Creative Archive's logo. A geometric lotus flower composed of eight rows of eight petals in rainbow progression.</v>
+      </c>
+      <c r="U26" s="7" t="str">
+        <f>"Archive of "&amp;G26</f>
+        <v>Archive of Games</v>
+      </c>
+      <c r="V26" s="7" t="str">
+        <f>IF(P26="Post","article",IF(P26="Game","game","website"))</f>
+        <v>website</v>
+      </c>
+      <c r="X26" s="7" t="str">
+        <f t="shared" si="46"/>
+        <v>«SITE-HTTP»/games</v>
       </c>
     </row>
     <row r="27" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A27" s="7" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="M27" s="14"/>
       <c r="W27" s="9" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="X27" s="9" t="str">
-        <f t="shared" si="42"/>
-        <v>«SITE-HTTP»/sitemap</v>
+        <f t="shared" si="46"/>
+        <v>«SITE-HTTP»/robots</v>
       </c>
     </row>
     <row r="28" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A28" s="7" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="I28" s="19"/>
-      <c r="J28" s="24" t="str">
+        <v>92</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="M28" s="14"/>
+      <c r="W28" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="X28" s="9" t="str">
+        <f t="shared" si="46"/>
+        <v>«SITE-HTTP»/sitemap</v>
+      </c>
+    </row>
+    <row r="29" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A29" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="I29" s="19"/>
+      <c r="J29" s="24" t="str">
         <f>YEAR($J$10)&amp;TEXT("-"&amp;MONTH($J$10),"00")&amp;TEXT("-"&amp;DAY($J$10),"00")</f>
         <v>2018-03-02</v>
       </c>
-      <c r="K28" s="10" t="str">
-        <f t="shared" ref="K28" ca="1" si="49">IF(TODAY()-DATEVALUE(J28)&lt;15,"weekly",IF(TODAY()-DATEVALUE(J28)&lt;60,"monthly","yearly"))</f>
+      <c r="K29" s="10" t="str">
+        <f t="shared" ref="K29" ca="1" si="53">IF(TODAY()-DATEVALUE(J29)&lt;15,"weekly",IF(TODAY()-DATEVALUE(J29)&lt;60,"monthly","yearly"))</f>
         <v>yearly</v>
       </c>
-      <c r="L28" s="21"/>
-      <c r="M28" s="14"/>
-      <c r="W28" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="X28" s="9" t="str">
-        <f t="shared" si="42"/>
+      <c r="L29" s="21"/>
+      <c r="M29" s="14"/>
+      <c r="W29" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="X29" s="9" t="str">
+        <f t="shared" si="46"/>
         <v>«SITE-HTTP»/rss</v>
       </c>
     </row>
-    <row r="29" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A29" s="11" t="str">
+    <row r="30" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A30" s="11" t="str">
         <f>"tag-"&amp;SUBSTITUTE(Tags!$A2," ","-")</f>
         <v>tag-Platformer</v>
       </c>
-      <c r="B29" s="25" t="str">
+      <c r="B30" s="25" t="str">
         <f>Tags!$B2</f>
         <v>Yes</v>
       </c>
-      <c r="C29" s="25"/>
-      <c r="D29" s="11" t="str">
-        <f>D$34</f>
+      <c r="C30" s="25"/>
+      <c r="D30" s="11" t="str">
+        <f>D$35</f>
         <v>«PAGE-FEATURED-EMPTY»</v>
       </c>
-      <c r="E29" s="11" t="str">
-        <f>$E$34</f>
+      <c r="E30" s="11" t="str">
+        <f>$E$35</f>
         <v>«FEATURED-ITEM:Filter{"Tags"-&gt;_?(StringMatchQ[#,___~~"«POST:Load»"~~___]&amp;),"Type"-&gt;_,"Day"-&gt;_?NumberQ,"Month"-&gt;_?NumberQ,"Year"-&gt;_?NumberQ}»</v>
       </c>
-      <c r="F29" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="G29" s="11" t="str">
-        <f>"All"&amp;" "&amp;H29&amp;"s"</f>
+      <c r="F30" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="G30" s="11" t="str">
+        <f>"All"&amp;" "&amp;H30&amp;"s"</f>
         <v>All Platformers</v>
       </c>
-      <c r="H29" s="11" t="str">
+      <c r="H30" s="11" t="str">
         <f>Tags!$A2</f>
         <v>Platformer</v>
       </c>
-      <c r="I29" s="22"/>
-      <c r="J29" s="22" t="str">
-        <f t="shared" ref="J29:J40" si="50">YEAR($J$10)&amp;TEXT("-"&amp;MONTH($J$10),"00")&amp;TEXT("-"&amp;DAY($J$10),"00")</f>
-        <v>2018-03-02</v>
-      </c>
-      <c r="K29" s="22" t="str">
-        <f t="shared" ca="1" si="43"/>
-        <v>yearly</v>
-      </c>
-      <c r="L29" s="29">
-        <v>41773</v>
-      </c>
-      <c r="M29" s="15">
-        <f t="shared" ref="M29:M39" si="51">DAY(L29)</f>
-        <v>14</v>
-      </c>
-      <c r="N29" s="30">
-        <f t="shared" ref="N29:N39" si="52">MONTH(L29)</f>
-        <v>5</v>
-      </c>
-      <c r="O29" s="30">
-        <f t="shared" ref="O29:O39" si="53">YEAR(L29)</f>
-        <v>2014</v>
-      </c>
-      <c r="P29" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q29" s="25" t="str">
-        <f>Tags!$A$12</f>
-        <v>Class</v>
-      </c>
-      <c r="R29" s="12"/>
-      <c r="S29" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="T29" s="11" t="str">
-        <f>$T$9</f>
-        <v>Octaflower, the Creative Archive's logo. A geometric lotus flower composed of eight rows of eight petals in rainbow progression.</v>
-      </c>
-      <c r="U29" s="11" t="str">
-        <f>"All content classified under "&amp;H29</f>
-        <v>All content classified under Platformer</v>
-      </c>
-      <c r="V29" s="12"/>
-      <c r="W29" s="11"/>
-      <c r="X29" s="11" t="str">
-        <f t="shared" ref="X29:X40" si="54">"«SITE-HTTP»/"&amp;A29</f>
-        <v>«SITE-HTTP»/tag-Platformer</v>
-      </c>
-      <c r="Y29" s="12"/>
-      <c r="Z29" s="12"/>
-      <c r="AA29" s="12"/>
-      <c r="AB29" s="12"/>
-      <c r="AC29" s="12"/>
-      <c r="AD29" s="12"/>
-      <c r="AE29" s="12"/>
-      <c r="AF29" s="12"/>
-    </row>
-    <row r="30" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A30" s="11" t="str">
-        <f>"tag-"&amp;SUBSTITUTE(Tags!$A3," ","-")</f>
-        <v>tag-Puzzle</v>
-      </c>
-      <c r="B30" s="25" t="str">
-        <f>Tags!$B3</f>
-        <v>Yes</v>
-      </c>
-      <c r="C30" s="25"/>
-      <c r="D30" s="11" t="str">
-        <f>D$34</f>
-        <v>«PAGE-FEATURED-EMPTY»</v>
-      </c>
-      <c r="E30" s="11" t="str">
-        <f>$E$34</f>
-        <v>«FEATURED-ITEM:Filter{"Tags"-&gt;_?(StringMatchQ[#,___~~"«POST:Load»"~~___]&amp;),"Type"-&gt;_,"Day"-&gt;_?NumberQ,"Month"-&gt;_?NumberQ,"Year"-&gt;_?NumberQ}»</v>
-      </c>
-      <c r="F30" s="25" t="str">
-        <f>F$29</f>
-        <v>archive</v>
-      </c>
-      <c r="G30" s="11" t="str">
-        <f>"All"&amp;" "&amp;H30&amp;"s"</f>
-        <v>All Puzzles</v>
-      </c>
-      <c r="H30" s="11" t="str">
-        <f>Tags!$A3</f>
-        <v>Puzzle</v>
-      </c>
       <c r="I30" s="22"/>
       <c r="J30" s="22" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" ref="J30:J42" si="54">YEAR($J$10)&amp;TEXT("-"&amp;MONTH($J$10),"00")&amp;TEXT("-"&amp;DAY($J$10),"00")</f>
         <v>2018-03-02</v>
       </c>
       <c r="K30" s="22" t="str">
-        <f t="shared" ca="1" si="43"/>
+        <f t="shared" ca="1" si="47"/>
         <v>yearly</v>
       </c>
       <c r="L30" s="29">
         <v>41773</v>
       </c>
       <c r="M30" s="15">
-        <f t="shared" si="51"/>
+        <f t="shared" ref="M30:M40" si="55">DAY(L30)</f>
         <v>14</v>
       </c>
       <c r="N30" s="30">
-        <f t="shared" si="52"/>
+        <f t="shared" ref="N30:N40" si="56">MONTH(L30)</f>
         <v>5</v>
       </c>
       <c r="O30" s="30">
-        <f t="shared" si="53"/>
+        <f t="shared" ref="O30:O40" si="57">YEAR(L30)</f>
         <v>2014</v>
       </c>
-      <c r="P30" s="25" t="str">
-        <f>$P$29</f>
-        <v>Tag</v>
+      <c r="P30" s="12" t="s">
+        <v>20</v>
       </c>
       <c r="Q30" s="25" t="str">
         <f>Tags!$A$12</f>
@@ -3300,21 +3350,21 @@
       </c>
       <c r="R30" s="12"/>
       <c r="S30" s="11" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="T30" s="11" t="str">
-        <f t="shared" ref="T30:T40" si="55">$T$9</f>
+        <f>$T$9</f>
         <v>Octaflower, the Creative Archive's logo. A geometric lotus flower composed of eight rows of eight petals in rainbow progression.</v>
       </c>
       <c r="U30" s="11" t="str">
-        <f t="shared" ref="U30:U39" si="56">"All content classified under "&amp;H30</f>
-        <v>All content classified under Puzzle</v>
+        <f>"All content classified under "&amp;H30</f>
+        <v>All content classified under Platformer</v>
       </c>
       <c r="V30" s="12"/>
       <c r="W30" s="11"/>
       <c r="X30" s="11" t="str">
-        <f t="shared" si="54"/>
-        <v>«SITE-HTTP»/tag-Puzzle</v>
+        <f t="shared" ref="X30:X41" si="58">"«SITE-HTTP»/"&amp;A30</f>
+        <v>«SITE-HTTP»/tag-Platformer</v>
       </c>
       <c r="Y30" s="12"/>
       <c r="Z30" s="12"/>
@@ -3327,58 +3377,60 @@
     </row>
     <row r="31" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A31" s="11" t="str">
-        <f>"tag-"&amp;SUBSTITUTE(Tags!$A4," ","-")</f>
-        <v>tag-Post</v>
+        <f>"tag-"&amp;SUBSTITUTE(Tags!$A3," ","-")</f>
+        <v>tag-Puzzle</v>
       </c>
       <c r="B31" s="25" t="str">
-        <f>Tags!$B4</f>
-        <v>No</v>
+        <f>Tags!$B3</f>
+        <v>Yes</v>
       </c>
       <c r="C31" s="25"/>
-      <c r="D31" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="E31" s="12" t="s">
-        <v>107</v>
+      <c r="D31" s="11" t="str">
+        <f>D$35</f>
+        <v>«PAGE-FEATURED-EMPTY»</v>
+      </c>
+      <c r="E31" s="11" t="str">
+        <f>$E$35</f>
+        <v>«FEATURED-ITEM:Filter{"Tags"-&gt;_?(StringMatchQ[#,___~~"«POST:Load»"~~___]&amp;),"Type"-&gt;_,"Day"-&gt;_?NumberQ,"Month"-&gt;_?NumberQ,"Year"-&gt;_?NumberQ}»</v>
       </c>
       <c r="F31" s="25" t="str">
-        <f t="shared" ref="F31:F40" si="57">F$29</f>
+        <f>F$30</f>
         <v>archive</v>
       </c>
       <c r="G31" s="11" t="str">
         <f>"All"&amp;" "&amp;H31&amp;"s"</f>
-        <v>All Posts</v>
+        <v>All Puzzles</v>
       </c>
       <c r="H31" s="11" t="str">
-        <f>Tags!$A4</f>
-        <v>Post</v>
+        <f>Tags!$A3</f>
+        <v>Puzzle</v>
       </c>
       <c r="I31" s="22"/>
       <c r="J31" s="22" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="54"/>
         <v>2018-03-02</v>
       </c>
       <c r="K31" s="22" t="str">
-        <f t="shared" ca="1" si="43"/>
+        <f t="shared" ca="1" si="47"/>
         <v>yearly</v>
       </c>
       <c r="L31" s="29">
-        <v>43070</v>
+        <v>41773</v>
       </c>
       <c r="M31" s="15">
-        <f t="shared" si="51"/>
-        <v>1</v>
+        <f t="shared" si="55"/>
+        <v>14</v>
       </c>
       <c r="N31" s="30">
-        <f t="shared" si="52"/>
-        <v>12</v>
+        <f t="shared" si="56"/>
+        <v>5</v>
       </c>
       <c r="O31" s="30">
-        <f t="shared" si="53"/>
-        <v>2017</v>
+        <f t="shared" si="57"/>
+        <v>2014</v>
       </c>
       <c r="P31" s="25" t="str">
-        <f t="shared" ref="P31:P40" si="58">$P$29</f>
+        <f>$P$30</f>
         <v>Tag</v>
       </c>
       <c r="Q31" s="25" t="str">
@@ -3387,21 +3439,21 @@
       </c>
       <c r="R31" s="12"/>
       <c r="S31" s="11" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="T31" s="11" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" ref="T31:T42" si="59">$T$9</f>
         <v>Octaflower, the Creative Archive's logo. A geometric lotus flower composed of eight rows of eight petals in rainbow progression.</v>
       </c>
       <c r="U31" s="11" t="str">
-        <f t="shared" si="56"/>
-        <v>All content classified under Post</v>
+        <f t="shared" ref="U31:U40" si="60">"All content classified under "&amp;H31</f>
+        <v>All content classified under Puzzle</v>
       </c>
       <c r="V31" s="12"/>
       <c r="W31" s="11"/>
       <c r="X31" s="11" t="str">
-        <f t="shared" si="54"/>
-        <v>«SITE-HTTP»/tag-Post</v>
+        <f t="shared" si="58"/>
+        <v>«SITE-HTTP»/tag-Puzzle</v>
       </c>
       <c r="Y31" s="12"/>
       <c r="Z31" s="12"/>
@@ -3414,60 +3466,58 @@
     </row>
     <row r="32" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A32" s="11" t="str">
-        <f>"tag-"&amp;SUBSTITUTE(Tags!$A5," ","-")</f>
-        <v>tag-Finance</v>
+        <f>"tag-"&amp;SUBSTITUTE(Tags!$A4," ","-")</f>
+        <v>tag-Post</v>
       </c>
       <c r="B32" s="25" t="str">
-        <f>Tags!$B5</f>
-        <v>No</v>
+        <f>Tags!$B4</f>
+        <v>Yes</v>
       </c>
       <c r="C32" s="25"/>
-      <c r="D32" s="11" t="str">
-        <f>$D$31</f>
-        <v>«PAGE-SIMPLE»</v>
-      </c>
-      <c r="E32" s="11" t="str">
-        <f>$E$31</f>
-        <v>«TAGSELECT:Filter{"Tags"-&gt;_?(StringMatchQ[#,___~~"«POST:Load»"~~___]&amp;),"Type"-&gt;_,"Day"-&gt;_?NumberQ,"Month"-&gt;_?NumberQ,"Year"-&gt;_?NumberQ}»</v>
+      <c r="D32" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E32" s="12" t="s">
+        <v>103</v>
       </c>
       <c r="F32" s="25" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" ref="F32:F42" si="61">F$30</f>
         <v>archive</v>
       </c>
       <c r="G32" s="11" t="str">
-        <f>"Classed as '"&amp;Tags!$A5&amp;"'"</f>
-        <v>Classed as 'Finance'</v>
+        <f>"All"&amp;" "&amp;H32&amp;"s"</f>
+        <v>All Posts</v>
       </c>
       <c r="H32" s="11" t="str">
-        <f>Tags!$A5</f>
-        <v>Finance</v>
+        <f>Tags!$A4</f>
+        <v>Post</v>
       </c>
       <c r="I32" s="22"/>
       <c r="J32" s="22" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="54"/>
         <v>2018-03-02</v>
       </c>
       <c r="K32" s="22" t="str">
-        <f t="shared" ca="1" si="43"/>
+        <f t="shared" ca="1" si="47"/>
         <v>yearly</v>
       </c>
       <c r="L32" s="29">
-        <v>43139</v>
+        <v>43070</v>
       </c>
       <c r="M32" s="15">
-        <f t="shared" si="51"/>
-        <v>8</v>
+        <f t="shared" si="55"/>
+        <v>1</v>
       </c>
       <c r="N32" s="30">
-        <f t="shared" si="52"/>
-        <v>2</v>
+        <f t="shared" si="56"/>
+        <v>12</v>
       </c>
       <c r="O32" s="30">
-        <f t="shared" si="53"/>
-        <v>2018</v>
+        <f t="shared" si="57"/>
+        <v>2017</v>
       </c>
       <c r="P32" s="25" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" ref="P32:P42" si="62">$P$30</f>
         <v>Tag</v>
       </c>
       <c r="Q32" s="25" t="str">
@@ -3476,21 +3526,21 @@
       </c>
       <c r="R32" s="12"/>
       <c r="S32" s="11" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="T32" s="11" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="59"/>
         <v>Octaflower, the Creative Archive's logo. A geometric lotus flower composed of eight rows of eight petals in rainbow progression.</v>
       </c>
       <c r="U32" s="11" t="str">
-        <f t="shared" si="56"/>
-        <v>All content classified under Finance</v>
+        <f t="shared" si="60"/>
+        <v>All content classified under Post</v>
       </c>
       <c r="V32" s="12"/>
       <c r="W32" s="11"/>
       <c r="X32" s="11" t="str">
-        <f t="shared" si="54"/>
-        <v>«SITE-HTTP»/tag-Finance</v>
+        <f t="shared" si="58"/>
+        <v>«SITE-HTTP»/tag-Post</v>
       </c>
       <c r="Y32" s="12"/>
       <c r="Z32" s="12"/>
@@ -3503,60 +3553,60 @@
     </row>
     <row r="33" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A33" s="11" t="str">
-        <f>"tag-"&amp;SUBSTITUTE(Tags!$A6," ","-")</f>
-        <v>tag-Creative-Archive</v>
+        <f>"tag-"&amp;SUBSTITUTE(Tags!$A5," ","-")</f>
+        <v>tag-Finance</v>
       </c>
       <c r="B33" s="25" t="str">
-        <f>Tags!$B6</f>
-        <v>Yes</v>
+        <f>Tags!$B5</f>
+        <v>No</v>
       </c>
       <c r="C33" s="25"/>
       <c r="D33" s="11" t="str">
-        <f>$D$31</f>
+        <f>$D$32</f>
         <v>«PAGE-SIMPLE»</v>
       </c>
       <c r="E33" s="11" t="str">
-        <f>$E$31</f>
+        <f>$E$32</f>
         <v>«TAGSELECT:Filter{"Tags"-&gt;_?(StringMatchQ[#,___~~"«POST:Load»"~~___]&amp;),"Type"-&gt;_,"Day"-&gt;_?NumberQ,"Month"-&gt;_?NumberQ,"Year"-&gt;_?NumberQ}»</v>
       </c>
       <c r="F33" s="25" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" si="61"/>
         <v>archive</v>
       </c>
       <c r="G33" s="11" t="str">
-        <f>"Classed as '"&amp;Tags!$A6&amp;"'"</f>
-        <v>Classed as 'Creative-Archive'</v>
+        <f>"Classed as '"&amp;Tags!$A5&amp;"'"</f>
+        <v>Classed as 'Finance'</v>
       </c>
       <c r="H33" s="11" t="str">
-        <f>Tags!$A6</f>
-        <v>Creative-Archive</v>
+        <f>Tags!$A5</f>
+        <v>Finance</v>
       </c>
       <c r="I33" s="22"/>
       <c r="J33" s="22" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="54"/>
         <v>2018-03-02</v>
       </c>
       <c r="K33" s="22" t="str">
-        <f t="shared" ca="1" si="43"/>
+        <f t="shared" ca="1" si="47"/>
         <v>yearly</v>
       </c>
       <c r="L33" s="29">
-        <v>43069</v>
+        <v>43139</v>
       </c>
       <c r="M33" s="15">
-        <f t="shared" si="51"/>
-        <v>30</v>
+        <f t="shared" si="55"/>
+        <v>8</v>
       </c>
       <c r="N33" s="30">
-        <f t="shared" si="52"/>
-        <v>11</v>
+        <f t="shared" si="56"/>
+        <v>2</v>
       </c>
       <c r="O33" s="30">
-        <f t="shared" si="53"/>
-        <v>2017</v>
+        <f t="shared" si="57"/>
+        <v>2018</v>
       </c>
       <c r="P33" s="25" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" si="62"/>
         <v>Tag</v>
       </c>
       <c r="Q33" s="25" t="str">
@@ -3565,21 +3615,21 @@
       </c>
       <c r="R33" s="12"/>
       <c r="S33" s="11" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="T33" s="11" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="59"/>
         <v>Octaflower, the Creative Archive's logo. A geometric lotus flower composed of eight rows of eight petals in rainbow progression.</v>
       </c>
       <c r="U33" s="11" t="str">
-        <f t="shared" si="56"/>
-        <v>All content classified under Creative-Archive</v>
+        <f t="shared" si="60"/>
+        <v>All content classified under Finance</v>
       </c>
       <c r="V33" s="12"/>
       <c r="W33" s="11"/>
       <c r="X33" s="11" t="str">
-        <f t="shared" si="54"/>
-        <v>«SITE-HTTP»/tag-Creative-Archive</v>
+        <f t="shared" si="58"/>
+        <v>«SITE-HTTP»/tag-Finance</v>
       </c>
       <c r="Y33" s="12"/>
       <c r="Z33" s="12"/>
@@ -3592,60 +3642,60 @@
     </row>
     <row r="34" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A34" s="11" t="str">
-        <f>"tag-"&amp;SUBSTITUTE(Tags!$A7," ","-")</f>
-        <v>tag-Mosaic</v>
+        <f>"tag-"&amp;SUBSTITUTE(Tags!$A6," ","-")</f>
+        <v>tag-Creative-Archive</v>
       </c>
       <c r="B34" s="25" t="str">
-        <f>Tags!$B7</f>
-        <v>No</v>
-      </c>
-      <c r="C34" s="25">
-        <v>6</v>
-      </c>
-      <c r="D34" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="E34" s="12" t="s">
-        <v>112</v>
+        <f>Tags!$B6</f>
+        <v>Yes</v>
+      </c>
+      <c r="C34" s="25"/>
+      <c r="D34" s="11" t="str">
+        <f>$D$32</f>
+        <v>«PAGE-SIMPLE»</v>
+      </c>
+      <c r="E34" s="11" t="str">
+        <f>$E$32</f>
+        <v>«TAGSELECT:Filter{"Tags"-&gt;_?(StringMatchQ[#,___~~"«POST:Load»"~~___]&amp;),"Type"-&gt;_,"Day"-&gt;_?NumberQ,"Month"-&gt;_?NumberQ,"Year"-&gt;_?NumberQ}»</v>
       </c>
       <c r="F34" s="25" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" si="61"/>
         <v>archive</v>
       </c>
       <c r="G34" s="11" t="str">
-        <f>H34&amp;"s"</f>
-        <v>Mosaics</v>
+        <f>"Classed as '"&amp;Tags!$A6&amp;"'"</f>
+        <v>Classed as 'Creative-Archive'</v>
       </c>
       <c r="H34" s="11" t="str">
-        <f>Tags!$A7</f>
-        <v>Mosaic</v>
+        <f>Tags!$A6</f>
+        <v>Creative-Archive</v>
       </c>
       <c r="I34" s="22"/>
       <c r="J34" s="22" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="54"/>
         <v>2018-03-02</v>
       </c>
       <c r="K34" s="22" t="str">
-        <f t="shared" ca="1" si="43"/>
+        <f t="shared" ca="1" si="47"/>
         <v>yearly</v>
       </c>
       <c r="L34" s="29">
-        <v>43018</v>
+        <v>43069</v>
       </c>
       <c r="M34" s="15">
-        <f t="shared" si="51"/>
-        <v>10</v>
+        <f t="shared" si="55"/>
+        <v>30</v>
       </c>
       <c r="N34" s="30">
-        <f t="shared" si="52"/>
-        <v>10</v>
+        <f t="shared" si="56"/>
+        <v>11</v>
       </c>
       <c r="O34" s="30">
-        <f t="shared" si="53"/>
+        <f t="shared" si="57"/>
         <v>2017</v>
       </c>
       <c r="P34" s="25" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" si="62"/>
         <v>Tag</v>
       </c>
       <c r="Q34" s="25" t="str">
@@ -3654,21 +3704,21 @@
       </c>
       <c r="R34" s="12"/>
       <c r="S34" s="11" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="T34" s="11" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="59"/>
         <v>Octaflower, the Creative Archive's logo. A geometric lotus flower composed of eight rows of eight petals in rainbow progression.</v>
       </c>
       <c r="U34" s="11" t="str">
-        <f t="shared" si="56"/>
-        <v>All content classified under Mosaic</v>
+        <f t="shared" si="60"/>
+        <v>All content classified under Creative-Archive</v>
       </c>
       <c r="V34" s="12"/>
       <c r="W34" s="11"/>
       <c r="X34" s="11" t="str">
-        <f t="shared" si="54"/>
-        <v>«SITE-HTTP»/tag-Mosaic</v>
+        <f t="shared" si="58"/>
+        <v>«SITE-HTTP»/tag-Creative-Archive</v>
       </c>
       <c r="Y34" s="12"/>
       <c r="Z34" s="12"/>
@@ -3681,60 +3731,60 @@
     </row>
     <row r="35" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A35" s="11" t="str">
-        <f>"tag-"&amp;SUBSTITUTE(Tags!$A8," ","-")</f>
-        <v>tag-Travel</v>
+        <f>"tag-"&amp;SUBSTITUTE(Tags!$A7," ","-")</f>
+        <v>tag-Mosaic</v>
       </c>
       <c r="B35" s="25" t="str">
-        <f>Tags!$B8</f>
+        <f>Tags!$B7</f>
         <v>No</v>
       </c>
-      <c r="C35" s="25"/>
-      <c r="D35" s="11" t="str">
-        <f>$D$31</f>
-        <v>«PAGE-SIMPLE»</v>
-      </c>
-      <c r="E35" s="11" t="str">
-        <f>$E$31</f>
-        <v>«TAGSELECT:Filter{"Tags"-&gt;_?(StringMatchQ[#,___~~"«POST:Load»"~~___]&amp;),"Type"-&gt;_,"Day"-&gt;_?NumberQ,"Month"-&gt;_?NumberQ,"Year"-&gt;_?NumberQ}»</v>
+      <c r="C35" s="25">
+        <v>6</v>
+      </c>
+      <c r="D35" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="E35" s="12" t="s">
+        <v>108</v>
       </c>
       <c r="F35" s="25" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" si="61"/>
         <v>archive</v>
       </c>
       <c r="G35" s="11" t="str">
-        <f>"Classed as '"&amp;Tags!$A8&amp;"'"</f>
-        <v>Classed as 'Travel'</v>
+        <f>H35&amp;"s"</f>
+        <v>Mosaics</v>
       </c>
       <c r="H35" s="11" t="str">
-        <f>Tags!$A8</f>
-        <v>Travel</v>
+        <f>Tags!$A7</f>
+        <v>Mosaic</v>
       </c>
       <c r="I35" s="22"/>
       <c r="J35" s="22" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="54"/>
         <v>2018-03-02</v>
       </c>
       <c r="K35" s="22" t="str">
-        <f t="shared" ca="1" si="43"/>
+        <f t="shared" ca="1" si="47"/>
         <v>yearly</v>
       </c>
       <c r="L35" s="29">
         <v>43018</v>
       </c>
       <c r="M35" s="15">
-        <f t="shared" si="51"/>
+        <f t="shared" si="55"/>
         <v>10</v>
       </c>
       <c r="N35" s="30">
-        <f t="shared" si="52"/>
+        <f t="shared" si="56"/>
         <v>10</v>
       </c>
       <c r="O35" s="30">
-        <f t="shared" si="53"/>
+        <f t="shared" si="57"/>
         <v>2017</v>
       </c>
       <c r="P35" s="25" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" si="62"/>
         <v>Tag</v>
       </c>
       <c r="Q35" s="25" t="str">
@@ -3743,21 +3793,21 @@
       </c>
       <c r="R35" s="12"/>
       <c r="S35" s="11" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="T35" s="11" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="59"/>
         <v>Octaflower, the Creative Archive's logo. A geometric lotus flower composed of eight rows of eight petals in rainbow progression.</v>
       </c>
       <c r="U35" s="11" t="str">
-        <f t="shared" si="56"/>
-        <v>All content classified under Travel</v>
+        <f t="shared" si="60"/>
+        <v>All content classified under Mosaic</v>
       </c>
       <c r="V35" s="12"/>
       <c r="W35" s="11"/>
       <c r="X35" s="11" t="str">
-        <f t="shared" si="54"/>
-        <v>«SITE-HTTP»/tag-Travel</v>
+        <f t="shared" si="58"/>
+        <v>«SITE-HTTP»/tag-Mosaic</v>
       </c>
       <c r="Y35" s="12"/>
       <c r="Z35" s="12"/>
@@ -3770,60 +3820,60 @@
     </row>
     <row r="36" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A36" s="11" t="str">
-        <f>"tag-"&amp;SUBSTITUTE(Tags!$A9," ","-")</f>
-        <v>tag-Wallpaper</v>
+        <f>"tag-"&amp;SUBSTITUTE(Tags!$A8," ","-")</f>
+        <v>tag-Travel</v>
       </c>
       <c r="B36" s="25" t="str">
-        <f>Tags!$B9</f>
+        <f>Tags!$B8</f>
         <v>No</v>
       </c>
       <c r="C36" s="25"/>
       <c r="D36" s="11" t="str">
-        <f>D$34</f>
-        <v>«PAGE-FEATURED-EMPTY»</v>
+        <f>$D$32</f>
+        <v>«PAGE-SIMPLE»</v>
       </c>
       <c r="E36" s="11" t="str">
-        <f>E$34</f>
-        <v>«FEATURED-ITEM:Filter{"Tags"-&gt;_?(StringMatchQ[#,___~~"«POST:Load»"~~___]&amp;),"Type"-&gt;_,"Day"-&gt;_?NumberQ,"Month"-&gt;_?NumberQ,"Year"-&gt;_?NumberQ}»</v>
+        <f>$E$32</f>
+        <v>«TAGSELECT:Filter{"Tags"-&gt;_?(StringMatchQ[#,___~~"«POST:Load»"~~___]&amp;),"Type"-&gt;_,"Day"-&gt;_?NumberQ,"Month"-&gt;_?NumberQ,"Year"-&gt;_?NumberQ}»</v>
       </c>
       <c r="F36" s="25" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" si="61"/>
         <v>archive</v>
       </c>
       <c r="G36" s="11" t="str">
-        <f>"All"&amp;" "&amp;H36&amp;"s"</f>
-        <v>All Wallpapers</v>
+        <f>"Classed as '"&amp;Tags!$A8&amp;"'"</f>
+        <v>Classed as 'Travel'</v>
       </c>
       <c r="H36" s="11" t="str">
-        <f>Tags!$A9</f>
-        <v>Wallpaper</v>
+        <f>Tags!$A8</f>
+        <v>Travel</v>
       </c>
       <c r="I36" s="22"/>
       <c r="J36" s="22" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="54"/>
         <v>2018-03-02</v>
       </c>
       <c r="K36" s="22" t="str">
-        <f t="shared" ca="1" si="43"/>
+        <f t="shared" ca="1" si="47"/>
         <v>yearly</v>
       </c>
       <c r="L36" s="29">
         <v>43018</v>
       </c>
       <c r="M36" s="15">
-        <f t="shared" si="51"/>
+        <f t="shared" si="55"/>
         <v>10</v>
       </c>
       <c r="N36" s="30">
-        <f t="shared" si="52"/>
+        <f t="shared" si="56"/>
         <v>10</v>
       </c>
       <c r="O36" s="30">
-        <f t="shared" si="53"/>
+        <f t="shared" si="57"/>
         <v>2017</v>
       </c>
       <c r="P36" s="25" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" si="62"/>
         <v>Tag</v>
       </c>
       <c r="Q36" s="25" t="str">
@@ -3832,21 +3882,21 @@
       </c>
       <c r="R36" s="12"/>
       <c r="S36" s="11" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="T36" s="11" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="59"/>
         <v>Octaflower, the Creative Archive's logo. A geometric lotus flower composed of eight rows of eight petals in rainbow progression.</v>
       </c>
       <c r="U36" s="11" t="str">
-        <f t="shared" si="56"/>
-        <v>All content classified under Wallpaper</v>
+        <f t="shared" si="60"/>
+        <v>All content classified under Travel</v>
       </c>
       <c r="V36" s="12"/>
       <c r="W36" s="11"/>
       <c r="X36" s="11" t="str">
-        <f t="shared" si="54"/>
-        <v>«SITE-HTTP»/tag-Wallpaper</v>
+        <f t="shared" si="58"/>
+        <v>«SITE-HTTP»/tag-Travel</v>
       </c>
       <c r="Y36" s="12"/>
       <c r="Z36" s="12"/>
@@ -3859,60 +3909,60 @@
     </row>
     <row r="37" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A37" s="11" t="str">
-        <f>"tag-"&amp;SUBSTITUTE(Tags!$A10," ","-")</f>
-        <v>tag-Game</v>
+        <f>"tag-"&amp;SUBSTITUTE(Tags!$A9," ","-")</f>
+        <v>tag-Wallpaper</v>
       </c>
       <c r="B37" s="25" t="str">
-        <f>Tags!$B10</f>
-        <v>Yes</v>
+        <f>Tags!$B9</f>
+        <v>No</v>
       </c>
       <c r="C37" s="25"/>
       <c r="D37" s="11" t="str">
-        <f>D$34</f>
+        <f>D$35</f>
         <v>«PAGE-FEATURED-EMPTY»</v>
       </c>
       <c r="E37" s="11" t="str">
-        <f>$E$34</f>
+        <f>E$35</f>
         <v>«FEATURED-ITEM:Filter{"Tags"-&gt;_?(StringMatchQ[#,___~~"«POST:Load»"~~___]&amp;),"Type"-&gt;_,"Day"-&gt;_?NumberQ,"Month"-&gt;_?NumberQ,"Year"-&gt;_?NumberQ}»</v>
       </c>
       <c r="F37" s="25" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" si="61"/>
         <v>archive</v>
       </c>
       <c r="G37" s="11" t="str">
         <f>"All"&amp;" "&amp;H37&amp;"s"</f>
-        <v>All Games</v>
+        <v>All Wallpapers</v>
       </c>
       <c r="H37" s="11" t="str">
-        <f>Tags!$A10</f>
-        <v>Game</v>
+        <f>Tags!$A9</f>
+        <v>Wallpaper</v>
       </c>
       <c r="I37" s="22"/>
       <c r="J37" s="22" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="54"/>
         <v>2018-03-02</v>
       </c>
       <c r="K37" s="22" t="str">
-        <f t="shared" ref="K37" ca="1" si="59">IF(TODAY()-DATEVALUE(J37)&lt;15,"weekly",IF(TODAY()-DATEVALUE(J37)&lt;60,"monthly","yearly"))</f>
+        <f t="shared" ca="1" si="47"/>
         <v>yearly</v>
       </c>
       <c r="L37" s="29">
-        <v>41773</v>
+        <v>43018</v>
       </c>
       <c r="M37" s="15">
-        <f t="shared" si="51"/>
-        <v>14</v>
+        <f t="shared" si="55"/>
+        <v>10</v>
       </c>
       <c r="N37" s="30">
-        <f t="shared" si="52"/>
-        <v>5</v>
+        <f t="shared" si="56"/>
+        <v>10</v>
       </c>
       <c r="O37" s="30">
-        <f t="shared" si="53"/>
-        <v>2014</v>
+        <f t="shared" si="57"/>
+        <v>2017</v>
       </c>
       <c r="P37" s="25" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" si="62"/>
         <v>Tag</v>
       </c>
       <c r="Q37" s="25" t="str">
@@ -3921,21 +3971,21 @@
       </c>
       <c r="R37" s="12"/>
       <c r="S37" s="11" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="T37" s="11" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="59"/>
         <v>Octaflower, the Creative Archive's logo. A geometric lotus flower composed of eight rows of eight petals in rainbow progression.</v>
       </c>
       <c r="U37" s="11" t="str">
-        <f t="shared" si="56"/>
-        <v>All content classified under Game</v>
+        <f t="shared" si="60"/>
+        <v>All content classified under Wallpaper</v>
       </c>
       <c r="V37" s="12"/>
       <c r="W37" s="11"/>
       <c r="X37" s="11" t="str">
-        <f t="shared" si="54"/>
-        <v>«SITE-HTTP»/tag-Game</v>
+        <f t="shared" si="58"/>
+        <v>«SITE-HTTP»/tag-Wallpaper</v>
       </c>
       <c r="Y37" s="12"/>
       <c r="Z37" s="12"/>
@@ -3948,60 +3998,60 @@
     </row>
     <row r="38" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A38" s="11" t="str">
-        <f>"tag-"&amp;SUBSTITUTE(Tags!$A11," ","-")</f>
-        <v>tag-Sitemap</v>
+        <f>"tag-"&amp;SUBSTITUTE(Tags!$A10," ","-")</f>
+        <v>tag-Game</v>
       </c>
       <c r="B38" s="25" t="str">
-        <f>Tags!$B11</f>
+        <f>Tags!$B10</f>
         <v>Yes</v>
       </c>
       <c r="C38" s="25"/>
       <c r="D38" s="11" t="str">
-        <f>$D$31</f>
-        <v>«PAGE-SIMPLE»</v>
+        <f>D$35</f>
+        <v>«PAGE-FEATURED-EMPTY»</v>
       </c>
       <c r="E38" s="11" t="str">
-        <f>$E$31</f>
-        <v>«TAGSELECT:Filter{"Tags"-&gt;_?(StringMatchQ[#,___~~"«POST:Load»"~~___]&amp;),"Type"-&gt;_,"Day"-&gt;_?NumberQ,"Month"-&gt;_?NumberQ,"Year"-&gt;_?NumberQ}»</v>
+        <f>$E$35</f>
+        <v>«FEATURED-ITEM:Filter{"Tags"-&gt;_?(StringMatchQ[#,___~~"«POST:Load»"~~___]&amp;),"Type"-&gt;_,"Day"-&gt;_?NumberQ,"Month"-&gt;_?NumberQ,"Year"-&gt;_?NumberQ}»</v>
       </c>
       <c r="F38" s="25" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" si="61"/>
         <v>archive</v>
       </c>
       <c r="G38" s="11" t="str">
-        <f>"Classed as '"&amp;Tags!$A11&amp;"'"</f>
-        <v>Classed as 'Sitemap'</v>
+        <f>"All"&amp;" "&amp;H38&amp;"s"</f>
+        <v>All Games</v>
       </c>
       <c r="H38" s="11" t="str">
-        <f>Tags!$A11</f>
-        <v>Sitemap</v>
+        <f>Tags!$A10</f>
+        <v>Game</v>
       </c>
       <c r="I38" s="22"/>
       <c r="J38" s="22" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="54"/>
         <v>2018-03-02</v>
       </c>
       <c r="K38" s="22" t="str">
-        <f t="shared" ref="K38" ca="1" si="60">IF(TODAY()-DATEVALUE(J38)&lt;15,"weekly",IF(TODAY()-DATEVALUE(J38)&lt;60,"monthly","yearly"))</f>
+        <f t="shared" ref="K38" ca="1" si="63">IF(TODAY()-DATEVALUE(J38)&lt;15,"weekly",IF(TODAY()-DATEVALUE(J38)&lt;60,"monthly","yearly"))</f>
         <v>yearly</v>
       </c>
       <c r="L38" s="29">
-        <v>43070</v>
+        <v>41773</v>
       </c>
       <c r="M38" s="15">
-        <f t="shared" si="51"/>
-        <v>1</v>
+        <f t="shared" si="55"/>
+        <v>14</v>
       </c>
       <c r="N38" s="30">
-        <f t="shared" si="52"/>
-        <v>12</v>
+        <f t="shared" si="56"/>
+        <v>5</v>
       </c>
       <c r="O38" s="30">
-        <f t="shared" si="53"/>
-        <v>2017</v>
+        <f t="shared" si="57"/>
+        <v>2014</v>
       </c>
       <c r="P38" s="25" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" si="62"/>
         <v>Tag</v>
       </c>
       <c r="Q38" s="25" t="str">
@@ -4010,21 +4060,21 @@
       </c>
       <c r="R38" s="12"/>
       <c r="S38" s="11" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="T38" s="11" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="59"/>
         <v>Octaflower, the Creative Archive's logo. A geometric lotus flower composed of eight rows of eight petals in rainbow progression.</v>
       </c>
       <c r="U38" s="11" t="str">
-        <f t="shared" si="56"/>
-        <v>All content classified under Sitemap</v>
+        <f t="shared" si="60"/>
+        <v>All content classified under Game</v>
       </c>
       <c r="V38" s="12"/>
       <c r="W38" s="11"/>
       <c r="X38" s="11" t="str">
-        <f t="shared" si="54"/>
-        <v>«SITE-HTTP»/tag-Sitemap</v>
+        <f t="shared" si="58"/>
+        <v>«SITE-HTTP»/tag-Game</v>
       </c>
       <c r="Y38" s="12"/>
       <c r="Z38" s="12"/>
@@ -4037,60 +4087,60 @@
     </row>
     <row r="39" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A39" s="11" t="str">
-        <f>"tag-"&amp;SUBSTITUTE(Tags!$A12," ","-")</f>
-        <v>tag-Class</v>
+        <f>"tag-"&amp;SUBSTITUTE(Tags!$A11," ","-")</f>
+        <v>tag-Sitemap</v>
       </c>
       <c r="B39" s="25" t="str">
-        <f>Tags!$B12</f>
-        <v>No</v>
+        <f>Tags!$B11</f>
+        <v>Yes</v>
       </c>
       <c r="C39" s="25"/>
       <c r="D39" s="11" t="str">
-        <f>$D$31</f>
+        <f>$D$32</f>
         <v>«PAGE-SIMPLE»</v>
       </c>
       <c r="E39" s="11" t="str">
-        <f>$E$31</f>
+        <f>$E$32</f>
         <v>«TAGSELECT:Filter{"Tags"-&gt;_?(StringMatchQ[#,___~~"«POST:Load»"~~___]&amp;),"Type"-&gt;_,"Day"-&gt;_?NumberQ,"Month"-&gt;_?NumberQ,"Year"-&gt;_?NumberQ}»</v>
       </c>
       <c r="F39" s="25" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" si="61"/>
         <v>archive</v>
       </c>
       <c r="G39" s="11" t="str">
-        <f>"All"&amp;" "&amp;H39&amp;"es"</f>
-        <v>All Classes</v>
+        <f>"Classed as '"&amp;Tags!$A11&amp;"'"</f>
+        <v>Classed as 'Sitemap'</v>
       </c>
       <c r="H39" s="11" t="str">
-        <f>Tags!$A12</f>
-        <v>Class</v>
+        <f>Tags!$A11</f>
+        <v>Sitemap</v>
       </c>
       <c r="I39" s="22"/>
       <c r="J39" s="22" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="54"/>
         <v>2018-03-02</v>
       </c>
       <c r="K39" s="22" t="str">
-        <f t="shared" ref="K39" ca="1" si="61">IF(TODAY()-DATEVALUE(J39)&lt;15,"weekly",IF(TODAY()-DATEVALUE(J39)&lt;60,"monthly","yearly"))</f>
+        <f t="shared" ref="K39" ca="1" si="64">IF(TODAY()-DATEVALUE(J39)&lt;15,"weekly",IF(TODAY()-DATEVALUE(J39)&lt;60,"monthly","yearly"))</f>
         <v>yearly</v>
       </c>
       <c r="L39" s="29">
-        <v>41773</v>
+        <v>43070</v>
       </c>
       <c r="M39" s="15">
-        <f t="shared" si="51"/>
-        <v>14</v>
+        <f t="shared" si="55"/>
+        <v>1</v>
       </c>
       <c r="N39" s="30">
-        <f t="shared" si="52"/>
-        <v>5</v>
+        <f t="shared" si="56"/>
+        <v>12</v>
       </c>
       <c r="O39" s="30">
-        <f t="shared" si="53"/>
-        <v>2014</v>
+        <f t="shared" si="57"/>
+        <v>2017</v>
       </c>
       <c r="P39" s="25" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" si="62"/>
         <v>Tag</v>
       </c>
       <c r="Q39" s="25" t="str">
@@ -4099,21 +4149,21 @@
       </c>
       <c r="R39" s="12"/>
       <c r="S39" s="11" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="T39" s="11" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="59"/>
         <v>Octaflower, the Creative Archive's logo. A geometric lotus flower composed of eight rows of eight petals in rainbow progression.</v>
       </c>
       <c r="U39" s="11" t="str">
-        <f t="shared" si="56"/>
-        <v>All content classified under Class</v>
+        <f t="shared" si="60"/>
+        <v>All content classified under Sitemap</v>
       </c>
       <c r="V39" s="12"/>
       <c r="W39" s="11"/>
       <c r="X39" s="11" t="str">
-        <f t="shared" si="54"/>
-        <v>«SITE-HTTP»/tag-Class</v>
+        <f t="shared" si="58"/>
+        <v>«SITE-HTTP»/tag-Sitemap</v>
       </c>
       <c r="Y39" s="12"/>
       <c r="Z39" s="12"/>
@@ -4126,60 +4176,60 @@
     </row>
     <row r="40" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A40" s="11" t="str">
-        <f>"tag-"&amp;SUBSTITUTE(Tags!$A13," ","-")</f>
-        <v>tag-Nature</v>
+        <f>"tag-"&amp;SUBSTITUTE(Tags!$A12," ","-")</f>
+        <v>tag-Class</v>
       </c>
       <c r="B40" s="25" t="str">
-        <f>Tags!$B13</f>
+        <f>Tags!$B12</f>
         <v>No</v>
       </c>
       <c r="C40" s="25"/>
       <c r="D40" s="11" t="str">
-        <f>$D$31</f>
+        <f>$D$32</f>
         <v>«PAGE-SIMPLE»</v>
       </c>
       <c r="E40" s="11" t="str">
-        <f>$E$31</f>
+        <f>$E$32</f>
         <v>«TAGSELECT:Filter{"Tags"-&gt;_?(StringMatchQ[#,___~~"«POST:Load»"~~___]&amp;),"Type"-&gt;_,"Day"-&gt;_?NumberQ,"Month"-&gt;_?NumberQ,"Year"-&gt;_?NumberQ}»</v>
       </c>
       <c r="F40" s="25" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" si="61"/>
         <v>archive</v>
       </c>
       <c r="G40" s="11" t="str">
-        <f>"Classed as '"&amp;Tags!$A13&amp;"'"</f>
-        <v>Classed as 'Nature'</v>
+        <f>"All"&amp;" "&amp;H40&amp;"es"</f>
+        <v>All Classes</v>
       </c>
       <c r="H40" s="11" t="str">
-        <f>Tags!$A13</f>
-        <v>Nature</v>
+        <f>Tags!$A12</f>
+        <v>Class</v>
       </c>
       <c r="I40" s="22"/>
       <c r="J40" s="22" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="54"/>
         <v>2018-03-02</v>
       </c>
       <c r="K40" s="22" t="str">
-        <f t="shared" ref="K40" ca="1" si="62">IF(TODAY()-DATEVALUE(J40)&lt;15,"weekly",IF(TODAY()-DATEVALUE(J40)&lt;60,"monthly","yearly"))</f>
+        <f t="shared" ref="K40" ca="1" si="65">IF(TODAY()-DATEVALUE(J40)&lt;15,"weekly",IF(TODAY()-DATEVALUE(J40)&lt;60,"monthly","yearly"))</f>
         <v>yearly</v>
       </c>
       <c r="L40" s="29">
-        <v>43225</v>
+        <v>41773</v>
       </c>
       <c r="M40" s="15">
-        <f t="shared" ref="M40" si="63">DAY(L40)</f>
+        <f t="shared" si="55"/>
+        <v>14</v>
+      </c>
+      <c r="N40" s="30">
+        <f t="shared" si="56"/>
         <v>5</v>
       </c>
-      <c r="N40" s="30">
-        <f t="shared" ref="N40" si="64">MONTH(L40)</f>
-        <v>5</v>
-      </c>
       <c r="O40" s="30">
-        <f t="shared" ref="O40" si="65">YEAR(L40)</f>
-        <v>2018</v>
+        <f t="shared" si="57"/>
+        <v>2014</v>
       </c>
       <c r="P40" s="25" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" si="62"/>
         <v>Tag</v>
       </c>
       <c r="Q40" s="25" t="str">
@@ -4188,21 +4238,21 @@
       </c>
       <c r="R40" s="12"/>
       <c r="S40" s="11" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="T40" s="11" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="59"/>
         <v>Octaflower, the Creative Archive's logo. A geometric lotus flower composed of eight rows of eight petals in rainbow progression.</v>
       </c>
       <c r="U40" s="11" t="str">
-        <f t="shared" ref="U40" si="66">"All content classified under "&amp;H40</f>
-        <v>All content classified under Nature</v>
+        <f t="shared" si="60"/>
+        <v>All content classified under Class</v>
       </c>
       <c r="V40" s="12"/>
       <c r="W40" s="11"/>
       <c r="X40" s="11" t="str">
-        <f t="shared" si="54"/>
-        <v>«SITE-HTTP»/tag-Nature</v>
+        <f t="shared" si="58"/>
+        <v>«SITE-HTTP»/tag-Class</v>
       </c>
       <c r="Y40" s="12"/>
       <c r="Z40" s="12"/>
@@ -4213,6 +4263,184 @@
       <c r="AE40" s="12"/>
       <c r="AF40" s="12"/>
     </row>
+    <row r="41" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A41" s="11" t="str">
+        <f>"tag-"&amp;SUBSTITUTE(Tags!$A13," ","-")</f>
+        <v>tag-Nature</v>
+      </c>
+      <c r="B41" s="25" t="str">
+        <f>Tags!$B13</f>
+        <v>No</v>
+      </c>
+      <c r="C41" s="25"/>
+      <c r="D41" s="11" t="str">
+        <f>$D$32</f>
+        <v>«PAGE-SIMPLE»</v>
+      </c>
+      <c r="E41" s="11" t="str">
+        <f>$E$32</f>
+        <v>«TAGSELECT:Filter{"Tags"-&gt;_?(StringMatchQ[#,___~~"«POST:Load»"~~___]&amp;),"Type"-&gt;_,"Day"-&gt;_?NumberQ,"Month"-&gt;_?NumberQ,"Year"-&gt;_?NumberQ}»</v>
+      </c>
+      <c r="F41" s="25" t="str">
+        <f t="shared" si="61"/>
+        <v>archive</v>
+      </c>
+      <c r="G41" s="11" t="str">
+        <f>"Classed as '"&amp;Tags!$A13&amp;"'"</f>
+        <v>Classed as 'Nature'</v>
+      </c>
+      <c r="H41" s="11" t="str">
+        <f>Tags!$A13</f>
+        <v>Nature</v>
+      </c>
+      <c r="I41" s="22"/>
+      <c r="J41" s="22" t="str">
+        <f t="shared" si="54"/>
+        <v>2018-03-02</v>
+      </c>
+      <c r="K41" s="22" t="str">
+        <f t="shared" ref="K41" ca="1" si="66">IF(TODAY()-DATEVALUE(J41)&lt;15,"weekly",IF(TODAY()-DATEVALUE(J41)&lt;60,"monthly","yearly"))</f>
+        <v>yearly</v>
+      </c>
+      <c r="L41" s="29">
+        <v>43225</v>
+      </c>
+      <c r="M41" s="15">
+        <f t="shared" ref="M41" si="67">DAY(L41)</f>
+        <v>5</v>
+      </c>
+      <c r="N41" s="30">
+        <f t="shared" ref="N41" si="68">MONTH(L41)</f>
+        <v>5</v>
+      </c>
+      <c r="O41" s="30">
+        <f t="shared" ref="O41" si="69">YEAR(L41)</f>
+        <v>2018</v>
+      </c>
+      <c r="P41" s="25" t="str">
+        <f t="shared" si="62"/>
+        <v>Tag</v>
+      </c>
+      <c r="Q41" s="25" t="str">
+        <f>Tags!$A$12</f>
+        <v>Class</v>
+      </c>
+      <c r="R41" s="12"/>
+      <c r="S41" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="T41" s="11" t="str">
+        <f t="shared" si="59"/>
+        <v>Octaflower, the Creative Archive's logo. A geometric lotus flower composed of eight rows of eight petals in rainbow progression.</v>
+      </c>
+      <c r="U41" s="11" t="str">
+        <f t="shared" ref="U41" si="70">"All content classified under "&amp;H41</f>
+        <v>All content classified under Nature</v>
+      </c>
+      <c r="V41" s="12"/>
+      <c r="W41" s="11"/>
+      <c r="X41" s="11" t="str">
+        <f t="shared" si="58"/>
+        <v>«SITE-HTTP»/tag-Nature</v>
+      </c>
+      <c r="Y41" s="12"/>
+      <c r="Z41" s="12"/>
+      <c r="AA41" s="12"/>
+      <c r="AB41" s="12"/>
+      <c r="AC41" s="12"/>
+      <c r="AD41" s="12"/>
+      <c r="AE41" s="12"/>
+      <c r="AF41" s="12"/>
+    </row>
+    <row r="42" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A42" s="11" t="str">
+        <f>"tag-"&amp;SUBSTITUTE(Tags!$A14," ","-")</f>
+        <v>tag-Role-playing</v>
+      </c>
+      <c r="B42" s="25" t="str">
+        <f>Tags!$B14</f>
+        <v>Yes</v>
+      </c>
+      <c r="C42" s="25"/>
+      <c r="D42" s="11" t="str">
+        <f>D$35</f>
+        <v>«PAGE-FEATURED-EMPTY»</v>
+      </c>
+      <c r="E42" s="11" t="str">
+        <f>$E$35</f>
+        <v>«FEATURED-ITEM:Filter{"Tags"-&gt;_?(StringMatchQ[#,___~~"«POST:Load»"~~___]&amp;),"Type"-&gt;_,"Day"-&gt;_?NumberQ,"Month"-&gt;_?NumberQ,"Year"-&gt;_?NumberQ}»</v>
+      </c>
+      <c r="F42" s="25" t="str">
+        <f t="shared" si="61"/>
+        <v>archive</v>
+      </c>
+      <c r="G42" s="11" t="str">
+        <f>"Classed as '"&amp;Tags!$A14&amp;"'"</f>
+        <v>Classed as 'Role-playing'</v>
+      </c>
+      <c r="H42" s="11" t="str">
+        <f>Tags!$A14</f>
+        <v>Role-playing</v>
+      </c>
+      <c r="I42" s="22"/>
+      <c r="J42" s="22" t="str">
+        <f t="shared" si="54"/>
+        <v>2018-03-02</v>
+      </c>
+      <c r="K42" s="22" t="str">
+        <f t="shared" ref="K42" ca="1" si="71">IF(TODAY()-DATEVALUE(J42)&lt;15,"weekly",IF(TODAY()-DATEVALUE(J42)&lt;60,"monthly","yearly"))</f>
+        <v>yearly</v>
+      </c>
+      <c r="L42" s="29">
+        <v>43320</v>
+      </c>
+      <c r="M42" s="15">
+        <f t="shared" ref="M42" si="72">DAY(L42)</f>
+        <v>8</v>
+      </c>
+      <c r="N42" s="30">
+        <f t="shared" ref="N42" si="73">MONTH(L42)</f>
+        <v>8</v>
+      </c>
+      <c r="O42" s="30">
+        <f t="shared" ref="O42" si="74">YEAR(L42)</f>
+        <v>2018</v>
+      </c>
+      <c r="P42" s="25" t="str">
+        <f t="shared" si="62"/>
+        <v>Tag</v>
+      </c>
+      <c r="Q42" s="25" t="str">
+        <f>Tags!$A$12</f>
+        <v>Class</v>
+      </c>
+      <c r="R42" s="12"/>
+      <c r="S42" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="T42" s="11" t="str">
+        <f t="shared" si="59"/>
+        <v>Octaflower, the Creative Archive's logo. A geometric lotus flower composed of eight rows of eight petals in rainbow progression.</v>
+      </c>
+      <c r="U42" s="11" t="str">
+        <f t="shared" ref="U42" si="75">"All content classified under "&amp;H42</f>
+        <v>All content classified under Role-playing</v>
+      </c>
+      <c r="V42" s="12"/>
+      <c r="W42" s="11"/>
+      <c r="X42" s="11" t="str">
+        <f t="shared" ref="X42" si="76">"«SITE-HTTP»/"&amp;A42</f>
+        <v>«SITE-HTTP»/tag-Role-playing</v>
+      </c>
+      <c r="Y42" s="12"/>
+      <c r="Z42" s="12"/>
+      <c r="AA42" s="12"/>
+      <c r="AB42" s="12"/>
+      <c r="AC42" s="12"/>
+      <c r="AD42" s="12"/>
+      <c r="AE42" s="12"/>
+      <c r="AF42" s="12"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4221,10 +4449,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4237,24 +4465,24 @@
         <v>2</v>
       </c>
       <c r="B1" s="27" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B2" s="26" t="str">
-        <f>IF(COUNTIFS(EN!$Q$1:$Q$22,"*"&amp;Tags!$A2&amp;"*",EN!$B$1:$B$22,"Yes")&gt;0,"Yes","No")</f>
+        <f>IF(COUNTIFS(EN!$Q$1:$Q$23,"*"&amp;Tags!$A2&amp;"*",EN!$B$1:$B$23,"Yes")&gt;0,"Yes","No")</f>
         <v>Yes</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B3" s="26" t="str">
-        <f>IF(COUNTIFS(EN!$Q$1:$Q$22,"*"&amp;Tags!$A3&amp;"*",EN!$B$1:$B$22,"Yes")&gt;0,"Yes","No")</f>
+        <f>IF(COUNTIFS(EN!$Q$1:$Q$23,"*"&amp;Tags!$A3&amp;"*",EN!$B$1:$B$23,"Yes")&gt;0,"Yes","No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -4263,52 +4491,52 @@
         <v>3</v>
       </c>
       <c r="B4" s="26" t="str">
-        <f>IF(COUNTIFS(EN!$Q$1:$Q$22,"*"&amp;Tags!$A4&amp;"*",EN!$B$1:$B$22,"Yes")&gt;0,"Yes","No")</f>
-        <v>No</v>
+        <f>IF(COUNTIFS(EN!$Q$1:$Q$23,"*"&amp;Tags!$A4&amp;"*",EN!$B$1:$B$23,"Yes")&gt;0,"Yes","No")</f>
+        <v>Yes</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B5" s="26" t="str">
-        <f>IF(COUNTIFS(EN!$Q$1:$Q$22,"*"&amp;Tags!$A5&amp;"*",EN!$B$1:$B$22,"Yes")&gt;0,"Yes","No")</f>
+        <f>IF(COUNTIFS(EN!$Q$1:$Q$23,"*"&amp;Tags!$A5&amp;"*",EN!$B$1:$B$23,"Yes")&gt;0,"Yes","No")</f>
         <v>No</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B6" s="26" t="str">
-        <f>IF(COUNTIFS(EN!$Q$1:$Q$22,"*"&amp;Tags!$A6&amp;"*",EN!$B$1:$B$22,"Yes")&gt;0,"Yes","No")</f>
+        <f>IF(COUNTIFS(EN!$Q$1:$Q$23,"*"&amp;Tags!$A6&amp;"*",EN!$B$1:$B$23,"Yes")&gt;0,"Yes","No")</f>
         <v>Yes</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B7" s="26" t="str">
-        <f>IF(COUNTIFS(EN!$Q$1:$Q$22,"*"&amp;Tags!$A7&amp;"*",EN!$B$1:$B$22,"Yes")&gt;0,"Yes","No")</f>
+        <f>IF(COUNTIFS(EN!$Q$1:$Q$23,"*"&amp;Tags!$A7&amp;"*",EN!$B$1:$B$23,"Yes")&gt;0,"Yes","No")</f>
         <v>No</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B8" s="26" t="str">
-        <f>IF(COUNTIFS(EN!$Q$1:$Q$22,"*"&amp;Tags!$A8&amp;"*",EN!$B$1:$B$22,"Yes")&gt;0,"Yes","No")</f>
+        <f>IF(COUNTIFS(EN!$Q$1:$Q$23,"*"&amp;Tags!$A8&amp;"*",EN!$B$1:$B$23,"Yes")&gt;0,"Yes","No")</f>
         <v>No</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B9" s="26" t="str">
-        <f>IF(COUNTIFS(EN!$Q$1:$Q$22,"*"&amp;Tags!$A9&amp;"*",EN!$B$1:$B$22,"Yes")&gt;0,"Yes","No")</f>
+        <f>IF(COUNTIFS(EN!$Q$1:$Q$23,"*"&amp;Tags!$A9&amp;"*",EN!$B$1:$B$23,"Yes")&gt;0,"Yes","No")</f>
         <v>No</v>
       </c>
     </row>
@@ -4317,35 +4545,44 @@
         <v>25</v>
       </c>
       <c r="B10" s="26" t="str">
-        <f>IF(COUNTIFS(EN!$Q$1:$Q$22,"*"&amp;Tags!$A10&amp;"*",EN!$B$1:$B$22,"Yes")&gt;0,"Yes","No")</f>
+        <f>IF(COUNTIFS(EN!$Q$1:$Q$23,"*"&amp;Tags!$A10&amp;"*",EN!$B$1:$B$23,"Yes")&gt;0,"Yes","No")</f>
         <v>Yes</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B11" s="26" t="str">
-        <f>IF(COUNTIFS(EN!$Q$1:$Q$22,"*"&amp;Tags!$A11&amp;"*",EN!$B$1:$B$22,"Yes")&gt;0,"Yes","No")</f>
+        <f>IF(COUNTIFS(EN!$Q$1:$Q$23,"*"&amp;Tags!$A11&amp;"*",EN!$B$1:$B$23,"Yes")&gt;0,"Yes","No")</f>
         <v>Yes</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B12" s="26" t="str">
-        <f>IF(COUNTIFS(EN!$Q$1:$Q$22,"*"&amp;Tags!$A12&amp;"*",EN!$B$1:$B$22,"Yes")&gt;0,"Yes","No")</f>
+        <f>IF(COUNTIFS(EN!$Q$1:$Q$23,"*"&amp;Tags!$A12&amp;"*",EN!$B$1:$B$23,"Yes")&gt;0,"Yes","No")</f>
         <v>No</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B13" s="26" t="str">
-        <f>IF(COUNTIFS(EN!$Q$1:$Q$22,"*"&amp;Tags!$A13&amp;"*",EN!$B$1:$B$22,"Yes")&gt;0,"Yes","No")</f>
+        <f>IF(COUNTIFS(EN!$Q$1:$Q$23,"*"&amp;Tags!$A13&amp;"*",EN!$B$1:$B$23,"Yes")&gt;0,"Yes","No")</f>
         <v>No</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>162</v>
+      </c>
+      <c r="B14" s="26" t="str">
+        <f>IF(COUNTIFS(EN!$Q$1:$Q$23,"*"&amp;Tags!$A14&amp;"*",EN!$B$1:$B$23,"Yes")&gt;0,"Yes","No")</f>
+        <v>Yes</v>
       </c>
     </row>
   </sheetData>
@@ -4458,11 +4695,11 @@
       </c>
       <c r="X1" s="5" t="str">
         <f>EN!Z1</f>
-        <v>Trailer</v>
+        <v>Honours</v>
       </c>
       <c r="Y1" s="5" t="str">
         <f>EN!AA1</f>
-        <v>Reviews</v>
+        <v>GN</v>
       </c>
       <c r="Z1" s="5" t="str">
         <f>EN!AB1</f>
@@ -4471,7 +4708,7 @@
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.35">
       <c r="P2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.35">

--- a/cms/CMS.xlsx
+++ b/cms/CMS.xlsx
@@ -992,10 +992,10 @@
   <dimension ref="A1:AF42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="X14" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="M4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Z25" sqref="Z25"/>
+      <selection pane="bottomRight" activeCell="T20" sqref="T20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2136,8 +2136,8 @@
         <v>tetrastrophe.png</v>
       </c>
       <c r="T14" s="7" t="str">
-        <f>"A level of the "&amp;A14&amp;" game."</f>
-        <v>A level of the tetrastrophe game.</v>
+        <f>A14</f>
+        <v>tetrastrophe</v>
       </c>
       <c r="U14" s="7" t="str">
         <f>"«"&amp;A14&amp;":MarkShort»"</f>
@@ -2237,8 +2237,8 @@
         <v>blockworks.png</v>
       </c>
       <c r="T15" s="7" t="str">
-        <f>"A level of the "&amp;A15&amp;" game."</f>
-        <v>A level of the blockworks game.</v>
+        <f>A15</f>
+        <v>blockworks</v>
       </c>
       <c r="U15" s="7" t="str">
         <f>"«"&amp;A15&amp;":MarkShort»"</f>
@@ -2339,8 +2339,8 @@
         <v>whirlpuzzle.png</v>
       </c>
       <c r="T16" s="7" t="str">
-        <f>"A level of the "&amp;A16&amp;" game."</f>
-        <v>A level of the whirlpuzzle game.</v>
+        <f>A16</f>
+        <v>whirlpuzzle</v>
       </c>
       <c r="U16" s="7" t="str">
         <f>"«"&amp;A16&amp;":MarkShort»"</f>
@@ -2441,8 +2441,8 @@
         <v>unlucky-unlock.png</v>
       </c>
       <c r="T17" s="7" t="str">
-        <f>"A level of the "&amp;A17&amp;" game."</f>
-        <v>A level of the unlucky-unlock game.</v>
+        <f>A17</f>
+        <v>unlucky-unlock</v>
       </c>
       <c r="U17" s="7" t="str">
         <f>"«"&amp;A17&amp;":MarkShort»"</f>
@@ -2544,8 +2544,8 @@
         <v>pmgrp.png</v>
       </c>
       <c r="T18" s="7" t="str">
-        <f>"A level of the "&amp;A18&amp;" game."</f>
-        <v>A level of the pmgrp game.</v>
+        <f>A18</f>
+        <v>pmgrp</v>
       </c>
       <c r="U18" s="7" t="str">
         <f>"«"&amp;A18&amp;":MarkShort»"</f>
@@ -2605,7 +2605,7 @@
       </c>
       <c r="K19" s="10" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v>monthly</v>
+        <v>yearly</v>
       </c>
       <c r="L19" s="3">
         <v>43287</v>
@@ -2637,8 +2637,8 @@
         <v>combinatura.png</v>
       </c>
       <c r="T19" s="7" t="str">
-        <f>"The "&amp;Y19&amp;" game logo."</f>
-        <v>The combinatura game logo.</v>
+        <f>Y19</f>
+        <v>combinatura</v>
       </c>
       <c r="U19" s="9" t="s">
         <v>119</v>
@@ -2728,8 +2728,8 @@
         <v>hastefulll.png</v>
       </c>
       <c r="T20" s="7" t="str">
-        <f>"A level of the "&amp;A20&amp;" game."</f>
-        <v>A level of the hastefulll game.</v>
+        <f>A20</f>
+        <v>hastefulll</v>
       </c>
       <c r="U20" s="7" t="str">
         <f>"«"&amp;A20&amp;":MarkShort»"</f>
@@ -2826,9 +2826,9 @@
         <f>A21&amp;".png"</f>
         <v>tiaradventur.png</v>
       </c>
-      <c r="T21" s="9" t="str">
-        <f>"The legend of "&amp;A21&amp;"."</f>
-        <v>The legend of tiaradventur.</v>
+      <c r="T21" s="7" t="str">
+        <f>A21</f>
+        <v>tiaradventur</v>
       </c>
       <c r="U21" s="7" t="str">
         <f>"«"&amp;A21&amp;":MarkShort»"</f>

--- a/cms/CMS.xlsx
+++ b/cms/CMS.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="171">
   <si>
     <t>Title</t>
   </si>
@@ -523,6 +523,12 @@
   </si>
   <si>
     <t>Honours</t>
+  </si>
+  <si>
+    <t>NomadPage</t>
+  </si>
+  <si>
+    <t>Addon</t>
   </si>
 </sst>
 </file>
@@ -989,13 +995,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AF42"/>
+  <dimension ref="A1:AF44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="M4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="F8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="T20" sqref="T20"/>
+      <selection pane="bottomRight" activeCell="Q23" sqref="Q23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2020,7 +2026,7 @@
         <v>43265</v>
       </c>
       <c r="J13" s="10" t="str">
-        <f t="shared" ref="J13:J23" si="14">YEAR(I13)&amp;TEXT("-"&amp;MONTH(I13),"00")&amp;TEXT("-"&amp;DAY(I13),"00")</f>
+        <f t="shared" ref="J13:J24" si="14">YEAR(I13)&amp;TEXT("-"&amp;MONTH(I13),"00")&amp;TEXT("-"&amp;DAY(I13),"00")</f>
         <v>2018-06-14</v>
       </c>
       <c r="K13" s="10" t="str">
@@ -2118,7 +2124,7 @@
         <v>5</v>
       </c>
       <c r="O14" s="6">
-        <f t="shared" ref="O14:O23" si="19">YEAR(L14)</f>
+        <f t="shared" ref="O14:O24" si="19">YEAR(L14)</f>
         <v>2014</v>
       </c>
       <c r="P14" s="2" t="s">
@@ -2662,7 +2668,7 @@
     </row>
     <row r="20" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A20" s="7" t="str">
-        <f t="shared" ref="A20:A21" si="35">SUBSTITUTE(LOWER(G20)," ","-")</f>
+        <f t="shared" ref="A20:A22" si="35">SUBSTITUTE(LOWER(G20)," ","-")</f>
         <v>hastefulll</v>
       </c>
       <c r="B20" s="2" t="s">
@@ -2839,7 +2845,7 @@
         <v>game</v>
       </c>
       <c r="X21" s="7" t="str">
-        <f t="shared" ref="X21" si="43">"«SITE-HTTP»/"&amp;A21</f>
+        <f t="shared" ref="X21:X22" si="43">"«SITE-HTTP»/"&amp;A21</f>
         <v>«SITE-HTTP»/tiaradventur</v>
       </c>
       <c r="Z21" s="28" t="str">
@@ -2864,130 +2870,132 @@
     </row>
     <row r="22" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A22" s="7" t="str">
-        <f>SUBSTITUTE(LOWER(G22)," ","-")</f>
-        <v>terms-of-use</v>
+        <f t="shared" si="35"/>
+        <v>nomadpage</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D22" s="7" t="str">
-        <f>$D$2</f>
-        <v>«PAGE-POST-MD»</v>
-      </c>
-      <c r="F22" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F22" s="4" t="s">
         <v>35</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>23</v>
+        <v>169</v>
       </c>
       <c r="H22" s="7" t="str">
         <f>"«"&amp;A22&amp;"»"</f>
-        <v>«terms-of-use»</v>
+        <v>«nomadpage»</v>
       </c>
       <c r="I22" s="10">
         <f>L22</f>
-        <v>43069</v>
+        <v>43349</v>
       </c>
       <c r="J22" s="10" t="str">
-        <f t="shared" si="14"/>
-        <v>2017-11-30</v>
+        <f t="shared" ref="J22" si="44">YEAR(I22)&amp;TEXT("-"&amp;MONTH(I22),"00")&amp;TEXT("-"&amp;DAY(I22),"00")</f>
+        <v>2018-09-06</v>
       </c>
       <c r="K22" s="10" t="str">
-        <f ca="1">IF(TODAY()-DATEVALUE(J22)&lt;15,"weekly",IF(TODAY()-DATEVALUE(J22)&lt;60,"monthly","yearly"))</f>
-        <v>yearly</v>
+        <f t="shared" ref="K22" ca="1" si="45">IF(TODAY()-DATEVALUE(J22)&lt;15,"weekly",IF(TODAY()-DATEVALUE(J22)&lt;60,"monthly","yearly"))</f>
+        <v>weekly</v>
       </c>
       <c r="L22" s="3">
-        <v>43069</v>
+        <v>43349</v>
       </c>
       <c r="M22" s="13">
-        <f t="shared" ref="M22" si="44">DAY(L22)</f>
-        <v>30</v>
+        <f t="shared" ref="M22" si="46">DAY(L22)</f>
+        <v>6</v>
       </c>
       <c r="N22" s="6">
-        <f t="shared" ref="N22" si="45">MONTH(L22)</f>
-        <v>11</v>
+        <f t="shared" ref="N22" si="47">MONTH(L22)</f>
+        <v>9</v>
       </c>
       <c r="O22" s="6">
-        <f t="shared" si="19"/>
-        <v>2017</v>
+        <f t="shared" ref="O22" si="48">YEAR(L22)</f>
+        <v>2018</v>
       </c>
       <c r="P22" s="2" t="s">
         <v>3</v>
       </c>
       <c r="Q22" s="2" t="str">
-        <f>Tags!$A$6&amp;", "&amp;Tags!$A$4</f>
-        <v>Creative-Archive, Post</v>
+        <f>Tags!$A$15</f>
+        <v>Addon</v>
       </c>
       <c r="R22" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="S22" s="7" t="s">
-        <v>42</v>
+      <c r="S22" s="7" t="str">
+        <f>A22&amp;".png"</f>
+        <v>nomadpage.png</v>
       </c>
       <c r="T22" s="7" t="str">
-        <f>$T$9</f>
-        <v>Octaflower, the Creative Archive's logo. A geometric lotus flower composed of eight rows of eight petals in rainbow progression.</v>
+        <f>A22</f>
+        <v>nomadpage</v>
       </c>
       <c r="U22" s="7" t="str">
-        <f>"«"&amp;A22&amp;":MarkShort»"</f>
-        <v>«terms-of-use:MarkShort»</v>
+        <f t="shared" ref="U22" si="49">"«"&amp;A22&amp;":MarkShort»"</f>
+        <v>«nomadpage:MarkShort»</v>
       </c>
       <c r="V22" s="7" t="str">
-        <f>IF(P22="Post","article",IF(P22="Game","game","website"))</f>
+        <f>IF(P22="Post","article","site")</f>
         <v>article</v>
       </c>
-      <c r="X22" s="7" t="str">
-        <f t="shared" ref="X22:X29" si="46">"«SITE-HTTP»/"&amp;A22</f>
-        <v>«SITE-HTTP»/terms-of-use</v>
+      <c r="W22" s="9"/>
+      <c r="X22" s="9" t="str">
+        <f t="shared" si="43"/>
+        <v>«SITE-HTTP»/nomadpage</v>
       </c>
     </row>
     <row r="23" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A23" s="7" t="str">
         <f>SUBSTITUTE(LOWER(G23)," ","-")</f>
-        <v>privacy-policy</v>
+        <v>terms-of-use</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D23" s="7" t="str">
         <f>$D$2</f>
         <v>«PAGE-POST-MD»</v>
       </c>
-      <c r="F23" s="2" t="s">
+      <c r="F23" s="4" t="s">
         <v>35</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="H23" s="7" t="str">
         <f>"«"&amp;A23&amp;"»"</f>
-        <v>«privacy-policy»</v>
-      </c>
-      <c r="I23" s="16">
-        <v>43169</v>
+        <v>«terms-of-use»</v>
+      </c>
+      <c r="I23" s="10">
+        <f>L23</f>
+        <v>43069</v>
       </c>
       <c r="J23" s="10" t="str">
         <f t="shared" si="14"/>
-        <v>2018-03-10</v>
+        <v>2017-11-30</v>
       </c>
       <c r="K23" s="10" t="str">
-        <f t="shared" ref="K23:K37" ca="1" si="47">IF(TODAY()-DATEVALUE(J23)&lt;15,"weekly",IF(TODAY()-DATEVALUE(J23)&lt;60,"monthly","yearly"))</f>
+        <f ca="1">IF(TODAY()-DATEVALUE(J23)&lt;15,"weekly",IF(TODAY()-DATEVALUE(J23)&lt;60,"monthly","yearly"))</f>
         <v>yearly</v>
       </c>
       <c r="L23" s="3">
-        <v>43141</v>
+        <v>43069</v>
       </c>
       <c r="M23" s="13">
-        <f t="shared" ref="M23" si="48">DAY(L23)</f>
-        <v>10</v>
+        <f t="shared" ref="M23" si="50">DAY(L23)</f>
+        <v>30</v>
       </c>
       <c r="N23" s="6">
-        <f t="shared" ref="N23" si="49">MONTH(L23)</f>
-        <v>2</v>
+        <f t="shared" ref="N23" si="51">MONTH(L23)</f>
+        <v>11</v>
       </c>
       <c r="O23" s="6">
         <f t="shared" si="19"/>
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="P23" s="2" t="s">
         <v>3</v>
@@ -3008,101 +3016,117 @@
       </c>
       <c r="U23" s="7" t="str">
         <f>"«"&amp;A23&amp;":MarkShort»"</f>
-        <v>«privacy-policy:MarkShort»</v>
+        <v>«terms-of-use:MarkShort»</v>
       </c>
       <c r="V23" s="7" t="str">
         <f>IF(P23="Post","article",IF(P23="Game","game","website"))</f>
         <v>article</v>
       </c>
       <c r="X23" s="7" t="str">
-        <f t="shared" si="46"/>
-        <v>«SITE-HTTP»/privacy-policy</v>
+        <f t="shared" ref="X23:X30" si="52">"«SITE-HTTP»/"&amp;A23</f>
+        <v>«SITE-HTTP»/terms-of-use</v>
       </c>
     </row>
     <row r="24" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A24" s="7" t="str">
         <f>SUBSTITUTE(LOWER(G24)," ","-")</f>
-        <v>posts-by-date</v>
+        <v>privacy-policy</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C24" s="2">
-        <v>4</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>36</v>
+      <c r="D24" s="7" t="str">
+        <f>$D$2</f>
+        <v>«PAGE-POST-MD»</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>35</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I24" s="19"/>
-      <c r="J24" s="24" t="str">
-        <f>YEAR($J$10)&amp;TEXT("-"&amp;MONTH($J$10),"00")&amp;TEXT("-"&amp;DAY($J$10),"00")</f>
-        <v>2018-03-02</v>
+        <v>55</v>
+      </c>
+      <c r="H24" s="7" t="str">
+        <f>"«"&amp;A24&amp;"»"</f>
+        <v>«privacy-policy»</v>
+      </c>
+      <c r="I24" s="16">
+        <v>43169</v>
+      </c>
+      <c r="J24" s="10" t="str">
+        <f t="shared" si="14"/>
+        <v>2018-03-10</v>
       </c>
       <c r="K24" s="10" t="str">
-        <f ca="1">IF(TODAY()-DATEVALUE(J24)&lt;15,"weekly",IF(TODAY()-DATEVALUE(J24)&lt;60,"monthly","yearly"))</f>
+        <f t="shared" ref="K24:K38" ca="1" si="53">IF(TODAY()-DATEVALUE(J24)&lt;15,"weekly",IF(TODAY()-DATEVALUE(J24)&lt;60,"monthly","yearly"))</f>
         <v>yearly</v>
       </c>
-      <c r="L24" s="20"/>
-      <c r="M24" s="13"/>
+      <c r="L24" s="3">
+        <v>43141</v>
+      </c>
+      <c r="M24" s="13">
+        <f t="shared" ref="M24" si="54">DAY(L24)</f>
+        <v>10</v>
+      </c>
+      <c r="N24" s="6">
+        <f t="shared" ref="N24" si="55">MONTH(L24)</f>
+        <v>2</v>
+      </c>
+      <c r="O24" s="6">
+        <f t="shared" si="19"/>
+        <v>2018</v>
+      </c>
       <c r="P24" s="2" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="Q24" s="2" t="str">
-        <f>Tags!$A$11</f>
-        <v>Sitemap</v>
-      </c>
-      <c r="S24" s="7" t="str">
-        <f>$S$9</f>
-        <v>logo.png</v>
+        <f>Tags!$A$6&amp;", "&amp;Tags!$A$4</f>
+        <v>Creative-Archive, Post</v>
+      </c>
+      <c r="R24" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="S24" s="7" t="s">
+        <v>42</v>
       </c>
       <c r="T24" s="7" t="str">
         <f>$T$9</f>
         <v>Octaflower, the Creative Archive's logo. A geometric lotus flower composed of eight rows of eight petals in rainbow progression.</v>
       </c>
       <c r="U24" s="7" t="str">
-        <f>"Archive of "&amp;G24</f>
-        <v>Archive of Posts by date</v>
+        <f>"«"&amp;A24&amp;":MarkShort»"</f>
+        <v>«privacy-policy:MarkShort»</v>
       </c>
       <c r="V24" s="7" t="str">
         <f>IF(P24="Post","article",IF(P24="Game","game","website"))</f>
-        <v>website</v>
+        <v>article</v>
       </c>
       <c r="X24" s="7" t="str">
-        <f t="shared" si="46"/>
-        <v>«SITE-HTTP»/posts-by-date</v>
+        <f t="shared" si="52"/>
+        <v>«SITE-HTTP»/privacy-policy</v>
       </c>
     </row>
     <row r="25" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A25" s="7" t="str">
         <f>SUBSTITUTE(LOWER(G25)," ","-")</f>
-        <v>posts-by-tag</v>
+        <v>posts-by-date</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C25" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>154</v>
+        <v>37</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>36</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="I25" s="19"/>
       <c r="J25" s="24" t="str">
@@ -3132,40 +3156,41 @@
       </c>
       <c r="U25" s="7" t="str">
         <f>"Archive of "&amp;G25</f>
-        <v>Archive of Posts by tag</v>
+        <v>Archive of Posts by date</v>
       </c>
       <c r="V25" s="7" t="str">
         <f>IF(P25="Post","article",IF(P25="Game","game","website"))</f>
         <v>website</v>
       </c>
       <c r="X25" s="7" t="str">
-        <f t="shared" si="46"/>
-        <v>«SITE-HTTP»/posts-by-tag</v>
+        <f t="shared" si="52"/>
+        <v>«SITE-HTTP»/posts-by-date</v>
       </c>
     </row>
     <row r="26" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A26" s="7" t="s">
-        <v>126</v>
+      <c r="A26" s="7" t="str">
+        <f>SUBSTITUTE(LOWER(G26)," ","-")</f>
+        <v>posts-by-tag</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C26" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>127</v>
+        <v>22</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>133</v>
+        <v>154</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>36</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="I26" s="10"/>
+        <v>49</v>
+      </c>
+      <c r="I26" s="19"/>
       <c r="J26" s="24" t="str">
         <f>YEAR($J$10)&amp;TEXT("-"&amp;MONTH($J$10),"00")&amp;TEXT("-"&amp;DAY($J$10),"00")</f>
         <v>2018-03-02</v>
@@ -3174,32 +3199,18 @@
         <f ca="1">IF(TODAY()-DATEVALUE(J26)&lt;15,"weekly",IF(TODAY()-DATEVALUE(J26)&lt;60,"monthly","yearly"))</f>
         <v>yearly</v>
       </c>
-      <c r="L26" s="3">
-        <v>43141</v>
-      </c>
-      <c r="M26" s="13">
-        <f t="shared" ref="M26" si="50">DAY(L26)</f>
-        <v>10</v>
-      </c>
-      <c r="N26" s="6">
-        <f t="shared" ref="N26" si="51">MONTH(L26)</f>
-        <v>2</v>
-      </c>
-      <c r="O26" s="6">
-        <f t="shared" ref="O26" si="52">YEAR(L26)</f>
-        <v>2018</v>
-      </c>
+      <c r="L26" s="20"/>
+      <c r="M26" s="13"/>
       <c r="P26" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="Q26" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="R26" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="S26" s="7" t="s">
-        <v>42</v>
+      <c r="Q26" s="2" t="str">
+        <f>Tags!$A$11</f>
+        <v>Sitemap</v>
+      </c>
+      <c r="S26" s="7" t="str">
+        <f>$S$9</f>
+        <v>logo.png</v>
       </c>
       <c r="T26" s="7" t="str">
         <f>$T$9</f>
@@ -3207,231 +3218,217 @@
       </c>
       <c r="U26" s="7" t="str">
         <f>"Archive of "&amp;G26</f>
-        <v>Archive of Games</v>
+        <v>Archive of Posts by tag</v>
       </c>
       <c r="V26" s="7" t="str">
         <f>IF(P26="Post","article",IF(P26="Game","game","website"))</f>
         <v>website</v>
       </c>
       <c r="X26" s="7" t="str">
-        <f t="shared" si="46"/>
-        <v>«SITE-HTTP»/games</v>
+        <f t="shared" si="52"/>
+        <v>«SITE-HTTP»/posts-by-tag</v>
       </c>
     </row>
     <row r="27" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A27" s="7" t="s">
-        <v>88</v>
+        <v>126</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="C27" s="2">
+        <v>6</v>
+      </c>
       <c r="D27" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="M27" s="14"/>
-      <c r="W27" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="X27" s="9" t="str">
-        <f t="shared" si="46"/>
-        <v>«SITE-HTTP»/robots</v>
+        <v>127</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I27" s="10"/>
+      <c r="J27" s="24" t="str">
+        <f>YEAR($J$10)&amp;TEXT("-"&amp;MONTH($J$10),"00")&amp;TEXT("-"&amp;DAY($J$10),"00")</f>
+        <v>2018-03-02</v>
+      </c>
+      <c r="K27" s="10" t="str">
+        <f ca="1">IF(TODAY()-DATEVALUE(J27)&lt;15,"weekly",IF(TODAY()-DATEVALUE(J27)&lt;60,"monthly","yearly"))</f>
+        <v>yearly</v>
+      </c>
+      <c r="L27" s="3">
+        <v>43141</v>
+      </c>
+      <c r="M27" s="13">
+        <f t="shared" ref="M27" si="56">DAY(L27)</f>
+        <v>10</v>
+      </c>
+      <c r="N27" s="6">
+        <f t="shared" ref="N27" si="57">MONTH(L27)</f>
+        <v>2</v>
+      </c>
+      <c r="O27" s="6">
+        <f t="shared" ref="O27" si="58">YEAR(L27)</f>
+        <v>2018</v>
+      </c>
+      <c r="P27" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q27" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="R27" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="S27" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="T27" s="7" t="str">
+        <f>$T$9</f>
+        <v>Octaflower, the Creative Archive's logo. A geometric lotus flower composed of eight rows of eight petals in rainbow progression.</v>
+      </c>
+      <c r="U27" s="7" t="str">
+        <f>"Archive of "&amp;G27</f>
+        <v>Archive of Games</v>
+      </c>
+      <c r="V27" s="7" t="str">
+        <f>IF(P27="Post","article",IF(P27="Game","game","website"))</f>
+        <v>website</v>
+      </c>
+      <c r="X27" s="7" t="str">
+        <f t="shared" si="52"/>
+        <v>«SITE-HTTP»/games</v>
       </c>
     </row>
     <row r="28" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A28" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="M28" s="14"/>
       <c r="W28" s="9" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="X28" s="9" t="str">
-        <f t="shared" si="46"/>
-        <v>«SITE-HTTP»/sitemap</v>
+        <f t="shared" si="52"/>
+        <v>«SITE-HTTP»/robots</v>
       </c>
     </row>
     <row r="29" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A29" s="7" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="I29" s="19"/>
-      <c r="J29" s="24" t="str">
-        <f>YEAR($J$10)&amp;TEXT("-"&amp;MONTH($J$10),"00")&amp;TEXT("-"&amp;DAY($J$10),"00")</f>
-        <v>2018-03-02</v>
-      </c>
-      <c r="K29" s="10" t="str">
-        <f t="shared" ref="K29" ca="1" si="53">IF(TODAY()-DATEVALUE(J29)&lt;15,"weekly",IF(TODAY()-DATEVALUE(J29)&lt;60,"monthly","yearly"))</f>
-        <v>yearly</v>
-      </c>
-      <c r="L29" s="21"/>
+        <v>92</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>93</v>
+      </c>
       <c r="M29" s="14"/>
       <c r="W29" s="9" t="s">
         <v>82</v>
       </c>
       <c r="X29" s="9" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="52"/>
+        <v>«SITE-HTTP»/sitemap</v>
+      </c>
+    </row>
+    <row r="30" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A30" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="I30" s="19"/>
+      <c r="J30" s="24" t="str">
+        <f>YEAR($J$10)&amp;TEXT("-"&amp;MONTH($J$10),"00")&amp;TEXT("-"&amp;DAY($J$10),"00")</f>
+        <v>2018-03-02</v>
+      </c>
+      <c r="K30" s="10" t="str">
+        <f t="shared" ref="K30" ca="1" si="59">IF(TODAY()-DATEVALUE(J30)&lt;15,"weekly",IF(TODAY()-DATEVALUE(J30)&lt;60,"monthly","yearly"))</f>
+        <v>yearly</v>
+      </c>
+      <c r="L30" s="21"/>
+      <c r="M30" s="14"/>
+      <c r="W30" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="X30" s="9" t="str">
+        <f t="shared" si="52"/>
         <v>«SITE-HTTP»/rss</v>
       </c>
     </row>
-    <row r="30" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A30" s="11" t="str">
+    <row r="31" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A31" s="11" t="str">
         <f>"tag-"&amp;SUBSTITUTE(Tags!$A2," ","-")</f>
         <v>tag-Platformer</v>
       </c>
-      <c r="B30" s="25" t="str">
+      <c r="B31" s="25" t="str">
         <f>Tags!$B2</f>
         <v>Yes</v>
       </c>
-      <c r="C30" s="25"/>
-      <c r="D30" s="11" t="str">
-        <f>D$35</f>
+      <c r="C31" s="25"/>
+      <c r="D31" s="11" t="str">
+        <f>D$36</f>
         <v>«PAGE-FEATURED-EMPTY»</v>
       </c>
-      <c r="E30" s="11" t="str">
-        <f>$E$35</f>
+      <c r="E31" s="11" t="str">
+        <f>$E$36</f>
         <v>«FEATURED-ITEM:Filter{"Tags"-&gt;_?(StringMatchQ[#,___~~"«POST:Load»"~~___]&amp;),"Type"-&gt;_,"Day"-&gt;_?NumberQ,"Month"-&gt;_?NumberQ,"Year"-&gt;_?NumberQ}»</v>
       </c>
-      <c r="F30" s="12" t="s">
+      <c r="F31" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="G30" s="11" t="str">
-        <f>"All"&amp;" "&amp;H30&amp;"s"</f>
+      <c r="G31" s="11" t="str">
+        <f>"All"&amp;" "&amp;H31&amp;"s"</f>
         <v>All Platformers</v>
       </c>
-      <c r="H30" s="11" t="str">
+      <c r="H31" s="11" t="str">
         <f>Tags!$A2</f>
         <v>Platformer</v>
       </c>
-      <c r="I30" s="22"/>
-      <c r="J30" s="22" t="str">
-        <f t="shared" ref="J30:J42" si="54">YEAR($J$10)&amp;TEXT("-"&amp;MONTH($J$10),"00")&amp;TEXT("-"&amp;DAY($J$10),"00")</f>
-        <v>2018-03-02</v>
-      </c>
-      <c r="K30" s="22" t="str">
-        <f t="shared" ca="1" si="47"/>
-        <v>yearly</v>
-      </c>
-      <c r="L30" s="29">
-        <v>41773</v>
-      </c>
-      <c r="M30" s="15">
-        <f t="shared" ref="M30:M40" si="55">DAY(L30)</f>
-        <v>14</v>
-      </c>
-      <c r="N30" s="30">
-        <f t="shared" ref="N30:N40" si="56">MONTH(L30)</f>
-        <v>5</v>
-      </c>
-      <c r="O30" s="30">
-        <f t="shared" ref="O30:O40" si="57">YEAR(L30)</f>
-        <v>2014</v>
-      </c>
-      <c r="P30" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q30" s="25" t="str">
-        <f>Tags!$A$12</f>
-        <v>Class</v>
-      </c>
-      <c r="R30" s="12"/>
-      <c r="S30" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="T30" s="11" t="str">
-        <f>$T$9</f>
-        <v>Octaflower, the Creative Archive's logo. A geometric lotus flower composed of eight rows of eight petals in rainbow progression.</v>
-      </c>
-      <c r="U30" s="11" t="str">
-        <f>"All content classified under "&amp;H30</f>
-        <v>All content classified under Platformer</v>
-      </c>
-      <c r="V30" s="12"/>
-      <c r="W30" s="11"/>
-      <c r="X30" s="11" t="str">
-        <f t="shared" ref="X30:X41" si="58">"«SITE-HTTP»/"&amp;A30</f>
-        <v>«SITE-HTTP»/tag-Platformer</v>
-      </c>
-      <c r="Y30" s="12"/>
-      <c r="Z30" s="12"/>
-      <c r="AA30" s="12"/>
-      <c r="AB30" s="12"/>
-      <c r="AC30" s="12"/>
-      <c r="AD30" s="12"/>
-      <c r="AE30" s="12"/>
-      <c r="AF30" s="12"/>
-    </row>
-    <row r="31" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A31" s="11" t="str">
-        <f>"tag-"&amp;SUBSTITUTE(Tags!$A3," ","-")</f>
-        <v>tag-Puzzle</v>
-      </c>
-      <c r="B31" s="25" t="str">
-        <f>Tags!$B3</f>
-        <v>Yes</v>
-      </c>
-      <c r="C31" s="25"/>
-      <c r="D31" s="11" t="str">
-        <f>D$35</f>
-        <v>«PAGE-FEATURED-EMPTY»</v>
-      </c>
-      <c r="E31" s="11" t="str">
-        <f>$E$35</f>
-        <v>«FEATURED-ITEM:Filter{"Tags"-&gt;_?(StringMatchQ[#,___~~"«POST:Load»"~~___]&amp;),"Type"-&gt;_,"Day"-&gt;_?NumberQ,"Month"-&gt;_?NumberQ,"Year"-&gt;_?NumberQ}»</v>
-      </c>
-      <c r="F31" s="25" t="str">
-        <f>F$30</f>
-        <v>archive</v>
-      </c>
-      <c r="G31" s="11" t="str">
-        <f>"All"&amp;" "&amp;H31&amp;"s"</f>
-        <v>All Puzzles</v>
-      </c>
-      <c r="H31" s="11" t="str">
-        <f>Tags!$A3</f>
-        <v>Puzzle</v>
-      </c>
       <c r="I31" s="22"/>
       <c r="J31" s="22" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" ref="J31:J44" si="60">YEAR($J$10)&amp;TEXT("-"&amp;MONTH($J$10),"00")&amp;TEXT("-"&amp;DAY($J$10),"00")</f>
         <v>2018-03-02</v>
       </c>
       <c r="K31" s="22" t="str">
-        <f t="shared" ca="1" si="47"/>
+        <f t="shared" ca="1" si="53"/>
         <v>yearly</v>
       </c>
       <c r="L31" s="29">
         <v>41773</v>
       </c>
       <c r="M31" s="15">
-        <f t="shared" si="55"/>
+        <f t="shared" ref="M31:M41" si="61">DAY(L31)</f>
         <v>14</v>
       </c>
       <c r="N31" s="30">
-        <f t="shared" si="56"/>
+        <f t="shared" ref="N31:N41" si="62">MONTH(L31)</f>
         <v>5</v>
       </c>
       <c r="O31" s="30">
-        <f t="shared" si="57"/>
+        <f t="shared" ref="O31:O41" si="63">YEAR(L31)</f>
         <v>2014</v>
       </c>
-      <c r="P31" s="25" t="str">
-        <f>$P$30</f>
-        <v>Tag</v>
+      <c r="P31" s="12" t="s">
+        <v>20</v>
       </c>
       <c r="Q31" s="25" t="str">
         <f>Tags!$A$12</f>
@@ -3442,18 +3439,18 @@
         <v>42</v>
       </c>
       <c r="T31" s="11" t="str">
-        <f t="shared" ref="T31:T42" si="59">$T$9</f>
+        <f>$T$9</f>
         <v>Octaflower, the Creative Archive's logo. A geometric lotus flower composed of eight rows of eight petals in rainbow progression.</v>
       </c>
       <c r="U31" s="11" t="str">
-        <f t="shared" ref="U31:U40" si="60">"All content classified under "&amp;H31</f>
-        <v>All content classified under Puzzle</v>
+        <f>"All content classified under "&amp;H31</f>
+        <v>All content classified under Platformer</v>
       </c>
       <c r="V31" s="12"/>
       <c r="W31" s="11"/>
       <c r="X31" s="11" t="str">
-        <f t="shared" si="58"/>
-        <v>«SITE-HTTP»/tag-Puzzle</v>
+        <f t="shared" ref="X31:X42" si="64">"«SITE-HTTP»/"&amp;A31</f>
+        <v>«SITE-HTTP»/tag-Platformer</v>
       </c>
       <c r="Y31" s="12"/>
       <c r="Z31" s="12"/>
@@ -3466,58 +3463,60 @@
     </row>
     <row r="32" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A32" s="11" t="str">
-        <f>"tag-"&amp;SUBSTITUTE(Tags!$A4," ","-")</f>
-        <v>tag-Post</v>
+        <f>"tag-"&amp;SUBSTITUTE(Tags!$A3," ","-")</f>
+        <v>tag-Puzzle</v>
       </c>
       <c r="B32" s="25" t="str">
-        <f>Tags!$B4</f>
+        <f>Tags!$B3</f>
         <v>Yes</v>
       </c>
       <c r="C32" s="25"/>
-      <c r="D32" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="E32" s="12" t="s">
-        <v>103</v>
+      <c r="D32" s="11" t="str">
+        <f>D$36</f>
+        <v>«PAGE-FEATURED-EMPTY»</v>
+      </c>
+      <c r="E32" s="11" t="str">
+        <f>$E$36</f>
+        <v>«FEATURED-ITEM:Filter{"Tags"-&gt;_?(StringMatchQ[#,___~~"«POST:Load»"~~___]&amp;),"Type"-&gt;_,"Day"-&gt;_?NumberQ,"Month"-&gt;_?NumberQ,"Year"-&gt;_?NumberQ}»</v>
       </c>
       <c r="F32" s="25" t="str">
-        <f t="shared" ref="F32:F42" si="61">F$30</f>
+        <f>F$31</f>
         <v>archive</v>
       </c>
       <c r="G32" s="11" t="str">
         <f>"All"&amp;" "&amp;H32&amp;"s"</f>
-        <v>All Posts</v>
+        <v>All Puzzles</v>
       </c>
       <c r="H32" s="11" t="str">
-        <f>Tags!$A4</f>
-        <v>Post</v>
+        <f>Tags!$A3</f>
+        <v>Puzzle</v>
       </c>
       <c r="I32" s="22"/>
       <c r="J32" s="22" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="60"/>
         <v>2018-03-02</v>
       </c>
       <c r="K32" s="22" t="str">
-        <f t="shared" ca="1" si="47"/>
+        <f t="shared" ca="1" si="53"/>
         <v>yearly</v>
       </c>
       <c r="L32" s="29">
-        <v>43070</v>
+        <v>41773</v>
       </c>
       <c r="M32" s="15">
-        <f t="shared" si="55"/>
-        <v>1</v>
+        <f t="shared" si="61"/>
+        <v>14</v>
       </c>
       <c r="N32" s="30">
-        <f t="shared" si="56"/>
-        <v>12</v>
+        <f t="shared" si="62"/>
+        <v>5</v>
       </c>
       <c r="O32" s="30">
-        <f t="shared" si="57"/>
-        <v>2017</v>
+        <f t="shared" si="63"/>
+        <v>2014</v>
       </c>
       <c r="P32" s="25" t="str">
-        <f t="shared" ref="P32:P42" si="62">$P$30</f>
+        <f>$P$31</f>
         <v>Tag</v>
       </c>
       <c r="Q32" s="25" t="str">
@@ -3529,18 +3528,18 @@
         <v>42</v>
       </c>
       <c r="T32" s="11" t="str">
-        <f t="shared" si="59"/>
+        <f t="shared" ref="T32:T44" si="65">$T$9</f>
         <v>Octaflower, the Creative Archive's logo. A geometric lotus flower composed of eight rows of eight petals in rainbow progression.</v>
       </c>
       <c r="U32" s="11" t="str">
-        <f t="shared" si="60"/>
-        <v>All content classified under Post</v>
+        <f t="shared" ref="U32:U41" si="66">"All content classified under "&amp;H32</f>
+        <v>All content classified under Puzzle</v>
       </c>
       <c r="V32" s="12"/>
       <c r="W32" s="11"/>
       <c r="X32" s="11" t="str">
-        <f t="shared" si="58"/>
-        <v>«SITE-HTTP»/tag-Post</v>
+        <f t="shared" si="64"/>
+        <v>«SITE-HTTP»/tag-Puzzle</v>
       </c>
       <c r="Y32" s="12"/>
       <c r="Z32" s="12"/>
@@ -3553,60 +3552,58 @@
     </row>
     <row r="33" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A33" s="11" t="str">
-        <f>"tag-"&amp;SUBSTITUTE(Tags!$A5," ","-")</f>
-        <v>tag-Finance</v>
+        <f>"tag-"&amp;SUBSTITUTE(Tags!$A4," ","-")</f>
+        <v>tag-Post</v>
       </c>
       <c r="B33" s="25" t="str">
-        <f>Tags!$B5</f>
-        <v>No</v>
+        <f>Tags!$B4</f>
+        <v>Yes</v>
       </c>
       <c r="C33" s="25"/>
-      <c r="D33" s="11" t="str">
-        <f>$D$32</f>
-        <v>«PAGE-SIMPLE»</v>
-      </c>
-      <c r="E33" s="11" t="str">
-        <f>$E$32</f>
-        <v>«TAGSELECT:Filter{"Tags"-&gt;_?(StringMatchQ[#,___~~"«POST:Load»"~~___]&amp;),"Type"-&gt;_,"Day"-&gt;_?NumberQ,"Month"-&gt;_?NumberQ,"Year"-&gt;_?NumberQ}»</v>
+      <c r="D33" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E33" s="12" t="s">
+        <v>103</v>
       </c>
       <c r="F33" s="25" t="str">
-        <f t="shared" si="61"/>
+        <f t="shared" ref="F33:F44" si="67">F$31</f>
         <v>archive</v>
       </c>
       <c r="G33" s="11" t="str">
-        <f>"Classed as '"&amp;Tags!$A5&amp;"'"</f>
-        <v>Classed as 'Finance'</v>
+        <f>"All"&amp;" "&amp;H33&amp;"s"</f>
+        <v>All Posts</v>
       </c>
       <c r="H33" s="11" t="str">
-        <f>Tags!$A5</f>
-        <v>Finance</v>
+        <f>Tags!$A4</f>
+        <v>Post</v>
       </c>
       <c r="I33" s="22"/>
       <c r="J33" s="22" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="60"/>
         <v>2018-03-02</v>
       </c>
       <c r="K33" s="22" t="str">
-        <f t="shared" ca="1" si="47"/>
+        <f t="shared" ca="1" si="53"/>
         <v>yearly</v>
       </c>
       <c r="L33" s="29">
-        <v>43139</v>
+        <v>43070</v>
       </c>
       <c r="M33" s="15">
-        <f t="shared" si="55"/>
-        <v>8</v>
+        <f t="shared" si="61"/>
+        <v>1</v>
       </c>
       <c r="N33" s="30">
-        <f t="shared" si="56"/>
-        <v>2</v>
+        <f t="shared" si="62"/>
+        <v>12</v>
       </c>
       <c r="O33" s="30">
-        <f t="shared" si="57"/>
-        <v>2018</v>
+        <f t="shared" si="63"/>
+        <v>2017</v>
       </c>
       <c r="P33" s="25" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" ref="P33:P44" si="68">$P$31</f>
         <v>Tag</v>
       </c>
       <c r="Q33" s="25" t="str">
@@ -3618,18 +3615,18 @@
         <v>42</v>
       </c>
       <c r="T33" s="11" t="str">
-        <f t="shared" si="59"/>
+        <f t="shared" si="65"/>
         <v>Octaflower, the Creative Archive's logo. A geometric lotus flower composed of eight rows of eight petals in rainbow progression.</v>
       </c>
       <c r="U33" s="11" t="str">
-        <f t="shared" si="60"/>
-        <v>All content classified under Finance</v>
+        <f t="shared" si="66"/>
+        <v>All content classified under Post</v>
       </c>
       <c r="V33" s="12"/>
       <c r="W33" s="11"/>
       <c r="X33" s="11" t="str">
-        <f t="shared" si="58"/>
-        <v>«SITE-HTTP»/tag-Finance</v>
+        <f t="shared" si="64"/>
+        <v>«SITE-HTTP»/tag-Post</v>
       </c>
       <c r="Y33" s="12"/>
       <c r="Z33" s="12"/>
@@ -3642,60 +3639,60 @@
     </row>
     <row r="34" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A34" s="11" t="str">
-        <f>"tag-"&amp;SUBSTITUTE(Tags!$A6," ","-")</f>
-        <v>tag-Creative-Archive</v>
+        <f>"tag-"&amp;SUBSTITUTE(Tags!$A5," ","-")</f>
+        <v>tag-Finance</v>
       </c>
       <c r="B34" s="25" t="str">
-        <f>Tags!$B6</f>
-        <v>Yes</v>
+        <f>Tags!$B5</f>
+        <v>No</v>
       </c>
       <c r="C34" s="25"/>
       <c r="D34" s="11" t="str">
-        <f>$D$32</f>
+        <f>$D$33</f>
         <v>«PAGE-SIMPLE»</v>
       </c>
       <c r="E34" s="11" t="str">
-        <f>$E$32</f>
+        <f>$E$33</f>
         <v>«TAGSELECT:Filter{"Tags"-&gt;_?(StringMatchQ[#,___~~"«POST:Load»"~~___]&amp;),"Type"-&gt;_,"Day"-&gt;_?NumberQ,"Month"-&gt;_?NumberQ,"Year"-&gt;_?NumberQ}»</v>
       </c>
       <c r="F34" s="25" t="str">
-        <f t="shared" si="61"/>
+        <f t="shared" si="67"/>
         <v>archive</v>
       </c>
       <c r="G34" s="11" t="str">
-        <f>"Classed as '"&amp;Tags!$A6&amp;"'"</f>
-        <v>Classed as 'Creative-Archive'</v>
+        <f>"Classed as '"&amp;Tags!$A5&amp;"'"</f>
+        <v>Classed as 'Finance'</v>
       </c>
       <c r="H34" s="11" t="str">
-        <f>Tags!$A6</f>
-        <v>Creative-Archive</v>
+        <f>Tags!$A5</f>
+        <v>Finance</v>
       </c>
       <c r="I34" s="22"/>
       <c r="J34" s="22" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="60"/>
         <v>2018-03-02</v>
       </c>
       <c r="K34" s="22" t="str">
-        <f t="shared" ca="1" si="47"/>
+        <f t="shared" ca="1" si="53"/>
         <v>yearly</v>
       </c>
       <c r="L34" s="29">
-        <v>43069</v>
+        <v>43139</v>
       </c>
       <c r="M34" s="15">
-        <f t="shared" si="55"/>
-        <v>30</v>
+        <f t="shared" si="61"/>
+        <v>8</v>
       </c>
       <c r="N34" s="30">
-        <f t="shared" si="56"/>
-        <v>11</v>
+        <f t="shared" si="62"/>
+        <v>2</v>
       </c>
       <c r="O34" s="30">
-        <f t="shared" si="57"/>
-        <v>2017</v>
+        <f t="shared" si="63"/>
+        <v>2018</v>
       </c>
       <c r="P34" s="25" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="68"/>
         <v>Tag</v>
       </c>
       <c r="Q34" s="25" t="str">
@@ -3707,18 +3704,18 @@
         <v>42</v>
       </c>
       <c r="T34" s="11" t="str">
-        <f t="shared" si="59"/>
+        <f t="shared" si="65"/>
         <v>Octaflower, the Creative Archive's logo. A geometric lotus flower composed of eight rows of eight petals in rainbow progression.</v>
       </c>
       <c r="U34" s="11" t="str">
-        <f t="shared" si="60"/>
-        <v>All content classified under Creative-Archive</v>
+        <f t="shared" si="66"/>
+        <v>All content classified under Finance</v>
       </c>
       <c r="V34" s="12"/>
       <c r="W34" s="11"/>
       <c r="X34" s="11" t="str">
-        <f t="shared" si="58"/>
-        <v>«SITE-HTTP»/tag-Creative-Archive</v>
+        <f t="shared" si="64"/>
+        <v>«SITE-HTTP»/tag-Finance</v>
       </c>
       <c r="Y34" s="12"/>
       <c r="Z34" s="12"/>
@@ -3731,60 +3728,60 @@
     </row>
     <row r="35" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A35" s="11" t="str">
-        <f>"tag-"&amp;SUBSTITUTE(Tags!$A7," ","-")</f>
-        <v>tag-Mosaic</v>
+        <f>"tag-"&amp;SUBSTITUTE(Tags!$A6," ","-")</f>
+        <v>tag-Creative-Archive</v>
       </c>
       <c r="B35" s="25" t="str">
-        <f>Tags!$B7</f>
-        <v>No</v>
-      </c>
-      <c r="C35" s="25">
-        <v>6</v>
-      </c>
-      <c r="D35" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="E35" s="12" t="s">
-        <v>108</v>
+        <f>Tags!$B6</f>
+        <v>Yes</v>
+      </c>
+      <c r="C35" s="25"/>
+      <c r="D35" s="11" t="str">
+        <f>$D$33</f>
+        <v>«PAGE-SIMPLE»</v>
+      </c>
+      <c r="E35" s="11" t="str">
+        <f>$E$33</f>
+        <v>«TAGSELECT:Filter{"Tags"-&gt;_?(StringMatchQ[#,___~~"«POST:Load»"~~___]&amp;),"Type"-&gt;_,"Day"-&gt;_?NumberQ,"Month"-&gt;_?NumberQ,"Year"-&gt;_?NumberQ}»</v>
       </c>
       <c r="F35" s="25" t="str">
-        <f t="shared" si="61"/>
+        <f t="shared" si="67"/>
         <v>archive</v>
       </c>
       <c r="G35" s="11" t="str">
-        <f>H35&amp;"s"</f>
-        <v>Mosaics</v>
+        <f>"Classed as '"&amp;Tags!$A6&amp;"'"</f>
+        <v>Classed as 'Creative-Archive'</v>
       </c>
       <c r="H35" s="11" t="str">
-        <f>Tags!$A7</f>
-        <v>Mosaic</v>
+        <f>Tags!$A6</f>
+        <v>Creative-Archive</v>
       </c>
       <c r="I35" s="22"/>
       <c r="J35" s="22" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="60"/>
         <v>2018-03-02</v>
       </c>
       <c r="K35" s="22" t="str">
-        <f t="shared" ca="1" si="47"/>
+        <f t="shared" ca="1" si="53"/>
         <v>yearly</v>
       </c>
       <c r="L35" s="29">
-        <v>43018</v>
+        <v>43069</v>
       </c>
       <c r="M35" s="15">
-        <f t="shared" si="55"/>
-        <v>10</v>
+        <f t="shared" si="61"/>
+        <v>30</v>
       </c>
       <c r="N35" s="30">
-        <f t="shared" si="56"/>
-        <v>10</v>
+        <f t="shared" si="62"/>
+        <v>11</v>
       </c>
       <c r="O35" s="30">
-        <f t="shared" si="57"/>
+        <f t="shared" si="63"/>
         <v>2017</v>
       </c>
       <c r="P35" s="25" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="68"/>
         <v>Tag</v>
       </c>
       <c r="Q35" s="25" t="str">
@@ -3796,18 +3793,18 @@
         <v>42</v>
       </c>
       <c r="T35" s="11" t="str">
-        <f t="shared" si="59"/>
+        <f t="shared" si="65"/>
         <v>Octaflower, the Creative Archive's logo. A geometric lotus flower composed of eight rows of eight petals in rainbow progression.</v>
       </c>
       <c r="U35" s="11" t="str">
-        <f t="shared" si="60"/>
-        <v>All content classified under Mosaic</v>
+        <f t="shared" si="66"/>
+        <v>All content classified under Creative-Archive</v>
       </c>
       <c r="V35" s="12"/>
       <c r="W35" s="11"/>
       <c r="X35" s="11" t="str">
-        <f t="shared" si="58"/>
-        <v>«SITE-HTTP»/tag-Mosaic</v>
+        <f t="shared" si="64"/>
+        <v>«SITE-HTTP»/tag-Creative-Archive</v>
       </c>
       <c r="Y35" s="12"/>
       <c r="Z35" s="12"/>
@@ -3820,60 +3817,60 @@
     </row>
     <row r="36" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A36" s="11" t="str">
-        <f>"tag-"&amp;SUBSTITUTE(Tags!$A8," ","-")</f>
-        <v>tag-Travel</v>
+        <f>"tag-"&amp;SUBSTITUTE(Tags!$A7," ","-")</f>
+        <v>tag-Mosaic</v>
       </c>
       <c r="B36" s="25" t="str">
-        <f>Tags!$B8</f>
+        <f>Tags!$B7</f>
         <v>No</v>
       </c>
-      <c r="C36" s="25"/>
-      <c r="D36" s="11" t="str">
-        <f>$D$32</f>
-        <v>«PAGE-SIMPLE»</v>
-      </c>
-      <c r="E36" s="11" t="str">
-        <f>$E$32</f>
-        <v>«TAGSELECT:Filter{"Tags"-&gt;_?(StringMatchQ[#,___~~"«POST:Load»"~~___]&amp;),"Type"-&gt;_,"Day"-&gt;_?NumberQ,"Month"-&gt;_?NumberQ,"Year"-&gt;_?NumberQ}»</v>
+      <c r="C36" s="25">
+        <v>6</v>
+      </c>
+      <c r="D36" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="E36" s="12" t="s">
+        <v>108</v>
       </c>
       <c r="F36" s="25" t="str">
-        <f t="shared" si="61"/>
+        <f t="shared" si="67"/>
         <v>archive</v>
       </c>
       <c r="G36" s="11" t="str">
-        <f>"Classed as '"&amp;Tags!$A8&amp;"'"</f>
-        <v>Classed as 'Travel'</v>
+        <f>H36&amp;"s"</f>
+        <v>Mosaics</v>
       </c>
       <c r="H36" s="11" t="str">
-        <f>Tags!$A8</f>
-        <v>Travel</v>
+        <f>Tags!$A7</f>
+        <v>Mosaic</v>
       </c>
       <c r="I36" s="22"/>
       <c r="J36" s="22" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="60"/>
         <v>2018-03-02</v>
       </c>
       <c r="K36" s="22" t="str">
-        <f t="shared" ca="1" si="47"/>
+        <f t="shared" ca="1" si="53"/>
         <v>yearly</v>
       </c>
       <c r="L36" s="29">
         <v>43018</v>
       </c>
       <c r="M36" s="15">
-        <f t="shared" si="55"/>
+        <f t="shared" si="61"/>
         <v>10</v>
       </c>
       <c r="N36" s="30">
-        <f t="shared" si="56"/>
+        <f t="shared" si="62"/>
         <v>10</v>
       </c>
       <c r="O36" s="30">
-        <f t="shared" si="57"/>
+        <f t="shared" si="63"/>
         <v>2017</v>
       </c>
       <c r="P36" s="25" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="68"/>
         <v>Tag</v>
       </c>
       <c r="Q36" s="25" t="str">
@@ -3885,18 +3882,18 @@
         <v>42</v>
       </c>
       <c r="T36" s="11" t="str">
-        <f t="shared" si="59"/>
+        <f t="shared" si="65"/>
         <v>Octaflower, the Creative Archive's logo. A geometric lotus flower composed of eight rows of eight petals in rainbow progression.</v>
       </c>
       <c r="U36" s="11" t="str">
-        <f t="shared" si="60"/>
-        <v>All content classified under Travel</v>
+        <f t="shared" si="66"/>
+        <v>All content classified under Mosaic</v>
       </c>
       <c r="V36" s="12"/>
       <c r="W36" s="11"/>
       <c r="X36" s="11" t="str">
-        <f t="shared" si="58"/>
-        <v>«SITE-HTTP»/tag-Travel</v>
+        <f t="shared" si="64"/>
+        <v>«SITE-HTTP»/tag-Mosaic</v>
       </c>
       <c r="Y36" s="12"/>
       <c r="Z36" s="12"/>
@@ -3909,60 +3906,60 @@
     </row>
     <row r="37" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A37" s="11" t="str">
-        <f>"tag-"&amp;SUBSTITUTE(Tags!$A9," ","-")</f>
-        <v>tag-Wallpaper</v>
+        <f>"tag-"&amp;SUBSTITUTE(Tags!$A8," ","-")</f>
+        <v>tag-Travel</v>
       </c>
       <c r="B37" s="25" t="str">
-        <f>Tags!$B9</f>
+        <f>Tags!$B8</f>
         <v>No</v>
       </c>
       <c r="C37" s="25"/>
       <c r="D37" s="11" t="str">
-        <f>D$35</f>
-        <v>«PAGE-FEATURED-EMPTY»</v>
+        <f>$D$33</f>
+        <v>«PAGE-SIMPLE»</v>
       </c>
       <c r="E37" s="11" t="str">
-        <f>E$35</f>
-        <v>«FEATURED-ITEM:Filter{"Tags"-&gt;_?(StringMatchQ[#,___~~"«POST:Load»"~~___]&amp;),"Type"-&gt;_,"Day"-&gt;_?NumberQ,"Month"-&gt;_?NumberQ,"Year"-&gt;_?NumberQ}»</v>
+        <f>$E$33</f>
+        <v>«TAGSELECT:Filter{"Tags"-&gt;_?(StringMatchQ[#,___~~"«POST:Load»"~~___]&amp;),"Type"-&gt;_,"Day"-&gt;_?NumberQ,"Month"-&gt;_?NumberQ,"Year"-&gt;_?NumberQ}»</v>
       </c>
       <c r="F37" s="25" t="str">
-        <f t="shared" si="61"/>
+        <f t="shared" si="67"/>
         <v>archive</v>
       </c>
       <c r="G37" s="11" t="str">
-        <f>"All"&amp;" "&amp;H37&amp;"s"</f>
-        <v>All Wallpapers</v>
+        <f>"Classed as '"&amp;Tags!$A8&amp;"'"</f>
+        <v>Classed as 'Travel'</v>
       </c>
       <c r="H37" s="11" t="str">
-        <f>Tags!$A9</f>
-        <v>Wallpaper</v>
+        <f>Tags!$A8</f>
+        <v>Travel</v>
       </c>
       <c r="I37" s="22"/>
       <c r="J37" s="22" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="60"/>
         <v>2018-03-02</v>
       </c>
       <c r="K37" s="22" t="str">
-        <f t="shared" ca="1" si="47"/>
+        <f t="shared" ca="1" si="53"/>
         <v>yearly</v>
       </c>
       <c r="L37" s="29">
         <v>43018</v>
       </c>
       <c r="M37" s="15">
-        <f t="shared" si="55"/>
+        <f t="shared" si="61"/>
         <v>10</v>
       </c>
       <c r="N37" s="30">
-        <f t="shared" si="56"/>
+        <f t="shared" si="62"/>
         <v>10</v>
       </c>
       <c r="O37" s="30">
-        <f t="shared" si="57"/>
+        <f t="shared" si="63"/>
         <v>2017</v>
       </c>
       <c r="P37" s="25" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="68"/>
         <v>Tag</v>
       </c>
       <c r="Q37" s="25" t="str">
@@ -3974,18 +3971,18 @@
         <v>42</v>
       </c>
       <c r="T37" s="11" t="str">
-        <f t="shared" si="59"/>
+        <f t="shared" si="65"/>
         <v>Octaflower, the Creative Archive's logo. A geometric lotus flower composed of eight rows of eight petals in rainbow progression.</v>
       </c>
       <c r="U37" s="11" t="str">
-        <f t="shared" si="60"/>
-        <v>All content classified under Wallpaper</v>
+        <f t="shared" si="66"/>
+        <v>All content classified under Travel</v>
       </c>
       <c r="V37" s="12"/>
       <c r="W37" s="11"/>
       <c r="X37" s="11" t="str">
-        <f t="shared" si="58"/>
-        <v>«SITE-HTTP»/tag-Wallpaper</v>
+        <f t="shared" si="64"/>
+        <v>«SITE-HTTP»/tag-Travel</v>
       </c>
       <c r="Y37" s="12"/>
       <c r="Z37" s="12"/>
@@ -3998,60 +3995,60 @@
     </row>
     <row r="38" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A38" s="11" t="str">
-        <f>"tag-"&amp;SUBSTITUTE(Tags!$A10," ","-")</f>
-        <v>tag-Game</v>
+        <f>"tag-"&amp;SUBSTITUTE(Tags!$A9," ","-")</f>
+        <v>tag-Wallpaper</v>
       </c>
       <c r="B38" s="25" t="str">
-        <f>Tags!$B10</f>
-        <v>Yes</v>
+        <f>Tags!$B9</f>
+        <v>No</v>
       </c>
       <c r="C38" s="25"/>
       <c r="D38" s="11" t="str">
-        <f>D$35</f>
+        <f>D$36</f>
         <v>«PAGE-FEATURED-EMPTY»</v>
       </c>
       <c r="E38" s="11" t="str">
-        <f>$E$35</f>
+        <f>E$36</f>
         <v>«FEATURED-ITEM:Filter{"Tags"-&gt;_?(StringMatchQ[#,___~~"«POST:Load»"~~___]&amp;),"Type"-&gt;_,"Day"-&gt;_?NumberQ,"Month"-&gt;_?NumberQ,"Year"-&gt;_?NumberQ}»</v>
       </c>
       <c r="F38" s="25" t="str">
-        <f t="shared" si="61"/>
+        <f t="shared" si="67"/>
         <v>archive</v>
       </c>
       <c r="G38" s="11" t="str">
         <f>"All"&amp;" "&amp;H38&amp;"s"</f>
-        <v>All Games</v>
+        <v>All Wallpapers</v>
       </c>
       <c r="H38" s="11" t="str">
-        <f>Tags!$A10</f>
-        <v>Game</v>
+        <f>Tags!$A9</f>
+        <v>Wallpaper</v>
       </c>
       <c r="I38" s="22"/>
       <c r="J38" s="22" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="60"/>
         <v>2018-03-02</v>
       </c>
       <c r="K38" s="22" t="str">
-        <f t="shared" ref="K38" ca="1" si="63">IF(TODAY()-DATEVALUE(J38)&lt;15,"weekly",IF(TODAY()-DATEVALUE(J38)&lt;60,"monthly","yearly"))</f>
+        <f t="shared" ca="1" si="53"/>
         <v>yearly</v>
       </c>
       <c r="L38" s="29">
-        <v>41773</v>
+        <v>43018</v>
       </c>
       <c r="M38" s="15">
-        <f t="shared" si="55"/>
-        <v>14</v>
+        <f t="shared" si="61"/>
+        <v>10</v>
       </c>
       <c r="N38" s="30">
-        <f t="shared" si="56"/>
-        <v>5</v>
+        <f t="shared" si="62"/>
+        <v>10</v>
       </c>
       <c r="O38" s="30">
-        <f t="shared" si="57"/>
-        <v>2014</v>
+        <f t="shared" si="63"/>
+        <v>2017</v>
       </c>
       <c r="P38" s="25" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="68"/>
         <v>Tag</v>
       </c>
       <c r="Q38" s="25" t="str">
@@ -4063,18 +4060,18 @@
         <v>42</v>
       </c>
       <c r="T38" s="11" t="str">
-        <f t="shared" si="59"/>
+        <f t="shared" si="65"/>
         <v>Octaflower, the Creative Archive's logo. A geometric lotus flower composed of eight rows of eight petals in rainbow progression.</v>
       </c>
       <c r="U38" s="11" t="str">
-        <f t="shared" si="60"/>
-        <v>All content classified under Game</v>
+        <f t="shared" si="66"/>
+        <v>All content classified under Wallpaper</v>
       </c>
       <c r="V38" s="12"/>
       <c r="W38" s="11"/>
       <c r="X38" s="11" t="str">
-        <f t="shared" si="58"/>
-        <v>«SITE-HTTP»/tag-Game</v>
+        <f t="shared" si="64"/>
+        <v>«SITE-HTTP»/tag-Wallpaper</v>
       </c>
       <c r="Y38" s="12"/>
       <c r="Z38" s="12"/>
@@ -4087,60 +4084,60 @@
     </row>
     <row r="39" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A39" s="11" t="str">
-        <f>"tag-"&amp;SUBSTITUTE(Tags!$A11," ","-")</f>
-        <v>tag-Sitemap</v>
+        <f>"tag-"&amp;SUBSTITUTE(Tags!$A10," ","-")</f>
+        <v>tag-Game</v>
       </c>
       <c r="B39" s="25" t="str">
-        <f>Tags!$B11</f>
+        <f>Tags!$B10</f>
         <v>Yes</v>
       </c>
       <c r="C39" s="25"/>
       <c r="D39" s="11" t="str">
-        <f>$D$32</f>
-        <v>«PAGE-SIMPLE»</v>
+        <f>D$36</f>
+        <v>«PAGE-FEATURED-EMPTY»</v>
       </c>
       <c r="E39" s="11" t="str">
-        <f>$E$32</f>
-        <v>«TAGSELECT:Filter{"Tags"-&gt;_?(StringMatchQ[#,___~~"«POST:Load»"~~___]&amp;),"Type"-&gt;_,"Day"-&gt;_?NumberQ,"Month"-&gt;_?NumberQ,"Year"-&gt;_?NumberQ}»</v>
+        <f>$E$36</f>
+        <v>«FEATURED-ITEM:Filter{"Tags"-&gt;_?(StringMatchQ[#,___~~"«POST:Load»"~~___]&amp;),"Type"-&gt;_,"Day"-&gt;_?NumberQ,"Month"-&gt;_?NumberQ,"Year"-&gt;_?NumberQ}»</v>
       </c>
       <c r="F39" s="25" t="str">
-        <f t="shared" si="61"/>
+        <f t="shared" si="67"/>
         <v>archive</v>
       </c>
       <c r="G39" s="11" t="str">
-        <f>"Classed as '"&amp;Tags!$A11&amp;"'"</f>
-        <v>Classed as 'Sitemap'</v>
+        <f>"All"&amp;" "&amp;H39&amp;"s"</f>
+        <v>All Games</v>
       </c>
       <c r="H39" s="11" t="str">
-        <f>Tags!$A11</f>
-        <v>Sitemap</v>
+        <f>Tags!$A10</f>
+        <v>Game</v>
       </c>
       <c r="I39" s="22"/>
       <c r="J39" s="22" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="60"/>
         <v>2018-03-02</v>
       </c>
       <c r="K39" s="22" t="str">
-        <f t="shared" ref="K39" ca="1" si="64">IF(TODAY()-DATEVALUE(J39)&lt;15,"weekly",IF(TODAY()-DATEVALUE(J39)&lt;60,"monthly","yearly"))</f>
+        <f t="shared" ref="K39" ca="1" si="69">IF(TODAY()-DATEVALUE(J39)&lt;15,"weekly",IF(TODAY()-DATEVALUE(J39)&lt;60,"monthly","yearly"))</f>
         <v>yearly</v>
       </c>
       <c r="L39" s="29">
-        <v>43070</v>
+        <v>41773</v>
       </c>
       <c r="M39" s="15">
-        <f t="shared" si="55"/>
-        <v>1</v>
+        <f t="shared" si="61"/>
+        <v>14</v>
       </c>
       <c r="N39" s="30">
-        <f t="shared" si="56"/>
-        <v>12</v>
+        <f t="shared" si="62"/>
+        <v>5</v>
       </c>
       <c r="O39" s="30">
-        <f t="shared" si="57"/>
-        <v>2017</v>
+        <f t="shared" si="63"/>
+        <v>2014</v>
       </c>
       <c r="P39" s="25" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="68"/>
         <v>Tag</v>
       </c>
       <c r="Q39" s="25" t="str">
@@ -4152,18 +4149,18 @@
         <v>42</v>
       </c>
       <c r="T39" s="11" t="str">
-        <f t="shared" si="59"/>
+        <f t="shared" si="65"/>
         <v>Octaflower, the Creative Archive's logo. A geometric lotus flower composed of eight rows of eight petals in rainbow progression.</v>
       </c>
       <c r="U39" s="11" t="str">
-        <f t="shared" si="60"/>
-        <v>All content classified under Sitemap</v>
+        <f t="shared" si="66"/>
+        <v>All content classified under Game</v>
       </c>
       <c r="V39" s="12"/>
       <c r="W39" s="11"/>
       <c r="X39" s="11" t="str">
-        <f t="shared" si="58"/>
-        <v>«SITE-HTTP»/tag-Sitemap</v>
+        <f t="shared" si="64"/>
+        <v>«SITE-HTTP»/tag-Game</v>
       </c>
       <c r="Y39" s="12"/>
       <c r="Z39" s="12"/>
@@ -4176,60 +4173,60 @@
     </row>
     <row r="40" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A40" s="11" t="str">
-        <f>"tag-"&amp;SUBSTITUTE(Tags!$A12," ","-")</f>
-        <v>tag-Class</v>
+        <f>"tag-"&amp;SUBSTITUTE(Tags!$A11," ","-")</f>
+        <v>tag-Sitemap</v>
       </c>
       <c r="B40" s="25" t="str">
-        <f>Tags!$B12</f>
-        <v>No</v>
+        <f>Tags!$B11</f>
+        <v>Yes</v>
       </c>
       <c r="C40" s="25"/>
       <c r="D40" s="11" t="str">
-        <f>$D$32</f>
+        <f>$D$33</f>
         <v>«PAGE-SIMPLE»</v>
       </c>
       <c r="E40" s="11" t="str">
-        <f>$E$32</f>
+        <f>$E$33</f>
         <v>«TAGSELECT:Filter{"Tags"-&gt;_?(StringMatchQ[#,___~~"«POST:Load»"~~___]&amp;),"Type"-&gt;_,"Day"-&gt;_?NumberQ,"Month"-&gt;_?NumberQ,"Year"-&gt;_?NumberQ}»</v>
       </c>
       <c r="F40" s="25" t="str">
-        <f t="shared" si="61"/>
+        <f t="shared" si="67"/>
         <v>archive</v>
       </c>
       <c r="G40" s="11" t="str">
-        <f>"All"&amp;" "&amp;H40&amp;"es"</f>
-        <v>All Classes</v>
+        <f>"Classed as '"&amp;Tags!$A11&amp;"'"</f>
+        <v>Classed as 'Sitemap'</v>
       </c>
       <c r="H40" s="11" t="str">
-        <f>Tags!$A12</f>
-        <v>Class</v>
+        <f>Tags!$A11</f>
+        <v>Sitemap</v>
       </c>
       <c r="I40" s="22"/>
       <c r="J40" s="22" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="60"/>
         <v>2018-03-02</v>
       </c>
       <c r="K40" s="22" t="str">
-        <f t="shared" ref="K40" ca="1" si="65">IF(TODAY()-DATEVALUE(J40)&lt;15,"weekly",IF(TODAY()-DATEVALUE(J40)&lt;60,"monthly","yearly"))</f>
+        <f t="shared" ref="K40" ca="1" si="70">IF(TODAY()-DATEVALUE(J40)&lt;15,"weekly",IF(TODAY()-DATEVALUE(J40)&lt;60,"monthly","yearly"))</f>
         <v>yearly</v>
       </c>
       <c r="L40" s="29">
-        <v>41773</v>
+        <v>43070</v>
       </c>
       <c r="M40" s="15">
-        <f t="shared" si="55"/>
-        <v>14</v>
+        <f t="shared" si="61"/>
+        <v>1</v>
       </c>
       <c r="N40" s="30">
-        <f t="shared" si="56"/>
-        <v>5</v>
+        <f t="shared" si="62"/>
+        <v>12</v>
       </c>
       <c r="O40" s="30">
-        <f t="shared" si="57"/>
-        <v>2014</v>
+        <f t="shared" si="63"/>
+        <v>2017</v>
       </c>
       <c r="P40" s="25" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="68"/>
         <v>Tag</v>
       </c>
       <c r="Q40" s="25" t="str">
@@ -4241,18 +4238,18 @@
         <v>42</v>
       </c>
       <c r="T40" s="11" t="str">
-        <f t="shared" si="59"/>
+        <f t="shared" si="65"/>
         <v>Octaflower, the Creative Archive's logo. A geometric lotus flower composed of eight rows of eight petals in rainbow progression.</v>
       </c>
       <c r="U40" s="11" t="str">
-        <f t="shared" si="60"/>
-        <v>All content classified under Class</v>
+        <f t="shared" si="66"/>
+        <v>All content classified under Sitemap</v>
       </c>
       <c r="V40" s="12"/>
       <c r="W40" s="11"/>
       <c r="X40" s="11" t="str">
-        <f t="shared" si="58"/>
-        <v>«SITE-HTTP»/tag-Class</v>
+        <f t="shared" si="64"/>
+        <v>«SITE-HTTP»/tag-Sitemap</v>
       </c>
       <c r="Y40" s="12"/>
       <c r="Z40" s="12"/>
@@ -4265,60 +4262,60 @@
     </row>
     <row r="41" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A41" s="11" t="str">
-        <f>"tag-"&amp;SUBSTITUTE(Tags!$A13," ","-")</f>
-        <v>tag-Nature</v>
+        <f>"tag-"&amp;SUBSTITUTE(Tags!$A12," ","-")</f>
+        <v>tag-Class</v>
       </c>
       <c r="B41" s="25" t="str">
-        <f>Tags!$B13</f>
+        <f>Tags!$B12</f>
         <v>No</v>
       </c>
       <c r="C41" s="25"/>
       <c r="D41" s="11" t="str">
-        <f>$D$32</f>
+        <f>$D$33</f>
         <v>«PAGE-SIMPLE»</v>
       </c>
       <c r="E41" s="11" t="str">
-        <f>$E$32</f>
+        <f>$E$33</f>
         <v>«TAGSELECT:Filter{"Tags"-&gt;_?(StringMatchQ[#,___~~"«POST:Load»"~~___]&amp;),"Type"-&gt;_,"Day"-&gt;_?NumberQ,"Month"-&gt;_?NumberQ,"Year"-&gt;_?NumberQ}»</v>
       </c>
       <c r="F41" s="25" t="str">
-        <f t="shared" si="61"/>
+        <f t="shared" si="67"/>
         <v>archive</v>
       </c>
       <c r="G41" s="11" t="str">
-        <f>"Classed as '"&amp;Tags!$A13&amp;"'"</f>
-        <v>Classed as 'Nature'</v>
+        <f>"All"&amp;" "&amp;H41&amp;"es"</f>
+        <v>All Classes</v>
       </c>
       <c r="H41" s="11" t="str">
-        <f>Tags!$A13</f>
-        <v>Nature</v>
+        <f>Tags!$A12</f>
+        <v>Class</v>
       </c>
       <c r="I41" s="22"/>
       <c r="J41" s="22" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="60"/>
         <v>2018-03-02</v>
       </c>
       <c r="K41" s="22" t="str">
-        <f t="shared" ref="K41" ca="1" si="66">IF(TODAY()-DATEVALUE(J41)&lt;15,"weekly",IF(TODAY()-DATEVALUE(J41)&lt;60,"monthly","yearly"))</f>
+        <f t="shared" ref="K41" ca="1" si="71">IF(TODAY()-DATEVALUE(J41)&lt;15,"weekly",IF(TODAY()-DATEVALUE(J41)&lt;60,"monthly","yearly"))</f>
         <v>yearly</v>
       </c>
       <c r="L41" s="29">
-        <v>43225</v>
+        <v>41773</v>
       </c>
       <c r="M41" s="15">
-        <f t="shared" ref="M41" si="67">DAY(L41)</f>
+        <f t="shared" si="61"/>
+        <v>14</v>
+      </c>
+      <c r="N41" s="30">
+        <f t="shared" si="62"/>
         <v>5</v>
       </c>
-      <c r="N41" s="30">
-        <f t="shared" ref="N41" si="68">MONTH(L41)</f>
-        <v>5</v>
-      </c>
       <c r="O41" s="30">
-        <f t="shared" ref="O41" si="69">YEAR(L41)</f>
-        <v>2018</v>
+        <f t="shared" si="63"/>
+        <v>2014</v>
       </c>
       <c r="P41" s="25" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="68"/>
         <v>Tag</v>
       </c>
       <c r="Q41" s="25" t="str">
@@ -4330,18 +4327,18 @@
         <v>42</v>
       </c>
       <c r="T41" s="11" t="str">
-        <f t="shared" si="59"/>
+        <f t="shared" si="65"/>
         <v>Octaflower, the Creative Archive's logo. A geometric lotus flower composed of eight rows of eight petals in rainbow progression.</v>
       </c>
       <c r="U41" s="11" t="str">
-        <f t="shared" ref="U41" si="70">"All content classified under "&amp;H41</f>
-        <v>All content classified under Nature</v>
+        <f t="shared" si="66"/>
+        <v>All content classified under Class</v>
       </c>
       <c r="V41" s="12"/>
       <c r="W41" s="11"/>
       <c r="X41" s="11" t="str">
-        <f t="shared" si="58"/>
-        <v>«SITE-HTTP»/tag-Nature</v>
+        <f t="shared" si="64"/>
+        <v>«SITE-HTTP»/tag-Class</v>
       </c>
       <c r="Y41" s="12"/>
       <c r="Z41" s="12"/>
@@ -4354,60 +4351,60 @@
     </row>
     <row r="42" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A42" s="11" t="str">
-        <f>"tag-"&amp;SUBSTITUTE(Tags!$A14," ","-")</f>
-        <v>tag-Role-playing</v>
+        <f>"tag-"&amp;SUBSTITUTE(Tags!$A13," ","-")</f>
+        <v>tag-Nature</v>
       </c>
       <c r="B42" s="25" t="str">
-        <f>Tags!$B14</f>
-        <v>Yes</v>
+        <f>Tags!$B13</f>
+        <v>No</v>
       </c>
       <c r="C42" s="25"/>
       <c r="D42" s="11" t="str">
-        <f>D$35</f>
-        <v>«PAGE-FEATURED-EMPTY»</v>
+        <f>$D$33</f>
+        <v>«PAGE-SIMPLE»</v>
       </c>
       <c r="E42" s="11" t="str">
-        <f>$E$35</f>
-        <v>«FEATURED-ITEM:Filter{"Tags"-&gt;_?(StringMatchQ[#,___~~"«POST:Load»"~~___]&amp;),"Type"-&gt;_,"Day"-&gt;_?NumberQ,"Month"-&gt;_?NumberQ,"Year"-&gt;_?NumberQ}»</v>
+        <f>$E$33</f>
+        <v>«TAGSELECT:Filter{"Tags"-&gt;_?(StringMatchQ[#,___~~"«POST:Load»"~~___]&amp;),"Type"-&gt;_,"Day"-&gt;_?NumberQ,"Month"-&gt;_?NumberQ,"Year"-&gt;_?NumberQ}»</v>
       </c>
       <c r="F42" s="25" t="str">
-        <f t="shared" si="61"/>
+        <f t="shared" si="67"/>
         <v>archive</v>
       </c>
       <c r="G42" s="11" t="str">
-        <f>"Classed as '"&amp;Tags!$A14&amp;"'"</f>
-        <v>Classed as 'Role-playing'</v>
+        <f>"Classed as '"&amp;Tags!$A13&amp;"'"</f>
+        <v>Classed as 'Nature'</v>
       </c>
       <c r="H42" s="11" t="str">
-        <f>Tags!$A14</f>
-        <v>Role-playing</v>
+        <f>Tags!$A13</f>
+        <v>Nature</v>
       </c>
       <c r="I42" s="22"/>
       <c r="J42" s="22" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="60"/>
         <v>2018-03-02</v>
       </c>
       <c r="K42" s="22" t="str">
-        <f t="shared" ref="K42" ca="1" si="71">IF(TODAY()-DATEVALUE(J42)&lt;15,"weekly",IF(TODAY()-DATEVALUE(J42)&lt;60,"monthly","yearly"))</f>
+        <f t="shared" ref="K42" ca="1" si="72">IF(TODAY()-DATEVALUE(J42)&lt;15,"weekly",IF(TODAY()-DATEVALUE(J42)&lt;60,"monthly","yearly"))</f>
         <v>yearly</v>
       </c>
       <c r="L42" s="29">
-        <v>43320</v>
+        <v>43225</v>
       </c>
       <c r="M42" s="15">
-        <f t="shared" ref="M42" si="72">DAY(L42)</f>
-        <v>8</v>
+        <f t="shared" ref="M42" si="73">DAY(L42)</f>
+        <v>5</v>
       </c>
       <c r="N42" s="30">
-        <f t="shared" ref="N42" si="73">MONTH(L42)</f>
-        <v>8</v>
+        <f t="shared" ref="N42" si="74">MONTH(L42)</f>
+        <v>5</v>
       </c>
       <c r="O42" s="30">
-        <f t="shared" ref="O42" si="74">YEAR(L42)</f>
+        <f t="shared" ref="O42" si="75">YEAR(L42)</f>
         <v>2018</v>
       </c>
       <c r="P42" s="25" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="68"/>
         <v>Tag</v>
       </c>
       <c r="Q42" s="25" t="str">
@@ -4419,18 +4416,18 @@
         <v>42</v>
       </c>
       <c r="T42" s="11" t="str">
-        <f t="shared" si="59"/>
+        <f t="shared" si="65"/>
         <v>Octaflower, the Creative Archive's logo. A geometric lotus flower composed of eight rows of eight petals in rainbow progression.</v>
       </c>
       <c r="U42" s="11" t="str">
-        <f t="shared" ref="U42" si="75">"All content classified under "&amp;H42</f>
-        <v>All content classified under Role-playing</v>
+        <f t="shared" ref="U42" si="76">"All content classified under "&amp;H42</f>
+        <v>All content classified under Nature</v>
       </c>
       <c r="V42" s="12"/>
       <c r="W42" s="11"/>
       <c r="X42" s="11" t="str">
-        <f t="shared" ref="X42" si="76">"«SITE-HTTP»/"&amp;A42</f>
-        <v>«SITE-HTTP»/tag-Role-playing</v>
+        <f t="shared" si="64"/>
+        <v>«SITE-HTTP»/tag-Nature</v>
       </c>
       <c r="Y42" s="12"/>
       <c r="Z42" s="12"/>
@@ -4441,6 +4438,184 @@
       <c r="AE42" s="12"/>
       <c r="AF42" s="12"/>
     </row>
+    <row r="43" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A43" s="11" t="str">
+        <f>"tag-"&amp;SUBSTITUTE(Tags!$A14," ","-")</f>
+        <v>tag-Role-playing</v>
+      </c>
+      <c r="B43" s="25" t="str">
+        <f>Tags!$B14</f>
+        <v>Yes</v>
+      </c>
+      <c r="C43" s="25"/>
+      <c r="D43" s="11" t="str">
+        <f>D$36</f>
+        <v>«PAGE-FEATURED-EMPTY»</v>
+      </c>
+      <c r="E43" s="11" t="str">
+        <f>$E$36</f>
+        <v>«FEATURED-ITEM:Filter{"Tags"-&gt;_?(StringMatchQ[#,___~~"«POST:Load»"~~___]&amp;),"Type"-&gt;_,"Day"-&gt;_?NumberQ,"Month"-&gt;_?NumberQ,"Year"-&gt;_?NumberQ}»</v>
+      </c>
+      <c r="F43" s="25" t="str">
+        <f t="shared" si="67"/>
+        <v>archive</v>
+      </c>
+      <c r="G43" s="11" t="str">
+        <f>"Classed as '"&amp;Tags!$A14&amp;"'"</f>
+        <v>Classed as 'Role-playing'</v>
+      </c>
+      <c r="H43" s="11" t="str">
+        <f>Tags!$A14</f>
+        <v>Role-playing</v>
+      </c>
+      <c r="I43" s="22"/>
+      <c r="J43" s="22" t="str">
+        <f t="shared" si="60"/>
+        <v>2018-03-02</v>
+      </c>
+      <c r="K43" s="22" t="str">
+        <f t="shared" ref="K43" ca="1" si="77">IF(TODAY()-DATEVALUE(J43)&lt;15,"weekly",IF(TODAY()-DATEVALUE(J43)&lt;60,"monthly","yearly"))</f>
+        <v>yearly</v>
+      </c>
+      <c r="L43" s="29">
+        <v>43320</v>
+      </c>
+      <c r="M43" s="15">
+        <f t="shared" ref="M43" si="78">DAY(L43)</f>
+        <v>8</v>
+      </c>
+      <c r="N43" s="30">
+        <f t="shared" ref="N43" si="79">MONTH(L43)</f>
+        <v>8</v>
+      </c>
+      <c r="O43" s="30">
+        <f t="shared" ref="O43" si="80">YEAR(L43)</f>
+        <v>2018</v>
+      </c>
+      <c r="P43" s="25" t="str">
+        <f t="shared" si="68"/>
+        <v>Tag</v>
+      </c>
+      <c r="Q43" s="25" t="str">
+        <f>Tags!$A$12</f>
+        <v>Class</v>
+      </c>
+      <c r="R43" s="12"/>
+      <c r="S43" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="T43" s="11" t="str">
+        <f t="shared" si="65"/>
+        <v>Octaflower, the Creative Archive's logo. A geometric lotus flower composed of eight rows of eight petals in rainbow progression.</v>
+      </c>
+      <c r="U43" s="11" t="str">
+        <f t="shared" ref="U43" si="81">"All content classified under "&amp;H43</f>
+        <v>All content classified under Role-playing</v>
+      </c>
+      <c r="V43" s="12"/>
+      <c r="W43" s="11"/>
+      <c r="X43" s="11" t="str">
+        <f t="shared" ref="X43" si="82">"«SITE-HTTP»/"&amp;A43</f>
+        <v>«SITE-HTTP»/tag-Role-playing</v>
+      </c>
+      <c r="Y43" s="12"/>
+      <c r="Z43" s="12"/>
+      <c r="AA43" s="12"/>
+      <c r="AB43" s="12"/>
+      <c r="AC43" s="12"/>
+      <c r="AD43" s="12"/>
+      <c r="AE43" s="12"/>
+      <c r="AF43" s="12"/>
+    </row>
+    <row r="44" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A44" s="11" t="str">
+        <f>"tag-"&amp;SUBSTITUTE(Tags!$A15," ","-")</f>
+        <v>tag-Addon</v>
+      </c>
+      <c r="B44" s="25" t="str">
+        <f>Tags!$B15</f>
+        <v>No</v>
+      </c>
+      <c r="C44" s="25"/>
+      <c r="D44" s="11" t="str">
+        <f>$D$33</f>
+        <v>«PAGE-SIMPLE»</v>
+      </c>
+      <c r="E44" s="11" t="str">
+        <f>$E$33</f>
+        <v>«TAGSELECT:Filter{"Tags"-&gt;_?(StringMatchQ[#,___~~"«POST:Load»"~~___]&amp;),"Type"-&gt;_,"Day"-&gt;_?NumberQ,"Month"-&gt;_?NumberQ,"Year"-&gt;_?NumberQ}»</v>
+      </c>
+      <c r="F44" s="25" t="str">
+        <f t="shared" si="67"/>
+        <v>archive</v>
+      </c>
+      <c r="G44" s="11" t="str">
+        <f>"All"&amp;" "&amp;H44&amp;"s"</f>
+        <v>All Addons</v>
+      </c>
+      <c r="H44" s="11" t="str">
+        <f>Tags!$A15</f>
+        <v>Addon</v>
+      </c>
+      <c r="I44" s="22"/>
+      <c r="J44" s="22" t="str">
+        <f t="shared" si="60"/>
+        <v>2018-03-02</v>
+      </c>
+      <c r="K44" s="22" t="str">
+        <f t="shared" ref="K44" ca="1" si="83">IF(TODAY()-DATEVALUE(J44)&lt;15,"weekly",IF(TODAY()-DATEVALUE(J44)&lt;60,"monthly","yearly"))</f>
+        <v>yearly</v>
+      </c>
+      <c r="L44" s="29">
+        <v>43349</v>
+      </c>
+      <c r="M44" s="15">
+        <f t="shared" ref="M44" si="84">DAY(L44)</f>
+        <v>6</v>
+      </c>
+      <c r="N44" s="30">
+        <f t="shared" ref="N44" si="85">MONTH(L44)</f>
+        <v>9</v>
+      </c>
+      <c r="O44" s="30">
+        <f t="shared" ref="O44" si="86">YEAR(L44)</f>
+        <v>2018</v>
+      </c>
+      <c r="P44" s="25" t="str">
+        <f t="shared" si="68"/>
+        <v>Tag</v>
+      </c>
+      <c r="Q44" s="25" t="str">
+        <f>Tags!$A$12</f>
+        <v>Class</v>
+      </c>
+      <c r="R44" s="12"/>
+      <c r="S44" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="T44" s="11" t="str">
+        <f t="shared" si="65"/>
+        <v>Octaflower, the Creative Archive's logo. A geometric lotus flower composed of eight rows of eight petals in rainbow progression.</v>
+      </c>
+      <c r="U44" s="11" t="str">
+        <f t="shared" ref="U44" si="87">"All content classified under "&amp;H44</f>
+        <v>All content classified under Addon</v>
+      </c>
+      <c r="V44" s="12"/>
+      <c r="W44" s="11"/>
+      <c r="X44" s="11" t="str">
+        <f t="shared" ref="X44" si="88">"«SITE-HTTP»/"&amp;A44</f>
+        <v>«SITE-HTTP»/tag-Addon</v>
+      </c>
+      <c r="Y44" s="12"/>
+      <c r="Z44" s="12"/>
+      <c r="AA44" s="12"/>
+      <c r="AB44" s="12"/>
+      <c r="AC44" s="12"/>
+      <c r="AD44" s="12"/>
+      <c r="AE44" s="12"/>
+      <c r="AF44" s="12"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4449,10 +4624,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4473,7 +4648,7 @@
         <v>97</v>
       </c>
       <c r="B2" s="26" t="str">
-        <f>IF(COUNTIFS(EN!$Q$1:$Q$23,"*"&amp;Tags!$A2&amp;"*",EN!$B$1:$B$23,"Yes")&gt;0,"Yes","No")</f>
+        <f>IF(COUNTIFS(EN!$Q$1:$Q$24,"*"&amp;Tags!$A2&amp;"*",EN!$B$1:$B$24,"Yes")&gt;0,"Yes","No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -4482,7 +4657,7 @@
         <v>41</v>
       </c>
       <c r="B3" s="26" t="str">
-        <f>IF(COUNTIFS(EN!$Q$1:$Q$23,"*"&amp;Tags!$A3&amp;"*",EN!$B$1:$B$23,"Yes")&gt;0,"Yes","No")</f>
+        <f>IF(COUNTIFS(EN!$Q$1:$Q$24,"*"&amp;Tags!$A3&amp;"*",EN!$B$1:$B$24,"Yes")&gt;0,"Yes","No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -4491,7 +4666,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="26" t="str">
-        <f>IF(COUNTIFS(EN!$Q$1:$Q$23,"*"&amp;Tags!$A4&amp;"*",EN!$B$1:$B$23,"Yes")&gt;0,"Yes","No")</f>
+        <f>IF(COUNTIFS(EN!$Q$1:$Q$24,"*"&amp;Tags!$A4&amp;"*",EN!$B$1:$B$24,"Yes")&gt;0,"Yes","No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -4500,7 +4675,7 @@
         <v>102</v>
       </c>
       <c r="B5" s="26" t="str">
-        <f>IF(COUNTIFS(EN!$Q$1:$Q$23,"*"&amp;Tags!$A5&amp;"*",EN!$B$1:$B$23,"Yes")&gt;0,"Yes","No")</f>
+        <f>IF(COUNTIFS(EN!$Q$1:$Q$24,"*"&amp;Tags!$A5&amp;"*",EN!$B$1:$B$24,"Yes")&gt;0,"Yes","No")</f>
         <v>No</v>
       </c>
     </row>
@@ -4509,7 +4684,7 @@
         <v>57</v>
       </c>
       <c r="B6" s="26" t="str">
-        <f>IF(COUNTIFS(EN!$Q$1:$Q$23,"*"&amp;Tags!$A6&amp;"*",EN!$B$1:$B$23,"Yes")&gt;0,"Yes","No")</f>
+        <f>IF(COUNTIFS(EN!$Q$1:$Q$24,"*"&amp;Tags!$A6&amp;"*",EN!$B$1:$B$24,"Yes")&gt;0,"Yes","No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -4518,7 +4693,7 @@
         <v>62</v>
       </c>
       <c r="B7" s="26" t="str">
-        <f>IF(COUNTIFS(EN!$Q$1:$Q$23,"*"&amp;Tags!$A7&amp;"*",EN!$B$1:$B$23,"Yes")&gt;0,"Yes","No")</f>
+        <f>IF(COUNTIFS(EN!$Q$1:$Q$24,"*"&amp;Tags!$A7&amp;"*",EN!$B$1:$B$24,"Yes")&gt;0,"Yes","No")</f>
         <v>No</v>
       </c>
     </row>
@@ -4527,7 +4702,7 @@
         <v>59</v>
       </c>
       <c r="B8" s="26" t="str">
-        <f>IF(COUNTIFS(EN!$Q$1:$Q$23,"*"&amp;Tags!$A8&amp;"*",EN!$B$1:$B$23,"Yes")&gt;0,"Yes","No")</f>
+        <f>IF(COUNTIFS(EN!$Q$1:$Q$24,"*"&amp;Tags!$A8&amp;"*",EN!$B$1:$B$24,"Yes")&gt;0,"Yes","No")</f>
         <v>No</v>
       </c>
     </row>
@@ -4536,7 +4711,7 @@
         <v>58</v>
       </c>
       <c r="B9" s="26" t="str">
-        <f>IF(COUNTIFS(EN!$Q$1:$Q$23,"*"&amp;Tags!$A9&amp;"*",EN!$B$1:$B$23,"Yes")&gt;0,"Yes","No")</f>
+        <f>IF(COUNTIFS(EN!$Q$1:$Q$24,"*"&amp;Tags!$A9&amp;"*",EN!$B$1:$B$24,"Yes")&gt;0,"Yes","No")</f>
         <v>No</v>
       </c>
     </row>
@@ -4545,7 +4720,7 @@
         <v>25</v>
       </c>
       <c r="B10" s="26" t="str">
-        <f>IF(COUNTIFS(EN!$Q$1:$Q$23,"*"&amp;Tags!$A10&amp;"*",EN!$B$1:$B$23,"Yes")&gt;0,"Yes","No")</f>
+        <f>IF(COUNTIFS(EN!$Q$1:$Q$24,"*"&amp;Tags!$A10&amp;"*",EN!$B$1:$B$24,"Yes")&gt;0,"Yes","No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -4554,7 +4729,7 @@
         <v>101</v>
       </c>
       <c r="B11" s="26" t="str">
-        <f>IF(COUNTIFS(EN!$Q$1:$Q$23,"*"&amp;Tags!$A11&amp;"*",EN!$B$1:$B$23,"Yes")&gt;0,"Yes","No")</f>
+        <f>IF(COUNTIFS(EN!$Q$1:$Q$24,"*"&amp;Tags!$A11&amp;"*",EN!$B$1:$B$24,"Yes")&gt;0,"Yes","No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -4563,7 +4738,7 @@
         <v>105</v>
       </c>
       <c r="B12" s="26" t="str">
-        <f>IF(COUNTIFS(EN!$Q$1:$Q$23,"*"&amp;Tags!$A12&amp;"*",EN!$B$1:$B$23,"Yes")&gt;0,"Yes","No")</f>
+        <f>IF(COUNTIFS(EN!$Q$1:$Q$24,"*"&amp;Tags!$A12&amp;"*",EN!$B$1:$B$24,"Yes")&gt;0,"Yes","No")</f>
         <v>No</v>
       </c>
     </row>
@@ -4572,7 +4747,7 @@
         <v>116</v>
       </c>
       <c r="B13" s="26" t="str">
-        <f>IF(COUNTIFS(EN!$Q$1:$Q$23,"*"&amp;Tags!$A13&amp;"*",EN!$B$1:$B$23,"Yes")&gt;0,"Yes","No")</f>
+        <f>IF(COUNTIFS(EN!$Q$1:$Q$24,"*"&amp;Tags!$A13&amp;"*",EN!$B$1:$B$24,"Yes")&gt;0,"Yes","No")</f>
         <v>No</v>
       </c>
     </row>
@@ -4581,8 +4756,17 @@
         <v>162</v>
       </c>
       <c r="B14" s="26" t="str">
-        <f>IF(COUNTIFS(EN!$Q$1:$Q$23,"*"&amp;Tags!$A14&amp;"*",EN!$B$1:$B$23,"Yes")&gt;0,"Yes","No")</f>
+        <f>IF(COUNTIFS(EN!$Q$1:$Q$24,"*"&amp;Tags!$A14&amp;"*",EN!$B$1:$B$24,"Yes")&gt;0,"Yes","No")</f>
         <v>Yes</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>170</v>
+      </c>
+      <c r="B15" s="26" t="str">
+        <f>IF(COUNTIFS(EN!$Q$1:$Q$24,"*"&amp;Tags!$A15&amp;"*",EN!$B$1:$B$24,"Yes")&gt;0,"Yes","No")</f>
+        <v>No</v>
       </c>
     </row>
   </sheetData>

--- a/cms/CMS.xlsx
+++ b/cms/CMS.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="172">
   <si>
     <t>Title</t>
   </si>
@@ -529,6 +529,9 @@
   </si>
   <si>
     <t>Addon</t>
+  </si>
+  <si>
+    <t>https://addons.mozilla.org/en-US/firefox/addon/nomadpage/</t>
   </si>
 </sst>
 </file>
@@ -998,10 +1001,10 @@
   <dimension ref="A1:AF44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="F8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Q23" sqref="Q23"/>
+      <selection pane="bottomRight" activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2879,6 +2882,9 @@
       <c r="D22" s="2" t="s">
         <v>33</v>
       </c>
+      <c r="E22" s="4" t="s">
+        <v>171</v>
+      </c>
       <c r="F22" s="4" t="s">
         <v>35</v>
       </c>

--- a/cms/CMS.xlsx
+++ b/cms/CMS.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="175">
   <si>
     <t>Title</t>
   </si>
@@ -528,10 +528,19 @@
     <t>NomadPage</t>
   </si>
   <si>
-    <t>Addon</t>
-  </si>
-  <si>
     <t>https://addons.mozilla.org/en-US/firefox/addon/nomadpage/</t>
+  </si>
+  <si>
+    <t>Abxtract Tractx</t>
+  </si>
+  <si>
+    <t>Art</t>
+  </si>
+  <si>
+    <t>Add-on</t>
+  </si>
+  <si>
+    <t>44de3ef66dcfdce30c1eec78c3ea201c</t>
   </si>
 </sst>
 </file>
@@ -998,13 +1007,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AF44"/>
+  <dimension ref="A1:AF46"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B13" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E22" sqref="E22"/>
+      <selection pane="bottomRight" activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1431,8 +1440,8 @@
         <v>62</v>
       </c>
       <c r="Q5" s="2" t="str">
-        <f>Tags!$A$7&amp;", "&amp;Tags!$A$8&amp;", "&amp;Tags!$A$9</f>
-        <v>Mosaic, Travel, Wallpaper</v>
+        <f>Tags!$A$16&amp;", "&amp;Tags!$A$7&amp;", "&amp;Tags!$A$8&amp;", "&amp;Tags!$A$9</f>
+        <v>Art, Mosaic, Travel, Wallpaper</v>
       </c>
       <c r="R5" s="2" t="s">
         <v>5</v>
@@ -1516,8 +1525,8 @@
         <v>Mosaic</v>
       </c>
       <c r="Q6" s="2" t="str">
-        <f>Tags!$A$7&amp;", "&amp;Tags!$A$9</f>
-        <v>Mosaic, Wallpaper</v>
+        <f>Tags!$A$16&amp;", "&amp;Tags!$A$7&amp;", "&amp;Tags!$A$9</f>
+        <v>Art, Mosaic, Wallpaper</v>
       </c>
       <c r="R6" s="2" t="s">
         <v>6</v>
@@ -1598,8 +1607,8 @@
         <v>62</v>
       </c>
       <c r="Q7" s="2" t="str">
-        <f>Tags!$A$7&amp;", "&amp;Tags!$A$8&amp;", "&amp;Tags!$A$9</f>
-        <v>Mosaic, Travel, Wallpaper</v>
+        <f>Tags!$A$16&amp;", "&amp;Tags!$A$7&amp;", "&amp;Tags!$A$8&amp;", "&amp;Tags!$A$9</f>
+        <v>Art, Mosaic, Travel, Wallpaper</v>
       </c>
       <c r="R7" s="2" t="s">
         <v>5</v>
@@ -1682,8 +1691,8 @@
         <v>62</v>
       </c>
       <c r="Q8" s="2" t="str">
-        <f>Tags!$A$7&amp;", "&amp;Tags!$A$8&amp;", "&amp;Tags!$A$9</f>
-        <v>Mosaic, Travel, Wallpaper</v>
+        <f>Tags!$A$16&amp;", "&amp;Tags!$A$7&amp;", "&amp;Tags!$A$8&amp;", "&amp;Tags!$A$9</f>
+        <v>Art, Mosaic, Travel, Wallpaper</v>
       </c>
       <c r="R8" s="2" t="s">
         <v>5</v>
@@ -1896,7 +1905,7 @@
       </c>
       <c r="K11" s="10" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>monthly</v>
+        <v>yearly</v>
       </c>
       <c r="L11" s="3">
         <v>43303</v>
@@ -2029,7 +2038,7 @@
         <v>43265</v>
       </c>
       <c r="J13" s="10" t="str">
-        <f t="shared" ref="J13:J24" si="14">YEAR(I13)&amp;TEXT("-"&amp;MONTH(I13),"00")&amp;TEXT("-"&amp;DAY(I13),"00")</f>
+        <f t="shared" ref="J13:J25" si="14">YEAR(I13)&amp;TEXT("-"&amp;MONTH(I13),"00")&amp;TEXT("-"&amp;DAY(I13),"00")</f>
         <v>2018-06-14</v>
       </c>
       <c r="K13" s="10" t="str">
@@ -2127,7 +2136,7 @@
         <v>5</v>
       </c>
       <c r="O14" s="6">
-        <f t="shared" ref="O14:O24" si="19">YEAR(L14)</f>
+        <f t="shared" ref="O14:O25" si="19">YEAR(L14)</f>
         <v>2014</v>
       </c>
       <c r="P14" s="2" t="s">
@@ -2290,14 +2299,14 @@
         <v>5</v>
       </c>
       <c r="D16" s="28" t="str">
-        <f t="shared" ref="D16:D21" si="24">$D$14</f>
+        <f t="shared" ref="D16:D23" si="24">$D$14</f>
         <v>«PAGE-GAME-FULLSCREEN»</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>77</v>
       </c>
       <c r="F16" s="28" t="str">
-        <f t="shared" ref="F16:F21" si="25">$F$14</f>
+        <f t="shared" ref="F16:F23" si="25">$F$14</f>
         <v>prose</v>
       </c>
       <c r="G16" s="2" t="s">
@@ -2705,7 +2714,7 @@
       </c>
       <c r="K20" s="10" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v>monthly</v>
+        <v>yearly</v>
       </c>
       <c r="L20" s="3">
         <v>43293</v>
@@ -2804,7 +2813,7 @@
       </c>
       <c r="K21" s="10" t="str">
         <f t="shared" ref="K21" ca="1" si="41">IF(TODAY()-DATEVALUE(J21)&lt;15,"weekly",IF(TODAY()-DATEVALUE(J21)&lt;60,"monthly","yearly"))</f>
-        <v>weekly</v>
+        <v>monthly</v>
       </c>
       <c r="L21" s="3">
         <v>43340</v>
@@ -2825,8 +2834,8 @@
         <v>25</v>
       </c>
       <c r="Q21" s="2" t="str">
-        <f>Tags!$A$10&amp;",  "&amp;Tags!$A$3&amp;",  "&amp;Tags!$A$14</f>
-        <v>Game,  Puzzle,  Role-playing</v>
+        <f>Tags!$A$10&amp;",  "&amp;Tags!$A$3&amp;", "&amp;Tags!$A$14</f>
+        <v>Game,  Puzzle, Role-playing</v>
       </c>
       <c r="R21" s="2" t="s">
         <v>6</v>
@@ -2883,7 +2892,7 @@
         <v>33</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F22" s="4" t="s">
         <v>35</v>
@@ -2900,26 +2909,26 @@
         <v>43349</v>
       </c>
       <c r="J22" s="10" t="str">
-        <f t="shared" ref="J22" si="44">YEAR(I22)&amp;TEXT("-"&amp;MONTH(I22),"00")&amp;TEXT("-"&amp;DAY(I22),"00")</f>
+        <f t="shared" ref="J22:J23" si="44">YEAR(I22)&amp;TEXT("-"&amp;MONTH(I22),"00")&amp;TEXT("-"&amp;DAY(I22),"00")</f>
         <v>2018-09-06</v>
       </c>
       <c r="K22" s="10" t="str">
-        <f t="shared" ref="K22" ca="1" si="45">IF(TODAY()-DATEVALUE(J22)&lt;15,"weekly",IF(TODAY()-DATEVALUE(J22)&lt;60,"monthly","yearly"))</f>
-        <v>weekly</v>
+        <f t="shared" ref="K22:K23" ca="1" si="45">IF(TODAY()-DATEVALUE(J22)&lt;15,"weekly",IF(TODAY()-DATEVALUE(J22)&lt;60,"monthly","yearly"))</f>
+        <v>monthly</v>
       </c>
       <c r="L22" s="3">
         <v>43349</v>
       </c>
       <c r="M22" s="13">
-        <f t="shared" ref="M22" si="46">DAY(L22)</f>
+        <f t="shared" ref="M22:M23" si="46">DAY(L22)</f>
         <v>6</v>
       </c>
       <c r="N22" s="6">
-        <f t="shared" ref="N22" si="47">MONTH(L22)</f>
+        <f t="shared" ref="N22:N23" si="47">MONTH(L22)</f>
         <v>9</v>
       </c>
       <c r="O22" s="6">
-        <f t="shared" ref="O22" si="48">YEAR(L22)</f>
+        <f t="shared" ref="O22:O23" si="48">YEAR(L22)</f>
         <v>2018</v>
       </c>
       <c r="P22" s="2" t="s">
@@ -2927,7 +2936,7 @@
       </c>
       <c r="Q22" s="2" t="str">
         <f>Tags!$A$15</f>
-        <v>Addon</v>
+        <v>Add-on</v>
       </c>
       <c r="R22" s="2" t="s">
         <v>5</v>
@@ -2956,90 +2965,103 @@
     </row>
     <row r="23" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A23" s="7" t="str">
-        <f>SUBSTITUTE(LOWER(G23)," ","-")</f>
-        <v>terms-of-use</v>
+        <f t="shared" ref="A23" si="50">SUBSTITUTE(LOWER(G23)," ","-")</f>
+        <v>abxtract-tractx</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D23" s="7" t="str">
-        <f>$D$2</f>
-        <v>«PAGE-POST-MD»</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>35</v>
+      <c r="D23" s="28" t="str">
+        <f t="shared" si="24"/>
+        <v>«PAGE-GAME-FULLSCREEN»</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="F23" s="28" t="str">
+        <f t="shared" si="25"/>
+        <v>prose</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>23</v>
+        <v>171</v>
       </c>
       <c r="H23" s="7" t="str">
         <f>"«"&amp;A23&amp;"»"</f>
-        <v>«terms-of-use»</v>
+        <v>«abxtract-tractx»</v>
       </c>
       <c r="I23" s="10">
         <f>L23</f>
-        <v>43069</v>
+        <v>43377</v>
       </c>
       <c r="J23" s="10" t="str">
-        <f t="shared" si="14"/>
-        <v>2017-11-30</v>
+        <f t="shared" si="44"/>
+        <v>2018-10-04</v>
       </c>
       <c r="K23" s="10" t="str">
-        <f ca="1">IF(TODAY()-DATEVALUE(J23)&lt;15,"weekly",IF(TODAY()-DATEVALUE(J23)&lt;60,"monthly","yearly"))</f>
-        <v>yearly</v>
+        <f t="shared" ca="1" si="45"/>
+        <v>weekly</v>
       </c>
       <c r="L23" s="3">
-        <v>43069</v>
+        <v>43377</v>
       </c>
       <c r="M23" s="13">
-        <f t="shared" ref="M23" si="50">DAY(L23)</f>
-        <v>30</v>
+        <f t="shared" si="46"/>
+        <v>4</v>
       </c>
       <c r="N23" s="6">
-        <f t="shared" ref="N23" si="51">MONTH(L23)</f>
-        <v>11</v>
+        <f t="shared" si="47"/>
+        <v>10</v>
       </c>
       <c r="O23" s="6">
-        <f t="shared" si="19"/>
-        <v>2017</v>
+        <f t="shared" si="48"/>
+        <v>2018</v>
       </c>
       <c r="P23" s="2" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="Q23" s="2" t="str">
-        <f>Tags!$A$6&amp;", "&amp;Tags!$A$4</f>
-        <v>Creative-Archive, Post</v>
+        <f>Tags!$A$16&amp;", "&amp;Tags!$A$10&amp;", "&amp;Tags!$A$3</f>
+        <v>Art, Game, Puzzle</v>
       </c>
       <c r="R23" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="S23" s="7" t="s">
-        <v>42</v>
+        <v>6</v>
+      </c>
+      <c r="S23" s="7" t="str">
+        <f>A23&amp;".png"</f>
+        <v>abxtract-tractx.png</v>
       </c>
       <c r="T23" s="7" t="str">
-        <f>$T$9</f>
-        <v>Octaflower, the Creative Archive's logo. A geometric lotus flower composed of eight rows of eight petals in rainbow progression.</v>
+        <f>A23</f>
+        <v>abxtract-tractx</v>
       </c>
       <c r="U23" s="7" t="str">
         <f>"«"&amp;A23&amp;":MarkShort»"</f>
-        <v>«terms-of-use:MarkShort»</v>
+        <v>«abxtract-tractx:MarkShort»</v>
       </c>
       <c r="V23" s="7" t="str">
-        <f>IF(P23="Post","article",IF(P23="Game","game","website"))</f>
-        <v>article</v>
+        <f t="shared" ref="V23" si="51">IF(P23="Post","article",IF(P23="Game","game","website"))</f>
+        <v>game</v>
       </c>
       <c r="X23" s="7" t="str">
-        <f t="shared" ref="X23:X30" si="52">"«SITE-HTTP»/"&amp;A23</f>
-        <v>«SITE-HTTP»/terms-of-use</v>
-      </c>
+        <f t="shared" ref="X23" si="52">"«SITE-HTTP»/"&amp;A23</f>
+        <v>«SITE-HTTP»/abxtract-tractx</v>
+      </c>
+      <c r="Z23" s="28"/>
+      <c r="AA23" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="AC23" t="s">
+        <v>129</v>
+      </c>
+      <c r="AF23" s="4"/>
     </row>
     <row r="24" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A24" s="7" t="str">
         <f>SUBSTITUTE(LOWER(G24)," ","-")</f>
-        <v>privacy-policy</v>
+        <v>terms-of-use</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D24" s="7" t="str">
         <f>$D$2</f>
@@ -3049,37 +3071,38 @@
         <v>35</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="H24" s="7" t="str">
         <f>"«"&amp;A24&amp;"»"</f>
-        <v>«privacy-policy»</v>
-      </c>
-      <c r="I24" s="16">
-        <v>43169</v>
+        <v>«terms-of-use»</v>
+      </c>
+      <c r="I24" s="10">
+        <f>L24</f>
+        <v>43069</v>
       </c>
       <c r="J24" s="10" t="str">
         <f t="shared" si="14"/>
-        <v>2018-03-10</v>
+        <v>2017-11-30</v>
       </c>
       <c r="K24" s="10" t="str">
-        <f t="shared" ref="K24:K38" ca="1" si="53">IF(TODAY()-DATEVALUE(J24)&lt;15,"weekly",IF(TODAY()-DATEVALUE(J24)&lt;60,"monthly","yearly"))</f>
+        <f ca="1">IF(TODAY()-DATEVALUE(J24)&lt;15,"weekly",IF(TODAY()-DATEVALUE(J24)&lt;60,"monthly","yearly"))</f>
         <v>yearly</v>
       </c>
       <c r="L24" s="3">
-        <v>43141</v>
+        <v>43069</v>
       </c>
       <c r="M24" s="13">
-        <f t="shared" ref="M24" si="54">DAY(L24)</f>
-        <v>10</v>
+        <f t="shared" ref="M24" si="53">DAY(L24)</f>
+        <v>30</v>
       </c>
       <c r="N24" s="6">
-        <f t="shared" ref="N24" si="55">MONTH(L24)</f>
-        <v>2</v>
+        <f t="shared" ref="N24" si="54">MONTH(L24)</f>
+        <v>11</v>
       </c>
       <c r="O24" s="6">
         <f t="shared" si="19"/>
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="P24" s="2" t="s">
         <v>3</v>
@@ -3100,101 +3123,117 @@
       </c>
       <c r="U24" s="7" t="str">
         <f>"«"&amp;A24&amp;":MarkShort»"</f>
-        <v>«privacy-policy:MarkShort»</v>
+        <v>«terms-of-use:MarkShort»</v>
       </c>
       <c r="V24" s="7" t="str">
         <f>IF(P24="Post","article",IF(P24="Game","game","website"))</f>
         <v>article</v>
       </c>
       <c r="X24" s="7" t="str">
-        <f t="shared" si="52"/>
-        <v>«SITE-HTTP»/privacy-policy</v>
+        <f t="shared" ref="X24:X31" si="55">"«SITE-HTTP»/"&amp;A24</f>
+        <v>«SITE-HTTP»/terms-of-use</v>
       </c>
     </row>
     <row r="25" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A25" s="7" t="str">
         <f>SUBSTITUTE(LOWER(G25)," ","-")</f>
-        <v>posts-by-date</v>
+        <v>privacy-policy</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C25" s="2">
-        <v>4</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>36</v>
+      <c r="D25" s="7" t="str">
+        <f>$D$2</f>
+        <v>«PAGE-POST-MD»</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>35</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I25" s="19"/>
-      <c r="J25" s="24" t="str">
-        <f>YEAR($J$10)&amp;TEXT("-"&amp;MONTH($J$10),"00")&amp;TEXT("-"&amp;DAY($J$10),"00")</f>
-        <v>2018-03-02</v>
+        <v>55</v>
+      </c>
+      <c r="H25" s="7" t="str">
+        <f>"«"&amp;A25&amp;"»"</f>
+        <v>«privacy-policy»</v>
+      </c>
+      <c r="I25" s="16">
+        <v>43169</v>
+      </c>
+      <c r="J25" s="10" t="str">
+        <f t="shared" si="14"/>
+        <v>2018-03-10</v>
       </c>
       <c r="K25" s="10" t="str">
-        <f ca="1">IF(TODAY()-DATEVALUE(J25)&lt;15,"weekly",IF(TODAY()-DATEVALUE(J25)&lt;60,"monthly","yearly"))</f>
+        <f t="shared" ref="K25:K39" ca="1" si="56">IF(TODAY()-DATEVALUE(J25)&lt;15,"weekly",IF(TODAY()-DATEVALUE(J25)&lt;60,"monthly","yearly"))</f>
         <v>yearly</v>
       </c>
-      <c r="L25" s="20"/>
-      <c r="M25" s="13"/>
+      <c r="L25" s="3">
+        <v>43141</v>
+      </c>
+      <c r="M25" s="13">
+        <f t="shared" ref="M25" si="57">DAY(L25)</f>
+        <v>10</v>
+      </c>
+      <c r="N25" s="6">
+        <f t="shared" ref="N25" si="58">MONTH(L25)</f>
+        <v>2</v>
+      </c>
+      <c r="O25" s="6">
+        <f t="shared" si="19"/>
+        <v>2018</v>
+      </c>
       <c r="P25" s="2" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="Q25" s="2" t="str">
-        <f>Tags!$A$11</f>
-        <v>Sitemap</v>
-      </c>
-      <c r="S25" s="7" t="str">
-        <f>$S$9</f>
-        <v>logo.png</v>
+        <f>Tags!$A$6&amp;", "&amp;Tags!$A$4</f>
+        <v>Creative-Archive, Post</v>
+      </c>
+      <c r="R25" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="S25" s="7" t="s">
+        <v>42</v>
       </c>
       <c r="T25" s="7" t="str">
         <f>$T$9</f>
         <v>Octaflower, the Creative Archive's logo. A geometric lotus flower composed of eight rows of eight petals in rainbow progression.</v>
       </c>
       <c r="U25" s="7" t="str">
-        <f>"Archive of "&amp;G25</f>
-        <v>Archive of Posts by date</v>
+        <f>"«"&amp;A25&amp;":MarkShort»"</f>
+        <v>«privacy-policy:MarkShort»</v>
       </c>
       <c r="V25" s="7" t="str">
         <f>IF(P25="Post","article",IF(P25="Game","game","website"))</f>
-        <v>website</v>
+        <v>article</v>
       </c>
       <c r="X25" s="7" t="str">
-        <f t="shared" si="52"/>
-        <v>«SITE-HTTP»/posts-by-date</v>
+        <f t="shared" si="55"/>
+        <v>«SITE-HTTP»/privacy-policy</v>
       </c>
     </row>
     <row r="26" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A26" s="7" t="str">
         <f>SUBSTITUTE(LOWER(G26)," ","-")</f>
-        <v>posts-by-tag</v>
+        <v>posts-by-date</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C26" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>154</v>
+        <v>37</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>36</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="I26" s="19"/>
       <c r="J26" s="24" t="str">
@@ -3224,40 +3263,41 @@
       </c>
       <c r="U26" s="7" t="str">
         <f>"Archive of "&amp;G26</f>
-        <v>Archive of Posts by tag</v>
+        <v>Archive of Posts by date</v>
       </c>
       <c r="V26" s="7" t="str">
         <f>IF(P26="Post","article",IF(P26="Game","game","website"))</f>
         <v>website</v>
       </c>
       <c r="X26" s="7" t="str">
-        <f t="shared" si="52"/>
-        <v>«SITE-HTTP»/posts-by-tag</v>
+        <f t="shared" si="55"/>
+        <v>«SITE-HTTP»/posts-by-date</v>
       </c>
     </row>
     <row r="27" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A27" s="7" t="s">
-        <v>126</v>
+      <c r="A27" s="7" t="str">
+        <f>SUBSTITUTE(LOWER(G27)," ","-")</f>
+        <v>posts-by-tag</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C27" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>127</v>
+        <v>22</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>133</v>
+        <v>154</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>36</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="I27" s="10"/>
+        <v>49</v>
+      </c>
+      <c r="I27" s="19"/>
       <c r="J27" s="24" t="str">
         <f>YEAR($J$10)&amp;TEXT("-"&amp;MONTH($J$10),"00")&amp;TEXT("-"&amp;DAY($J$10),"00")</f>
         <v>2018-03-02</v>
@@ -3266,32 +3306,18 @@
         <f ca="1">IF(TODAY()-DATEVALUE(J27)&lt;15,"weekly",IF(TODAY()-DATEVALUE(J27)&lt;60,"monthly","yearly"))</f>
         <v>yearly</v>
       </c>
-      <c r="L27" s="3">
-        <v>43141</v>
-      </c>
-      <c r="M27" s="13">
-        <f t="shared" ref="M27" si="56">DAY(L27)</f>
-        <v>10</v>
-      </c>
-      <c r="N27" s="6">
-        <f t="shared" ref="N27" si="57">MONTH(L27)</f>
-        <v>2</v>
-      </c>
-      <c r="O27" s="6">
-        <f t="shared" ref="O27" si="58">YEAR(L27)</f>
-        <v>2018</v>
-      </c>
+      <c r="L27" s="20"/>
+      <c r="M27" s="13"/>
       <c r="P27" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="Q27" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="R27" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="S27" s="7" t="s">
-        <v>42</v>
+      <c r="Q27" s="2" t="str">
+        <f>Tags!$A$11</f>
+        <v>Sitemap</v>
+      </c>
+      <c r="S27" s="7" t="str">
+        <f>$S$9</f>
+        <v>logo.png</v>
       </c>
       <c r="T27" s="7" t="str">
         <f>$T$9</f>
@@ -3299,231 +3325,217 @@
       </c>
       <c r="U27" s="7" t="str">
         <f>"Archive of "&amp;G27</f>
-        <v>Archive of Games</v>
+        <v>Archive of Posts by tag</v>
       </c>
       <c r="V27" s="7" t="str">
         <f>IF(P27="Post","article",IF(P27="Game","game","website"))</f>
         <v>website</v>
       </c>
       <c r="X27" s="7" t="str">
-        <f t="shared" si="52"/>
-        <v>«SITE-HTTP»/games</v>
+        <f t="shared" si="55"/>
+        <v>«SITE-HTTP»/posts-by-tag</v>
       </c>
     </row>
     <row r="28" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A28" s="7" t="s">
-        <v>88</v>
+        <v>126</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="C28" s="2">
+        <v>6</v>
+      </c>
       <c r="D28" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="M28" s="14"/>
-      <c r="W28" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="X28" s="9" t="str">
-        <f t="shared" si="52"/>
-        <v>«SITE-HTTP»/robots</v>
+        <v>127</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I28" s="10"/>
+      <c r="J28" s="24" t="str">
+        <f>YEAR($J$10)&amp;TEXT("-"&amp;MONTH($J$10),"00")&amp;TEXT("-"&amp;DAY($J$10),"00")</f>
+        <v>2018-03-02</v>
+      </c>
+      <c r="K28" s="10" t="str">
+        <f ca="1">IF(TODAY()-DATEVALUE(J28)&lt;15,"weekly",IF(TODAY()-DATEVALUE(J28)&lt;60,"monthly","yearly"))</f>
+        <v>yearly</v>
+      </c>
+      <c r="L28" s="3">
+        <v>43141</v>
+      </c>
+      <c r="M28" s="13">
+        <f t="shared" ref="M28" si="59">DAY(L28)</f>
+        <v>10</v>
+      </c>
+      <c r="N28" s="6">
+        <f t="shared" ref="N28" si="60">MONTH(L28)</f>
+        <v>2</v>
+      </c>
+      <c r="O28" s="6">
+        <f t="shared" ref="O28" si="61">YEAR(L28)</f>
+        <v>2018</v>
+      </c>
+      <c r="P28" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q28" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="R28" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="S28" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="T28" s="7" t="str">
+        <f>$T$9</f>
+        <v>Octaflower, the Creative Archive's logo. A geometric lotus flower composed of eight rows of eight petals in rainbow progression.</v>
+      </c>
+      <c r="U28" s="7" t="str">
+        <f>"Archive of "&amp;G28</f>
+        <v>Archive of Games</v>
+      </c>
+      <c r="V28" s="7" t="str">
+        <f>IF(P28="Post","article",IF(P28="Game","game","website"))</f>
+        <v>website</v>
+      </c>
+      <c r="X28" s="7" t="str">
+        <f t="shared" si="55"/>
+        <v>«SITE-HTTP»/games</v>
       </c>
     </row>
     <row r="29" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A29" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="M29" s="14"/>
       <c r="W29" s="9" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="X29" s="9" t="str">
-        <f t="shared" si="52"/>
-        <v>«SITE-HTTP»/sitemap</v>
+        <f t="shared" si="55"/>
+        <v>«SITE-HTTP»/robots</v>
       </c>
     </row>
     <row r="30" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A30" s="7" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="I30" s="19"/>
-      <c r="J30" s="24" t="str">
-        <f>YEAR($J$10)&amp;TEXT("-"&amp;MONTH($J$10),"00")&amp;TEXT("-"&amp;DAY($J$10),"00")</f>
-        <v>2018-03-02</v>
-      </c>
-      <c r="K30" s="10" t="str">
-        <f t="shared" ref="K30" ca="1" si="59">IF(TODAY()-DATEVALUE(J30)&lt;15,"weekly",IF(TODAY()-DATEVALUE(J30)&lt;60,"monthly","yearly"))</f>
-        <v>yearly</v>
-      </c>
-      <c r="L30" s="21"/>
+        <v>92</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>93</v>
+      </c>
       <c r="M30" s="14"/>
       <c r="W30" s="9" t="s">
         <v>82</v>
       </c>
       <c r="X30" s="9" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="55"/>
+        <v>«SITE-HTTP»/sitemap</v>
+      </c>
+    </row>
+    <row r="31" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A31" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="I31" s="19"/>
+      <c r="J31" s="24" t="str">
+        <f>YEAR($J$10)&amp;TEXT("-"&amp;MONTH($J$10),"00")&amp;TEXT("-"&amp;DAY($J$10),"00")</f>
+        <v>2018-03-02</v>
+      </c>
+      <c r="K31" s="10" t="str">
+        <f t="shared" ref="K31" ca="1" si="62">IF(TODAY()-DATEVALUE(J31)&lt;15,"weekly",IF(TODAY()-DATEVALUE(J31)&lt;60,"monthly","yearly"))</f>
+        <v>yearly</v>
+      </c>
+      <c r="L31" s="21"/>
+      <c r="M31" s="14"/>
+      <c r="W31" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="X31" s="9" t="str">
+        <f t="shared" si="55"/>
         <v>«SITE-HTTP»/rss</v>
       </c>
     </row>
-    <row r="31" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A31" s="11" t="str">
+    <row r="32" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A32" s="11" t="str">
         <f>"tag-"&amp;SUBSTITUTE(Tags!$A2," ","-")</f>
         <v>tag-Platformer</v>
       </c>
-      <c r="B31" s="25" t="str">
+      <c r="B32" s="25" t="str">
         <f>Tags!$B2</f>
         <v>Yes</v>
       </c>
-      <c r="C31" s="25"/>
-      <c r="D31" s="11" t="str">
-        <f>D$36</f>
+      <c r="C32" s="25"/>
+      <c r="D32" s="11" t="str">
+        <f>D$37</f>
         <v>«PAGE-FEATURED-EMPTY»</v>
       </c>
-      <c r="E31" s="11" t="str">
-        <f>$E$36</f>
+      <c r="E32" s="11" t="str">
+        <f>$E$37</f>
         <v>«FEATURED-ITEM:Filter{"Tags"-&gt;_?(StringMatchQ[#,___~~"«POST:Load»"~~___]&amp;),"Type"-&gt;_,"Day"-&gt;_?NumberQ,"Month"-&gt;_?NumberQ,"Year"-&gt;_?NumberQ}»</v>
       </c>
-      <c r="F31" s="12" t="s">
+      <c r="F32" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="G31" s="11" t="str">
-        <f>"All"&amp;" "&amp;H31&amp;"s"</f>
+      <c r="G32" s="11" t="str">
+        <f>"All"&amp;" "&amp;H32&amp;"s"</f>
         <v>All Platformers</v>
       </c>
-      <c r="H31" s="11" t="str">
+      <c r="H32" s="11" t="str">
         <f>Tags!$A2</f>
         <v>Platformer</v>
       </c>
-      <c r="I31" s="22"/>
-      <c r="J31" s="22" t="str">
-        <f t="shared" ref="J31:J44" si="60">YEAR($J$10)&amp;TEXT("-"&amp;MONTH($J$10),"00")&amp;TEXT("-"&amp;DAY($J$10),"00")</f>
-        <v>2018-03-02</v>
-      </c>
-      <c r="K31" s="22" t="str">
-        <f t="shared" ca="1" si="53"/>
-        <v>yearly</v>
-      </c>
-      <c r="L31" s="29">
-        <v>41773</v>
-      </c>
-      <c r="M31" s="15">
-        <f t="shared" ref="M31:M41" si="61">DAY(L31)</f>
-        <v>14</v>
-      </c>
-      <c r="N31" s="30">
-        <f t="shared" ref="N31:N41" si="62">MONTH(L31)</f>
-        <v>5</v>
-      </c>
-      <c r="O31" s="30">
-        <f t="shared" ref="O31:O41" si="63">YEAR(L31)</f>
-        <v>2014</v>
-      </c>
-      <c r="P31" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q31" s="25" t="str">
-        <f>Tags!$A$12</f>
-        <v>Class</v>
-      </c>
-      <c r="R31" s="12"/>
-      <c r="S31" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="T31" s="11" t="str">
-        <f>$T$9</f>
-        <v>Octaflower, the Creative Archive's logo. A geometric lotus flower composed of eight rows of eight petals in rainbow progression.</v>
-      </c>
-      <c r="U31" s="11" t="str">
-        <f>"All content classified under "&amp;H31</f>
-        <v>All content classified under Platformer</v>
-      </c>
-      <c r="V31" s="12"/>
-      <c r="W31" s="11"/>
-      <c r="X31" s="11" t="str">
-        <f t="shared" ref="X31:X42" si="64">"«SITE-HTTP»/"&amp;A31</f>
-        <v>«SITE-HTTP»/tag-Platformer</v>
-      </c>
-      <c r="Y31" s="12"/>
-      <c r="Z31" s="12"/>
-      <c r="AA31" s="12"/>
-      <c r="AB31" s="12"/>
-      <c r="AC31" s="12"/>
-      <c r="AD31" s="12"/>
-      <c r="AE31" s="12"/>
-      <c r="AF31" s="12"/>
-    </row>
-    <row r="32" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A32" s="11" t="str">
-        <f>"tag-"&amp;SUBSTITUTE(Tags!$A3," ","-")</f>
-        <v>tag-Puzzle</v>
-      </c>
-      <c r="B32" s="25" t="str">
-        <f>Tags!$B3</f>
-        <v>Yes</v>
-      </c>
-      <c r="C32" s="25"/>
-      <c r="D32" s="11" t="str">
-        <f>D$36</f>
-        <v>«PAGE-FEATURED-EMPTY»</v>
-      </c>
-      <c r="E32" s="11" t="str">
-        <f>$E$36</f>
-        <v>«FEATURED-ITEM:Filter{"Tags"-&gt;_?(StringMatchQ[#,___~~"«POST:Load»"~~___]&amp;),"Type"-&gt;_,"Day"-&gt;_?NumberQ,"Month"-&gt;_?NumberQ,"Year"-&gt;_?NumberQ}»</v>
-      </c>
-      <c r="F32" s="25" t="str">
-        <f>F$31</f>
-        <v>archive</v>
-      </c>
-      <c r="G32" s="11" t="str">
-        <f>"All"&amp;" "&amp;H32&amp;"s"</f>
-        <v>All Puzzles</v>
-      </c>
-      <c r="H32" s="11" t="str">
-        <f>Tags!$A3</f>
-        <v>Puzzle</v>
-      </c>
       <c r="I32" s="22"/>
       <c r="J32" s="22" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" ref="J32:J46" si="63">YEAR($J$10)&amp;TEXT("-"&amp;MONTH($J$10),"00")&amp;TEXT("-"&amp;DAY($J$10),"00")</f>
         <v>2018-03-02</v>
       </c>
       <c r="K32" s="22" t="str">
-        <f t="shared" ca="1" si="53"/>
+        <f t="shared" ca="1" si="56"/>
         <v>yearly</v>
       </c>
       <c r="L32" s="29">
         <v>41773</v>
       </c>
       <c r="M32" s="15">
-        <f t="shared" si="61"/>
+        <f t="shared" ref="M32:M42" si="64">DAY(L32)</f>
         <v>14</v>
       </c>
       <c r="N32" s="30">
-        <f t="shared" si="62"/>
+        <f t="shared" ref="N32:N42" si="65">MONTH(L32)</f>
         <v>5</v>
       </c>
       <c r="O32" s="30">
-        <f t="shared" si="63"/>
+        <f t="shared" ref="O32:O42" si="66">YEAR(L32)</f>
         <v>2014</v>
       </c>
-      <c r="P32" s="25" t="str">
-        <f>$P$31</f>
-        <v>Tag</v>
+      <c r="P32" s="12" t="s">
+        <v>20</v>
       </c>
       <c r="Q32" s="25" t="str">
         <f>Tags!$A$12</f>
@@ -3534,18 +3546,18 @@
         <v>42</v>
       </c>
       <c r="T32" s="11" t="str">
-        <f t="shared" ref="T32:T44" si="65">$T$9</f>
+        <f>$T$9</f>
         <v>Octaflower, the Creative Archive's logo. A geometric lotus flower composed of eight rows of eight petals in rainbow progression.</v>
       </c>
       <c r="U32" s="11" t="str">
-        <f t="shared" ref="U32:U41" si="66">"All content classified under "&amp;H32</f>
-        <v>All content classified under Puzzle</v>
+        <f>"All content classified under "&amp;H32</f>
+        <v>All content classified under Platformer</v>
       </c>
       <c r="V32" s="12"/>
       <c r="W32" s="11"/>
       <c r="X32" s="11" t="str">
-        <f t="shared" si="64"/>
-        <v>«SITE-HTTP»/tag-Puzzle</v>
+        <f t="shared" ref="X32:X43" si="67">"«SITE-HTTP»/"&amp;A32</f>
+        <v>«SITE-HTTP»/tag-Platformer</v>
       </c>
       <c r="Y32" s="12"/>
       <c r="Z32" s="12"/>
@@ -3558,58 +3570,60 @@
     </row>
     <row r="33" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A33" s="11" t="str">
-        <f>"tag-"&amp;SUBSTITUTE(Tags!$A4," ","-")</f>
-        <v>tag-Post</v>
+        <f>"tag-"&amp;SUBSTITUTE(Tags!$A3," ","-")</f>
+        <v>tag-Puzzle</v>
       </c>
       <c r="B33" s="25" t="str">
-        <f>Tags!$B4</f>
+        <f>Tags!$B3</f>
         <v>Yes</v>
       </c>
       <c r="C33" s="25"/>
-      <c r="D33" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="E33" s="12" t="s">
-        <v>103</v>
+      <c r="D33" s="11" t="str">
+        <f>D$37</f>
+        <v>«PAGE-FEATURED-EMPTY»</v>
+      </c>
+      <c r="E33" s="11" t="str">
+        <f>$E$37</f>
+        <v>«FEATURED-ITEM:Filter{"Tags"-&gt;_?(StringMatchQ[#,___~~"«POST:Load»"~~___]&amp;),"Type"-&gt;_,"Day"-&gt;_?NumberQ,"Month"-&gt;_?NumberQ,"Year"-&gt;_?NumberQ}»</v>
       </c>
       <c r="F33" s="25" t="str">
-        <f t="shared" ref="F33:F44" si="67">F$31</f>
+        <f>F$32</f>
         <v>archive</v>
       </c>
       <c r="G33" s="11" t="str">
         <f>"All"&amp;" "&amp;H33&amp;"s"</f>
-        <v>All Posts</v>
+        <v>All Puzzles</v>
       </c>
       <c r="H33" s="11" t="str">
-        <f>Tags!$A4</f>
-        <v>Post</v>
+        <f>Tags!$A3</f>
+        <v>Puzzle</v>
       </c>
       <c r="I33" s="22"/>
       <c r="J33" s="22" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="63"/>
         <v>2018-03-02</v>
       </c>
       <c r="K33" s="22" t="str">
-        <f t="shared" ca="1" si="53"/>
+        <f t="shared" ca="1" si="56"/>
         <v>yearly</v>
       </c>
       <c r="L33" s="29">
-        <v>43070</v>
+        <v>41773</v>
       </c>
       <c r="M33" s="15">
-        <f t="shared" si="61"/>
-        <v>1</v>
+        <f t="shared" si="64"/>
+        <v>14</v>
       </c>
       <c r="N33" s="30">
-        <f t="shared" si="62"/>
-        <v>12</v>
+        <f t="shared" si="65"/>
+        <v>5</v>
       </c>
       <c r="O33" s="30">
-        <f t="shared" si="63"/>
-        <v>2017</v>
+        <f t="shared" si="66"/>
+        <v>2014</v>
       </c>
       <c r="P33" s="25" t="str">
-        <f t="shared" ref="P33:P44" si="68">$P$31</f>
+        <f>$P$32</f>
         <v>Tag</v>
       </c>
       <c r="Q33" s="25" t="str">
@@ -3621,18 +3635,18 @@
         <v>42</v>
       </c>
       <c r="T33" s="11" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" ref="T33:T46" si="68">$T$9</f>
         <v>Octaflower, the Creative Archive's logo. A geometric lotus flower composed of eight rows of eight petals in rainbow progression.</v>
       </c>
       <c r="U33" s="11" t="str">
-        <f t="shared" si="66"/>
-        <v>All content classified under Post</v>
+        <f t="shared" ref="U33:U42" si="69">"All content classified under "&amp;H33</f>
+        <v>All content classified under Puzzle</v>
       </c>
       <c r="V33" s="12"/>
       <c r="W33" s="11"/>
       <c r="X33" s="11" t="str">
-        <f t="shared" si="64"/>
-        <v>«SITE-HTTP»/tag-Post</v>
+        <f t="shared" si="67"/>
+        <v>«SITE-HTTP»/tag-Puzzle</v>
       </c>
       <c r="Y33" s="12"/>
       <c r="Z33" s="12"/>
@@ -3645,60 +3659,58 @@
     </row>
     <row r="34" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A34" s="11" t="str">
-        <f>"tag-"&amp;SUBSTITUTE(Tags!$A5," ","-")</f>
-        <v>tag-Finance</v>
+        <f>"tag-"&amp;SUBSTITUTE(Tags!$A4," ","-")</f>
+        <v>tag-Post</v>
       </c>
       <c r="B34" s="25" t="str">
-        <f>Tags!$B5</f>
-        <v>No</v>
+        <f>Tags!$B4</f>
+        <v>Yes</v>
       </c>
       <c r="C34" s="25"/>
-      <c r="D34" s="11" t="str">
-        <f>$D$33</f>
-        <v>«PAGE-SIMPLE»</v>
-      </c>
-      <c r="E34" s="11" t="str">
-        <f>$E$33</f>
-        <v>«TAGSELECT:Filter{"Tags"-&gt;_?(StringMatchQ[#,___~~"«POST:Load»"~~___]&amp;),"Type"-&gt;_,"Day"-&gt;_?NumberQ,"Month"-&gt;_?NumberQ,"Year"-&gt;_?NumberQ}»</v>
+      <c r="D34" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34" s="12" t="s">
+        <v>103</v>
       </c>
       <c r="F34" s="25" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" ref="F34:F46" si="70">F$32</f>
         <v>archive</v>
       </c>
       <c r="G34" s="11" t="str">
-        <f>"Classed as '"&amp;Tags!$A5&amp;"'"</f>
-        <v>Classed as 'Finance'</v>
+        <f>"All"&amp;" "&amp;H34&amp;"s"</f>
+        <v>All Posts</v>
       </c>
       <c r="H34" s="11" t="str">
-        <f>Tags!$A5</f>
-        <v>Finance</v>
+        <f>Tags!$A4</f>
+        <v>Post</v>
       </c>
       <c r="I34" s="22"/>
       <c r="J34" s="22" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="63"/>
         <v>2018-03-02</v>
       </c>
       <c r="K34" s="22" t="str">
-        <f t="shared" ca="1" si="53"/>
+        <f t="shared" ca="1" si="56"/>
         <v>yearly</v>
       </c>
       <c r="L34" s="29">
-        <v>43139</v>
+        <v>43070</v>
       </c>
       <c r="M34" s="15">
-        <f t="shared" si="61"/>
-        <v>8</v>
+        <f t="shared" si="64"/>
+        <v>1</v>
       </c>
       <c r="N34" s="30">
-        <f t="shared" si="62"/>
-        <v>2</v>
+        <f t="shared" si="65"/>
+        <v>12</v>
       </c>
       <c r="O34" s="30">
-        <f t="shared" si="63"/>
-        <v>2018</v>
+        <f t="shared" si="66"/>
+        <v>2017</v>
       </c>
       <c r="P34" s="25" t="str">
-        <f t="shared" si="68"/>
+        <f t="shared" ref="P34:P46" si="71">$P$32</f>
         <v>Tag</v>
       </c>
       <c r="Q34" s="25" t="str">
@@ -3710,18 +3722,18 @@
         <v>42</v>
       </c>
       <c r="T34" s="11" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="68"/>
         <v>Octaflower, the Creative Archive's logo. A geometric lotus flower composed of eight rows of eight petals in rainbow progression.</v>
       </c>
       <c r="U34" s="11" t="str">
-        <f t="shared" si="66"/>
-        <v>All content classified under Finance</v>
+        <f t="shared" si="69"/>
+        <v>All content classified under Post</v>
       </c>
       <c r="V34" s="12"/>
       <c r="W34" s="11"/>
       <c r="X34" s="11" t="str">
-        <f t="shared" si="64"/>
-        <v>«SITE-HTTP»/tag-Finance</v>
+        <f t="shared" si="67"/>
+        <v>«SITE-HTTP»/tag-Post</v>
       </c>
       <c r="Y34" s="12"/>
       <c r="Z34" s="12"/>
@@ -3734,60 +3746,60 @@
     </row>
     <row r="35" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A35" s="11" t="str">
-        <f>"tag-"&amp;SUBSTITUTE(Tags!$A6," ","-")</f>
-        <v>tag-Creative-Archive</v>
+        <f>"tag-"&amp;SUBSTITUTE(Tags!$A5," ","-")</f>
+        <v>tag-Finance</v>
       </c>
       <c r="B35" s="25" t="str">
-        <f>Tags!$B6</f>
-        <v>Yes</v>
+        <f>Tags!$B5</f>
+        <v>No</v>
       </c>
       <c r="C35" s="25"/>
       <c r="D35" s="11" t="str">
-        <f>$D$33</f>
+        <f>$D$34</f>
         <v>«PAGE-SIMPLE»</v>
       </c>
       <c r="E35" s="11" t="str">
-        <f>$E$33</f>
+        <f>$E$34</f>
         <v>«TAGSELECT:Filter{"Tags"-&gt;_?(StringMatchQ[#,___~~"«POST:Load»"~~___]&amp;),"Type"-&gt;_,"Day"-&gt;_?NumberQ,"Month"-&gt;_?NumberQ,"Year"-&gt;_?NumberQ}»</v>
       </c>
       <c r="F35" s="25" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="70"/>
         <v>archive</v>
       </c>
       <c r="G35" s="11" t="str">
-        <f>"Classed as '"&amp;Tags!$A6&amp;"'"</f>
-        <v>Classed as 'Creative-Archive'</v>
+        <f>"Classed as '"&amp;Tags!$A5&amp;"'"</f>
+        <v>Classed as 'Finance'</v>
       </c>
       <c r="H35" s="11" t="str">
-        <f>Tags!$A6</f>
-        <v>Creative-Archive</v>
+        <f>Tags!$A5</f>
+        <v>Finance</v>
       </c>
       <c r="I35" s="22"/>
       <c r="J35" s="22" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="63"/>
         <v>2018-03-02</v>
       </c>
       <c r="K35" s="22" t="str">
-        <f t="shared" ca="1" si="53"/>
+        <f t="shared" ca="1" si="56"/>
         <v>yearly</v>
       </c>
       <c r="L35" s="29">
-        <v>43069</v>
+        <v>43139</v>
       </c>
       <c r="M35" s="15">
-        <f t="shared" si="61"/>
-        <v>30</v>
+        <f t="shared" si="64"/>
+        <v>8</v>
       </c>
       <c r="N35" s="30">
-        <f t="shared" si="62"/>
-        <v>11</v>
+        <f t="shared" si="65"/>
+        <v>2</v>
       </c>
       <c r="O35" s="30">
-        <f t="shared" si="63"/>
-        <v>2017</v>
+        <f t="shared" si="66"/>
+        <v>2018</v>
       </c>
       <c r="P35" s="25" t="str">
-        <f t="shared" si="68"/>
+        <f t="shared" si="71"/>
         <v>Tag</v>
       </c>
       <c r="Q35" s="25" t="str">
@@ -3799,18 +3811,18 @@
         <v>42</v>
       </c>
       <c r="T35" s="11" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="68"/>
         <v>Octaflower, the Creative Archive's logo. A geometric lotus flower composed of eight rows of eight petals in rainbow progression.</v>
       </c>
       <c r="U35" s="11" t="str">
-        <f t="shared" si="66"/>
-        <v>All content classified under Creative-Archive</v>
+        <f t="shared" si="69"/>
+        <v>All content classified under Finance</v>
       </c>
       <c r="V35" s="12"/>
       <c r="W35" s="11"/>
       <c r="X35" s="11" t="str">
-        <f t="shared" si="64"/>
-        <v>«SITE-HTTP»/tag-Creative-Archive</v>
+        <f t="shared" si="67"/>
+        <v>«SITE-HTTP»/tag-Finance</v>
       </c>
       <c r="Y35" s="12"/>
       <c r="Z35" s="12"/>
@@ -3823,60 +3835,60 @@
     </row>
     <row r="36" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A36" s="11" t="str">
-        <f>"tag-"&amp;SUBSTITUTE(Tags!$A7," ","-")</f>
-        <v>tag-Mosaic</v>
+        <f>"tag-"&amp;SUBSTITUTE(Tags!$A6," ","-")</f>
+        <v>tag-Creative-Archive</v>
       </c>
       <c r="B36" s="25" t="str">
-        <f>Tags!$B7</f>
-        <v>No</v>
-      </c>
-      <c r="C36" s="25">
-        <v>6</v>
-      </c>
-      <c r="D36" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="E36" s="12" t="s">
-        <v>108</v>
+        <f>Tags!$B6</f>
+        <v>Yes</v>
+      </c>
+      <c r="C36" s="25"/>
+      <c r="D36" s="11" t="str">
+        <f>$D$34</f>
+        <v>«PAGE-SIMPLE»</v>
+      </c>
+      <c r="E36" s="11" t="str">
+        <f>$E$34</f>
+        <v>«TAGSELECT:Filter{"Tags"-&gt;_?(StringMatchQ[#,___~~"«POST:Load»"~~___]&amp;),"Type"-&gt;_,"Day"-&gt;_?NumberQ,"Month"-&gt;_?NumberQ,"Year"-&gt;_?NumberQ}»</v>
       </c>
       <c r="F36" s="25" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="70"/>
         <v>archive</v>
       </c>
       <c r="G36" s="11" t="str">
-        <f>H36&amp;"s"</f>
-        <v>Mosaics</v>
+        <f>"Classed as '"&amp;Tags!$A6&amp;"'"</f>
+        <v>Classed as 'Creative-Archive'</v>
       </c>
       <c r="H36" s="11" t="str">
-        <f>Tags!$A7</f>
-        <v>Mosaic</v>
+        <f>Tags!$A6</f>
+        <v>Creative-Archive</v>
       </c>
       <c r="I36" s="22"/>
       <c r="J36" s="22" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="63"/>
         <v>2018-03-02</v>
       </c>
       <c r="K36" s="22" t="str">
-        <f t="shared" ca="1" si="53"/>
+        <f t="shared" ca="1" si="56"/>
         <v>yearly</v>
       </c>
       <c r="L36" s="29">
-        <v>43018</v>
+        <v>43069</v>
       </c>
       <c r="M36" s="15">
-        <f t="shared" si="61"/>
-        <v>10</v>
+        <f t="shared" si="64"/>
+        <v>30</v>
       </c>
       <c r="N36" s="30">
-        <f t="shared" si="62"/>
-        <v>10</v>
+        <f t="shared" si="65"/>
+        <v>11</v>
       </c>
       <c r="O36" s="30">
-        <f t="shared" si="63"/>
+        <f t="shared" si="66"/>
         <v>2017</v>
       </c>
       <c r="P36" s="25" t="str">
-        <f t="shared" si="68"/>
+        <f t="shared" si="71"/>
         <v>Tag</v>
       </c>
       <c r="Q36" s="25" t="str">
@@ -3888,18 +3900,18 @@
         <v>42</v>
       </c>
       <c r="T36" s="11" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="68"/>
         <v>Octaflower, the Creative Archive's logo. A geometric lotus flower composed of eight rows of eight petals in rainbow progression.</v>
       </c>
       <c r="U36" s="11" t="str">
-        <f t="shared" si="66"/>
-        <v>All content classified under Mosaic</v>
+        <f t="shared" si="69"/>
+        <v>All content classified under Creative-Archive</v>
       </c>
       <c r="V36" s="12"/>
       <c r="W36" s="11"/>
       <c r="X36" s="11" t="str">
-        <f t="shared" si="64"/>
-        <v>«SITE-HTTP»/tag-Mosaic</v>
+        <f t="shared" si="67"/>
+        <v>«SITE-HTTP»/tag-Creative-Archive</v>
       </c>
       <c r="Y36" s="12"/>
       <c r="Z36" s="12"/>
@@ -3912,60 +3924,60 @@
     </row>
     <row r="37" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A37" s="11" t="str">
-        <f>"tag-"&amp;SUBSTITUTE(Tags!$A8," ","-")</f>
-        <v>tag-Travel</v>
+        <f>"tag-"&amp;SUBSTITUTE(Tags!$A7," ","-")</f>
+        <v>tag-Mosaic</v>
       </c>
       <c r="B37" s="25" t="str">
-        <f>Tags!$B8</f>
+        <f>Tags!$B7</f>
         <v>No</v>
       </c>
-      <c r="C37" s="25"/>
-      <c r="D37" s="11" t="str">
-        <f>$D$33</f>
-        <v>«PAGE-SIMPLE»</v>
-      </c>
-      <c r="E37" s="11" t="str">
-        <f>$E$33</f>
-        <v>«TAGSELECT:Filter{"Tags"-&gt;_?(StringMatchQ[#,___~~"«POST:Load»"~~___]&amp;),"Type"-&gt;_,"Day"-&gt;_?NumberQ,"Month"-&gt;_?NumberQ,"Year"-&gt;_?NumberQ}»</v>
+      <c r="C37" s="25">
+        <v>6</v>
+      </c>
+      <c r="D37" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="E37" s="12" t="s">
+        <v>108</v>
       </c>
       <c r="F37" s="25" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="70"/>
         <v>archive</v>
       </c>
       <c r="G37" s="11" t="str">
-        <f>"Classed as '"&amp;Tags!$A8&amp;"'"</f>
-        <v>Classed as 'Travel'</v>
+        <f>H37&amp;"s"</f>
+        <v>Mosaics</v>
       </c>
       <c r="H37" s="11" t="str">
-        <f>Tags!$A8</f>
-        <v>Travel</v>
+        <f>Tags!$A7</f>
+        <v>Mosaic</v>
       </c>
       <c r="I37" s="22"/>
       <c r="J37" s="22" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="63"/>
         <v>2018-03-02</v>
       </c>
       <c r="K37" s="22" t="str">
-        <f t="shared" ca="1" si="53"/>
+        <f t="shared" ca="1" si="56"/>
         <v>yearly</v>
       </c>
       <c r="L37" s="29">
         <v>43018</v>
       </c>
       <c r="M37" s="15">
-        <f t="shared" si="61"/>
+        <f t="shared" si="64"/>
         <v>10</v>
       </c>
       <c r="N37" s="30">
-        <f t="shared" si="62"/>
+        <f t="shared" si="65"/>
         <v>10</v>
       </c>
       <c r="O37" s="30">
-        <f t="shared" si="63"/>
+        <f t="shared" si="66"/>
         <v>2017</v>
       </c>
       <c r="P37" s="25" t="str">
-        <f t="shared" si="68"/>
+        <f t="shared" si="71"/>
         <v>Tag</v>
       </c>
       <c r="Q37" s="25" t="str">
@@ -3977,18 +3989,18 @@
         <v>42</v>
       </c>
       <c r="T37" s="11" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="68"/>
         <v>Octaflower, the Creative Archive's logo. A geometric lotus flower composed of eight rows of eight petals in rainbow progression.</v>
       </c>
       <c r="U37" s="11" t="str">
-        <f t="shared" si="66"/>
-        <v>All content classified under Travel</v>
+        <f t="shared" si="69"/>
+        <v>All content classified under Mosaic</v>
       </c>
       <c r="V37" s="12"/>
       <c r="W37" s="11"/>
       <c r="X37" s="11" t="str">
-        <f t="shared" si="64"/>
-        <v>«SITE-HTTP»/tag-Travel</v>
+        <f t="shared" si="67"/>
+        <v>«SITE-HTTP»/tag-Mosaic</v>
       </c>
       <c r="Y37" s="12"/>
       <c r="Z37" s="12"/>
@@ -4001,60 +4013,60 @@
     </row>
     <row r="38" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A38" s="11" t="str">
-        <f>"tag-"&amp;SUBSTITUTE(Tags!$A9," ","-")</f>
-        <v>tag-Wallpaper</v>
+        <f>"tag-"&amp;SUBSTITUTE(Tags!$A8," ","-")</f>
+        <v>tag-Travel</v>
       </c>
       <c r="B38" s="25" t="str">
-        <f>Tags!$B9</f>
+        <f>Tags!$B8</f>
         <v>No</v>
       </c>
       <c r="C38" s="25"/>
       <c r="D38" s="11" t="str">
-        <f>D$36</f>
-        <v>«PAGE-FEATURED-EMPTY»</v>
+        <f>$D$34</f>
+        <v>«PAGE-SIMPLE»</v>
       </c>
       <c r="E38" s="11" t="str">
-        <f>E$36</f>
-        <v>«FEATURED-ITEM:Filter{"Tags"-&gt;_?(StringMatchQ[#,___~~"«POST:Load»"~~___]&amp;),"Type"-&gt;_,"Day"-&gt;_?NumberQ,"Month"-&gt;_?NumberQ,"Year"-&gt;_?NumberQ}»</v>
+        <f>$E$34</f>
+        <v>«TAGSELECT:Filter{"Tags"-&gt;_?(StringMatchQ[#,___~~"«POST:Load»"~~___]&amp;),"Type"-&gt;_,"Day"-&gt;_?NumberQ,"Month"-&gt;_?NumberQ,"Year"-&gt;_?NumberQ}»</v>
       </c>
       <c r="F38" s="25" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="70"/>
         <v>archive</v>
       </c>
       <c r="G38" s="11" t="str">
-        <f>"All"&amp;" "&amp;H38&amp;"s"</f>
-        <v>All Wallpapers</v>
+        <f>"Classed as '"&amp;Tags!$A8&amp;"'"</f>
+        <v>Classed as 'Travel'</v>
       </c>
       <c r="H38" s="11" t="str">
-        <f>Tags!$A9</f>
-        <v>Wallpaper</v>
+        <f>Tags!$A8</f>
+        <v>Travel</v>
       </c>
       <c r="I38" s="22"/>
       <c r="J38" s="22" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="63"/>
         <v>2018-03-02</v>
       </c>
       <c r="K38" s="22" t="str">
-        <f t="shared" ca="1" si="53"/>
+        <f t="shared" ca="1" si="56"/>
         <v>yearly</v>
       </c>
       <c r="L38" s="29">
         <v>43018</v>
       </c>
       <c r="M38" s="15">
-        <f t="shared" si="61"/>
+        <f t="shared" si="64"/>
         <v>10</v>
       </c>
       <c r="N38" s="30">
-        <f t="shared" si="62"/>
+        <f t="shared" si="65"/>
         <v>10</v>
       </c>
       <c r="O38" s="30">
-        <f t="shared" si="63"/>
+        <f t="shared" si="66"/>
         <v>2017</v>
       </c>
       <c r="P38" s="25" t="str">
-        <f t="shared" si="68"/>
+        <f t="shared" si="71"/>
         <v>Tag</v>
       </c>
       <c r="Q38" s="25" t="str">
@@ -4066,18 +4078,18 @@
         <v>42</v>
       </c>
       <c r="T38" s="11" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="68"/>
         <v>Octaflower, the Creative Archive's logo. A geometric lotus flower composed of eight rows of eight petals in rainbow progression.</v>
       </c>
       <c r="U38" s="11" t="str">
-        <f t="shared" si="66"/>
-        <v>All content classified under Wallpaper</v>
+        <f t="shared" si="69"/>
+        <v>All content classified under Travel</v>
       </c>
       <c r="V38" s="12"/>
       <c r="W38" s="11"/>
       <c r="X38" s="11" t="str">
-        <f t="shared" si="64"/>
-        <v>«SITE-HTTP»/tag-Wallpaper</v>
+        <f t="shared" si="67"/>
+        <v>«SITE-HTTP»/tag-Travel</v>
       </c>
       <c r="Y38" s="12"/>
       <c r="Z38" s="12"/>
@@ -4090,60 +4102,60 @@
     </row>
     <row r="39" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A39" s="11" t="str">
-        <f>"tag-"&amp;SUBSTITUTE(Tags!$A10," ","-")</f>
-        <v>tag-Game</v>
+        <f>"tag-"&amp;SUBSTITUTE(Tags!$A9," ","-")</f>
+        <v>tag-Wallpaper</v>
       </c>
       <c r="B39" s="25" t="str">
-        <f>Tags!$B10</f>
-        <v>Yes</v>
+        <f>Tags!$B9</f>
+        <v>No</v>
       </c>
       <c r="C39" s="25"/>
       <c r="D39" s="11" t="str">
-        <f>D$36</f>
+        <f>D$37</f>
         <v>«PAGE-FEATURED-EMPTY»</v>
       </c>
       <c r="E39" s="11" t="str">
-        <f>$E$36</f>
+        <f>E$37</f>
         <v>«FEATURED-ITEM:Filter{"Tags"-&gt;_?(StringMatchQ[#,___~~"«POST:Load»"~~___]&amp;),"Type"-&gt;_,"Day"-&gt;_?NumberQ,"Month"-&gt;_?NumberQ,"Year"-&gt;_?NumberQ}»</v>
       </c>
       <c r="F39" s="25" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="70"/>
         <v>archive</v>
       </c>
       <c r="G39" s="11" t="str">
         <f>"All"&amp;" "&amp;H39&amp;"s"</f>
-        <v>All Games</v>
+        <v>All Wallpapers</v>
       </c>
       <c r="H39" s="11" t="str">
-        <f>Tags!$A10</f>
-        <v>Game</v>
+        <f>Tags!$A9</f>
+        <v>Wallpaper</v>
       </c>
       <c r="I39" s="22"/>
       <c r="J39" s="22" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="63"/>
         <v>2018-03-02</v>
       </c>
       <c r="K39" s="22" t="str">
-        <f t="shared" ref="K39" ca="1" si="69">IF(TODAY()-DATEVALUE(J39)&lt;15,"weekly",IF(TODAY()-DATEVALUE(J39)&lt;60,"monthly","yearly"))</f>
+        <f t="shared" ca="1" si="56"/>
         <v>yearly</v>
       </c>
       <c r="L39" s="29">
-        <v>41773</v>
+        <v>43018</v>
       </c>
       <c r="M39" s="15">
-        <f t="shared" si="61"/>
-        <v>14</v>
+        <f t="shared" si="64"/>
+        <v>10</v>
       </c>
       <c r="N39" s="30">
-        <f t="shared" si="62"/>
-        <v>5</v>
+        <f t="shared" si="65"/>
+        <v>10</v>
       </c>
       <c r="O39" s="30">
-        <f t="shared" si="63"/>
-        <v>2014</v>
+        <f t="shared" si="66"/>
+        <v>2017</v>
       </c>
       <c r="P39" s="25" t="str">
-        <f t="shared" si="68"/>
+        <f t="shared" si="71"/>
         <v>Tag</v>
       </c>
       <c r="Q39" s="25" t="str">
@@ -4155,18 +4167,18 @@
         <v>42</v>
       </c>
       <c r="T39" s="11" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="68"/>
         <v>Octaflower, the Creative Archive's logo. A geometric lotus flower composed of eight rows of eight petals in rainbow progression.</v>
       </c>
       <c r="U39" s="11" t="str">
-        <f t="shared" si="66"/>
-        <v>All content classified under Game</v>
+        <f t="shared" si="69"/>
+        <v>All content classified under Wallpaper</v>
       </c>
       <c r="V39" s="12"/>
       <c r="W39" s="11"/>
       <c r="X39" s="11" t="str">
-        <f t="shared" si="64"/>
-        <v>«SITE-HTTP»/tag-Game</v>
+        <f t="shared" si="67"/>
+        <v>«SITE-HTTP»/tag-Wallpaper</v>
       </c>
       <c r="Y39" s="12"/>
       <c r="Z39" s="12"/>
@@ -4179,60 +4191,60 @@
     </row>
     <row r="40" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A40" s="11" t="str">
-        <f>"tag-"&amp;SUBSTITUTE(Tags!$A11," ","-")</f>
-        <v>tag-Sitemap</v>
+        <f>"tag-"&amp;SUBSTITUTE(Tags!$A10," ","-")</f>
+        <v>tag-Game</v>
       </c>
       <c r="B40" s="25" t="str">
-        <f>Tags!$B11</f>
+        <f>Tags!$B10</f>
         <v>Yes</v>
       </c>
       <c r="C40" s="25"/>
       <c r="D40" s="11" t="str">
-        <f>$D$33</f>
-        <v>«PAGE-SIMPLE»</v>
+        <f>D$37</f>
+        <v>«PAGE-FEATURED-EMPTY»</v>
       </c>
       <c r="E40" s="11" t="str">
-        <f>$E$33</f>
-        <v>«TAGSELECT:Filter{"Tags"-&gt;_?(StringMatchQ[#,___~~"«POST:Load»"~~___]&amp;),"Type"-&gt;_,"Day"-&gt;_?NumberQ,"Month"-&gt;_?NumberQ,"Year"-&gt;_?NumberQ}»</v>
+        <f>$E$37</f>
+        <v>«FEATURED-ITEM:Filter{"Tags"-&gt;_?(StringMatchQ[#,___~~"«POST:Load»"~~___]&amp;),"Type"-&gt;_,"Day"-&gt;_?NumberQ,"Month"-&gt;_?NumberQ,"Year"-&gt;_?NumberQ}»</v>
       </c>
       <c r="F40" s="25" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="70"/>
         <v>archive</v>
       </c>
       <c r="G40" s="11" t="str">
-        <f>"Classed as '"&amp;Tags!$A11&amp;"'"</f>
-        <v>Classed as 'Sitemap'</v>
+        <f>"All"&amp;" "&amp;H40&amp;"s"</f>
+        <v>All Games</v>
       </c>
       <c r="H40" s="11" t="str">
-        <f>Tags!$A11</f>
-        <v>Sitemap</v>
+        <f>Tags!$A10</f>
+        <v>Game</v>
       </c>
       <c r="I40" s="22"/>
       <c r="J40" s="22" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="63"/>
         <v>2018-03-02</v>
       </c>
       <c r="K40" s="22" t="str">
-        <f t="shared" ref="K40" ca="1" si="70">IF(TODAY()-DATEVALUE(J40)&lt;15,"weekly",IF(TODAY()-DATEVALUE(J40)&lt;60,"monthly","yearly"))</f>
+        <f t="shared" ref="K40" ca="1" si="72">IF(TODAY()-DATEVALUE(J40)&lt;15,"weekly",IF(TODAY()-DATEVALUE(J40)&lt;60,"monthly","yearly"))</f>
         <v>yearly</v>
       </c>
       <c r="L40" s="29">
-        <v>43070</v>
+        <v>41773</v>
       </c>
       <c r="M40" s="15">
-        <f t="shared" si="61"/>
-        <v>1</v>
+        <f t="shared" si="64"/>
+        <v>14</v>
       </c>
       <c r="N40" s="30">
-        <f t="shared" si="62"/>
-        <v>12</v>
+        <f t="shared" si="65"/>
+        <v>5</v>
       </c>
       <c r="O40" s="30">
-        <f t="shared" si="63"/>
-        <v>2017</v>
+        <f t="shared" si="66"/>
+        <v>2014</v>
       </c>
       <c r="P40" s="25" t="str">
-        <f t="shared" si="68"/>
+        <f t="shared" si="71"/>
         <v>Tag</v>
       </c>
       <c r="Q40" s="25" t="str">
@@ -4244,18 +4256,18 @@
         <v>42</v>
       </c>
       <c r="T40" s="11" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="68"/>
         <v>Octaflower, the Creative Archive's logo. A geometric lotus flower composed of eight rows of eight petals in rainbow progression.</v>
       </c>
       <c r="U40" s="11" t="str">
-        <f t="shared" si="66"/>
-        <v>All content classified under Sitemap</v>
+        <f t="shared" si="69"/>
+        <v>All content classified under Game</v>
       </c>
       <c r="V40" s="12"/>
       <c r="W40" s="11"/>
       <c r="X40" s="11" t="str">
-        <f t="shared" si="64"/>
-        <v>«SITE-HTTP»/tag-Sitemap</v>
+        <f t="shared" si="67"/>
+        <v>«SITE-HTTP»/tag-Game</v>
       </c>
       <c r="Y40" s="12"/>
       <c r="Z40" s="12"/>
@@ -4268,60 +4280,60 @@
     </row>
     <row r="41" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A41" s="11" t="str">
-        <f>"tag-"&amp;SUBSTITUTE(Tags!$A12," ","-")</f>
-        <v>tag-Class</v>
+        <f>"tag-"&amp;SUBSTITUTE(Tags!$A11," ","-")</f>
+        <v>tag-Sitemap</v>
       </c>
       <c r="B41" s="25" t="str">
-        <f>Tags!$B12</f>
-        <v>No</v>
+        <f>Tags!$B11</f>
+        <v>Yes</v>
       </c>
       <c r="C41" s="25"/>
       <c r="D41" s="11" t="str">
-        <f>$D$33</f>
+        <f>$D$34</f>
         <v>«PAGE-SIMPLE»</v>
       </c>
       <c r="E41" s="11" t="str">
-        <f>$E$33</f>
+        <f>$E$34</f>
         <v>«TAGSELECT:Filter{"Tags"-&gt;_?(StringMatchQ[#,___~~"«POST:Load»"~~___]&amp;),"Type"-&gt;_,"Day"-&gt;_?NumberQ,"Month"-&gt;_?NumberQ,"Year"-&gt;_?NumberQ}»</v>
       </c>
       <c r="F41" s="25" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="70"/>
         <v>archive</v>
       </c>
       <c r="G41" s="11" t="str">
-        <f>"All"&amp;" "&amp;H41&amp;"es"</f>
-        <v>All Classes</v>
+        <f>"Classed as '"&amp;Tags!$A11&amp;"'"</f>
+        <v>Classed as 'Sitemap'</v>
       </c>
       <c r="H41" s="11" t="str">
-        <f>Tags!$A12</f>
-        <v>Class</v>
+        <f>Tags!$A11</f>
+        <v>Sitemap</v>
       </c>
       <c r="I41" s="22"/>
       <c r="J41" s="22" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="63"/>
         <v>2018-03-02</v>
       </c>
       <c r="K41" s="22" t="str">
-        <f t="shared" ref="K41" ca="1" si="71">IF(TODAY()-DATEVALUE(J41)&lt;15,"weekly",IF(TODAY()-DATEVALUE(J41)&lt;60,"monthly","yearly"))</f>
+        <f t="shared" ref="K41" ca="1" si="73">IF(TODAY()-DATEVALUE(J41)&lt;15,"weekly",IF(TODAY()-DATEVALUE(J41)&lt;60,"monthly","yearly"))</f>
         <v>yearly</v>
       </c>
       <c r="L41" s="29">
-        <v>41773</v>
+        <v>43070</v>
       </c>
       <c r="M41" s="15">
-        <f t="shared" si="61"/>
-        <v>14</v>
+        <f t="shared" si="64"/>
+        <v>1</v>
       </c>
       <c r="N41" s="30">
-        <f t="shared" si="62"/>
-        <v>5</v>
+        <f t="shared" si="65"/>
+        <v>12</v>
       </c>
       <c r="O41" s="30">
-        <f t="shared" si="63"/>
-        <v>2014</v>
+        <f t="shared" si="66"/>
+        <v>2017</v>
       </c>
       <c r="P41" s="25" t="str">
-        <f t="shared" si="68"/>
+        <f t="shared" si="71"/>
         <v>Tag</v>
       </c>
       <c r="Q41" s="25" t="str">
@@ -4333,18 +4345,18 @@
         <v>42</v>
       </c>
       <c r="T41" s="11" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="68"/>
         <v>Octaflower, the Creative Archive's logo. A geometric lotus flower composed of eight rows of eight petals in rainbow progression.</v>
       </c>
       <c r="U41" s="11" t="str">
-        <f t="shared" si="66"/>
-        <v>All content classified under Class</v>
+        <f t="shared" si="69"/>
+        <v>All content classified under Sitemap</v>
       </c>
       <c r="V41" s="12"/>
       <c r="W41" s="11"/>
       <c r="X41" s="11" t="str">
-        <f t="shared" si="64"/>
-        <v>«SITE-HTTP»/tag-Class</v>
+        <f t="shared" si="67"/>
+        <v>«SITE-HTTP»/tag-Sitemap</v>
       </c>
       <c r="Y41" s="12"/>
       <c r="Z41" s="12"/>
@@ -4357,60 +4369,60 @@
     </row>
     <row r="42" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A42" s="11" t="str">
-        <f>"tag-"&amp;SUBSTITUTE(Tags!$A13," ","-")</f>
-        <v>tag-Nature</v>
+        <f>"tag-"&amp;SUBSTITUTE(Tags!$A12," ","-")</f>
+        <v>tag-Class</v>
       </c>
       <c r="B42" s="25" t="str">
-        <f>Tags!$B13</f>
+        <f>Tags!$B12</f>
         <v>No</v>
       </c>
       <c r="C42" s="25"/>
       <c r="D42" s="11" t="str">
-        <f>$D$33</f>
+        <f>$D$34</f>
         <v>«PAGE-SIMPLE»</v>
       </c>
       <c r="E42" s="11" t="str">
-        <f>$E$33</f>
+        <f>$E$34</f>
         <v>«TAGSELECT:Filter{"Tags"-&gt;_?(StringMatchQ[#,___~~"«POST:Load»"~~___]&amp;),"Type"-&gt;_,"Day"-&gt;_?NumberQ,"Month"-&gt;_?NumberQ,"Year"-&gt;_?NumberQ}»</v>
       </c>
       <c r="F42" s="25" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="70"/>
         <v>archive</v>
       </c>
       <c r="G42" s="11" t="str">
-        <f>"Classed as '"&amp;Tags!$A13&amp;"'"</f>
-        <v>Classed as 'Nature'</v>
+        <f>"All"&amp;" "&amp;H42&amp;"es"</f>
+        <v>All Classes</v>
       </c>
       <c r="H42" s="11" t="str">
-        <f>Tags!$A13</f>
-        <v>Nature</v>
+        <f>Tags!$A12</f>
+        <v>Class</v>
       </c>
       <c r="I42" s="22"/>
       <c r="J42" s="22" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="63"/>
         <v>2018-03-02</v>
       </c>
       <c r="K42" s="22" t="str">
-        <f t="shared" ref="K42" ca="1" si="72">IF(TODAY()-DATEVALUE(J42)&lt;15,"weekly",IF(TODAY()-DATEVALUE(J42)&lt;60,"monthly","yearly"))</f>
+        <f t="shared" ref="K42" ca="1" si="74">IF(TODAY()-DATEVALUE(J42)&lt;15,"weekly",IF(TODAY()-DATEVALUE(J42)&lt;60,"monthly","yearly"))</f>
         <v>yearly</v>
       </c>
       <c r="L42" s="29">
-        <v>43225</v>
+        <v>41773</v>
       </c>
       <c r="M42" s="15">
-        <f t="shared" ref="M42" si="73">DAY(L42)</f>
+        <f t="shared" si="64"/>
+        <v>14</v>
+      </c>
+      <c r="N42" s="30">
+        <f t="shared" si="65"/>
         <v>5</v>
       </c>
-      <c r="N42" s="30">
-        <f t="shared" ref="N42" si="74">MONTH(L42)</f>
-        <v>5</v>
-      </c>
       <c r="O42" s="30">
-        <f t="shared" ref="O42" si="75">YEAR(L42)</f>
-        <v>2018</v>
+        <f t="shared" si="66"/>
+        <v>2014</v>
       </c>
       <c r="P42" s="25" t="str">
-        <f t="shared" si="68"/>
+        <f t="shared" si="71"/>
         <v>Tag</v>
       </c>
       <c r="Q42" s="25" t="str">
@@ -4422,18 +4434,18 @@
         <v>42</v>
       </c>
       <c r="T42" s="11" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="68"/>
         <v>Octaflower, the Creative Archive's logo. A geometric lotus flower composed of eight rows of eight petals in rainbow progression.</v>
       </c>
       <c r="U42" s="11" t="str">
-        <f t="shared" ref="U42" si="76">"All content classified under "&amp;H42</f>
-        <v>All content classified under Nature</v>
+        <f t="shared" si="69"/>
+        <v>All content classified under Class</v>
       </c>
       <c r="V42" s="12"/>
       <c r="W42" s="11"/>
       <c r="X42" s="11" t="str">
-        <f t="shared" si="64"/>
-        <v>«SITE-HTTP»/tag-Nature</v>
+        <f t="shared" si="67"/>
+        <v>«SITE-HTTP»/tag-Class</v>
       </c>
       <c r="Y42" s="12"/>
       <c r="Z42" s="12"/>
@@ -4446,60 +4458,60 @@
     </row>
     <row r="43" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A43" s="11" t="str">
-        <f>"tag-"&amp;SUBSTITUTE(Tags!$A14," ","-")</f>
-        <v>tag-Role-playing</v>
+        <f>"tag-"&amp;SUBSTITUTE(Tags!$A13," ","-")</f>
+        <v>tag-Nature</v>
       </c>
       <c r="B43" s="25" t="str">
-        <f>Tags!$B14</f>
-        <v>Yes</v>
+        <f>Tags!$B13</f>
+        <v>No</v>
       </c>
       <c r="C43" s="25"/>
       <c r="D43" s="11" t="str">
-        <f>D$36</f>
-        <v>«PAGE-FEATURED-EMPTY»</v>
+        <f>$D$34</f>
+        <v>«PAGE-SIMPLE»</v>
       </c>
       <c r="E43" s="11" t="str">
-        <f>$E$36</f>
-        <v>«FEATURED-ITEM:Filter{"Tags"-&gt;_?(StringMatchQ[#,___~~"«POST:Load»"~~___]&amp;),"Type"-&gt;_,"Day"-&gt;_?NumberQ,"Month"-&gt;_?NumberQ,"Year"-&gt;_?NumberQ}»</v>
+        <f>$E$34</f>
+        <v>«TAGSELECT:Filter{"Tags"-&gt;_?(StringMatchQ[#,___~~"«POST:Load»"~~___]&amp;),"Type"-&gt;_,"Day"-&gt;_?NumberQ,"Month"-&gt;_?NumberQ,"Year"-&gt;_?NumberQ}»</v>
       </c>
       <c r="F43" s="25" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="70"/>
         <v>archive</v>
       </c>
       <c r="G43" s="11" t="str">
-        <f>"Classed as '"&amp;Tags!$A14&amp;"'"</f>
-        <v>Classed as 'Role-playing'</v>
+        <f>"Classed as '"&amp;Tags!$A13&amp;"'"</f>
+        <v>Classed as 'Nature'</v>
       </c>
       <c r="H43" s="11" t="str">
-        <f>Tags!$A14</f>
-        <v>Role-playing</v>
+        <f>Tags!$A13</f>
+        <v>Nature</v>
       </c>
       <c r="I43" s="22"/>
       <c r="J43" s="22" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="63"/>
         <v>2018-03-02</v>
       </c>
       <c r="K43" s="22" t="str">
-        <f t="shared" ref="K43" ca="1" si="77">IF(TODAY()-DATEVALUE(J43)&lt;15,"weekly",IF(TODAY()-DATEVALUE(J43)&lt;60,"monthly","yearly"))</f>
+        <f t="shared" ref="K43" ca="1" si="75">IF(TODAY()-DATEVALUE(J43)&lt;15,"weekly",IF(TODAY()-DATEVALUE(J43)&lt;60,"monthly","yearly"))</f>
         <v>yearly</v>
       </c>
       <c r="L43" s="29">
-        <v>43320</v>
+        <v>43225</v>
       </c>
       <c r="M43" s="15">
-        <f t="shared" ref="M43" si="78">DAY(L43)</f>
-        <v>8</v>
+        <f t="shared" ref="M43" si="76">DAY(L43)</f>
+        <v>5</v>
       </c>
       <c r="N43" s="30">
-        <f t="shared" ref="N43" si="79">MONTH(L43)</f>
-        <v>8</v>
+        <f t="shared" ref="N43" si="77">MONTH(L43)</f>
+        <v>5</v>
       </c>
       <c r="O43" s="30">
-        <f t="shared" ref="O43" si="80">YEAR(L43)</f>
+        <f t="shared" ref="O43" si="78">YEAR(L43)</f>
         <v>2018</v>
       </c>
       <c r="P43" s="25" t="str">
-        <f t="shared" si="68"/>
+        <f t="shared" si="71"/>
         <v>Tag</v>
       </c>
       <c r="Q43" s="25" t="str">
@@ -4511,18 +4523,18 @@
         <v>42</v>
       </c>
       <c r="T43" s="11" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="68"/>
         <v>Octaflower, the Creative Archive's logo. A geometric lotus flower composed of eight rows of eight petals in rainbow progression.</v>
       </c>
       <c r="U43" s="11" t="str">
-        <f t="shared" ref="U43" si="81">"All content classified under "&amp;H43</f>
-        <v>All content classified under Role-playing</v>
+        <f t="shared" ref="U43" si="79">"All content classified under "&amp;H43</f>
+        <v>All content classified under Nature</v>
       </c>
       <c r="V43" s="12"/>
       <c r="W43" s="11"/>
       <c r="X43" s="11" t="str">
-        <f t="shared" ref="X43" si="82">"«SITE-HTTP»/"&amp;A43</f>
-        <v>«SITE-HTTP»/tag-Role-playing</v>
+        <f t="shared" si="67"/>
+        <v>«SITE-HTTP»/tag-Nature</v>
       </c>
       <c r="Y43" s="12"/>
       <c r="Z43" s="12"/>
@@ -4535,60 +4547,60 @@
     </row>
     <row r="44" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A44" s="11" t="str">
-        <f>"tag-"&amp;SUBSTITUTE(Tags!$A15," ","-")</f>
-        <v>tag-Addon</v>
+        <f>"tag-"&amp;SUBSTITUTE(Tags!$A14," ","-")</f>
+        <v>tag-Role-playing</v>
       </c>
       <c r="B44" s="25" t="str">
-        <f>Tags!$B15</f>
-        <v>No</v>
+        <f>Tags!$B14</f>
+        <v>Yes</v>
       </c>
       <c r="C44" s="25"/>
       <c r="D44" s="11" t="str">
-        <f>$D$33</f>
-        <v>«PAGE-SIMPLE»</v>
+        <f>D$37</f>
+        <v>«PAGE-FEATURED-EMPTY»</v>
       </c>
       <c r="E44" s="11" t="str">
-        <f>$E$33</f>
-        <v>«TAGSELECT:Filter{"Tags"-&gt;_?(StringMatchQ[#,___~~"«POST:Load»"~~___]&amp;),"Type"-&gt;_,"Day"-&gt;_?NumberQ,"Month"-&gt;_?NumberQ,"Year"-&gt;_?NumberQ}»</v>
+        <f>$E$37</f>
+        <v>«FEATURED-ITEM:Filter{"Tags"-&gt;_?(StringMatchQ[#,___~~"«POST:Load»"~~___]&amp;),"Type"-&gt;_,"Day"-&gt;_?NumberQ,"Month"-&gt;_?NumberQ,"Year"-&gt;_?NumberQ}»</v>
       </c>
       <c r="F44" s="25" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="70"/>
         <v>archive</v>
       </c>
       <c r="G44" s="11" t="str">
-        <f>"All"&amp;" "&amp;H44&amp;"s"</f>
-        <v>All Addons</v>
+        <f>"Classed as '"&amp;Tags!$A14&amp;"'"</f>
+        <v>Classed as 'Role-playing'</v>
       </c>
       <c r="H44" s="11" t="str">
-        <f>Tags!$A15</f>
-        <v>Addon</v>
+        <f>Tags!$A14</f>
+        <v>Role-playing</v>
       </c>
       <c r="I44" s="22"/>
       <c r="J44" s="22" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="63"/>
         <v>2018-03-02</v>
       </c>
       <c r="K44" s="22" t="str">
-        <f t="shared" ref="K44" ca="1" si="83">IF(TODAY()-DATEVALUE(J44)&lt;15,"weekly",IF(TODAY()-DATEVALUE(J44)&lt;60,"monthly","yearly"))</f>
+        <f t="shared" ref="K44" ca="1" si="80">IF(TODAY()-DATEVALUE(J44)&lt;15,"weekly",IF(TODAY()-DATEVALUE(J44)&lt;60,"monthly","yearly"))</f>
         <v>yearly</v>
       </c>
       <c r="L44" s="29">
-        <v>43349</v>
+        <v>43320</v>
       </c>
       <c r="M44" s="15">
-        <f t="shared" ref="M44" si="84">DAY(L44)</f>
-        <v>6</v>
+        <f t="shared" ref="M44" si="81">DAY(L44)</f>
+        <v>8</v>
       </c>
       <c r="N44" s="30">
-        <f t="shared" ref="N44" si="85">MONTH(L44)</f>
-        <v>9</v>
+        <f t="shared" ref="N44" si="82">MONTH(L44)</f>
+        <v>8</v>
       </c>
       <c r="O44" s="30">
-        <f t="shared" ref="O44" si="86">YEAR(L44)</f>
+        <f t="shared" ref="O44" si="83">YEAR(L44)</f>
         <v>2018</v>
       </c>
       <c r="P44" s="25" t="str">
-        <f t="shared" si="68"/>
+        <f t="shared" si="71"/>
         <v>Tag</v>
       </c>
       <c r="Q44" s="25" t="str">
@@ -4600,18 +4612,18 @@
         <v>42</v>
       </c>
       <c r="T44" s="11" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="68"/>
         <v>Octaflower, the Creative Archive's logo. A geometric lotus flower composed of eight rows of eight petals in rainbow progression.</v>
       </c>
       <c r="U44" s="11" t="str">
-        <f t="shared" ref="U44" si="87">"All content classified under "&amp;H44</f>
-        <v>All content classified under Addon</v>
+        <f t="shared" ref="U44" si="84">"All content classified under "&amp;H44</f>
+        <v>All content classified under Role-playing</v>
       </c>
       <c r="V44" s="12"/>
       <c r="W44" s="11"/>
       <c r="X44" s="11" t="str">
-        <f t="shared" ref="X44" si="88">"«SITE-HTTP»/"&amp;A44</f>
-        <v>«SITE-HTTP»/tag-Addon</v>
+        <f t="shared" ref="X44" si="85">"«SITE-HTTP»/"&amp;A44</f>
+        <v>«SITE-HTTP»/tag-Role-playing</v>
       </c>
       <c r="Y44" s="12"/>
       <c r="Z44" s="12"/>
@@ -4622,6 +4634,184 @@
       <c r="AE44" s="12"/>
       <c r="AF44" s="12"/>
     </row>
+    <row r="45" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A45" s="11" t="str">
+        <f>"tag-"&amp;SUBSTITUTE(Tags!$A15," ","-")</f>
+        <v>tag-Add-on</v>
+      </c>
+      <c r="B45" s="25" t="str">
+        <f>Tags!$B15</f>
+        <v>No</v>
+      </c>
+      <c r="C45" s="25"/>
+      <c r="D45" s="11" t="str">
+        <f>$D$34</f>
+        <v>«PAGE-SIMPLE»</v>
+      </c>
+      <c r="E45" s="11" t="str">
+        <f>$E$34</f>
+        <v>«TAGSELECT:Filter{"Tags"-&gt;_?(StringMatchQ[#,___~~"«POST:Load»"~~___]&amp;),"Type"-&gt;_,"Day"-&gt;_?NumberQ,"Month"-&gt;_?NumberQ,"Year"-&gt;_?NumberQ}»</v>
+      </c>
+      <c r="F45" s="25" t="str">
+        <f t="shared" si="70"/>
+        <v>archive</v>
+      </c>
+      <c r="G45" s="11" t="str">
+        <f>"All"&amp;" "&amp;H45&amp;"s"</f>
+        <v>All Add-ons</v>
+      </c>
+      <c r="H45" s="11" t="str">
+        <f>Tags!$A15</f>
+        <v>Add-on</v>
+      </c>
+      <c r="I45" s="22"/>
+      <c r="J45" s="22" t="str">
+        <f t="shared" si="63"/>
+        <v>2018-03-02</v>
+      </c>
+      <c r="K45" s="22" t="str">
+        <f t="shared" ref="K45" ca="1" si="86">IF(TODAY()-DATEVALUE(J45)&lt;15,"weekly",IF(TODAY()-DATEVALUE(J45)&lt;60,"monthly","yearly"))</f>
+        <v>yearly</v>
+      </c>
+      <c r="L45" s="29">
+        <v>43349</v>
+      </c>
+      <c r="M45" s="15">
+        <f t="shared" ref="M45" si="87">DAY(L45)</f>
+        <v>6</v>
+      </c>
+      <c r="N45" s="30">
+        <f t="shared" ref="N45" si="88">MONTH(L45)</f>
+        <v>9</v>
+      </c>
+      <c r="O45" s="30">
+        <f t="shared" ref="O45" si="89">YEAR(L45)</f>
+        <v>2018</v>
+      </c>
+      <c r="P45" s="25" t="str">
+        <f t="shared" si="71"/>
+        <v>Tag</v>
+      </c>
+      <c r="Q45" s="25" t="str">
+        <f>Tags!$A$12</f>
+        <v>Class</v>
+      </c>
+      <c r="R45" s="12"/>
+      <c r="S45" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="T45" s="11" t="str">
+        <f t="shared" si="68"/>
+        <v>Octaflower, the Creative Archive's logo. A geometric lotus flower composed of eight rows of eight petals in rainbow progression.</v>
+      </c>
+      <c r="U45" s="11" t="str">
+        <f t="shared" ref="U45" si="90">"All content classified under "&amp;H45</f>
+        <v>All content classified under Add-on</v>
+      </c>
+      <c r="V45" s="12"/>
+      <c r="W45" s="11"/>
+      <c r="X45" s="11" t="str">
+        <f t="shared" ref="X45" si="91">"«SITE-HTTP»/"&amp;A45</f>
+        <v>«SITE-HTTP»/tag-Add-on</v>
+      </c>
+      <c r="Y45" s="12"/>
+      <c r="Z45" s="12"/>
+      <c r="AA45" s="12"/>
+      <c r="AB45" s="12"/>
+      <c r="AC45" s="12"/>
+      <c r="AD45" s="12"/>
+      <c r="AE45" s="12"/>
+      <c r="AF45" s="12"/>
+    </row>
+    <row r="46" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A46" s="11" t="str">
+        <f>"tag-"&amp;SUBSTITUTE(Tags!$A16," ","-")</f>
+        <v>tag-Art</v>
+      </c>
+      <c r="B46" s="25" t="str">
+        <f>Tags!$B16</f>
+        <v>Yes</v>
+      </c>
+      <c r="C46" s="25"/>
+      <c r="D46" s="11" t="str">
+        <f>$D$34</f>
+        <v>«PAGE-SIMPLE»</v>
+      </c>
+      <c r="E46" s="11" t="str">
+        <f>$E$34</f>
+        <v>«TAGSELECT:Filter{"Tags"-&gt;_?(StringMatchQ[#,___~~"«POST:Load»"~~___]&amp;),"Type"-&gt;_,"Day"-&gt;_?NumberQ,"Month"-&gt;_?NumberQ,"Year"-&gt;_?NumberQ}»</v>
+      </c>
+      <c r="F46" s="25" t="str">
+        <f t="shared" si="70"/>
+        <v>archive</v>
+      </c>
+      <c r="G46" s="11" t="str">
+        <f>"All"&amp;" "&amp;H46</f>
+        <v>All Art</v>
+      </c>
+      <c r="H46" s="11" t="str">
+        <f>Tags!$A16</f>
+        <v>Art</v>
+      </c>
+      <c r="I46" s="22"/>
+      <c r="J46" s="22" t="str">
+        <f t="shared" si="63"/>
+        <v>2018-03-02</v>
+      </c>
+      <c r="K46" s="22" t="str">
+        <f t="shared" ref="K46" ca="1" si="92">IF(TODAY()-DATEVALUE(J46)&lt;15,"weekly",IF(TODAY()-DATEVALUE(J46)&lt;60,"monthly","yearly"))</f>
+        <v>yearly</v>
+      </c>
+      <c r="L46" s="29">
+        <v>43377</v>
+      </c>
+      <c r="M46" s="15">
+        <f t="shared" ref="M46" si="93">DAY(L46)</f>
+        <v>4</v>
+      </c>
+      <c r="N46" s="30">
+        <f t="shared" ref="N46" si="94">MONTH(L46)</f>
+        <v>10</v>
+      </c>
+      <c r="O46" s="30">
+        <f t="shared" ref="O46" si="95">YEAR(L46)</f>
+        <v>2018</v>
+      </c>
+      <c r="P46" s="25" t="str">
+        <f t="shared" si="71"/>
+        <v>Tag</v>
+      </c>
+      <c r="Q46" s="25" t="str">
+        <f>Tags!$A$12</f>
+        <v>Class</v>
+      </c>
+      <c r="R46" s="12"/>
+      <c r="S46" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="T46" s="11" t="str">
+        <f t="shared" si="68"/>
+        <v>Octaflower, the Creative Archive's logo. A geometric lotus flower composed of eight rows of eight petals in rainbow progression.</v>
+      </c>
+      <c r="U46" s="11" t="str">
+        <f t="shared" ref="U46" si="96">"All content classified under "&amp;H46</f>
+        <v>All content classified under Art</v>
+      </c>
+      <c r="V46" s="12"/>
+      <c r="W46" s="11"/>
+      <c r="X46" s="11" t="str">
+        <f t="shared" ref="X46" si="97">"«SITE-HTTP»/"&amp;A46</f>
+        <v>«SITE-HTTP»/tag-Art</v>
+      </c>
+      <c r="Y46" s="12"/>
+      <c r="Z46" s="12"/>
+      <c r="AA46" s="12"/>
+      <c r="AB46" s="12"/>
+      <c r="AC46" s="12"/>
+      <c r="AD46" s="12"/>
+      <c r="AE46" s="12"/>
+      <c r="AF46" s="12"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4630,10 +4820,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4654,7 +4844,7 @@
         <v>97</v>
       </c>
       <c r="B2" s="26" t="str">
-        <f>IF(COUNTIFS(EN!$Q$1:$Q$24,"*"&amp;Tags!$A2&amp;"*",EN!$B$1:$B$24,"Yes")&gt;0,"Yes","No")</f>
+        <f>IF(COUNTIFS(EN!$Q$1:$Q$25,"*"&amp;Tags!$A2&amp;"*",EN!$B$1:$B$25,"Yes")&gt;0,"Yes","No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -4663,7 +4853,7 @@
         <v>41</v>
       </c>
       <c r="B3" s="26" t="str">
-        <f>IF(COUNTIFS(EN!$Q$1:$Q$24,"*"&amp;Tags!$A3&amp;"*",EN!$B$1:$B$24,"Yes")&gt;0,"Yes","No")</f>
+        <f>IF(COUNTIFS(EN!$Q$1:$Q$25,"*"&amp;Tags!$A3&amp;"*",EN!$B$1:$B$25,"Yes")&gt;0,"Yes","No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -4672,7 +4862,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="26" t="str">
-        <f>IF(COUNTIFS(EN!$Q$1:$Q$24,"*"&amp;Tags!$A4&amp;"*",EN!$B$1:$B$24,"Yes")&gt;0,"Yes","No")</f>
+        <f>IF(COUNTIFS(EN!$Q$1:$Q$25,"*"&amp;Tags!$A4&amp;"*",EN!$B$1:$B$25,"Yes")&gt;0,"Yes","No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -4681,7 +4871,7 @@
         <v>102</v>
       </c>
       <c r="B5" s="26" t="str">
-        <f>IF(COUNTIFS(EN!$Q$1:$Q$24,"*"&amp;Tags!$A5&amp;"*",EN!$B$1:$B$24,"Yes")&gt;0,"Yes","No")</f>
+        <f>IF(COUNTIFS(EN!$Q$1:$Q$25,"*"&amp;Tags!$A5&amp;"*",EN!$B$1:$B$25,"Yes")&gt;0,"Yes","No")</f>
         <v>No</v>
       </c>
     </row>
@@ -4690,7 +4880,7 @@
         <v>57</v>
       </c>
       <c r="B6" s="26" t="str">
-        <f>IF(COUNTIFS(EN!$Q$1:$Q$24,"*"&amp;Tags!$A6&amp;"*",EN!$B$1:$B$24,"Yes")&gt;0,"Yes","No")</f>
+        <f>IF(COUNTIFS(EN!$Q$1:$Q$25,"*"&amp;Tags!$A6&amp;"*",EN!$B$1:$B$25,"Yes")&gt;0,"Yes","No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -4699,7 +4889,7 @@
         <v>62</v>
       </c>
       <c r="B7" s="26" t="str">
-        <f>IF(COUNTIFS(EN!$Q$1:$Q$24,"*"&amp;Tags!$A7&amp;"*",EN!$B$1:$B$24,"Yes")&gt;0,"Yes","No")</f>
+        <f>IF(COUNTIFS(EN!$Q$1:$Q$25,"*"&amp;Tags!$A7&amp;"*",EN!$B$1:$B$25,"Yes")&gt;0,"Yes","No")</f>
         <v>No</v>
       </c>
     </row>
@@ -4708,7 +4898,7 @@
         <v>59</v>
       </c>
       <c r="B8" s="26" t="str">
-        <f>IF(COUNTIFS(EN!$Q$1:$Q$24,"*"&amp;Tags!$A8&amp;"*",EN!$B$1:$B$24,"Yes")&gt;0,"Yes","No")</f>
+        <f>IF(COUNTIFS(EN!$Q$1:$Q$25,"*"&amp;Tags!$A8&amp;"*",EN!$B$1:$B$25,"Yes")&gt;0,"Yes","No")</f>
         <v>No</v>
       </c>
     </row>
@@ -4717,7 +4907,7 @@
         <v>58</v>
       </c>
       <c r="B9" s="26" t="str">
-        <f>IF(COUNTIFS(EN!$Q$1:$Q$24,"*"&amp;Tags!$A9&amp;"*",EN!$B$1:$B$24,"Yes")&gt;0,"Yes","No")</f>
+        <f>IF(COUNTIFS(EN!$Q$1:$Q$25,"*"&amp;Tags!$A9&amp;"*",EN!$B$1:$B$25,"Yes")&gt;0,"Yes","No")</f>
         <v>No</v>
       </c>
     </row>
@@ -4726,7 +4916,7 @@
         <v>25</v>
       </c>
       <c r="B10" s="26" t="str">
-        <f>IF(COUNTIFS(EN!$Q$1:$Q$24,"*"&amp;Tags!$A10&amp;"*",EN!$B$1:$B$24,"Yes")&gt;0,"Yes","No")</f>
+        <f>IF(COUNTIFS(EN!$Q$1:$Q$25,"*"&amp;Tags!$A10&amp;"*",EN!$B$1:$B$25,"Yes")&gt;0,"Yes","No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -4735,7 +4925,7 @@
         <v>101</v>
       </c>
       <c r="B11" s="26" t="str">
-        <f>IF(COUNTIFS(EN!$Q$1:$Q$24,"*"&amp;Tags!$A11&amp;"*",EN!$B$1:$B$24,"Yes")&gt;0,"Yes","No")</f>
+        <f>IF(COUNTIFS(EN!$Q$1:$Q$25,"*"&amp;Tags!$A11&amp;"*",EN!$B$1:$B$25,"Yes")&gt;0,"Yes","No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -4744,7 +4934,7 @@
         <v>105</v>
       </c>
       <c r="B12" s="26" t="str">
-        <f>IF(COUNTIFS(EN!$Q$1:$Q$24,"*"&amp;Tags!$A12&amp;"*",EN!$B$1:$B$24,"Yes")&gt;0,"Yes","No")</f>
+        <f>IF(COUNTIFS(EN!$Q$1:$Q$25,"*"&amp;Tags!$A12&amp;"*",EN!$B$1:$B$25,"Yes")&gt;0,"Yes","No")</f>
         <v>No</v>
       </c>
     </row>
@@ -4753,7 +4943,7 @@
         <v>116</v>
       </c>
       <c r="B13" s="26" t="str">
-        <f>IF(COUNTIFS(EN!$Q$1:$Q$24,"*"&amp;Tags!$A13&amp;"*",EN!$B$1:$B$24,"Yes")&gt;0,"Yes","No")</f>
+        <f>IF(COUNTIFS(EN!$Q$1:$Q$25,"*"&amp;Tags!$A13&amp;"*",EN!$B$1:$B$25,"Yes")&gt;0,"Yes","No")</f>
         <v>No</v>
       </c>
     </row>
@@ -4762,17 +4952,26 @@
         <v>162</v>
       </c>
       <c r="B14" s="26" t="str">
-        <f>IF(COUNTIFS(EN!$Q$1:$Q$24,"*"&amp;Tags!$A14&amp;"*",EN!$B$1:$B$24,"Yes")&gt;0,"Yes","No")</f>
+        <f>IF(COUNTIFS(EN!$Q$1:$Q$25,"*"&amp;Tags!$A14&amp;"*",EN!$B$1:$B$25,"Yes")&gt;0,"Yes","No")</f>
         <v>Yes</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="B15" s="26" t="str">
-        <f>IF(COUNTIFS(EN!$Q$1:$Q$24,"*"&amp;Tags!$A15&amp;"*",EN!$B$1:$B$24,"Yes")&gt;0,"Yes","No")</f>
+        <f>IF(COUNTIFS(EN!$Q$1:$Q$25,"*"&amp;Tags!$A15&amp;"*",EN!$B$1:$B$25,"Yes")&gt;0,"Yes","No")</f>
         <v>No</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>172</v>
+      </c>
+      <c r="B16" s="26" t="str">
+        <f>IF(COUNTIFS(EN!$Q$1:$Q$25,"*"&amp;Tags!$A16&amp;"*",EN!$B$1:$B$25,"Yes")&gt;0,"Yes","No")</f>
+        <v>Yes</v>
       </c>
     </row>
   </sheetData>

--- a/cms/CMS.xlsx
+++ b/cms/CMS.xlsx
@@ -1010,10 +1010,10 @@
   <dimension ref="A1:AF46"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B12" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E23" sqref="E23"/>
+      <selection pane="bottomRight" activeCell="T10" sqref="T10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2154,8 +2154,8 @@
         <v>tetrastrophe.png</v>
       </c>
       <c r="T14" s="7" t="str">
-        <f>A14</f>
-        <v>tetrastrophe</v>
+        <f>G14</f>
+        <v>Tetrastrophe</v>
       </c>
       <c r="U14" s="7" t="str">
         <f>"«"&amp;A14&amp;":MarkShort»"</f>
@@ -2255,8 +2255,8 @@
         <v>blockworks.png</v>
       </c>
       <c r="T15" s="7" t="str">
-        <f>A15</f>
-        <v>blockworks</v>
+        <f t="shared" ref="T15:T23" si="23">G15</f>
+        <v>Blockworks</v>
       </c>
       <c r="U15" s="7" t="str">
         <f>"«"&amp;A15&amp;":MarkShort»"</f>
@@ -2292,21 +2292,21 @@
     </row>
     <row r="16" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A16" s="7" t="str">
-        <f t="shared" ref="A16" si="23">SUBSTITUTE(LOWER(G16)," ","-")</f>
+        <f t="shared" ref="A16" si="24">SUBSTITUTE(LOWER(G16)," ","-")</f>
         <v>whirlpuzzle</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D16" s="28" t="str">
-        <f t="shared" ref="D16:D23" si="24">$D$14</f>
+        <f t="shared" ref="D16:D23" si="25">$D$14</f>
         <v>«PAGE-GAME-FULLSCREEN»</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>77</v>
       </c>
       <c r="F16" s="28" t="str">
-        <f t="shared" ref="F16:F23" si="25">$F$14</f>
+        <f t="shared" ref="F16:F23" si="26">$F$14</f>
         <v>prose</v>
       </c>
       <c r="G16" s="2" t="s">
@@ -2331,11 +2331,11 @@
         <v>43160</v>
       </c>
       <c r="M16" s="13">
-        <f t="shared" ref="M16" si="26">DAY(L16)</f>
+        <f t="shared" ref="M16" si="27">DAY(L16)</f>
         <v>1</v>
       </c>
       <c r="N16" s="6">
-        <f t="shared" ref="N16" si="27">MONTH(L16)</f>
+        <f t="shared" ref="N16" si="28">MONTH(L16)</f>
         <v>3</v>
       </c>
       <c r="O16" s="6">
@@ -2357,8 +2357,8 @@
         <v>whirlpuzzle.png</v>
       </c>
       <c r="T16" s="7" t="str">
-        <f>A16</f>
-        <v>whirlpuzzle</v>
+        <f t="shared" si="23"/>
+        <v>Whirlpuzzle</v>
       </c>
       <c r="U16" s="7" t="str">
         <f>"«"&amp;A16&amp;":MarkShort»"</f>
@@ -2401,14 +2401,14 @@
         <v>5</v>
       </c>
       <c r="D17" s="28" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>«PAGE-GAME-FULLSCREEN»</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>38</v>
       </c>
       <c r="F17" s="28" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>prose</v>
       </c>
       <c r="G17" s="2" t="s">
@@ -2433,11 +2433,11 @@
         <v>41838</v>
       </c>
       <c r="M17" s="13">
-        <f t="shared" ref="M17" si="28">DAY(L17)</f>
+        <f t="shared" ref="M17" si="29">DAY(L17)</f>
         <v>18</v>
       </c>
       <c r="N17" s="6">
-        <f t="shared" ref="N17" si="29">MONTH(L17)</f>
+        <f t="shared" ref="N17" si="30">MONTH(L17)</f>
         <v>7</v>
       </c>
       <c r="O17" s="6">
@@ -2459,8 +2459,8 @@
         <v>unlucky-unlock.png</v>
       </c>
       <c r="T17" s="7" t="str">
-        <f>A17</f>
-        <v>unlucky-unlock</v>
+        <f t="shared" si="23"/>
+        <v>Unlucky Unlock</v>
       </c>
       <c r="U17" s="7" t="str">
         <f>"«"&amp;A17&amp;":MarkShort»"</f>
@@ -2504,14 +2504,14 @@
         <v>5</v>
       </c>
       <c r="D18" s="28" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>«PAGE-GAME-FULLSCREEN»</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>96</v>
       </c>
       <c r="F18" s="28" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>prose</v>
       </c>
       <c r="G18" s="2" t="s">
@@ -2536,11 +2536,11 @@
         <v>43179</v>
       </c>
       <c r="M18" s="13">
-        <f t="shared" ref="M18" si="30">DAY(L18)</f>
+        <f t="shared" ref="M18" si="31">DAY(L18)</f>
         <v>20</v>
       </c>
       <c r="N18" s="6">
-        <f t="shared" ref="N18" si="31">MONTH(L18)</f>
+        <f t="shared" ref="N18" si="32">MONTH(L18)</f>
         <v>3</v>
       </c>
       <c r="O18" s="6">
@@ -2562,8 +2562,8 @@
         <v>pmgrp.png</v>
       </c>
       <c r="T18" s="7" t="str">
-        <f>A18</f>
-        <v>pmgrp</v>
+        <f t="shared" si="23"/>
+        <v>Play Mini Gemini Replay (PMGRP)</v>
       </c>
       <c r="U18" s="7" t="str">
         <f>"«"&amp;A18&amp;":MarkShort»"</f>
@@ -2614,7 +2614,7 @@
         <v>«combinatura»</v>
       </c>
       <c r="I19" s="10">
-        <f>L19</f>
+        <f t="shared" ref="I19:I24" si="33">L19</f>
         <v>43287</v>
       </c>
       <c r="J19" s="10" t="str">
@@ -2629,15 +2629,15 @@
         <v>43287</v>
       </c>
       <c r="M19" s="13">
-        <f t="shared" ref="M19:M21" si="32">DAY(L19)</f>
+        <f t="shared" ref="M19:M21" si="34">DAY(L19)</f>
         <v>6</v>
       </c>
       <c r="N19" s="6">
-        <f t="shared" ref="N19:N21" si="33">MONTH(L19)</f>
+        <f t="shared" ref="N19:N21" si="35">MONTH(L19)</f>
         <v>7</v>
       </c>
       <c r="O19" s="6">
-        <f t="shared" ref="O19:O21" si="34">YEAR(L19)</f>
+        <f t="shared" ref="O19:O21" si="36">YEAR(L19)</f>
         <v>2018</v>
       </c>
       <c r="P19" s="2" t="s">
@@ -2655,8 +2655,8 @@
         <v>combinatura.png</v>
       </c>
       <c r="T19" s="7" t="str">
-        <f>Y19</f>
-        <v>combinatura</v>
+        <f t="shared" si="23"/>
+        <v>Combinatura</v>
       </c>
       <c r="U19" s="9" t="s">
         <v>119</v>
@@ -2680,32 +2680,32 @@
     </row>
     <row r="20" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A20" s="7" t="str">
-        <f t="shared" ref="A20:A22" si="35">SUBSTITUTE(LOWER(G20)," ","-")</f>
+        <f t="shared" ref="A20:A22" si="37">SUBSTITUTE(LOWER(G20)," ","-")</f>
         <v>hastefulll</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D20" s="28" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>«PAGE-GAME-FULLSCREEN»</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>131</v>
       </c>
       <c r="F20" s="28" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>prose</v>
       </c>
       <c r="G20" s="2" t="s">
         <v>128</v>
       </c>
       <c r="H20" s="7" t="str">
-        <f>"«"&amp;A20&amp;"»"</f>
+        <f t="shared" ref="H20:H25" si="38">"«"&amp;A20&amp;"»"</f>
         <v>«hastefulll»</v>
       </c>
       <c r="I20" s="10">
-        <f>L20</f>
+        <f t="shared" si="33"/>
         <v>43293</v>
       </c>
       <c r="J20" s="10" t="str">
@@ -2720,15 +2720,15 @@
         <v>43293</v>
       </c>
       <c r="M20" s="13">
-        <f t="shared" ref="M20" si="36">DAY(L20)</f>
+        <f t="shared" ref="M20" si="39">DAY(L20)</f>
         <v>12</v>
       </c>
       <c r="N20" s="6">
-        <f t="shared" ref="N20" si="37">MONTH(L20)</f>
+        <f t="shared" ref="N20" si="40">MONTH(L20)</f>
         <v>7</v>
       </c>
       <c r="O20" s="6">
-        <f t="shared" ref="O20" si="38">YEAR(L20)</f>
+        <f t="shared" ref="O20" si="41">YEAR(L20)</f>
         <v>2018</v>
       </c>
       <c r="P20" s="2" t="s">
@@ -2746,8 +2746,8 @@
         <v>hastefulll.png</v>
       </c>
       <c r="T20" s="7" t="str">
-        <f>A20</f>
-        <v>hastefulll</v>
+        <f t="shared" si="23"/>
+        <v>Hastefulll</v>
       </c>
       <c r="U20" s="7" t="str">
         <f>"«"&amp;A20&amp;":MarkShort»"</f>
@@ -2758,7 +2758,7 @@
         <v>game</v>
       </c>
       <c r="X20" s="7" t="str">
-        <f t="shared" ref="X20" si="39">"«SITE-HTTP»/"&amp;A20</f>
+        <f t="shared" ref="X20" si="42">"«SITE-HTTP»/"&amp;A20</f>
         <v>«SITE-HTTP»/hastefulll</v>
       </c>
       <c r="AA20" s="2" t="s">
@@ -2779,55 +2779,55 @@
     </row>
     <row r="21" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A21" s="7" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>tiaradventur</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D21" s="28" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>«PAGE-GAME-FULLSCREEN»</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>163</v>
       </c>
       <c r="F21" s="28" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>prose</v>
       </c>
       <c r="G21" s="2" t="s">
         <v>164</v>
       </c>
       <c r="H21" s="7" t="str">
-        <f>"«"&amp;A21&amp;"»"</f>
+        <f t="shared" si="38"/>
         <v>«tiaradventur»</v>
       </c>
       <c r="I21" s="10">
-        <f>L21</f>
+        <f t="shared" si="33"/>
         <v>43340</v>
       </c>
       <c r="J21" s="10" t="str">
-        <f t="shared" ref="J21" si="40">YEAR(I21)&amp;TEXT("-"&amp;MONTH(I21),"00")&amp;TEXT("-"&amp;DAY(I21),"00")</f>
+        <f t="shared" ref="J21" si="43">YEAR(I21)&amp;TEXT("-"&amp;MONTH(I21),"00")&amp;TEXT("-"&amp;DAY(I21),"00")</f>
         <v>2018-08-28</v>
       </c>
       <c r="K21" s="10" t="str">
-        <f t="shared" ref="K21" ca="1" si="41">IF(TODAY()-DATEVALUE(J21)&lt;15,"weekly",IF(TODAY()-DATEVALUE(J21)&lt;60,"monthly","yearly"))</f>
+        <f t="shared" ref="K21" ca="1" si="44">IF(TODAY()-DATEVALUE(J21)&lt;15,"weekly",IF(TODAY()-DATEVALUE(J21)&lt;60,"monthly","yearly"))</f>
         <v>monthly</v>
       </c>
       <c r="L21" s="3">
         <v>43340</v>
       </c>
       <c r="M21" s="13">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>28</v>
       </c>
       <c r="N21" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>8</v>
       </c>
       <c r="O21" s="6">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>2018</v>
       </c>
       <c r="P21" s="2" t="s">
@@ -2845,19 +2845,19 @@
         <v>tiaradventur.png</v>
       </c>
       <c r="T21" s="7" t="str">
-        <f>A21</f>
-        <v>tiaradventur</v>
+        <f t="shared" si="23"/>
+        <v>Tiaradventur</v>
       </c>
       <c r="U21" s="7" t="str">
         <f>"«"&amp;A21&amp;":MarkShort»"</f>
         <v>«tiaradventur:MarkShort»</v>
       </c>
       <c r="V21" s="7" t="str">
-        <f t="shared" ref="V21" si="42">IF(P21="Post","article",IF(P21="Game","game","website"))</f>
+        <f t="shared" ref="V21" si="45">IF(P21="Post","article",IF(P21="Game","game","website"))</f>
         <v>game</v>
       </c>
       <c r="X21" s="7" t="str">
-        <f t="shared" ref="X21:X22" si="43">"«SITE-HTTP»/"&amp;A21</f>
+        <f t="shared" ref="X21:X22" si="46">"«SITE-HTTP»/"&amp;A21</f>
         <v>«SITE-HTTP»/tiaradventur</v>
       </c>
       <c r="Z21" s="28" t="str">
@@ -2882,7 +2882,7 @@
     </row>
     <row r="22" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A22" s="7" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>nomadpage</v>
       </c>
       <c r="B22" s="2" t="s">
@@ -2901,34 +2901,34 @@
         <v>169</v>
       </c>
       <c r="H22" s="7" t="str">
-        <f>"«"&amp;A22&amp;"»"</f>
+        <f t="shared" si="38"/>
         <v>«nomadpage»</v>
       </c>
       <c r="I22" s="10">
-        <f>L22</f>
+        <f t="shared" si="33"/>
         <v>43349</v>
       </c>
       <c r="J22" s="10" t="str">
-        <f t="shared" ref="J22:J23" si="44">YEAR(I22)&amp;TEXT("-"&amp;MONTH(I22),"00")&amp;TEXT("-"&amp;DAY(I22),"00")</f>
+        <f t="shared" ref="J22:J23" si="47">YEAR(I22)&amp;TEXT("-"&amp;MONTH(I22),"00")&amp;TEXT("-"&amp;DAY(I22),"00")</f>
         <v>2018-09-06</v>
       </c>
       <c r="K22" s="10" t="str">
-        <f t="shared" ref="K22:K23" ca="1" si="45">IF(TODAY()-DATEVALUE(J22)&lt;15,"weekly",IF(TODAY()-DATEVALUE(J22)&lt;60,"monthly","yearly"))</f>
+        <f t="shared" ref="K22:K23" ca="1" si="48">IF(TODAY()-DATEVALUE(J22)&lt;15,"weekly",IF(TODAY()-DATEVALUE(J22)&lt;60,"monthly","yearly"))</f>
         <v>monthly</v>
       </c>
       <c r="L22" s="3">
         <v>43349</v>
       </c>
       <c r="M22" s="13">
-        <f t="shared" ref="M22:M23" si="46">DAY(L22)</f>
+        <f t="shared" ref="M22:M23" si="49">DAY(L22)</f>
         <v>6</v>
       </c>
       <c r="N22" s="6">
-        <f t="shared" ref="N22:N23" si="47">MONTH(L22)</f>
+        <f t="shared" ref="N22:N23" si="50">MONTH(L22)</f>
         <v>9</v>
       </c>
       <c r="O22" s="6">
-        <f t="shared" ref="O22:O23" si="48">YEAR(L22)</f>
+        <f t="shared" ref="O22:O23" si="51">YEAR(L22)</f>
         <v>2018</v>
       </c>
       <c r="P22" s="2" t="s">
@@ -2946,11 +2946,11 @@
         <v>nomadpage.png</v>
       </c>
       <c r="T22" s="7" t="str">
-        <f>A22</f>
-        <v>nomadpage</v>
+        <f t="shared" si="23"/>
+        <v>NomadPage</v>
       </c>
       <c r="U22" s="7" t="str">
-        <f t="shared" ref="U22" si="49">"«"&amp;A22&amp;":MarkShort»"</f>
+        <f t="shared" ref="U22" si="52">"«"&amp;A22&amp;":MarkShort»"</f>
         <v>«nomadpage:MarkShort»</v>
       </c>
       <c r="V22" s="7" t="str">
@@ -2959,61 +2959,61 @@
       </c>
       <c r="W22" s="9"/>
       <c r="X22" s="9" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="46"/>
         <v>«SITE-HTTP»/nomadpage</v>
       </c>
     </row>
     <row r="23" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A23" s="7" t="str">
-        <f t="shared" ref="A23" si="50">SUBSTITUTE(LOWER(G23)," ","-")</f>
+        <f t="shared" ref="A23" si="53">SUBSTITUTE(LOWER(G23)," ","-")</f>
         <v>abxtract-tractx</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D23" s="28" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>«PAGE-GAME-FULLSCREEN»</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>174</v>
       </c>
       <c r="F23" s="28" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>prose</v>
       </c>
       <c r="G23" s="2" t="s">
         <v>171</v>
       </c>
       <c r="H23" s="7" t="str">
-        <f>"«"&amp;A23&amp;"»"</f>
+        <f t="shared" si="38"/>
         <v>«abxtract-tractx»</v>
       </c>
       <c r="I23" s="10">
-        <f>L23</f>
+        <f t="shared" si="33"/>
         <v>43377</v>
       </c>
       <c r="J23" s="10" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>2018-10-04</v>
       </c>
       <c r="K23" s="10" t="str">
-        <f t="shared" ca="1" si="45"/>
+        <f t="shared" ca="1" si="48"/>
         <v>weekly</v>
       </c>
       <c r="L23" s="3">
         <v>43377</v>
       </c>
       <c r="M23" s="13">
-        <f t="shared" si="46"/>
+        <f t="shared" si="49"/>
         <v>4</v>
       </c>
       <c r="N23" s="6">
-        <f t="shared" si="47"/>
+        <f t="shared" si="50"/>
         <v>10</v>
       </c>
       <c r="O23" s="6">
-        <f t="shared" si="48"/>
+        <f t="shared" si="51"/>
         <v>2018</v>
       </c>
       <c r="P23" s="2" t="s">
@@ -3031,19 +3031,19 @@
         <v>abxtract-tractx.png</v>
       </c>
       <c r="T23" s="7" t="str">
-        <f>A23</f>
-        <v>abxtract-tractx</v>
+        <f t="shared" si="23"/>
+        <v>Abxtract Tractx</v>
       </c>
       <c r="U23" s="7" t="str">
         <f>"«"&amp;A23&amp;":MarkShort»"</f>
         <v>«abxtract-tractx:MarkShort»</v>
       </c>
       <c r="V23" s="7" t="str">
-        <f t="shared" ref="V23" si="51">IF(P23="Post","article",IF(P23="Game","game","website"))</f>
+        <f t="shared" ref="V23" si="54">IF(P23="Post","article",IF(P23="Game","game","website"))</f>
         <v>game</v>
       </c>
       <c r="X23" s="7" t="str">
-        <f t="shared" ref="X23" si="52">"«SITE-HTTP»/"&amp;A23</f>
+        <f t="shared" ref="X23" si="55">"«SITE-HTTP»/"&amp;A23</f>
         <v>«SITE-HTTP»/abxtract-tractx</v>
       </c>
       <c r="Z23" s="28"/>
@@ -3074,11 +3074,11 @@
         <v>23</v>
       </c>
       <c r="H24" s="7" t="str">
-        <f>"«"&amp;A24&amp;"»"</f>
+        <f t="shared" si="38"/>
         <v>«terms-of-use»</v>
       </c>
       <c r="I24" s="10">
-        <f>L24</f>
+        <f t="shared" si="33"/>
         <v>43069</v>
       </c>
       <c r="J24" s="10" t="str">
@@ -3093,11 +3093,11 @@
         <v>43069</v>
       </c>
       <c r="M24" s="13">
-        <f t="shared" ref="M24" si="53">DAY(L24)</f>
+        <f t="shared" ref="M24" si="56">DAY(L24)</f>
         <v>30</v>
       </c>
       <c r="N24" s="6">
-        <f t="shared" ref="N24" si="54">MONTH(L24)</f>
+        <f t="shared" ref="N24" si="57">MONTH(L24)</f>
         <v>11</v>
       </c>
       <c r="O24" s="6">
@@ -3130,7 +3130,7 @@
         <v>article</v>
       </c>
       <c r="X24" s="7" t="str">
-        <f t="shared" ref="X24:X31" si="55">"«SITE-HTTP»/"&amp;A24</f>
+        <f t="shared" ref="X24:X31" si="58">"«SITE-HTTP»/"&amp;A24</f>
         <v>«SITE-HTTP»/terms-of-use</v>
       </c>
     </row>
@@ -3153,7 +3153,7 @@
         <v>55</v>
       </c>
       <c r="H25" s="7" t="str">
-        <f>"«"&amp;A25&amp;"»"</f>
+        <f t="shared" si="38"/>
         <v>«privacy-policy»</v>
       </c>
       <c r="I25" s="16">
@@ -3164,18 +3164,18 @@
         <v>2018-03-10</v>
       </c>
       <c r="K25" s="10" t="str">
-        <f t="shared" ref="K25:K39" ca="1" si="56">IF(TODAY()-DATEVALUE(J25)&lt;15,"weekly",IF(TODAY()-DATEVALUE(J25)&lt;60,"monthly","yearly"))</f>
+        <f t="shared" ref="K25:K39" ca="1" si="59">IF(TODAY()-DATEVALUE(J25)&lt;15,"weekly",IF(TODAY()-DATEVALUE(J25)&lt;60,"monthly","yearly"))</f>
         <v>yearly</v>
       </c>
       <c r="L25" s="3">
         <v>43141</v>
       </c>
       <c r="M25" s="13">
-        <f t="shared" ref="M25" si="57">DAY(L25)</f>
+        <f t="shared" ref="M25" si="60">DAY(L25)</f>
         <v>10</v>
       </c>
       <c r="N25" s="6">
-        <f t="shared" ref="N25" si="58">MONTH(L25)</f>
+        <f t="shared" ref="N25" si="61">MONTH(L25)</f>
         <v>2</v>
       </c>
       <c r="O25" s="6">
@@ -3208,7 +3208,7 @@
         <v>article</v>
       </c>
       <c r="X25" s="7" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="58"/>
         <v>«SITE-HTTP»/privacy-policy</v>
       </c>
     </row>
@@ -3270,7 +3270,7 @@
         <v>website</v>
       </c>
       <c r="X26" s="7" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="58"/>
         <v>«SITE-HTTP»/posts-by-date</v>
       </c>
     </row>
@@ -3332,7 +3332,7 @@
         <v>website</v>
       </c>
       <c r="X27" s="7" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="58"/>
         <v>«SITE-HTTP»/posts-by-tag</v>
       </c>
     </row>
@@ -3371,15 +3371,15 @@
         <v>43141</v>
       </c>
       <c r="M28" s="13">
-        <f t="shared" ref="M28" si="59">DAY(L28)</f>
+        <f t="shared" ref="M28" si="62">DAY(L28)</f>
         <v>10</v>
       </c>
       <c r="N28" s="6">
-        <f t="shared" ref="N28" si="60">MONTH(L28)</f>
+        <f t="shared" ref="N28" si="63">MONTH(L28)</f>
         <v>2</v>
       </c>
       <c r="O28" s="6">
-        <f t="shared" ref="O28" si="61">YEAR(L28)</f>
+        <f t="shared" ref="O28" si="64">YEAR(L28)</f>
         <v>2018</v>
       </c>
       <c r="P28" s="2" t="s">
@@ -3407,7 +3407,7 @@
         <v>website</v>
       </c>
       <c r="X28" s="7" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="58"/>
         <v>«SITE-HTTP»/games</v>
       </c>
     </row>
@@ -3426,7 +3426,7 @@
         <v>90</v>
       </c>
       <c r="X29" s="9" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="58"/>
         <v>«SITE-HTTP»/robots</v>
       </c>
     </row>
@@ -3448,7 +3448,7 @@
         <v>82</v>
       </c>
       <c r="X30" s="9" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="58"/>
         <v>«SITE-HTTP»/sitemap</v>
       </c>
     </row>
@@ -3468,7 +3468,7 @@
         <v>2018-03-02</v>
       </c>
       <c r="K31" s="10" t="str">
-        <f t="shared" ref="K31" ca="1" si="62">IF(TODAY()-DATEVALUE(J31)&lt;15,"weekly",IF(TODAY()-DATEVALUE(J31)&lt;60,"monthly","yearly"))</f>
+        <f t="shared" ref="K31" ca="1" si="65">IF(TODAY()-DATEVALUE(J31)&lt;15,"weekly",IF(TODAY()-DATEVALUE(J31)&lt;60,"monthly","yearly"))</f>
         <v>yearly</v>
       </c>
       <c r="L31" s="21"/>
@@ -3477,7 +3477,7 @@
         <v>82</v>
       </c>
       <c r="X31" s="9" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="58"/>
         <v>«SITE-HTTP»/rss</v>
       </c>
     </row>
@@ -3512,26 +3512,26 @@
       </c>
       <c r="I32" s="22"/>
       <c r="J32" s="22" t="str">
-        <f t="shared" ref="J32:J46" si="63">YEAR($J$10)&amp;TEXT("-"&amp;MONTH($J$10),"00")&amp;TEXT("-"&amp;DAY($J$10),"00")</f>
+        <f t="shared" ref="J32:J46" si="66">YEAR($J$10)&amp;TEXT("-"&amp;MONTH($J$10),"00")&amp;TEXT("-"&amp;DAY($J$10),"00")</f>
         <v>2018-03-02</v>
       </c>
       <c r="K32" s="22" t="str">
-        <f t="shared" ca="1" si="56"/>
+        <f t="shared" ca="1" si="59"/>
         <v>yearly</v>
       </c>
       <c r="L32" s="29">
         <v>41773</v>
       </c>
       <c r="M32" s="15">
-        <f t="shared" ref="M32:M42" si="64">DAY(L32)</f>
+        <f t="shared" ref="M32:M42" si="67">DAY(L32)</f>
         <v>14</v>
       </c>
       <c r="N32" s="30">
-        <f t="shared" ref="N32:N42" si="65">MONTH(L32)</f>
+        <f t="shared" ref="N32:N42" si="68">MONTH(L32)</f>
         <v>5</v>
       </c>
       <c r="O32" s="30">
-        <f t="shared" ref="O32:O42" si="66">YEAR(L32)</f>
+        <f t="shared" ref="O32:O42" si="69">YEAR(L32)</f>
         <v>2014</v>
       </c>
       <c r="P32" s="12" t="s">
@@ -3556,7 +3556,7 @@
       <c r="V32" s="12"/>
       <c r="W32" s="11"/>
       <c r="X32" s="11" t="str">
-        <f t="shared" ref="X32:X43" si="67">"«SITE-HTTP»/"&amp;A32</f>
+        <f t="shared" ref="X32:X43" si="70">"«SITE-HTTP»/"&amp;A32</f>
         <v>«SITE-HTTP»/tag-Platformer</v>
       </c>
       <c r="Y32" s="12"/>
@@ -3600,26 +3600,26 @@
       </c>
       <c r="I33" s="22"/>
       <c r="J33" s="22" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="66"/>
         <v>2018-03-02</v>
       </c>
       <c r="K33" s="22" t="str">
-        <f t="shared" ca="1" si="56"/>
+        <f t="shared" ca="1" si="59"/>
         <v>yearly</v>
       </c>
       <c r="L33" s="29">
         <v>41773</v>
       </c>
       <c r="M33" s="15">
-        <f t="shared" si="64"/>
+        <f t="shared" si="67"/>
         <v>14</v>
       </c>
       <c r="N33" s="30">
-        <f t="shared" si="65"/>
+        <f t="shared" si="68"/>
         <v>5</v>
       </c>
       <c r="O33" s="30">
-        <f t="shared" si="66"/>
+        <f t="shared" si="69"/>
         <v>2014</v>
       </c>
       <c r="P33" s="25" t="str">
@@ -3635,17 +3635,17 @@
         <v>42</v>
       </c>
       <c r="T33" s="11" t="str">
-        <f t="shared" ref="T33:T46" si="68">$T$9</f>
+        <f t="shared" ref="T33:T46" si="71">$T$9</f>
         <v>Octaflower, the Creative Archive's logo. A geometric lotus flower composed of eight rows of eight petals in rainbow progression.</v>
       </c>
       <c r="U33" s="11" t="str">
-        <f t="shared" ref="U33:U42" si="69">"All content classified under "&amp;H33</f>
+        <f t="shared" ref="U33:U42" si="72">"All content classified under "&amp;H33</f>
         <v>All content classified under Puzzle</v>
       </c>
       <c r="V33" s="12"/>
       <c r="W33" s="11"/>
       <c r="X33" s="11" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="70"/>
         <v>«SITE-HTTP»/tag-Puzzle</v>
       </c>
       <c r="Y33" s="12"/>
@@ -3674,7 +3674,7 @@
         <v>103</v>
       </c>
       <c r="F34" s="25" t="str">
-        <f t="shared" ref="F34:F46" si="70">F$32</f>
+        <f t="shared" ref="F34:F46" si="73">F$32</f>
         <v>archive</v>
       </c>
       <c r="G34" s="11" t="str">
@@ -3687,30 +3687,30 @@
       </c>
       <c r="I34" s="22"/>
       <c r="J34" s="22" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="66"/>
         <v>2018-03-02</v>
       </c>
       <c r="K34" s="22" t="str">
-        <f t="shared" ca="1" si="56"/>
+        <f t="shared" ca="1" si="59"/>
         <v>yearly</v>
       </c>
       <c r="L34" s="29">
         <v>43070</v>
       </c>
       <c r="M34" s="15">
-        <f t="shared" si="64"/>
+        <f t="shared" si="67"/>
         <v>1</v>
       </c>
       <c r="N34" s="30">
-        <f t="shared" si="65"/>
+        <f t="shared" si="68"/>
         <v>12</v>
       </c>
       <c r="O34" s="30">
-        <f t="shared" si="66"/>
+        <f t="shared" si="69"/>
         <v>2017</v>
       </c>
       <c r="P34" s="25" t="str">
-        <f t="shared" ref="P34:P46" si="71">$P$32</f>
+        <f t="shared" ref="P34:P46" si="74">$P$32</f>
         <v>Tag</v>
       </c>
       <c r="Q34" s="25" t="str">
@@ -3722,17 +3722,17 @@
         <v>42</v>
       </c>
       <c r="T34" s="11" t="str">
-        <f t="shared" si="68"/>
+        <f t="shared" si="71"/>
         <v>Octaflower, the Creative Archive's logo. A geometric lotus flower composed of eight rows of eight petals in rainbow progression.</v>
       </c>
       <c r="U34" s="11" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="72"/>
         <v>All content classified under Post</v>
       </c>
       <c r="V34" s="12"/>
       <c r="W34" s="11"/>
       <c r="X34" s="11" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="70"/>
         <v>«SITE-HTTP»/tag-Post</v>
       </c>
       <c r="Y34" s="12"/>
@@ -3763,7 +3763,7 @@
         <v>«TAGSELECT:Filter{"Tags"-&gt;_?(StringMatchQ[#,___~~"«POST:Load»"~~___]&amp;),"Type"-&gt;_,"Day"-&gt;_?NumberQ,"Month"-&gt;_?NumberQ,"Year"-&gt;_?NumberQ}»</v>
       </c>
       <c r="F35" s="25" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="73"/>
         <v>archive</v>
       </c>
       <c r="G35" s="11" t="str">
@@ -3776,30 +3776,30 @@
       </c>
       <c r="I35" s="22"/>
       <c r="J35" s="22" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="66"/>
         <v>2018-03-02</v>
       </c>
       <c r="K35" s="22" t="str">
-        <f t="shared" ca="1" si="56"/>
+        <f t="shared" ca="1" si="59"/>
         <v>yearly</v>
       </c>
       <c r="L35" s="29">
         <v>43139</v>
       </c>
       <c r="M35" s="15">
-        <f t="shared" si="64"/>
+        <f t="shared" si="67"/>
         <v>8</v>
       </c>
       <c r="N35" s="30">
-        <f t="shared" si="65"/>
+        <f t="shared" si="68"/>
         <v>2</v>
       </c>
       <c r="O35" s="30">
-        <f t="shared" si="66"/>
+        <f t="shared" si="69"/>
         <v>2018</v>
       </c>
       <c r="P35" s="25" t="str">
-        <f t="shared" si="71"/>
+        <f t="shared" si="74"/>
         <v>Tag</v>
       </c>
       <c r="Q35" s="25" t="str">
@@ -3811,17 +3811,17 @@
         <v>42</v>
       </c>
       <c r="T35" s="11" t="str">
-        <f t="shared" si="68"/>
+        <f t="shared" si="71"/>
         <v>Octaflower, the Creative Archive's logo. A geometric lotus flower composed of eight rows of eight petals in rainbow progression.</v>
       </c>
       <c r="U35" s="11" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="72"/>
         <v>All content classified under Finance</v>
       </c>
       <c r="V35" s="12"/>
       <c r="W35" s="11"/>
       <c r="X35" s="11" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="70"/>
         <v>«SITE-HTTP»/tag-Finance</v>
       </c>
       <c r="Y35" s="12"/>
@@ -3852,7 +3852,7 @@
         <v>«TAGSELECT:Filter{"Tags"-&gt;_?(StringMatchQ[#,___~~"«POST:Load»"~~___]&amp;),"Type"-&gt;_,"Day"-&gt;_?NumberQ,"Month"-&gt;_?NumberQ,"Year"-&gt;_?NumberQ}»</v>
       </c>
       <c r="F36" s="25" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="73"/>
         <v>archive</v>
       </c>
       <c r="G36" s="11" t="str">
@@ -3865,30 +3865,30 @@
       </c>
       <c r="I36" s="22"/>
       <c r="J36" s="22" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="66"/>
         <v>2018-03-02</v>
       </c>
       <c r="K36" s="22" t="str">
-        <f t="shared" ca="1" si="56"/>
+        <f t="shared" ca="1" si="59"/>
         <v>yearly</v>
       </c>
       <c r="L36" s="29">
         <v>43069</v>
       </c>
       <c r="M36" s="15">
-        <f t="shared" si="64"/>
+        <f t="shared" si="67"/>
         <v>30</v>
       </c>
       <c r="N36" s="30">
-        <f t="shared" si="65"/>
+        <f t="shared" si="68"/>
         <v>11</v>
       </c>
       <c r="O36" s="30">
-        <f t="shared" si="66"/>
+        <f t="shared" si="69"/>
         <v>2017</v>
       </c>
       <c r="P36" s="25" t="str">
-        <f t="shared" si="71"/>
+        <f t="shared" si="74"/>
         <v>Tag</v>
       </c>
       <c r="Q36" s="25" t="str">
@@ -3900,17 +3900,17 @@
         <v>42</v>
       </c>
       <c r="T36" s="11" t="str">
-        <f t="shared" si="68"/>
+        <f t="shared" si="71"/>
         <v>Octaflower, the Creative Archive's logo. A geometric lotus flower composed of eight rows of eight petals in rainbow progression.</v>
       </c>
       <c r="U36" s="11" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="72"/>
         <v>All content classified under Creative-Archive</v>
       </c>
       <c r="V36" s="12"/>
       <c r="W36" s="11"/>
       <c r="X36" s="11" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="70"/>
         <v>«SITE-HTTP»/tag-Creative-Archive</v>
       </c>
       <c r="Y36" s="12"/>
@@ -3941,7 +3941,7 @@
         <v>108</v>
       </c>
       <c r="F37" s="25" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="73"/>
         <v>archive</v>
       </c>
       <c r="G37" s="11" t="str">
@@ -3954,30 +3954,30 @@
       </c>
       <c r="I37" s="22"/>
       <c r="J37" s="22" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="66"/>
         <v>2018-03-02</v>
       </c>
       <c r="K37" s="22" t="str">
-        <f t="shared" ca="1" si="56"/>
+        <f t="shared" ca="1" si="59"/>
         <v>yearly</v>
       </c>
       <c r="L37" s="29">
         <v>43018</v>
       </c>
       <c r="M37" s="15">
-        <f t="shared" si="64"/>
+        <f t="shared" si="67"/>
         <v>10</v>
       </c>
       <c r="N37" s="30">
-        <f t="shared" si="65"/>
+        <f t="shared" si="68"/>
         <v>10</v>
       </c>
       <c r="O37" s="30">
-        <f t="shared" si="66"/>
+        <f t="shared" si="69"/>
         <v>2017</v>
       </c>
       <c r="P37" s="25" t="str">
-        <f t="shared" si="71"/>
+        <f t="shared" si="74"/>
         <v>Tag</v>
       </c>
       <c r="Q37" s="25" t="str">
@@ -3989,17 +3989,17 @@
         <v>42</v>
       </c>
       <c r="T37" s="11" t="str">
-        <f t="shared" si="68"/>
+        <f t="shared" si="71"/>
         <v>Octaflower, the Creative Archive's logo. A geometric lotus flower composed of eight rows of eight petals in rainbow progression.</v>
       </c>
       <c r="U37" s="11" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="72"/>
         <v>All content classified under Mosaic</v>
       </c>
       <c r="V37" s="12"/>
       <c r="W37" s="11"/>
       <c r="X37" s="11" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="70"/>
         <v>«SITE-HTTP»/tag-Mosaic</v>
       </c>
       <c r="Y37" s="12"/>
@@ -4030,7 +4030,7 @@
         <v>«TAGSELECT:Filter{"Tags"-&gt;_?(StringMatchQ[#,___~~"«POST:Load»"~~___]&amp;),"Type"-&gt;_,"Day"-&gt;_?NumberQ,"Month"-&gt;_?NumberQ,"Year"-&gt;_?NumberQ}»</v>
       </c>
       <c r="F38" s="25" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="73"/>
         <v>archive</v>
       </c>
       <c r="G38" s="11" t="str">
@@ -4043,30 +4043,30 @@
       </c>
       <c r="I38" s="22"/>
       <c r="J38" s="22" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="66"/>
         <v>2018-03-02</v>
       </c>
       <c r="K38" s="22" t="str">
-        <f t="shared" ca="1" si="56"/>
+        <f t="shared" ca="1" si="59"/>
         <v>yearly</v>
       </c>
       <c r="L38" s="29">
         <v>43018</v>
       </c>
       <c r="M38" s="15">
-        <f t="shared" si="64"/>
+        <f t="shared" si="67"/>
         <v>10</v>
       </c>
       <c r="N38" s="30">
-        <f t="shared" si="65"/>
+        <f t="shared" si="68"/>
         <v>10</v>
       </c>
       <c r="O38" s="30">
-        <f t="shared" si="66"/>
+        <f t="shared" si="69"/>
         <v>2017</v>
       </c>
       <c r="P38" s="25" t="str">
-        <f t="shared" si="71"/>
+        <f t="shared" si="74"/>
         <v>Tag</v>
       </c>
       <c r="Q38" s="25" t="str">
@@ -4078,17 +4078,17 @@
         <v>42</v>
       </c>
       <c r="T38" s="11" t="str">
-        <f t="shared" si="68"/>
+        <f t="shared" si="71"/>
         <v>Octaflower, the Creative Archive's logo. A geometric lotus flower composed of eight rows of eight petals in rainbow progression.</v>
       </c>
       <c r="U38" s="11" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="72"/>
         <v>All content classified under Travel</v>
       </c>
       <c r="V38" s="12"/>
       <c r="W38" s="11"/>
       <c r="X38" s="11" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="70"/>
         <v>«SITE-HTTP»/tag-Travel</v>
       </c>
       <c r="Y38" s="12"/>
@@ -4119,7 +4119,7 @@
         <v>«FEATURED-ITEM:Filter{"Tags"-&gt;_?(StringMatchQ[#,___~~"«POST:Load»"~~___]&amp;),"Type"-&gt;_,"Day"-&gt;_?NumberQ,"Month"-&gt;_?NumberQ,"Year"-&gt;_?NumberQ}»</v>
       </c>
       <c r="F39" s="25" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="73"/>
         <v>archive</v>
       </c>
       <c r="G39" s="11" t="str">
@@ -4132,30 +4132,30 @@
       </c>
       <c r="I39" s="22"/>
       <c r="J39" s="22" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="66"/>
         <v>2018-03-02</v>
       </c>
       <c r="K39" s="22" t="str">
-        <f t="shared" ca="1" si="56"/>
+        <f t="shared" ca="1" si="59"/>
         <v>yearly</v>
       </c>
       <c r="L39" s="29">
         <v>43018</v>
       </c>
       <c r="M39" s="15">
-        <f t="shared" si="64"/>
+        <f t="shared" si="67"/>
         <v>10</v>
       </c>
       <c r="N39" s="30">
-        <f t="shared" si="65"/>
+        <f t="shared" si="68"/>
         <v>10</v>
       </c>
       <c r="O39" s="30">
-        <f t="shared" si="66"/>
+        <f t="shared" si="69"/>
         <v>2017</v>
       </c>
       <c r="P39" s="25" t="str">
-        <f t="shared" si="71"/>
+        <f t="shared" si="74"/>
         <v>Tag</v>
       </c>
       <c r="Q39" s="25" t="str">
@@ -4167,17 +4167,17 @@
         <v>42</v>
       </c>
       <c r="T39" s="11" t="str">
-        <f t="shared" si="68"/>
+        <f t="shared" si="71"/>
         <v>Octaflower, the Creative Archive's logo. A geometric lotus flower composed of eight rows of eight petals in rainbow progression.</v>
       </c>
       <c r="U39" s="11" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="72"/>
         <v>All content classified under Wallpaper</v>
       </c>
       <c r="V39" s="12"/>
       <c r="W39" s="11"/>
       <c r="X39" s="11" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="70"/>
         <v>«SITE-HTTP»/tag-Wallpaper</v>
       </c>
       <c r="Y39" s="12"/>
@@ -4208,7 +4208,7 @@
         <v>«FEATURED-ITEM:Filter{"Tags"-&gt;_?(StringMatchQ[#,___~~"«POST:Load»"~~___]&amp;),"Type"-&gt;_,"Day"-&gt;_?NumberQ,"Month"-&gt;_?NumberQ,"Year"-&gt;_?NumberQ}»</v>
       </c>
       <c r="F40" s="25" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="73"/>
         <v>archive</v>
       </c>
       <c r="G40" s="11" t="str">
@@ -4221,30 +4221,30 @@
       </c>
       <c r="I40" s="22"/>
       <c r="J40" s="22" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="66"/>
         <v>2018-03-02</v>
       </c>
       <c r="K40" s="22" t="str">
-        <f t="shared" ref="K40" ca="1" si="72">IF(TODAY()-DATEVALUE(J40)&lt;15,"weekly",IF(TODAY()-DATEVALUE(J40)&lt;60,"monthly","yearly"))</f>
+        <f t="shared" ref="K40" ca="1" si="75">IF(TODAY()-DATEVALUE(J40)&lt;15,"weekly",IF(TODAY()-DATEVALUE(J40)&lt;60,"monthly","yearly"))</f>
         <v>yearly</v>
       </c>
       <c r="L40" s="29">
         <v>41773</v>
       </c>
       <c r="M40" s="15">
-        <f t="shared" si="64"/>
+        <f t="shared" si="67"/>
         <v>14</v>
       </c>
       <c r="N40" s="30">
-        <f t="shared" si="65"/>
+        <f t="shared" si="68"/>
         <v>5</v>
       </c>
       <c r="O40" s="30">
-        <f t="shared" si="66"/>
+        <f t="shared" si="69"/>
         <v>2014</v>
       </c>
       <c r="P40" s="25" t="str">
-        <f t="shared" si="71"/>
+        <f t="shared" si="74"/>
         <v>Tag</v>
       </c>
       <c r="Q40" s="25" t="str">
@@ -4256,17 +4256,17 @@
         <v>42</v>
       </c>
       <c r="T40" s="11" t="str">
-        <f t="shared" si="68"/>
+        <f t="shared" si="71"/>
         <v>Octaflower, the Creative Archive's logo. A geometric lotus flower composed of eight rows of eight petals in rainbow progression.</v>
       </c>
       <c r="U40" s="11" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="72"/>
         <v>All content classified under Game</v>
       </c>
       <c r="V40" s="12"/>
       <c r="W40" s="11"/>
       <c r="X40" s="11" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="70"/>
         <v>«SITE-HTTP»/tag-Game</v>
       </c>
       <c r="Y40" s="12"/>
@@ -4297,7 +4297,7 @@
         <v>«TAGSELECT:Filter{"Tags"-&gt;_?(StringMatchQ[#,___~~"«POST:Load»"~~___]&amp;),"Type"-&gt;_,"Day"-&gt;_?NumberQ,"Month"-&gt;_?NumberQ,"Year"-&gt;_?NumberQ}»</v>
       </c>
       <c r="F41" s="25" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="73"/>
         <v>archive</v>
       </c>
       <c r="G41" s="11" t="str">
@@ -4310,30 +4310,30 @@
       </c>
       <c r="I41" s="22"/>
       <c r="J41" s="22" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="66"/>
         <v>2018-03-02</v>
       </c>
       <c r="K41" s="22" t="str">
-        <f t="shared" ref="K41" ca="1" si="73">IF(TODAY()-DATEVALUE(J41)&lt;15,"weekly",IF(TODAY()-DATEVALUE(J41)&lt;60,"monthly","yearly"))</f>
+        <f t="shared" ref="K41" ca="1" si="76">IF(TODAY()-DATEVALUE(J41)&lt;15,"weekly",IF(TODAY()-DATEVALUE(J41)&lt;60,"monthly","yearly"))</f>
         <v>yearly</v>
       </c>
       <c r="L41" s="29">
         <v>43070</v>
       </c>
       <c r="M41" s="15">
-        <f t="shared" si="64"/>
+        <f t="shared" si="67"/>
         <v>1</v>
       </c>
       <c r="N41" s="30">
-        <f t="shared" si="65"/>
+        <f t="shared" si="68"/>
         <v>12</v>
       </c>
       <c r="O41" s="30">
-        <f t="shared" si="66"/>
+        <f t="shared" si="69"/>
         <v>2017</v>
       </c>
       <c r="P41" s="25" t="str">
-        <f t="shared" si="71"/>
+        <f t="shared" si="74"/>
         <v>Tag</v>
       </c>
       <c r="Q41" s="25" t="str">
@@ -4345,17 +4345,17 @@
         <v>42</v>
       </c>
       <c r="T41" s="11" t="str">
-        <f t="shared" si="68"/>
+        <f t="shared" si="71"/>
         <v>Octaflower, the Creative Archive's logo. A geometric lotus flower composed of eight rows of eight petals in rainbow progression.</v>
       </c>
       <c r="U41" s="11" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="72"/>
         <v>All content classified under Sitemap</v>
       </c>
       <c r="V41" s="12"/>
       <c r="W41" s="11"/>
       <c r="X41" s="11" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="70"/>
         <v>«SITE-HTTP»/tag-Sitemap</v>
       </c>
       <c r="Y41" s="12"/>
@@ -4386,7 +4386,7 @@
         <v>«TAGSELECT:Filter{"Tags"-&gt;_?(StringMatchQ[#,___~~"«POST:Load»"~~___]&amp;),"Type"-&gt;_,"Day"-&gt;_?NumberQ,"Month"-&gt;_?NumberQ,"Year"-&gt;_?NumberQ}»</v>
       </c>
       <c r="F42" s="25" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="73"/>
         <v>archive</v>
       </c>
       <c r="G42" s="11" t="str">
@@ -4399,30 +4399,30 @@
       </c>
       <c r="I42" s="22"/>
       <c r="J42" s="22" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="66"/>
         <v>2018-03-02</v>
       </c>
       <c r="K42" s="22" t="str">
-        <f t="shared" ref="K42" ca="1" si="74">IF(TODAY()-DATEVALUE(J42)&lt;15,"weekly",IF(TODAY()-DATEVALUE(J42)&lt;60,"monthly","yearly"))</f>
+        <f t="shared" ref="K42" ca="1" si="77">IF(TODAY()-DATEVALUE(J42)&lt;15,"weekly",IF(TODAY()-DATEVALUE(J42)&lt;60,"monthly","yearly"))</f>
         <v>yearly</v>
       </c>
       <c r="L42" s="29">
         <v>41773</v>
       </c>
       <c r="M42" s="15">
-        <f t="shared" si="64"/>
+        <f t="shared" si="67"/>
         <v>14</v>
       </c>
       <c r="N42" s="30">
-        <f t="shared" si="65"/>
+        <f t="shared" si="68"/>
         <v>5</v>
       </c>
       <c r="O42" s="30">
-        <f t="shared" si="66"/>
+        <f t="shared" si="69"/>
         <v>2014</v>
       </c>
       <c r="P42" s="25" t="str">
-        <f t="shared" si="71"/>
+        <f t="shared" si="74"/>
         <v>Tag</v>
       </c>
       <c r="Q42" s="25" t="str">
@@ -4434,17 +4434,17 @@
         <v>42</v>
       </c>
       <c r="T42" s="11" t="str">
-        <f t="shared" si="68"/>
+        <f t="shared" si="71"/>
         <v>Octaflower, the Creative Archive's logo. A geometric lotus flower composed of eight rows of eight petals in rainbow progression.</v>
       </c>
       <c r="U42" s="11" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="72"/>
         <v>All content classified under Class</v>
       </c>
       <c r="V42" s="12"/>
       <c r="W42" s="11"/>
       <c r="X42" s="11" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="70"/>
         <v>«SITE-HTTP»/tag-Class</v>
       </c>
       <c r="Y42" s="12"/>
@@ -4475,7 +4475,7 @@
         <v>«TAGSELECT:Filter{"Tags"-&gt;_?(StringMatchQ[#,___~~"«POST:Load»"~~___]&amp;),"Type"-&gt;_,"Day"-&gt;_?NumberQ,"Month"-&gt;_?NumberQ,"Year"-&gt;_?NumberQ}»</v>
       </c>
       <c r="F43" s="25" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="73"/>
         <v>archive</v>
       </c>
       <c r="G43" s="11" t="str">
@@ -4488,30 +4488,30 @@
       </c>
       <c r="I43" s="22"/>
       <c r="J43" s="22" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="66"/>
         <v>2018-03-02</v>
       </c>
       <c r="K43" s="22" t="str">
-        <f t="shared" ref="K43" ca="1" si="75">IF(TODAY()-DATEVALUE(J43)&lt;15,"weekly",IF(TODAY()-DATEVALUE(J43)&lt;60,"monthly","yearly"))</f>
+        <f t="shared" ref="K43" ca="1" si="78">IF(TODAY()-DATEVALUE(J43)&lt;15,"weekly",IF(TODAY()-DATEVALUE(J43)&lt;60,"monthly","yearly"))</f>
         <v>yearly</v>
       </c>
       <c r="L43" s="29">
         <v>43225</v>
       </c>
       <c r="M43" s="15">
-        <f t="shared" ref="M43" si="76">DAY(L43)</f>
+        <f t="shared" ref="M43" si="79">DAY(L43)</f>
         <v>5</v>
       </c>
       <c r="N43" s="30">
-        <f t="shared" ref="N43" si="77">MONTH(L43)</f>
+        <f t="shared" ref="N43" si="80">MONTH(L43)</f>
         <v>5</v>
       </c>
       <c r="O43" s="30">
-        <f t="shared" ref="O43" si="78">YEAR(L43)</f>
+        <f t="shared" ref="O43" si="81">YEAR(L43)</f>
         <v>2018</v>
       </c>
       <c r="P43" s="25" t="str">
-        <f t="shared" si="71"/>
+        <f t="shared" si="74"/>
         <v>Tag</v>
       </c>
       <c r="Q43" s="25" t="str">
@@ -4523,17 +4523,17 @@
         <v>42</v>
       </c>
       <c r="T43" s="11" t="str">
-        <f t="shared" si="68"/>
+        <f t="shared" si="71"/>
         <v>Octaflower, the Creative Archive's logo. A geometric lotus flower composed of eight rows of eight petals in rainbow progression.</v>
       </c>
       <c r="U43" s="11" t="str">
-        <f t="shared" ref="U43" si="79">"All content classified under "&amp;H43</f>
+        <f t="shared" ref="U43" si="82">"All content classified under "&amp;H43</f>
         <v>All content classified under Nature</v>
       </c>
       <c r="V43" s="12"/>
       <c r="W43" s="11"/>
       <c r="X43" s="11" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="70"/>
         <v>«SITE-HTTP»/tag-Nature</v>
       </c>
       <c r="Y43" s="12"/>
@@ -4564,7 +4564,7 @@
         <v>«FEATURED-ITEM:Filter{"Tags"-&gt;_?(StringMatchQ[#,___~~"«POST:Load»"~~___]&amp;),"Type"-&gt;_,"Day"-&gt;_?NumberQ,"Month"-&gt;_?NumberQ,"Year"-&gt;_?NumberQ}»</v>
       </c>
       <c r="F44" s="25" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="73"/>
         <v>archive</v>
       </c>
       <c r="G44" s="11" t="str">
@@ -4577,30 +4577,30 @@
       </c>
       <c r="I44" s="22"/>
       <c r="J44" s="22" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="66"/>
         <v>2018-03-02</v>
       </c>
       <c r="K44" s="22" t="str">
-        <f t="shared" ref="K44" ca="1" si="80">IF(TODAY()-DATEVALUE(J44)&lt;15,"weekly",IF(TODAY()-DATEVALUE(J44)&lt;60,"monthly","yearly"))</f>
+        <f t="shared" ref="K44" ca="1" si="83">IF(TODAY()-DATEVALUE(J44)&lt;15,"weekly",IF(TODAY()-DATEVALUE(J44)&lt;60,"monthly","yearly"))</f>
         <v>yearly</v>
       </c>
       <c r="L44" s="29">
         <v>43320</v>
       </c>
       <c r="M44" s="15">
-        <f t="shared" ref="M44" si="81">DAY(L44)</f>
+        <f t="shared" ref="M44" si="84">DAY(L44)</f>
         <v>8</v>
       </c>
       <c r="N44" s="30">
-        <f t="shared" ref="N44" si="82">MONTH(L44)</f>
+        <f t="shared" ref="N44" si="85">MONTH(L44)</f>
         <v>8</v>
       </c>
       <c r="O44" s="30">
-        <f t="shared" ref="O44" si="83">YEAR(L44)</f>
+        <f t="shared" ref="O44" si="86">YEAR(L44)</f>
         <v>2018</v>
       </c>
       <c r="P44" s="25" t="str">
-        <f t="shared" si="71"/>
+        <f t="shared" si="74"/>
         <v>Tag</v>
       </c>
       <c r="Q44" s="25" t="str">
@@ -4612,17 +4612,17 @@
         <v>42</v>
       </c>
       <c r="T44" s="11" t="str">
-        <f t="shared" si="68"/>
+        <f t="shared" si="71"/>
         <v>Octaflower, the Creative Archive's logo. A geometric lotus flower composed of eight rows of eight petals in rainbow progression.</v>
       </c>
       <c r="U44" s="11" t="str">
-        <f t="shared" ref="U44" si="84">"All content classified under "&amp;H44</f>
+        <f t="shared" ref="U44" si="87">"All content classified under "&amp;H44</f>
         <v>All content classified under Role-playing</v>
       </c>
       <c r="V44" s="12"/>
       <c r="W44" s="11"/>
       <c r="X44" s="11" t="str">
-        <f t="shared" ref="X44" si="85">"«SITE-HTTP»/"&amp;A44</f>
+        <f t="shared" ref="X44" si="88">"«SITE-HTTP»/"&amp;A44</f>
         <v>«SITE-HTTP»/tag-Role-playing</v>
       </c>
       <c r="Y44" s="12"/>
@@ -4653,7 +4653,7 @@
         <v>«TAGSELECT:Filter{"Tags"-&gt;_?(StringMatchQ[#,___~~"«POST:Load»"~~___]&amp;),"Type"-&gt;_,"Day"-&gt;_?NumberQ,"Month"-&gt;_?NumberQ,"Year"-&gt;_?NumberQ}»</v>
       </c>
       <c r="F45" s="25" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="73"/>
         <v>archive</v>
       </c>
       <c r="G45" s="11" t="str">
@@ -4666,30 +4666,30 @@
       </c>
       <c r="I45" s="22"/>
       <c r="J45" s="22" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="66"/>
         <v>2018-03-02</v>
       </c>
       <c r="K45" s="22" t="str">
-        <f t="shared" ref="K45" ca="1" si="86">IF(TODAY()-DATEVALUE(J45)&lt;15,"weekly",IF(TODAY()-DATEVALUE(J45)&lt;60,"monthly","yearly"))</f>
+        <f t="shared" ref="K45" ca="1" si="89">IF(TODAY()-DATEVALUE(J45)&lt;15,"weekly",IF(TODAY()-DATEVALUE(J45)&lt;60,"monthly","yearly"))</f>
         <v>yearly</v>
       </c>
       <c r="L45" s="29">
         <v>43349</v>
       </c>
       <c r="M45" s="15">
-        <f t="shared" ref="M45" si="87">DAY(L45)</f>
+        <f t="shared" ref="M45" si="90">DAY(L45)</f>
         <v>6</v>
       </c>
       <c r="N45" s="30">
-        <f t="shared" ref="N45" si="88">MONTH(L45)</f>
+        <f t="shared" ref="N45" si="91">MONTH(L45)</f>
         <v>9</v>
       </c>
       <c r="O45" s="30">
-        <f t="shared" ref="O45" si="89">YEAR(L45)</f>
+        <f t="shared" ref="O45" si="92">YEAR(L45)</f>
         <v>2018</v>
       </c>
       <c r="P45" s="25" t="str">
-        <f t="shared" si="71"/>
+        <f t="shared" si="74"/>
         <v>Tag</v>
       </c>
       <c r="Q45" s="25" t="str">
@@ -4701,17 +4701,17 @@
         <v>42</v>
       </c>
       <c r="T45" s="11" t="str">
-        <f t="shared" si="68"/>
+        <f t="shared" si="71"/>
         <v>Octaflower, the Creative Archive's logo. A geometric lotus flower composed of eight rows of eight petals in rainbow progression.</v>
       </c>
       <c r="U45" s="11" t="str">
-        <f t="shared" ref="U45" si="90">"All content classified under "&amp;H45</f>
+        <f t="shared" ref="U45" si="93">"All content classified under "&amp;H45</f>
         <v>All content classified under Add-on</v>
       </c>
       <c r="V45" s="12"/>
       <c r="W45" s="11"/>
       <c r="X45" s="11" t="str">
-        <f t="shared" ref="X45" si="91">"«SITE-HTTP»/"&amp;A45</f>
+        <f t="shared" ref="X45" si="94">"«SITE-HTTP»/"&amp;A45</f>
         <v>«SITE-HTTP»/tag-Add-on</v>
       </c>
       <c r="Y45" s="12"/>
@@ -4742,7 +4742,7 @@
         <v>«TAGSELECT:Filter{"Tags"-&gt;_?(StringMatchQ[#,___~~"«POST:Load»"~~___]&amp;),"Type"-&gt;_,"Day"-&gt;_?NumberQ,"Month"-&gt;_?NumberQ,"Year"-&gt;_?NumberQ}»</v>
       </c>
       <c r="F46" s="25" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="73"/>
         <v>archive</v>
       </c>
       <c r="G46" s="11" t="str">
@@ -4755,30 +4755,30 @@
       </c>
       <c r="I46" s="22"/>
       <c r="J46" s="22" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="66"/>
         <v>2018-03-02</v>
       </c>
       <c r="K46" s="22" t="str">
-        <f t="shared" ref="K46" ca="1" si="92">IF(TODAY()-DATEVALUE(J46)&lt;15,"weekly",IF(TODAY()-DATEVALUE(J46)&lt;60,"monthly","yearly"))</f>
+        <f t="shared" ref="K46" ca="1" si="95">IF(TODAY()-DATEVALUE(J46)&lt;15,"weekly",IF(TODAY()-DATEVALUE(J46)&lt;60,"monthly","yearly"))</f>
         <v>yearly</v>
       </c>
       <c r="L46" s="29">
         <v>43377</v>
       </c>
       <c r="M46" s="15">
-        <f t="shared" ref="M46" si="93">DAY(L46)</f>
+        <f t="shared" ref="M46" si="96">DAY(L46)</f>
         <v>4</v>
       </c>
       <c r="N46" s="30">
-        <f t="shared" ref="N46" si="94">MONTH(L46)</f>
+        <f t="shared" ref="N46" si="97">MONTH(L46)</f>
         <v>10</v>
       </c>
       <c r="O46" s="30">
-        <f t="shared" ref="O46" si="95">YEAR(L46)</f>
+        <f t="shared" ref="O46" si="98">YEAR(L46)</f>
         <v>2018</v>
       </c>
       <c r="P46" s="25" t="str">
-        <f t="shared" si="71"/>
+        <f t="shared" si="74"/>
         <v>Tag</v>
       </c>
       <c r="Q46" s="25" t="str">
@@ -4790,17 +4790,17 @@
         <v>42</v>
       </c>
       <c r="T46" s="11" t="str">
-        <f t="shared" si="68"/>
+        <f t="shared" si="71"/>
         <v>Octaflower, the Creative Archive's logo. A geometric lotus flower composed of eight rows of eight petals in rainbow progression.</v>
       </c>
       <c r="U46" s="11" t="str">
-        <f t="shared" ref="U46" si="96">"All content classified under "&amp;H46</f>
+        <f t="shared" ref="U46" si="99">"All content classified under "&amp;H46</f>
         <v>All content classified under Art</v>
       </c>
       <c r="V46" s="12"/>
       <c r="W46" s="11"/>
       <c r="X46" s="11" t="str">
-        <f t="shared" ref="X46" si="97">"«SITE-HTTP»/"&amp;A46</f>
+        <f t="shared" ref="X46" si="100">"«SITE-HTTP»/"&amp;A46</f>
         <v>«SITE-HTTP»/tag-Art</v>
       </c>
       <c r="Y46" s="12"/>

--- a/cms/CMS.xlsx
+++ b/cms/CMS.xlsx
@@ -1010,10 +1010,10 @@
   <dimension ref="A1:AF46"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="Y11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="T10" sqref="T10"/>
+      <selection pane="bottomRight" activeCell="AA23" sqref="AA23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3048,7 +3048,7 @@
       </c>
       <c r="Z23" s="28"/>
       <c r="AA23" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AC23" t="s">
         <v>129</v>

--- a/cms/CMS.xlsx
+++ b/cms/CMS.xlsx
@@ -9,14 +9,13 @@
   <sheets>
     <sheet name="EN" sheetId="1" r:id="rId1"/>
     <sheet name="Tags" sheetId="4" r:id="rId2"/>
-    <sheet name="Next" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="186">
   <si>
     <t>Title</t>
   </si>
@@ -105,9 +104,6 @@
     <t>Unlucky Unlock</t>
   </si>
   <si>
-    <t>6e1e4c24d22dc93d9fdf</t>
-  </si>
-  <si>
     <t>«PAGE-BARE»</t>
   </si>
   <si>
@@ -330,9 +326,6 @@
     <t>«TAGSELECT:Filter{"Tags"-&gt;_?(StringMatchQ[#,___~~"«POST:Load»"~~___]&amp;),"Type"-&gt;_,"Day"-&gt;_?NumberQ,"Month"-&gt;_?NumberQ,"Year"-&gt;_?NumberQ}»</t>
   </si>
   <si>
-    <t>*Sitemap*</t>
-  </si>
-  <si>
     <t>Class</t>
   </si>
   <si>
@@ -516,9 +509,6 @@
     <t>GN</t>
   </si>
   <si>
-    <t>«GAME-NAVIGATION»</t>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
@@ -541,6 +531,48 @@
   </si>
   <si>
     <t>44de3ef66dcfdce30c1eec78c3ea201c</t>
+  </si>
+  <si>
+    <t>Gravirinth</t>
+  </si>
+  <si>
+    <t>77937957/F835ABD0/purchase</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>«BUTTON-PREORDER»</t>
+  </si>
+  <si>
+    <t>«NAV-LEVEL»</t>
+  </si>
+  <si>
+    <t>«NAV-SAVED»</t>
+  </si>
+  <si>
+    <t>Log</t>
+  </si>
+  <si>
+    <t>9ad4b5559a3e39d9ae0aa5829b02b473</t>
+  </si>
+  <si>
+    <t>f60664326442967c1fcd97bb36f1af94</t>
+  </si>
+  <si>
+    <t>Subscribe to «SITE-NAME» news!</t>
+  </si>
+  <si>
+    <t>Curious about «NAME»'s next project? Subscribe to «SITE-NAME» by RSS, email or join the discord group!</t>
+  </si>
+  <si>
+    <t>f9eb8a3e60ba1328a84c3e84db27563a</t>
+  </si>
+  <si>
+    <t>8c5602f47f158af57a2db271a8bf5185</t>
+  </si>
+  <si>
+    <t>Subscribe</t>
   </si>
 </sst>
 </file>
@@ -665,7 +697,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
@@ -702,6 +734,7 @@
     <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1007,13 +1040,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AF46"/>
+  <dimension ref="A1:AG50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="Y11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AA23" sqref="AA23"/>
+      <selection pane="bottomRight" activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1024,7 +1057,7 @@
     <col min="4" max="4" width="25.36328125" style="2" customWidth="1"/>
     <col min="5" max="5" width="39.90625" style="2" customWidth="1"/>
     <col min="6" max="6" width="6.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.26953125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="18.26953125" style="2" customWidth="1"/>
     <col min="8" max="8" width="21.6328125" style="7" customWidth="1"/>
     <col min="9" max="9" width="11.6328125" style="7" customWidth="1"/>
     <col min="10" max="10" width="9.7265625" style="7" customWidth="1"/>
@@ -1043,13 +1076,14 @@
     <col min="23" max="23" width="4.453125" style="7" customWidth="1"/>
     <col min="24" max="24" width="22.1796875" style="7" customWidth="1"/>
     <col min="25" max="25" width="15.90625" style="2"/>
-    <col min="26" max="26" width="25.36328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="27" max="31" width="15.90625" style="2"/>
-    <col min="32" max="32" width="23.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="33" max="16384" width="15.90625" style="2"/>
+    <col min="26" max="26" width="19.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="25.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="28" max="32" width="15.90625" style="2"/>
+    <col min="33" max="33" width="23.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="34" max="16384" width="15.90625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>10</v>
       </c>
@@ -1063,10 +1097,10 @@
         <v>15</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G1" s="5" t="s">
         <v>0</v>
@@ -1075,13 +1109,13 @@
         <v>3</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L1" s="5" t="s">
         <v>1</v>
@@ -1108,60 +1142,63 @@
         <v>7</v>
       </c>
       <c r="T1" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="U1" s="5" t="s">
         <v>11</v>
       </c>
       <c r="V1" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="W1" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="X1" s="5" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="Y1" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Z1" s="5" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="AA1" s="5" t="s">
         <v>165</v>
       </c>
       <c r="AB1" s="5" t="s">
-        <v>85</v>
+        <v>163</v>
       </c>
       <c r="AC1" s="5" t="s">
-        <v>110</v>
+        <v>84</v>
       </c>
       <c r="AD1" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="AE1" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="AF1" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="AG1" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="AE1" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="AF1" s="5" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A2" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="H2" s="7" t="str">
         <f>"«"&amp;A2&amp;"»"</f>
@@ -1206,7 +1243,7 @@
         <v>5</v>
       </c>
       <c r="S2" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="T2" s="7" t="str">
         <f>$T$9</f>
@@ -1226,9 +1263,9 @@
         <v>«SITE-HTTP»/2017-12-01-first-post</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A3" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>5</v>
@@ -1238,10 +1275,10 @@
         <v>«PAGE-POST-MD»</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H3" s="7" t="str">
         <f>"«"&amp;A3&amp;"»"</f>
@@ -1286,7 +1323,7 @@
         <v>5</v>
       </c>
       <c r="S3" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="T3" s="7" t="str">
         <f>$T$9</f>
@@ -1306,9 +1343,9 @@
         <v>«SITE-HTTP»/2018-02-08-support-the-archive</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A4" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>5</v>
@@ -1318,10 +1355,10 @@
         <v>«PAGE-POST-MD»</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H4" s="7" t="str">
         <f>"«"&amp;A4&amp;"»"</f>
@@ -1366,7 +1403,7 @@
         <v>5</v>
       </c>
       <c r="S4" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="T4" s="7" t="str">
         <f>$T$9</f>
@@ -1386,9 +1423,9 @@
         <v>«SITE-HTTP»/2018-01-04-wikipedia-donation</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A5" s="16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>5</v>
@@ -1402,13 +1439,13 @@
         <v>«fleur-de-lis»</v>
       </c>
       <c r="F5" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="H5" s="9" t="s">
         <v>68</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="H5" s="9" t="s">
-        <v>69</v>
       </c>
       <c r="I5" s="16">
         <v>43145</v>
@@ -1437,7 +1474,7 @@
         <v>2018</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Q5" s="2" t="str">
         <f>Tags!$A$16&amp;", "&amp;Tags!$A$7&amp;", "&amp;Tags!$A$8&amp;", "&amp;Tags!$A$9</f>
@@ -1451,14 +1488,14 @@
         <v>mosaic/fleur-de-lis.png</v>
       </c>
       <c r="T5" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="U5" s="7" t="str">
         <f t="shared" si="1"/>
         <v>«fleur-de-lis:MarkShort»</v>
       </c>
       <c r="V5" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="W5" s="16"/>
       <c r="X5" s="16" t="str">
@@ -1468,10 +1505,11 @@
       <c r="Y5" s="3">
         <v>42980</v>
       </c>
-    </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="Z5" s="3"/>
+    </row>
+    <row r="6" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A6" s="16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>5</v>
@@ -1485,10 +1523,10 @@
         <v>«scales»</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H6" s="7" t="str">
         <f>$H$5</f>
@@ -1529,21 +1567,21 @@
         <v>Art, Mosaic, Wallpaper</v>
       </c>
       <c r="R6" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="S6" s="7" t="str">
         <f>LOWER(P6)&amp;"/"&amp;A6&amp;".png"</f>
         <v>mosaic/scales.png</v>
       </c>
       <c r="T6" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="U6" s="7" t="str">
         <f t="shared" si="1"/>
         <v>«scales:MarkShort»</v>
       </c>
       <c r="V6" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="W6" s="16"/>
       <c r="X6" s="16" t="str">
@@ -1551,10 +1589,11 @@
         <v>«SITE-HTTP»/scales</v>
       </c>
       <c r="Y6" s="3"/>
-    </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="Z6" s="3"/>
+    </row>
+    <row r="7" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A7" s="16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>5</v>
@@ -1568,10 +1607,10 @@
         <v>«veronese»</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H7" s="7" t="str">
         <f>$H$5</f>
@@ -1604,7 +1643,7 @@
         <v>2018</v>
       </c>
       <c r="P7" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Q7" s="2" t="str">
         <f>Tags!$A$16&amp;", "&amp;Tags!$A$7&amp;", "&amp;Tags!$A$8&amp;", "&amp;Tags!$A$9</f>
@@ -1618,14 +1657,14 @@
         <v>mosaic/veronese.png</v>
       </c>
       <c r="T7" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="U7" s="7" t="str">
         <f t="shared" si="1"/>
         <v>«veronese:MarkShort»</v>
       </c>
       <c r="V7" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="W7" s="16"/>
       <c r="X7" s="16" t="str">
@@ -1635,10 +1674,11 @@
       <c r="Y7" s="3">
         <v>42982</v>
       </c>
-    </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="Z7" s="3"/>
+    </row>
+    <row r="8" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A8" s="16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>5</v>
@@ -1652,10 +1692,10 @@
         <v>«viking-carpet»</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H8" s="7" t="str">
         <f>$H$5</f>
@@ -1688,7 +1728,7 @@
         <v>2017</v>
       </c>
       <c r="P8" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Q8" s="2" t="str">
         <f>Tags!$A$16&amp;", "&amp;Tags!$A$7&amp;", "&amp;Tags!$A$8&amp;", "&amp;Tags!$A$9</f>
@@ -1702,14 +1742,14 @@
         <v>mosaic/viking-carpet.png</v>
       </c>
       <c r="T8" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="U8" s="7" t="str">
         <f t="shared" si="1"/>
         <v>«viking-carpet:MarkShort»</v>
       </c>
       <c r="V8" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="W8" s="16"/>
       <c r="X8" s="16" t="str">
@@ -1717,8 +1757,9 @@
         <v>«SITE-HTTP»/viking-carpet</v>
       </c>
       <c r="Y8" s="3"/>
-    </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="Z8" s="3"/>
+    </row>
+    <row r="9" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A9" s="7" t="str">
         <f>SUBSTITUTE(LOWER(G9)," ","-")</f>
         <v>about</v>
@@ -1738,10 +1779,10 @@
         <v>«about»</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H9" s="7" t="str">
         <f>"«"&amp;A9&amp;"»"</f>
@@ -1785,42 +1826,42 @@
         <v>5</v>
       </c>
       <c r="S9" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T9" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="U9" s="7" t="str">
         <f t="shared" si="1"/>
         <v>«about:MarkShort»</v>
       </c>
       <c r="V9" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="X9" s="7" t="str">
         <f t="shared" si="2"/>
         <v>«SITE-HTTP»/about</v>
       </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A10" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="I10" s="16"/>
       <c r="J10" s="23" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K10" s="10" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -1869,7 +1910,7 @@
         <v>«SITE-HTTP»/index</v>
       </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A11" s="7" t="str">
         <f>SUBSTITUTE(LOWER(G11)," ","-")</f>
         <v>guestbook</v>
@@ -1878,19 +1919,19 @@
         <v>6</v>
       </c>
       <c r="C11" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="H11" s="7" t="str">
         <f t="shared" ref="H11:H18" si="8">"«"&amp;A11&amp;"»"</f>
@@ -1923,7 +1964,7 @@
         <v>2018</v>
       </c>
       <c r="P11" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="Q11" s="2" t="str">
         <f>Tags!$A$6</f>
@@ -1933,14 +1974,14 @@
         <v>5</v>
       </c>
       <c r="S11" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="T11" s="7" t="str">
         <f>$T$9</f>
         <v>Octaflower, the Creative Archive's logo. A geometric lotus flower composed of eight rows of eight petals in rainbow progression.</v>
       </c>
       <c r="U11" s="9" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="V11" s="7" t="str">
         <f>IF(P11="Post","article","website")</f>
@@ -1951,7 +1992,7 @@
         <v>«SITE-HTTP»/guestbook</v>
       </c>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A12" s="7" t="str">
         <f>SUBSTITUTE(LOWER(G12)," ","-")</f>
         <v>contact</v>
@@ -1960,13 +2001,13 @@
         <v>5</v>
       </c>
       <c r="C12" s="2">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D12" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" s="4" t="s">
         <v>30</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>31</v>
       </c>
       <c r="F12" s="4"/>
       <c r="G12" s="2" t="s">
@@ -1992,14 +2033,14 @@
         <v>Creative-Archive</v>
       </c>
       <c r="S12" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="T12" s="7" t="str">
         <f>$T$9</f>
         <v>Octaflower, the Creative Archive's logo. A geometric lotus flower composed of eight rows of eight petals in rainbow progression.</v>
       </c>
       <c r="U12" s="9" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="V12" s="7" t="str">
         <f>IF(P12="Post","article","website")</f>
@@ -2010,7 +2051,7 @@
         <v>«SITE-HTTP»/contact</v>
       </c>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A13" s="7" t="str">
         <f>SUBSTITUTE(LOWER(G13)," ","-")</f>
         <v>hall-of-fame</v>
@@ -2019,16 +2060,16 @@
         <v>5</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="H13" s="7" t="str">
         <f t="shared" si="8"/>
@@ -2038,7 +2079,7 @@
         <v>43265</v>
       </c>
       <c r="J13" s="10" t="str">
-        <f t="shared" ref="J13:J25" si="14">YEAR(I13)&amp;TEXT("-"&amp;MONTH(I13),"00")&amp;TEXT("-"&amp;DAY(I13),"00")</f>
+        <f t="shared" ref="J13:J28" si="14">YEAR(I13)&amp;TEXT("-"&amp;MONTH(I13),"00")&amp;TEXT("-"&amp;DAY(I13),"00")</f>
         <v>2018-06-14</v>
       </c>
       <c r="K13" s="10" t="str">
@@ -2061,7 +2102,7 @@
         <v>2018</v>
       </c>
       <c r="P13" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="Q13" s="2" t="str">
         <f>Tags!$A$6</f>
@@ -2071,14 +2112,14 @@
         <v>5</v>
       </c>
       <c r="S13" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="T13" s="7" t="str">
         <f>$T$9</f>
         <v>Octaflower, the Creative Archive's logo. A geometric lotus flower composed of eight rows of eight petals in rainbow progression.</v>
       </c>
       <c r="U13" s="9" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="V13" s="7" t="str">
         <f>IF(P13="Post","article","website")</f>
@@ -2089,7 +2130,7 @@
         <v>«SITE-HTTP»/hall-of-fame</v>
       </c>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A14" s="7" t="str">
         <f t="shared" ref="A14:A17" si="17">SUBSTITUTE(LOWER(G14)," ","-")</f>
         <v>tetrastrophe</v>
@@ -2098,13 +2139,13 @@
         <v>5</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>39</v>
+        <v>180</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>26</v>
@@ -2136,7 +2177,7 @@
         <v>5</v>
       </c>
       <c r="O14" s="6">
-        <f t="shared" ref="O14:O25" si="19">YEAR(L14)</f>
+        <f t="shared" ref="O14:O28" si="19">YEAR(L14)</f>
         <v>2014</v>
       </c>
       <c r="P14" s="2" t="s">
@@ -2172,23 +2213,26 @@
       <c r="Y14" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="AA14" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="AC14" s="2" t="s">
-        <v>114</v>
+      <c r="Z14" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB14" s="2" t="s">
+        <v>176</v>
       </c>
       <c r="AD14" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="AE14" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="AF14" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="AE14" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="AF14" s="4" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="AG14" s="4" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="15" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A15" s="7" t="str">
         <f t="shared" si="17"/>
         <v>blockworks</v>
@@ -2201,14 +2245,14 @@
         <v>«PAGE-GAME-FULLSCREEN»</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>45</v>
+        <v>183</v>
       </c>
       <c r="F15" s="28" t="str">
         <f>$F$14</f>
         <v>prose</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H15" s="7" t="str">
         <f t="shared" si="8"/>
@@ -2255,7 +2299,7 @@
         <v>blockworks.png</v>
       </c>
       <c r="T15" s="7" t="str">
-        <f t="shared" ref="T15:T23" si="23">G15</f>
+        <f t="shared" ref="T15:T25" si="23">G15</f>
         <v>Blockworks</v>
       </c>
       <c r="U15" s="7" t="str">
@@ -2271,26 +2315,29 @@
         <v>«SITE-HTTP»/blockworks</v>
       </c>
       <c r="Y15" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="Z15"/>
-      <c r="AA15" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="AC15" s="2" t="s">
-        <v>113</v>
+        <v>44</v>
+      </c>
+      <c r="Z15" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA15"/>
+      <c r="AB15" s="2" t="s">
+        <v>176</v>
       </c>
       <c r="AD15" s="2" t="s">
-        <v>137</v>
+        <v>111</v>
       </c>
       <c r="AE15" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="AF15" s="4" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.35">
+        <v>135</v>
+      </c>
+      <c r="AF15" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="AG15" s="4" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="16" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A16" s="7" t="str">
         <f t="shared" ref="A16" si="24">SUBSTITUTE(LOWER(G16)," ","-")</f>
         <v>whirlpuzzle</v>
@@ -2303,14 +2350,14 @@
         <v>«PAGE-GAME-FULLSCREEN»</v>
       </c>
       <c r="E16" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="F16" s="28" t="str">
+        <f t="shared" ref="F16:F24" si="26">$F$14</f>
+        <v>prose</v>
+      </c>
+      <c r="G16" s="2" t="s">
         <v>77</v>
-      </c>
-      <c r="F16" s="28" t="str">
-        <f t="shared" ref="F16:F23" si="26">$F$14</f>
-        <v>prose</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>78</v>
       </c>
       <c r="H16" s="7" t="str">
         <f t="shared" si="8"/>
@@ -2350,7 +2397,7 @@
         <v>Game, Puzzle</v>
       </c>
       <c r="R16" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="S16" s="7" t="str">
         <f>A16&amp;".png"</f>
@@ -2372,27 +2419,30 @@
         <f t="shared" si="2"/>
         <v>«SITE-HTTP»/whirlpuzzle</v>
       </c>
-      <c r="Z16" s="18"/>
-      <c r="AA16" s="2" t="s">
-        <v>166</v>
-      </c>
+      <c r="Y16" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AA16" s="18"/>
       <c r="AB16" s="2" t="s">
-        <v>86</v>
+        <v>176</v>
       </c>
       <c r="AC16" s="2" t="s">
-        <v>112</v>
+        <v>85</v>
       </c>
       <c r="AD16" s="2" t="s">
-        <v>139</v>
+        <v>110</v>
       </c>
       <c r="AE16" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="AF16" s="4" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.35">
+        <v>137</v>
+      </c>
+      <c r="AF16" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="AG16" s="4" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="17" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A17" s="7" t="str">
         <f t="shared" si="17"/>
         <v>unlucky-unlock</v>
@@ -2405,7 +2455,7 @@
         <v>«PAGE-GAME-FULLSCREEN»</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>38</v>
+        <v>179</v>
       </c>
       <c r="F17" s="28" t="str">
         <f t="shared" si="26"/>
@@ -2475,30 +2525,30 @@
         <v>«SITE-HTTP»/unlucky-unlock</v>
       </c>
       <c r="Y17" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="AA17" s="2" t="s">
-        <v>166</v>
+        <v>37</v>
       </c>
       <c r="AB17" s="2" t="s">
-        <v>86</v>
+        <v>176</v>
       </c>
       <c r="AC17" s="2" t="s">
-        <v>115</v>
+        <v>85</v>
       </c>
       <c r="AD17" s="2" t="s">
-        <v>146</v>
+        <v>113</v>
       </c>
       <c r="AE17" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="AF17" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="AG17" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="AF17" s="4" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.35">
+    </row>
+    <row r="18" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A18" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>5</v>
@@ -2508,14 +2558,14 @@
         <v>«PAGE-GAME-FULLSCREEN»</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F18" s="28" t="str">
         <f t="shared" si="26"/>
         <v>prose</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H18" s="7" t="str">
         <f t="shared" si="8"/>
@@ -2577,44 +2627,47 @@
         <f t="shared" si="2"/>
         <v>«SITE-HTTP»/pmgrp</v>
       </c>
-      <c r="AA18" s="2" t="s">
-        <v>166</v>
+      <c r="AB18" s="2" t="s">
+        <v>176</v>
       </c>
       <c r="AC18" s="2" t="s">
-        <v>111</v>
+        <v>85</v>
       </c>
       <c r="AD18" s="2" t="s">
-        <v>149</v>
+        <v>109</v>
       </c>
       <c r="AE18" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="AF18" s="4" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="19" spans="1:32" x14ac:dyDescent="0.35">
+        <v>147</v>
+      </c>
+      <c r="AF18" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="AG18" s="4" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="19" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A19" s="31" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>5</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F19" s="28" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="H19" s="9" t="str">
         <f>"«combinatura»"</f>
         <v>«combinatura»</v>
       </c>
       <c r="I19" s="10">
-        <f t="shared" ref="I19:I24" si="33">L19</f>
+        <f t="shared" ref="I19:I28" si="33">L19</f>
         <v>43287</v>
       </c>
       <c r="J19" s="10" t="str">
@@ -2659,28 +2712,28 @@
         <v>Combinatura</v>
       </c>
       <c r="U19" s="9" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="V19" s="7" t="str">
         <f t="shared" si="20"/>
         <v>game</v>
       </c>
       <c r="X19" s="31" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="Y19" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="AA19" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="AC19" s="2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="20" spans="1:32" x14ac:dyDescent="0.35">
+        <v>118</v>
+      </c>
+      <c r="AB19" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="AD19" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="20" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A20" s="7" t="str">
-        <f t="shared" ref="A20:A22" si="37">SUBSTITUTE(LOWER(G20)," ","-")</f>
+        <f t="shared" ref="A20:A23" si="37">SUBSTITUTE(LOWER(G20)," ","-")</f>
         <v>hastefulll</v>
       </c>
       <c r="B20" s="2" t="s">
@@ -2691,17 +2744,17 @@
         <v>«PAGE-GAME-FULLSCREEN»</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F20" s="28" t="str">
         <f t="shared" si="26"/>
         <v>prose</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="H20" s="7" t="str">
-        <f t="shared" ref="H20:H25" si="38">"«"&amp;A20&amp;"»"</f>
+        <f t="shared" ref="H20:H28" si="38">"«"&amp;A20&amp;"»"</f>
         <v>«hastefulll»</v>
       </c>
       <c r="I20" s="10">
@@ -2739,10 +2792,10 @@
         <v>Game, Platformer, Puzzle</v>
       </c>
       <c r="R20" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="S20" s="7" t="str">
-        <f>A20&amp;".png"</f>
+        <f t="shared" ref="S20:S25" si="42">A20&amp;".png"</f>
         <v>hastefulll.png</v>
       </c>
       <c r="T20" s="7" t="str">
@@ -2758,26 +2811,29 @@
         <v>game</v>
       </c>
       <c r="X20" s="7" t="str">
-        <f t="shared" ref="X20" si="42">"«SITE-HTTP»/"&amp;A20</f>
+        <f t="shared" ref="X20" si="43">"«SITE-HTTP»/"&amp;A20</f>
         <v>«SITE-HTTP»/hastefulll</v>
       </c>
-      <c r="AA20" s="2" t="s">
-        <v>166</v>
+      <c r="AB20" s="2" t="s">
+        <v>176</v>
       </c>
       <c r="AC20" s="2" t="s">
-        <v>130</v>
+        <v>85</v>
       </c>
       <c r="AD20" s="2" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="AE20" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="AF20" s="4" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="21" spans="1:32" x14ac:dyDescent="0.35">
+        <v>140</v>
+      </c>
+      <c r="AF20" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="AG20" s="4" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="21" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A21" s="7" t="str">
         <f t="shared" si="37"/>
         <v>tiaradventur</v>
@@ -2790,14 +2846,14 @@
         <v>«PAGE-GAME-FULLSCREEN»</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F21" s="28" t="str">
         <f t="shared" si="26"/>
         <v>prose</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="H21" s="7" t="str">
         <f t="shared" si="38"/>
@@ -2808,12 +2864,12 @@
         <v>43340</v>
       </c>
       <c r="J21" s="10" t="str">
-        <f t="shared" ref="J21" si="43">YEAR(I21)&amp;TEXT("-"&amp;MONTH(I21),"00")&amp;TEXT("-"&amp;DAY(I21),"00")</f>
+        <f t="shared" ref="J21" si="44">YEAR(I21)&amp;TEXT("-"&amp;MONTH(I21),"00")&amp;TEXT("-"&amp;DAY(I21),"00")</f>
         <v>2018-08-28</v>
       </c>
       <c r="K21" s="10" t="str">
-        <f t="shared" ref="K21" ca="1" si="44">IF(TODAY()-DATEVALUE(J21)&lt;15,"weekly",IF(TODAY()-DATEVALUE(J21)&lt;60,"monthly","yearly"))</f>
-        <v>monthly</v>
+        <f t="shared" ref="K21" ca="1" si="45">IF(TODAY()-DATEVALUE(J21)&lt;15,"weekly",IF(TODAY()-DATEVALUE(J21)&lt;60,"monthly","yearly"))</f>
+        <v>yearly</v>
       </c>
       <c r="L21" s="3">
         <v>43340</v>
@@ -2841,7 +2897,7 @@
         <v>6</v>
       </c>
       <c r="S21" s="7" t="str">
-        <f>A21&amp;".png"</f>
+        <f t="shared" si="42"/>
         <v>tiaradventur.png</v>
       </c>
       <c r="T21" s="7" t="str">
@@ -2853,34 +2909,37 @@
         <v>«tiaradventur:MarkShort»</v>
       </c>
       <c r="V21" s="7" t="str">
-        <f t="shared" ref="V21" si="45">IF(P21="Post","article",IF(P21="Game","game","website"))</f>
+        <f t="shared" ref="V21" si="46">IF(P21="Post","article",IF(P21="Game","game","website"))</f>
         <v>game</v>
       </c>
       <c r="X21" s="7" t="str">
-        <f t="shared" ref="X21:X22" si="46">"«SITE-HTTP»/"&amp;A21</f>
+        <f t="shared" ref="X21:X23" si="47">"«SITE-HTTP»/"&amp;A21</f>
         <v>«SITE-HTTP»/tiaradventur</v>
       </c>
-      <c r="Z21" s="28" t="str">
+      <c r="AA21" s="28" t="str">
         <f>"«HONOURS-"&amp;UPPER(A21)&amp;"»"</f>
         <v>«HONOURS-TIARADVENTUR»</v>
       </c>
-      <c r="AA21" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="AC21" t="s">
-        <v>129</v>
-      </c>
-      <c r="AD21" s="2" t="s">
-        <v>160</v>
+      <c r="AB21" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="AC21" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="AD21" t="s">
+        <v>127</v>
       </c>
       <c r="AE21" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="AF21" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="AG21" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="AF21" s="4" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="22" spans="1:32" x14ac:dyDescent="0.35">
+    </row>
+    <row r="22" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A22" s="7" t="str">
         <f t="shared" si="37"/>
         <v>nomadpage</v>
@@ -2889,16 +2948,16 @@
         <v>5</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="H22" s="7" t="str">
         <f t="shared" si="38"/>
@@ -2909,26 +2968,26 @@
         <v>43349</v>
       </c>
       <c r="J22" s="10" t="str">
-        <f t="shared" ref="J22:J23" si="47">YEAR(I22)&amp;TEXT("-"&amp;MONTH(I22),"00")&amp;TEXT("-"&amp;DAY(I22),"00")</f>
+        <f t="shared" ref="J22:J24" si="48">YEAR(I22)&amp;TEXT("-"&amp;MONTH(I22),"00")&amp;TEXT("-"&amp;DAY(I22),"00")</f>
         <v>2018-09-06</v>
       </c>
       <c r="K22" s="10" t="str">
-        <f t="shared" ref="K22:K23" ca="1" si="48">IF(TODAY()-DATEVALUE(J22)&lt;15,"weekly",IF(TODAY()-DATEVALUE(J22)&lt;60,"monthly","yearly"))</f>
-        <v>monthly</v>
+        <f t="shared" ref="K22:K24" ca="1" si="49">IF(TODAY()-DATEVALUE(J22)&lt;15,"weekly",IF(TODAY()-DATEVALUE(J22)&lt;60,"monthly","yearly"))</f>
+        <v>yearly</v>
       </c>
       <c r="L22" s="3">
         <v>43349</v>
       </c>
       <c r="M22" s="13">
-        <f t="shared" ref="M22:M23" si="49">DAY(L22)</f>
+        <f t="shared" ref="M22:M24" si="50">DAY(L22)</f>
         <v>6</v>
       </c>
       <c r="N22" s="6">
-        <f t="shared" ref="N22:N23" si="50">MONTH(L22)</f>
+        <f t="shared" ref="N22:N24" si="51">MONTH(L22)</f>
         <v>9</v>
       </c>
       <c r="O22" s="6">
-        <f t="shared" ref="O22:O23" si="51">YEAR(L22)</f>
+        <f t="shared" ref="O22:O24" si="52">YEAR(L22)</f>
         <v>2018</v>
       </c>
       <c r="P22" s="2" t="s">
@@ -2942,7 +3001,7 @@
         <v>5</v>
       </c>
       <c r="S22" s="7" t="str">
-        <f>A22&amp;".png"</f>
+        <f t="shared" si="42"/>
         <v>nomadpage.png</v>
       </c>
       <c r="T22" s="7" t="str">
@@ -2950,7 +3009,7 @@
         <v>NomadPage</v>
       </c>
       <c r="U22" s="7" t="str">
-        <f t="shared" ref="U22" si="52">"«"&amp;A22&amp;":MarkShort»"</f>
+        <f t="shared" ref="U22" si="53">"«"&amp;A22&amp;":MarkShort»"</f>
         <v>«nomadpage:MarkShort»</v>
       </c>
       <c r="V22" s="7" t="str">
@@ -2959,13 +3018,13 @@
       </c>
       <c r="W22" s="9"/>
       <c r="X22" s="9" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>«SITE-HTTP»/nomadpage</v>
       </c>
     </row>
-    <row r="23" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A23" s="7" t="str">
-        <f t="shared" ref="A23" si="53">SUBSTITUTE(LOWER(G23)," ","-")</f>
+        <f t="shared" si="37"/>
         <v>abxtract-tractx</v>
       </c>
       <c r="B23" s="2" t="s">
@@ -2976,44 +3035,44 @@
         <v>«PAGE-GAME-FULLSCREEN»</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F23" s="28" t="str">
         <f t="shared" si="26"/>
         <v>prose</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="H23" s="7" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" ref="H23" si="54">"«"&amp;A23&amp;"»"</f>
         <v>«abxtract-tractx»</v>
       </c>
       <c r="I23" s="10">
-        <f t="shared" si="33"/>
+        <f t="shared" ref="I23" si="55">L23</f>
         <v>43377</v>
       </c>
       <c r="J23" s="10" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" ref="J23" si="56">YEAR(I23)&amp;TEXT("-"&amp;MONTH(I23),"00")&amp;TEXT("-"&amp;DAY(I23),"00")</f>
         <v>2018-10-04</v>
       </c>
       <c r="K23" s="10" t="str">
-        <f t="shared" ca="1" si="48"/>
-        <v>weekly</v>
+        <f t="shared" ref="K23" ca="1" si="57">IF(TODAY()-DATEVALUE(J23)&lt;15,"weekly",IF(TODAY()-DATEVALUE(J23)&lt;60,"monthly","yearly"))</f>
+        <v>yearly</v>
       </c>
       <c r="L23" s="3">
         <v>43377</v>
       </c>
       <c r="M23" s="13">
-        <f t="shared" si="49"/>
+        <f t="shared" ref="M23" si="58">DAY(L23)</f>
         <v>4</v>
       </c>
       <c r="N23" s="6">
-        <f t="shared" si="50"/>
+        <f t="shared" ref="N23" si="59">MONTH(L23)</f>
         <v>10</v>
       </c>
       <c r="O23" s="6">
-        <f t="shared" si="51"/>
+        <f t="shared" ref="O23" si="60">YEAR(L23)</f>
         <v>2018</v>
       </c>
       <c r="P23" s="2" t="s">
@@ -3027,11 +3086,11 @@
         <v>6</v>
       </c>
       <c r="S23" s="7" t="str">
-        <f>A23&amp;".png"</f>
+        <f t="shared" si="42"/>
         <v>abxtract-tractx.png</v>
       </c>
       <c r="T23" s="7" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" ref="T23" si="61">G23</f>
         <v>Abxtract Tractx</v>
       </c>
       <c r="U23" s="7" t="str">
@@ -3039,768 +3098,766 @@
         <v>«abxtract-tractx:MarkShort»</v>
       </c>
       <c r="V23" s="7" t="str">
-        <f t="shared" ref="V23" si="54">IF(P23="Post","article",IF(P23="Game","game","website"))</f>
+        <f t="shared" ref="V23" si="62">IF(P23="Post","article",IF(P23="Game","game","website"))</f>
         <v>game</v>
       </c>
       <c r="X23" s="7" t="str">
-        <f t="shared" ref="X23" si="55">"«SITE-HTTP»/"&amp;A23</f>
+        <f t="shared" si="47"/>
         <v>«SITE-HTTP»/abxtract-tractx</v>
       </c>
-      <c r="Z23" s="28"/>
-      <c r="AA23" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="AC23" t="s">
-        <v>129</v>
-      </c>
-      <c r="AF23" s="4"/>
-    </row>
-    <row r="24" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="AA23" s="28"/>
+      <c r="AB23" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="AC23" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="AD23" t="s">
+        <v>127</v>
+      </c>
+      <c r="AG23" s="4"/>
+    </row>
+    <row r="24" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A24" s="7" t="str">
-        <f>SUBSTITUTE(LOWER(G24)," ","-")</f>
-        <v>terms-of-use</v>
+        <f t="shared" ref="A24" si="63">SUBSTITUTE(LOWER(G24)," ","-")</f>
+        <v>gravirinth</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D24" s="7" t="str">
+      <c r="D24" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="F24" s="28" t="str">
+        <f t="shared" si="26"/>
+        <v>prose</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="H24" s="7" t="str">
+        <f t="shared" si="38"/>
+        <v>«gravirinth»</v>
+      </c>
+      <c r="I24" s="10">
+        <f t="shared" si="33"/>
+        <v>43427</v>
+      </c>
+      <c r="J24" s="10" t="str">
+        <f t="shared" si="48"/>
+        <v>2018-11-23</v>
+      </c>
+      <c r="K24" s="10" t="str">
+        <f t="shared" ca="1" si="49"/>
+        <v>weekly</v>
+      </c>
+      <c r="L24" s="3">
+        <v>43427</v>
+      </c>
+      <c r="M24" s="13">
+        <f t="shared" si="50"/>
+        <v>23</v>
+      </c>
+      <c r="N24" s="6">
+        <f t="shared" si="51"/>
+        <v>11</v>
+      </c>
+      <c r="O24" s="6">
+        <f t="shared" si="52"/>
+        <v>2018</v>
+      </c>
+      <c r="P24" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q24" s="2" t="str">
+        <f>Tags!$A$10&amp;", "&amp;Tags!$A$2&amp;", "&amp;Tags!$A$3</f>
+        <v>Game, Platformer, Puzzle</v>
+      </c>
+      <c r="R24" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="S24" s="7" t="str">
+        <f t="shared" si="42"/>
+        <v>gravirinth.png</v>
+      </c>
+      <c r="T24" s="7" t="str">
+        <f t="shared" si="23"/>
+        <v>Gravirinth</v>
+      </c>
+      <c r="U24" s="7" t="str">
+        <f>"«"&amp;A24&amp;":MarkShort»"</f>
+        <v>«gravirinth:MarkShort»</v>
+      </c>
+      <c r="V24" s="7" t="str">
+        <f t="shared" ref="V24" si="64">IF(P24="Post","article",IF(P24="Game","game","website"))</f>
+        <v>game</v>
+      </c>
+      <c r="X24" s="7" t="str">
+        <f t="shared" ref="X24:X25" si="65">"«SITE-HTTP»/"&amp;A24</f>
+        <v>«SITE-HTTP»/gravirinth</v>
+      </c>
+      <c r="Z24" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="AA24" s="28"/>
+      <c r="AB24" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="AC24" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="AD24" t="s">
+        <v>127</v>
+      </c>
+      <c r="AG24" s="4"/>
+    </row>
+    <row r="25" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A25" s="9" t="str">
+        <f>A24&amp;"-log"</f>
+        <v>gravirinth-log</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25" s="7" t="str">
+        <f t="shared" ref="D25" si="66">$D$2</f>
+        <v>«PAGE-POST-MD»</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G25" s="2" t="str">
+        <f>G24&amp;" changelog"</f>
+        <v>Gravirinth changelog</v>
+      </c>
+      <c r="H25" s="7" t="str">
+        <f>"«"&amp;A25&amp;"»"</f>
+        <v>«gravirinth-log»</v>
+      </c>
+      <c r="I25" s="10">
+        <f t="shared" ref="I25" si="67">L25</f>
+        <v>43426</v>
+      </c>
+      <c r="J25" s="10" t="str">
+        <f t="shared" ref="J25" si="68">YEAR(I25)&amp;TEXT("-"&amp;MONTH(I25),"00")&amp;TEXT("-"&amp;DAY(I25),"00")</f>
+        <v>2018-11-22</v>
+      </c>
+      <c r="K25" s="10" t="str">
+        <f t="shared" ref="K25" ca="1" si="69">IF(TODAY()-DATEVALUE(J25)&lt;15,"weekly",IF(TODAY()-DATEVALUE(J25)&lt;60,"monthly","yearly"))</f>
+        <v>monthly</v>
+      </c>
+      <c r="L25" s="3">
+        <v>43426</v>
+      </c>
+      <c r="M25" s="13">
+        <f t="shared" ref="M25" si="70">DAY(L25)</f>
+        <v>22</v>
+      </c>
+      <c r="N25" s="6">
+        <f t="shared" ref="N25" si="71">MONTH(L25)</f>
+        <v>11</v>
+      </c>
+      <c r="O25" s="6">
+        <f t="shared" ref="O25" si="72">YEAR(L25)</f>
+        <v>2018</v>
+      </c>
+      <c r="P25" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q25" s="2" t="str">
+        <f>Tags!$A$6&amp;", "&amp;Tags!$A$17&amp;", "&amp;Tags!$A$4</f>
+        <v>Creative-Archive, Log, Post</v>
+      </c>
+      <c r="R25" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="S25" s="7" t="str">
+        <f t="shared" si="42"/>
+        <v>gravirinth-log.png</v>
+      </c>
+      <c r="T25" s="7" t="str">
+        <f t="shared" si="23"/>
+        <v>Gravirinth changelog</v>
+      </c>
+      <c r="U25" s="7" t="str">
+        <f t="shared" ref="U25" si="73">"«"&amp;A25&amp;":MarkShort»"</f>
+        <v>«gravirinth-log:MarkShort»</v>
+      </c>
+      <c r="V25" s="7" t="str">
+        <f>IF(P25="Post","article","site")</f>
+        <v>article</v>
+      </c>
+      <c r="W25" s="9"/>
+      <c r="X25" s="9" t="str">
+        <f t="shared" si="65"/>
+        <v>«SITE-HTTP»/gravirinth-log</v>
+      </c>
+    </row>
+    <row r="26" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A26" s="7" t="str">
+        <f>SUBSTITUTE(LOWER(G26)," ","-")</f>
+        <v>terms-of-use</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" s="7" t="str">
         <f>$D$2</f>
         <v>«PAGE-POST-MD»</v>
       </c>
-      <c r="F24" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="G24" s="2" t="s">
+      <c r="F26" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G26" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="H24" s="7" t="str">
+      <c r="H26" s="7" t="str">
         <f t="shared" si="38"/>
         <v>«terms-of-use»</v>
       </c>
-      <c r="I24" s="10">
+      <c r="I26" s="10">
         <f t="shared" si="33"/>
         <v>43069</v>
       </c>
-      <c r="J24" s="10" t="str">
+      <c r="J26" s="10" t="str">
         <f t="shared" si="14"/>
         <v>2017-11-30</v>
-      </c>
-      <c r="K24" s="10" t="str">
-        <f ca="1">IF(TODAY()-DATEVALUE(J24)&lt;15,"weekly",IF(TODAY()-DATEVALUE(J24)&lt;60,"monthly","yearly"))</f>
-        <v>yearly</v>
-      </c>
-      <c r="L24" s="3">
-        <v>43069</v>
-      </c>
-      <c r="M24" s="13">
-        <f t="shared" ref="M24" si="56">DAY(L24)</f>
-        <v>30</v>
-      </c>
-      <c r="N24" s="6">
-        <f t="shared" ref="N24" si="57">MONTH(L24)</f>
-        <v>11</v>
-      </c>
-      <c r="O24" s="6">
-        <f t="shared" si="19"/>
-        <v>2017</v>
-      </c>
-      <c r="P24" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q24" s="2" t="str">
-        <f>Tags!$A$6&amp;", "&amp;Tags!$A$4</f>
-        <v>Creative-Archive, Post</v>
-      </c>
-      <c r="R24" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="S24" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="T24" s="7" t="str">
-        <f>$T$9</f>
-        <v>Octaflower, the Creative Archive's logo. A geometric lotus flower composed of eight rows of eight petals in rainbow progression.</v>
-      </c>
-      <c r="U24" s="7" t="str">
-        <f>"«"&amp;A24&amp;":MarkShort»"</f>
-        <v>«terms-of-use:MarkShort»</v>
-      </c>
-      <c r="V24" s="7" t="str">
-        <f>IF(P24="Post","article",IF(P24="Game","game","website"))</f>
-        <v>article</v>
-      </c>
-      <c r="X24" s="7" t="str">
-        <f t="shared" ref="X24:X31" si="58">"«SITE-HTTP»/"&amp;A24</f>
-        <v>«SITE-HTTP»/terms-of-use</v>
-      </c>
-    </row>
-    <row r="25" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A25" s="7" t="str">
-        <f>SUBSTITUTE(LOWER(G25)," ","-")</f>
-        <v>privacy-policy</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D25" s="7" t="str">
-        <f>$D$2</f>
-        <v>«PAGE-POST-MD»</v>
-      </c>
-      <c r="F25" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="H25" s="7" t="str">
-        <f t="shared" si="38"/>
-        <v>«privacy-policy»</v>
-      </c>
-      <c r="I25" s="16">
-        <v>43169</v>
-      </c>
-      <c r="J25" s="10" t="str">
-        <f t="shared" si="14"/>
-        <v>2018-03-10</v>
-      </c>
-      <c r="K25" s="10" t="str">
-        <f t="shared" ref="K25:K39" ca="1" si="59">IF(TODAY()-DATEVALUE(J25)&lt;15,"weekly",IF(TODAY()-DATEVALUE(J25)&lt;60,"monthly","yearly"))</f>
-        <v>yearly</v>
-      </c>
-      <c r="L25" s="3">
-        <v>43141</v>
-      </c>
-      <c r="M25" s="13">
-        <f t="shared" ref="M25" si="60">DAY(L25)</f>
-        <v>10</v>
-      </c>
-      <c r="N25" s="6">
-        <f t="shared" ref="N25" si="61">MONTH(L25)</f>
-        <v>2</v>
-      </c>
-      <c r="O25" s="6">
-        <f t="shared" si="19"/>
-        <v>2018</v>
-      </c>
-      <c r="P25" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q25" s="2" t="str">
-        <f>Tags!$A$6&amp;", "&amp;Tags!$A$4</f>
-        <v>Creative-Archive, Post</v>
-      </c>
-      <c r="R25" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="S25" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="T25" s="7" t="str">
-        <f>$T$9</f>
-        <v>Octaflower, the Creative Archive's logo. A geometric lotus flower composed of eight rows of eight petals in rainbow progression.</v>
-      </c>
-      <c r="U25" s="7" t="str">
-        <f>"«"&amp;A25&amp;":MarkShort»"</f>
-        <v>«privacy-policy:MarkShort»</v>
-      </c>
-      <c r="V25" s="7" t="str">
-        <f>IF(P25="Post","article",IF(P25="Game","game","website"))</f>
-        <v>article</v>
-      </c>
-      <c r="X25" s="7" t="str">
-        <f t="shared" si="58"/>
-        <v>«SITE-HTTP»/privacy-policy</v>
-      </c>
-    </row>
-    <row r="26" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A26" s="7" t="str">
-        <f>SUBSTITUTE(LOWER(G26)," ","-")</f>
-        <v>posts-by-date</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C26" s="2">
-        <v>4</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I26" s="19"/>
-      <c r="J26" s="24" t="str">
-        <f>YEAR($J$10)&amp;TEXT("-"&amp;MONTH($J$10),"00")&amp;TEXT("-"&amp;DAY($J$10),"00")</f>
-        <v>2018-03-02</v>
       </c>
       <c r="K26" s="10" t="str">
         <f ca="1">IF(TODAY()-DATEVALUE(J26)&lt;15,"weekly",IF(TODAY()-DATEVALUE(J26)&lt;60,"monthly","yearly"))</f>
         <v>yearly</v>
       </c>
-      <c r="L26" s="20"/>
-      <c r="M26" s="13"/>
+      <c r="L26" s="3">
+        <v>43069</v>
+      </c>
+      <c r="M26" s="13">
+        <f t="shared" ref="M26:M27" si="74">DAY(L26)</f>
+        <v>30</v>
+      </c>
+      <c r="N26" s="6">
+        <f t="shared" ref="N26:N27" si="75">MONTH(L26)</f>
+        <v>11</v>
+      </c>
+      <c r="O26" s="6">
+        <f t="shared" si="19"/>
+        <v>2017</v>
+      </c>
       <c r="P26" s="2" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="Q26" s="2" t="str">
-        <f>Tags!$A$11</f>
-        <v>Sitemap</v>
-      </c>
-      <c r="S26" s="7" t="str">
-        <f>$S$9</f>
-        <v>logo.png</v>
+        <f>Tags!$A$6&amp;", "&amp;Tags!$A$4</f>
+        <v>Creative-Archive, Post</v>
+      </c>
+      <c r="R26" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="S26" s="7" t="s">
+        <v>41</v>
       </c>
       <c r="T26" s="7" t="str">
         <f>$T$9</f>
         <v>Octaflower, the Creative Archive's logo. A geometric lotus flower composed of eight rows of eight petals in rainbow progression.</v>
       </c>
       <c r="U26" s="7" t="str">
-        <f>"Archive of "&amp;G26</f>
-        <v>Archive of Posts by date</v>
+        <f>"«"&amp;A26&amp;":MarkShort»"</f>
+        <v>«terms-of-use:MarkShort»</v>
       </c>
       <c r="V26" s="7" t="str">
-        <f>IF(P26="Post","article",IF(P26="Game","game","website"))</f>
-        <v>website</v>
+        <f t="shared" ref="V26:V31" si="76">IF(P26="Post","article",IF(P26="Game","game","website"))</f>
+        <v>article</v>
       </c>
       <c r="X26" s="7" t="str">
-        <f t="shared" si="58"/>
-        <v>«SITE-HTTP»/posts-by-date</v>
-      </c>
-    </row>
-    <row r="27" spans="1:32" x14ac:dyDescent="0.35">
+        <f t="shared" ref="X26:X34" si="77">"«SITE-HTTP»/"&amp;A26</f>
+        <v>«SITE-HTTP»/terms-of-use</v>
+      </c>
+    </row>
+    <row r="27" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A27" s="7" t="str">
         <f>SUBSTITUTE(LOWER(G27)," ","-")</f>
-        <v>posts-by-tag</v>
+        <v>privacy-policy</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C27" s="2">
+      <c r="D27" s="7" t="str">
+        <f>$D$2</f>
+        <v>«PAGE-POST-MD»</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H27" s="7" t="str">
+        <f t="shared" ref="H27" si="78">"«"&amp;A27&amp;"»"</f>
+        <v>«privacy-policy»</v>
+      </c>
+      <c r="I27" s="16">
+        <v>43169</v>
+      </c>
+      <c r="J27" s="10" t="str">
+        <f t="shared" ref="J27" si="79">YEAR(I27)&amp;TEXT("-"&amp;MONTH(I27),"00")&amp;TEXT("-"&amp;DAY(I27),"00")</f>
+        <v>2018-03-10</v>
+      </c>
+      <c r="K27" s="10" t="str">
+        <f t="shared" ref="K27" ca="1" si="80">IF(TODAY()-DATEVALUE(J27)&lt;15,"weekly",IF(TODAY()-DATEVALUE(J27)&lt;60,"monthly","yearly"))</f>
+        <v>yearly</v>
+      </c>
+      <c r="L27" s="3">
+        <v>43141</v>
+      </c>
+      <c r="M27" s="13">
+        <f t="shared" si="74"/>
+        <v>10</v>
+      </c>
+      <c r="N27" s="6">
+        <f t="shared" si="75"/>
+        <v>2</v>
+      </c>
+      <c r="O27" s="6">
+        <f t="shared" ref="O27" si="81">YEAR(L27)</f>
+        <v>2018</v>
+      </c>
+      <c r="P27" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q27" s="2" t="str">
+        <f>Tags!$A$6&amp;", "&amp;Tags!$A$4</f>
+        <v>Creative-Archive, Post</v>
+      </c>
+      <c r="R27" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D27" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="I27" s="19"/>
-      <c r="J27" s="24" t="str">
-        <f>YEAR($J$10)&amp;TEXT("-"&amp;MONTH($J$10),"00")&amp;TEXT("-"&amp;DAY($J$10),"00")</f>
-        <v>2018-03-02</v>
-      </c>
-      <c r="K27" s="10" t="str">
-        <f ca="1">IF(TODAY()-DATEVALUE(J27)&lt;15,"weekly",IF(TODAY()-DATEVALUE(J27)&lt;60,"monthly","yearly"))</f>
-        <v>yearly</v>
-      </c>
-      <c r="L27" s="20"/>
-      <c r="M27" s="13"/>
-      <c r="P27" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q27" s="2" t="str">
-        <f>Tags!$A$11</f>
-        <v>Sitemap</v>
-      </c>
-      <c r="S27" s="7" t="str">
-        <f>$S$9</f>
-        <v>logo.png</v>
+      <c r="S27" s="7" t="s">
+        <v>41</v>
       </c>
       <c r="T27" s="7" t="str">
         <f>$T$9</f>
         <v>Octaflower, the Creative Archive's logo. A geometric lotus flower composed of eight rows of eight petals in rainbow progression.</v>
       </c>
       <c r="U27" s="7" t="str">
-        <f>"Archive of "&amp;G27</f>
-        <v>Archive of Posts by tag</v>
+        <f>"«"&amp;A27&amp;":MarkShort»"</f>
+        <v>«privacy-policy:MarkShort»</v>
       </c>
       <c r="V27" s="7" t="str">
-        <f>IF(P27="Post","article",IF(P27="Game","game","website"))</f>
-        <v>website</v>
+        <f t="shared" si="76"/>
+        <v>article</v>
       </c>
       <c r="X27" s="7" t="str">
-        <f t="shared" si="58"/>
-        <v>«SITE-HTTP»/posts-by-tag</v>
-      </c>
-    </row>
-    <row r="28" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A28" s="7" t="s">
-        <v>126</v>
+        <f t="shared" ref="X27" si="82">"«SITE-HTTP»/"&amp;A27</f>
+        <v>«SITE-HTTP»/privacy-policy</v>
+      </c>
+    </row>
+    <row r="28" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A28" s="7" t="str">
+        <f>SUBSTITUTE(LOWER(G28)," ","-")</f>
+        <v>subscribe</v>
       </c>
       <c r="B28" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28" s="2">
+        <v>8</v>
+      </c>
+      <c r="D28" s="7" t="str">
+        <f>$D$2</f>
+        <v>«PAGE-POST-MD»</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="H28" s="7" t="str">
+        <f t="shared" si="38"/>
+        <v>«subscribe»</v>
+      </c>
+      <c r="I28" s="10">
+        <f t="shared" si="33"/>
+        <v>43440</v>
+      </c>
+      <c r="J28" s="10" t="str">
+        <f t="shared" si="14"/>
+        <v>2018-12-06</v>
+      </c>
+      <c r="K28" s="10" t="str">
+        <f t="shared" ref="K28:K42" ca="1" si="83">IF(TODAY()-DATEVALUE(J28)&lt;15,"weekly",IF(TODAY()-DATEVALUE(J28)&lt;60,"monthly","yearly"))</f>
+        <v>weekly</v>
+      </c>
+      <c r="L28" s="3">
+        <v>43440</v>
+      </c>
+      <c r="M28" s="13">
+        <f t="shared" ref="M28" si="84">DAY(L28)</f>
+        <v>6</v>
+      </c>
+      <c r="N28" s="6">
+        <f t="shared" ref="N28" si="85">MONTH(L28)</f>
+        <v>12</v>
+      </c>
+      <c r="O28" s="6">
+        <f t="shared" si="19"/>
+        <v>2018</v>
+      </c>
+      <c r="P28" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q28" s="2" t="str">
+        <f>Tags!$A$6&amp;", "&amp;Tags!$A$4</f>
+        <v>Creative-Archive, Post</v>
+      </c>
+      <c r="R28" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C28" s="2">
-        <v>6</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="F28" s="2" t="s">
+      <c r="S28" s="7" t="str">
+        <f>$S$25</f>
+        <v>gravirinth-log.png</v>
+      </c>
+      <c r="T28" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="U28" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="V28" s="7" t="str">
+        <f t="shared" si="76"/>
+        <v>article</v>
+      </c>
+      <c r="X28" s="7" t="str">
+        <f t="shared" si="77"/>
+        <v>«SITE-HTTP»/subscribe</v>
+      </c>
+    </row>
+    <row r="29" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A29" s="7" t="str">
+        <f>SUBSTITUTE(LOWER(G29)," ","-")</f>
+        <v>posts-by-date</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29" s="2">
+        <v>2</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E29" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="G28" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="I28" s="10"/>
-      <c r="J28" s="24" t="str">
+      <c r="F29" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I29" s="19"/>
+      <c r="J29" s="24" t="str">
         <f>YEAR($J$10)&amp;TEXT("-"&amp;MONTH($J$10),"00")&amp;TEXT("-"&amp;DAY($J$10),"00")</f>
         <v>2018-03-02</v>
       </c>
-      <c r="K28" s="10" t="str">
-        <f ca="1">IF(TODAY()-DATEVALUE(J28)&lt;15,"weekly",IF(TODAY()-DATEVALUE(J28)&lt;60,"monthly","yearly"))</f>
+      <c r="K29" s="10" t="str">
+        <f ca="1">IF(TODAY()-DATEVALUE(J29)&lt;15,"weekly",IF(TODAY()-DATEVALUE(J29)&lt;60,"monthly","yearly"))</f>
         <v>yearly</v>
       </c>
-      <c r="L28" s="3">
-        <v>43141</v>
-      </c>
-      <c r="M28" s="13">
-        <f t="shared" ref="M28" si="62">DAY(L28)</f>
-        <v>10</v>
-      </c>
-      <c r="N28" s="6">
-        <f t="shared" ref="N28" si="63">MONTH(L28)</f>
-        <v>2</v>
-      </c>
-      <c r="O28" s="6">
-        <f t="shared" ref="O28" si="64">YEAR(L28)</f>
-        <v>2018</v>
-      </c>
-      <c r="P28" s="2" t="s">
+      <c r="L29" s="20"/>
+      <c r="M29" s="13"/>
+      <c r="P29" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="Q28" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="R28" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="S28" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="T28" s="7" t="str">
+      <c r="Q29" s="2" t="str">
+        <f>Tags!$A$11</f>
+        <v>Sitemap</v>
+      </c>
+      <c r="S29" s="7" t="str">
+        <f>$S$9</f>
+        <v>logo.png</v>
+      </c>
+      <c r="T29" s="7" t="str">
         <f>$T$9</f>
         <v>Octaflower, the Creative Archive's logo. A geometric lotus flower composed of eight rows of eight petals in rainbow progression.</v>
       </c>
-      <c r="U28" s="7" t="str">
-        <f>"Archive of "&amp;G28</f>
-        <v>Archive of Games</v>
-      </c>
-      <c r="V28" s="7" t="str">
-        <f>IF(P28="Post","article",IF(P28="Game","game","website"))</f>
+      <c r="U29" s="7" t="str">
+        <f>"Archive of "&amp;G29</f>
+        <v>Archive of Posts by date</v>
+      </c>
+      <c r="V29" s="7" t="str">
+        <f t="shared" si="76"/>
         <v>website</v>
       </c>
-      <c r="X28" s="7" t="str">
-        <f t="shared" si="58"/>
-        <v>«SITE-HTTP»/games</v>
-      </c>
-    </row>
-    <row r="29" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A29" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="B29" s="2" t="s">
+      <c r="X29" s="7" t="str">
+        <f t="shared" si="77"/>
+        <v>«SITE-HTTP»/posts-by-date</v>
+      </c>
+    </row>
+    <row r="30" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A30" s="7" t="str">
+        <f>SUBSTITUTE(LOWER(G30)," ","-")</f>
+        <v>posts-by-tag</v>
+      </c>
+      <c r="B30" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D29" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="M29" s="14"/>
-      <c r="W29" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="X29" s="9" t="str">
-        <f t="shared" si="58"/>
-        <v>«SITE-HTTP»/robots</v>
-      </c>
-    </row>
-    <row r="30" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A30" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>6</v>
+      <c r="C30" s="2">
+        <v>3</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>92</v>
+        <v>22</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="M30" s="14"/>
-      <c r="W30" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="X30" s="9" t="str">
-        <f t="shared" si="58"/>
-        <v>«SITE-HTTP»/sitemap</v>
-      </c>
-    </row>
-    <row r="31" spans="1:32" x14ac:dyDescent="0.35">
+        <v>152</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I30" s="19"/>
+      <c r="J30" s="24" t="str">
+        <f>YEAR($J$10)&amp;TEXT("-"&amp;MONTH($J$10),"00")&amp;TEXT("-"&amp;DAY($J$10),"00")</f>
+        <v>2018-03-02</v>
+      </c>
+      <c r="K30" s="10" t="str">
+        <f ca="1">IF(TODAY()-DATEVALUE(J30)&lt;15,"weekly",IF(TODAY()-DATEVALUE(J30)&lt;60,"monthly","yearly"))</f>
+        <v>yearly</v>
+      </c>
+      <c r="L30" s="20"/>
+      <c r="M30" s="13"/>
+      <c r="P30" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q30" s="2" t="str">
+        <f>Tags!$A$11</f>
+        <v>Sitemap</v>
+      </c>
+      <c r="S30" s="7" t="str">
+        <f>$S$9</f>
+        <v>logo.png</v>
+      </c>
+      <c r="T30" s="7" t="str">
+        <f>$T$9</f>
+        <v>Octaflower, the Creative Archive's logo. A geometric lotus flower composed of eight rows of eight petals in rainbow progression.</v>
+      </c>
+      <c r="U30" s="7" t="str">
+        <f>"Archive of "&amp;G30</f>
+        <v>Archive of Posts by tag</v>
+      </c>
+      <c r="V30" s="7" t="str">
+        <f t="shared" si="76"/>
+        <v>website</v>
+      </c>
+      <c r="X30" s="7" t="str">
+        <f t="shared" si="77"/>
+        <v>«SITE-HTTP»/posts-by-tag</v>
+      </c>
+    </row>
+    <row r="31" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A31" s="7" t="s">
-        <v>80</v>
+        <v>124</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="C31" s="2">
+        <v>4</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="I31" s="19"/>
+        <v>125</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I31" s="10"/>
       <c r="J31" s="24" t="str">
         <f>YEAR($J$10)&amp;TEXT("-"&amp;MONTH($J$10),"00")&amp;TEXT("-"&amp;DAY($J$10),"00")</f>
         <v>2018-03-02</v>
       </c>
       <c r="K31" s="10" t="str">
-        <f t="shared" ref="K31" ca="1" si="65">IF(TODAY()-DATEVALUE(J31)&lt;15,"weekly",IF(TODAY()-DATEVALUE(J31)&lt;60,"monthly","yearly"))</f>
+        <f ca="1">IF(TODAY()-DATEVALUE(J31)&lt;15,"weekly",IF(TODAY()-DATEVALUE(J31)&lt;60,"monthly","yearly"))</f>
         <v>yearly</v>
       </c>
-      <c r="L31" s="21"/>
-      <c r="M31" s="14"/>
-      <c r="W31" s="9" t="s">
+      <c r="L31" s="3">
+        <v>43141</v>
+      </c>
+      <c r="M31" s="13">
+        <f t="shared" ref="M31" si="86">DAY(L31)</f>
+        <v>10</v>
+      </c>
+      <c r="N31" s="6">
+        <f t="shared" ref="N31" si="87">MONTH(L31)</f>
+        <v>2</v>
+      </c>
+      <c r="O31" s="6">
+        <f t="shared" ref="O31" si="88">YEAR(L31)</f>
+        <v>2018</v>
+      </c>
+      <c r="P31" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q31" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="R31" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="S31" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="T31" s="7" t="str">
+        <f>$T$9</f>
+        <v>Octaflower, the Creative Archive's logo. A geometric lotus flower composed of eight rows of eight petals in rainbow progression.</v>
+      </c>
+      <c r="U31" s="7" t="str">
+        <f>"Archive of "&amp;G31</f>
+        <v>Archive of Games</v>
+      </c>
+      <c r="V31" s="7" t="str">
+        <f t="shared" si="76"/>
+        <v>website</v>
+      </c>
+      <c r="X31" s="7" t="str">
+        <f t="shared" si="77"/>
+        <v>«SITE-HTTP»/games</v>
+      </c>
+    </row>
+    <row r="32" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A32" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="M32" s="14"/>
+      <c r="W32" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="X32" s="9" t="str">
+        <f t="shared" si="77"/>
+        <v>«SITE-HTTP»/robots</v>
+      </c>
+    </row>
+    <row r="33" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A33" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="M33" s="14"/>
+      <c r="W33" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="X33" s="9" t="str">
+        <f t="shared" si="77"/>
+        <v>«SITE-HTTP»/sitemap</v>
+      </c>
+    </row>
+    <row r="34" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A34" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D34" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="X31" s="9" t="str">
-        <f t="shared" si="58"/>
+      <c r="I34" s="19"/>
+      <c r="J34" s="24" t="str">
+        <f>YEAR($J$10)&amp;TEXT("-"&amp;MONTH($J$10),"00")&amp;TEXT("-"&amp;DAY($J$10),"00")</f>
+        <v>2018-03-02</v>
+      </c>
+      <c r="K34" s="10" t="str">
+        <f t="shared" ref="K34" ca="1" si="89">IF(TODAY()-DATEVALUE(J34)&lt;15,"weekly",IF(TODAY()-DATEVALUE(J34)&lt;60,"monthly","yearly"))</f>
+        <v>yearly</v>
+      </c>
+      <c r="L34" s="21"/>
+      <c r="M34" s="14"/>
+      <c r="W34" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="X34" s="9" t="str">
+        <f t="shared" si="77"/>
         <v>«SITE-HTTP»/rss</v>
       </c>
     </row>
-    <row r="32" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A32" s="11" t="str">
+    <row r="35" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A35" s="11" t="str">
         <f>"tag-"&amp;SUBSTITUTE(Tags!$A2," ","-")</f>
         <v>tag-Platformer</v>
       </c>
-      <c r="B32" s="25" t="str">
+      <c r="B35" s="25" t="str">
         <f>Tags!$B2</f>
         <v>Yes</v>
       </c>
-      <c r="C32" s="25"/>
-      <c r="D32" s="11" t="str">
-        <f>D$37</f>
+      <c r="C35" s="25"/>
+      <c r="D35" s="11" t="str">
+        <f>D$40</f>
         <v>«PAGE-FEATURED-EMPTY»</v>
       </c>
-      <c r="E32" s="11" t="str">
-        <f>$E$37</f>
+      <c r="E35" s="11" t="str">
+        <f>$E$40</f>
         <v>«FEATURED-ITEM:Filter{"Tags"-&gt;_?(StringMatchQ[#,___~~"«POST:Load»"~~___]&amp;),"Type"-&gt;_,"Day"-&gt;_?NumberQ,"Month"-&gt;_?NumberQ,"Year"-&gt;_?NumberQ}»</v>
       </c>
-      <c r="F32" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="G32" s="11" t="str">
-        <f>"All"&amp;" "&amp;H32&amp;"s"</f>
-        <v>All Platformers</v>
-      </c>
-      <c r="H32" s="11" t="str">
+      <c r="F35" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="G35" s="11" t="str">
+        <f>"All"&amp;" "&amp;H35&amp;" games"</f>
+        <v>All Platformer games</v>
+      </c>
+      <c r="H35" s="11" t="str">
         <f>Tags!$A2</f>
         <v>Platformer</v>
       </c>
-      <c r="I32" s="22"/>
-      <c r="J32" s="22" t="str">
-        <f t="shared" ref="J32:J46" si="66">YEAR($J$10)&amp;TEXT("-"&amp;MONTH($J$10),"00")&amp;TEXT("-"&amp;DAY($J$10),"00")</f>
-        <v>2018-03-02</v>
-      </c>
-      <c r="K32" s="22" t="str">
-        <f t="shared" ca="1" si="59"/>
-        <v>yearly</v>
-      </c>
-      <c r="L32" s="29">
-        <v>41773</v>
-      </c>
-      <c r="M32" s="15">
-        <f t="shared" ref="M32:M42" si="67">DAY(L32)</f>
-        <v>14</v>
-      </c>
-      <c r="N32" s="30">
-        <f t="shared" ref="N32:N42" si="68">MONTH(L32)</f>
-        <v>5</v>
-      </c>
-      <c r="O32" s="30">
-        <f t="shared" ref="O32:O42" si="69">YEAR(L32)</f>
-        <v>2014</v>
-      </c>
-      <c r="P32" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q32" s="25" t="str">
-        <f>Tags!$A$12</f>
-        <v>Class</v>
-      </c>
-      <c r="R32" s="12"/>
-      <c r="S32" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="T32" s="11" t="str">
-        <f>$T$9</f>
-        <v>Octaflower, the Creative Archive's logo. A geometric lotus flower composed of eight rows of eight petals in rainbow progression.</v>
-      </c>
-      <c r="U32" s="11" t="str">
-        <f>"All content classified under "&amp;H32</f>
-        <v>All content classified under Platformer</v>
-      </c>
-      <c r="V32" s="12"/>
-      <c r="W32" s="11"/>
-      <c r="X32" s="11" t="str">
-        <f t="shared" ref="X32:X43" si="70">"«SITE-HTTP»/"&amp;A32</f>
-        <v>«SITE-HTTP»/tag-Platformer</v>
-      </c>
-      <c r="Y32" s="12"/>
-      <c r="Z32" s="12"/>
-      <c r="AA32" s="12"/>
-      <c r="AB32" s="12"/>
-      <c r="AC32" s="12"/>
-      <c r="AD32" s="12"/>
-      <c r="AE32" s="12"/>
-      <c r="AF32" s="12"/>
-    </row>
-    <row r="33" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A33" s="11" t="str">
-        <f>"tag-"&amp;SUBSTITUTE(Tags!$A3," ","-")</f>
-        <v>tag-Puzzle</v>
-      </c>
-      <c r="B33" s="25" t="str">
-        <f>Tags!$B3</f>
-        <v>Yes</v>
-      </c>
-      <c r="C33" s="25"/>
-      <c r="D33" s="11" t="str">
-        <f>D$37</f>
-        <v>«PAGE-FEATURED-EMPTY»</v>
-      </c>
-      <c r="E33" s="11" t="str">
-        <f>$E$37</f>
-        <v>«FEATURED-ITEM:Filter{"Tags"-&gt;_?(StringMatchQ[#,___~~"«POST:Load»"~~___]&amp;),"Type"-&gt;_,"Day"-&gt;_?NumberQ,"Month"-&gt;_?NumberQ,"Year"-&gt;_?NumberQ}»</v>
-      </c>
-      <c r="F33" s="25" t="str">
-        <f>F$32</f>
-        <v>archive</v>
-      </c>
-      <c r="G33" s="11" t="str">
-        <f>"All"&amp;" "&amp;H33&amp;"s"</f>
-        <v>All Puzzles</v>
-      </c>
-      <c r="H33" s="11" t="str">
-        <f>Tags!$A3</f>
-        <v>Puzzle</v>
-      </c>
-      <c r="I33" s="22"/>
-      <c r="J33" s="22" t="str">
-        <f t="shared" si="66"/>
-        <v>2018-03-02</v>
-      </c>
-      <c r="K33" s="22" t="str">
-        <f t="shared" ca="1" si="59"/>
-        <v>yearly</v>
-      </c>
-      <c r="L33" s="29">
-        <v>41773</v>
-      </c>
-      <c r="M33" s="15">
-        <f t="shared" si="67"/>
-        <v>14</v>
-      </c>
-      <c r="N33" s="30">
-        <f t="shared" si="68"/>
-        <v>5</v>
-      </c>
-      <c r="O33" s="30">
-        <f t="shared" si="69"/>
-        <v>2014</v>
-      </c>
-      <c r="P33" s="25" t="str">
-        <f>$P$32</f>
-        <v>Tag</v>
-      </c>
-      <c r="Q33" s="25" t="str">
-        <f>Tags!$A$12</f>
-        <v>Class</v>
-      </c>
-      <c r="R33" s="12"/>
-      <c r="S33" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="T33" s="11" t="str">
-        <f t="shared" ref="T33:T46" si="71">$T$9</f>
-        <v>Octaflower, the Creative Archive's logo. A geometric lotus flower composed of eight rows of eight petals in rainbow progression.</v>
-      </c>
-      <c r="U33" s="11" t="str">
-        <f t="shared" ref="U33:U42" si="72">"All content classified under "&amp;H33</f>
-        <v>All content classified under Puzzle</v>
-      </c>
-      <c r="V33" s="12"/>
-      <c r="W33" s="11"/>
-      <c r="X33" s="11" t="str">
-        <f t="shared" si="70"/>
-        <v>«SITE-HTTP»/tag-Puzzle</v>
-      </c>
-      <c r="Y33" s="12"/>
-      <c r="Z33" s="12"/>
-      <c r="AA33" s="12"/>
-      <c r="AB33" s="12"/>
-      <c r="AC33" s="12"/>
-      <c r="AD33" s="12"/>
-      <c r="AE33" s="12"/>
-      <c r="AF33" s="12"/>
-    </row>
-    <row r="34" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A34" s="11" t="str">
-        <f>"tag-"&amp;SUBSTITUTE(Tags!$A4," ","-")</f>
-        <v>tag-Post</v>
-      </c>
-      <c r="B34" s="25" t="str">
-        <f>Tags!$B4</f>
-        <v>Yes</v>
-      </c>
-      <c r="C34" s="25"/>
-      <c r="D34" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="E34" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="F34" s="25" t="str">
-        <f t="shared" ref="F34:F46" si="73">F$32</f>
-        <v>archive</v>
-      </c>
-      <c r="G34" s="11" t="str">
-        <f>"All"&amp;" "&amp;H34&amp;"s"</f>
-        <v>All Posts</v>
-      </c>
-      <c r="H34" s="11" t="str">
-        <f>Tags!$A4</f>
-        <v>Post</v>
-      </c>
-      <c r="I34" s="22"/>
-      <c r="J34" s="22" t="str">
-        <f t="shared" si="66"/>
-        <v>2018-03-02</v>
-      </c>
-      <c r="K34" s="22" t="str">
-        <f t="shared" ca="1" si="59"/>
-        <v>yearly</v>
-      </c>
-      <c r="L34" s="29">
-        <v>43070</v>
-      </c>
-      <c r="M34" s="15">
-        <f t="shared" si="67"/>
-        <v>1</v>
-      </c>
-      <c r="N34" s="30">
-        <f t="shared" si="68"/>
-        <v>12</v>
-      </c>
-      <c r="O34" s="30">
-        <f t="shared" si="69"/>
-        <v>2017</v>
-      </c>
-      <c r="P34" s="25" t="str">
-        <f t="shared" ref="P34:P46" si="74">$P$32</f>
-        <v>Tag</v>
-      </c>
-      <c r="Q34" s="25" t="str">
-        <f>Tags!$A$12</f>
-        <v>Class</v>
-      </c>
-      <c r="R34" s="12"/>
-      <c r="S34" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="T34" s="11" t="str">
-        <f t="shared" si="71"/>
-        <v>Octaflower, the Creative Archive's logo. A geometric lotus flower composed of eight rows of eight petals in rainbow progression.</v>
-      </c>
-      <c r="U34" s="11" t="str">
-        <f t="shared" si="72"/>
-        <v>All content classified under Post</v>
-      </c>
-      <c r="V34" s="12"/>
-      <c r="W34" s="11"/>
-      <c r="X34" s="11" t="str">
-        <f t="shared" si="70"/>
-        <v>«SITE-HTTP»/tag-Post</v>
-      </c>
-      <c r="Y34" s="12"/>
-      <c r="Z34" s="12"/>
-      <c r="AA34" s="12"/>
-      <c r="AB34" s="12"/>
-      <c r="AC34" s="12"/>
-      <c r="AD34" s="12"/>
-      <c r="AE34" s="12"/>
-      <c r="AF34" s="12"/>
-    </row>
-    <row r="35" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A35" s="11" t="str">
-        <f>"tag-"&amp;SUBSTITUTE(Tags!$A5," ","-")</f>
-        <v>tag-Finance</v>
-      </c>
-      <c r="B35" s="25" t="str">
-        <f>Tags!$B5</f>
-        <v>No</v>
-      </c>
-      <c r="C35" s="25"/>
-      <c r="D35" s="11" t="str">
-        <f>$D$34</f>
-        <v>«PAGE-SIMPLE»</v>
-      </c>
-      <c r="E35" s="11" t="str">
-        <f>$E$34</f>
-        <v>«TAGSELECT:Filter{"Tags"-&gt;_?(StringMatchQ[#,___~~"«POST:Load»"~~___]&amp;),"Type"-&gt;_,"Day"-&gt;_?NumberQ,"Month"-&gt;_?NumberQ,"Year"-&gt;_?NumberQ}»</v>
-      </c>
-      <c r="F35" s="25" t="str">
-        <f t="shared" si="73"/>
-        <v>archive</v>
-      </c>
-      <c r="G35" s="11" t="str">
-        <f>"Classed as '"&amp;Tags!$A5&amp;"'"</f>
-        <v>Classed as 'Finance'</v>
-      </c>
-      <c r="H35" s="11" t="str">
-        <f>Tags!$A5</f>
-        <v>Finance</v>
-      </c>
       <c r="I35" s="22"/>
       <c r="J35" s="22" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" ref="J35:J50" si="90">YEAR($J$10)&amp;TEXT("-"&amp;MONTH($J$10),"00")&amp;TEXT("-"&amp;DAY($J$10),"00")</f>
         <v>2018-03-02</v>
       </c>
       <c r="K35" s="22" t="str">
-        <f t="shared" ca="1" si="59"/>
+        <f t="shared" ca="1" si="83"/>
         <v>yearly</v>
       </c>
       <c r="L35" s="29">
-        <v>43139</v>
+        <v>41773</v>
       </c>
       <c r="M35" s="15">
-        <f t="shared" si="67"/>
-        <v>8</v>
+        <f t="shared" ref="M35:M45" si="91">DAY(L35)</f>
+        <v>14</v>
       </c>
       <c r="N35" s="30">
-        <f t="shared" si="68"/>
-        <v>2</v>
+        <f t="shared" ref="N35:N45" si="92">MONTH(L35)</f>
+        <v>5</v>
       </c>
       <c r="O35" s="30">
-        <f t="shared" si="69"/>
-        <v>2018</v>
-      </c>
-      <c r="P35" s="25" t="str">
-        <f t="shared" si="74"/>
-        <v>Tag</v>
+        <f t="shared" ref="O35:O45" si="93">YEAR(L35)</f>
+        <v>2014</v>
+      </c>
+      <c r="P35" s="12" t="s">
+        <v>20</v>
       </c>
       <c r="Q35" s="25" t="str">
         <f>Tags!$A$12</f>
@@ -3808,21 +3865,21 @@
       </c>
       <c r="R35" s="12"/>
       <c r="S35" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="T35" s="11" t="str">
-        <f t="shared" si="71"/>
+        <f>$T$9</f>
         <v>Octaflower, the Creative Archive's logo. A geometric lotus flower composed of eight rows of eight petals in rainbow progression.</v>
       </c>
       <c r="U35" s="11" t="str">
-        <f t="shared" si="72"/>
-        <v>All content classified under Finance</v>
+        <f>G35&amp;" in the «SITE-NAME»"</f>
+        <v>All Platformer games in the «SITE-NAME»</v>
       </c>
       <c r="V35" s="12"/>
       <c r="W35" s="11"/>
       <c r="X35" s="11" t="str">
-        <f t="shared" si="70"/>
-        <v>«SITE-HTTP»/tag-Finance</v>
+        <f t="shared" ref="X35:X46" si="94">"«SITE-HTTP»/"&amp;A35</f>
+        <v>«SITE-HTTP»/tag-Platformer</v>
       </c>
       <c r="Y35" s="12"/>
       <c r="Z35" s="12"/>
@@ -3832,63 +3889,64 @@
       <c r="AD35" s="12"/>
       <c r="AE35" s="12"/>
       <c r="AF35" s="12"/>
-    </row>
-    <row r="36" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="AG35" s="12"/>
+    </row>
+    <row r="36" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A36" s="11" t="str">
-        <f>"tag-"&amp;SUBSTITUTE(Tags!$A6," ","-")</f>
-        <v>tag-Creative-Archive</v>
+        <f>"tag-"&amp;SUBSTITUTE(Tags!$A3," ","-")</f>
+        <v>tag-Puzzle</v>
       </c>
       <c r="B36" s="25" t="str">
-        <f>Tags!$B6</f>
+        <f>Tags!$B3</f>
         <v>Yes</v>
       </c>
       <c r="C36" s="25"/>
       <c r="D36" s="11" t="str">
-        <f>$D$34</f>
-        <v>«PAGE-SIMPLE»</v>
+        <f>D$40</f>
+        <v>«PAGE-FEATURED-EMPTY»</v>
       </c>
       <c r="E36" s="11" t="str">
-        <f>$E$34</f>
-        <v>«TAGSELECT:Filter{"Tags"-&gt;_?(StringMatchQ[#,___~~"«POST:Load»"~~___]&amp;),"Type"-&gt;_,"Day"-&gt;_?NumberQ,"Month"-&gt;_?NumberQ,"Year"-&gt;_?NumberQ}»</v>
+        <f>$E$40</f>
+        <v>«FEATURED-ITEM:Filter{"Tags"-&gt;_?(StringMatchQ[#,___~~"«POST:Load»"~~___]&amp;),"Type"-&gt;_,"Day"-&gt;_?NumberQ,"Month"-&gt;_?NumberQ,"Year"-&gt;_?NumberQ}»</v>
       </c>
       <c r="F36" s="25" t="str">
-        <f t="shared" si="73"/>
+        <f>F$35</f>
         <v>archive</v>
       </c>
       <c r="G36" s="11" t="str">
-        <f>"Classed as '"&amp;Tags!$A6&amp;"'"</f>
-        <v>Classed as 'Creative-Archive'</v>
+        <f>"All"&amp;" "&amp;H36&amp;"s"</f>
+        <v>All Puzzles</v>
       </c>
       <c r="H36" s="11" t="str">
-        <f>Tags!$A6</f>
-        <v>Creative-Archive</v>
+        <f>Tags!$A3</f>
+        <v>Puzzle</v>
       </c>
       <c r="I36" s="22"/>
       <c r="J36" s="22" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="90"/>
         <v>2018-03-02</v>
       </c>
       <c r="K36" s="22" t="str">
-        <f t="shared" ca="1" si="59"/>
+        <f t="shared" ca="1" si="83"/>
         <v>yearly</v>
       </c>
       <c r="L36" s="29">
-        <v>43069</v>
+        <v>41773</v>
       </c>
       <c r="M36" s="15">
-        <f t="shared" si="67"/>
-        <v>30</v>
+        <f t="shared" si="91"/>
+        <v>14</v>
       </c>
       <c r="N36" s="30">
-        <f t="shared" si="68"/>
-        <v>11</v>
+        <f t="shared" si="92"/>
+        <v>5</v>
       </c>
       <c r="O36" s="30">
-        <f t="shared" si="69"/>
-        <v>2017</v>
+        <f t="shared" si="93"/>
+        <v>2014</v>
       </c>
       <c r="P36" s="25" t="str">
-        <f t="shared" si="74"/>
+        <f>$P$35</f>
         <v>Tag</v>
       </c>
       <c r="Q36" s="25" t="str">
@@ -3897,21 +3955,21 @@
       </c>
       <c r="R36" s="12"/>
       <c r="S36" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="T36" s="11" t="str">
-        <f t="shared" si="71"/>
+        <f t="shared" ref="T36:T50" si="95">$T$9</f>
         <v>Octaflower, the Creative Archive's logo. A geometric lotus flower composed of eight rows of eight petals in rainbow progression.</v>
       </c>
       <c r="U36" s="11" t="str">
-        <f t="shared" si="72"/>
-        <v>All content classified under Creative-Archive</v>
+        <f t="shared" ref="U36:U50" si="96">G36&amp;" in the «SITE-NAME»"</f>
+        <v>All Puzzles in the «SITE-NAME»</v>
       </c>
       <c r="V36" s="12"/>
       <c r="W36" s="11"/>
       <c r="X36" s="11" t="str">
-        <f t="shared" si="70"/>
-        <v>«SITE-HTTP»/tag-Creative-Archive</v>
+        <f t="shared" si="94"/>
+        <v>«SITE-HTTP»/tag-Puzzle</v>
       </c>
       <c r="Y36" s="12"/>
       <c r="Z36" s="12"/>
@@ -3921,63 +3979,62 @@
       <c r="AD36" s="12"/>
       <c r="AE36" s="12"/>
       <c r="AF36" s="12"/>
-    </row>
-    <row r="37" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="AG36" s="12"/>
+    </row>
+    <row r="37" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A37" s="11" t="str">
-        <f>"tag-"&amp;SUBSTITUTE(Tags!$A7," ","-")</f>
-        <v>tag-Mosaic</v>
+        <f>"tag-"&amp;SUBSTITUTE(Tags!$A4," ","-")</f>
+        <v>tag-Post</v>
       </c>
       <c r="B37" s="25" t="str">
-        <f>Tags!$B7</f>
-        <v>No</v>
-      </c>
-      <c r="C37" s="25">
-        <v>6</v>
-      </c>
+        <f>Tags!$B4</f>
+        <v>Yes</v>
+      </c>
+      <c r="C37" s="25"/>
       <c r="D37" s="12" t="s">
-        <v>109</v>
+        <v>22</v>
       </c>
       <c r="E37" s="12" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="F37" s="25" t="str">
-        <f t="shared" si="73"/>
+        <f t="shared" ref="F37:F50" si="97">F$35</f>
         <v>archive</v>
       </c>
       <c r="G37" s="11" t="str">
-        <f>H37&amp;"s"</f>
-        <v>Mosaics</v>
+        <f>"All"&amp;" "&amp;H37&amp;"s"</f>
+        <v>All Posts</v>
       </c>
       <c r="H37" s="11" t="str">
-        <f>Tags!$A7</f>
-        <v>Mosaic</v>
+        <f>Tags!$A4</f>
+        <v>Post</v>
       </c>
       <c r="I37" s="22"/>
       <c r="J37" s="22" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="90"/>
         <v>2018-03-02</v>
       </c>
       <c r="K37" s="22" t="str">
-        <f t="shared" ca="1" si="59"/>
+        <f t="shared" ca="1" si="83"/>
         <v>yearly</v>
       </c>
       <c r="L37" s="29">
-        <v>43018</v>
+        <v>43070</v>
       </c>
       <c r="M37" s="15">
-        <f t="shared" si="67"/>
-        <v>10</v>
+        <f t="shared" si="91"/>
+        <v>1</v>
       </c>
       <c r="N37" s="30">
-        <f t="shared" si="68"/>
-        <v>10</v>
+        <f t="shared" si="92"/>
+        <v>12</v>
       </c>
       <c r="O37" s="30">
-        <f t="shared" si="69"/>
+        <f t="shared" si="93"/>
         <v>2017</v>
       </c>
       <c r="P37" s="25" t="str">
-        <f t="shared" si="74"/>
+        <f t="shared" ref="P37:P50" si="98">$P$35</f>
         <v>Tag</v>
       </c>
       <c r="Q37" s="25" t="str">
@@ -3986,21 +4043,21 @@
       </c>
       <c r="R37" s="12"/>
       <c r="S37" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="T37" s="11" t="str">
-        <f t="shared" si="71"/>
+        <f t="shared" si="95"/>
         <v>Octaflower, the Creative Archive's logo. A geometric lotus flower composed of eight rows of eight petals in rainbow progression.</v>
       </c>
       <c r="U37" s="11" t="str">
-        <f t="shared" si="72"/>
-        <v>All content classified under Mosaic</v>
+        <f t="shared" si="96"/>
+        <v>All Posts in the «SITE-NAME»</v>
       </c>
       <c r="V37" s="12"/>
       <c r="W37" s="11"/>
       <c r="X37" s="11" t="str">
-        <f t="shared" si="70"/>
-        <v>«SITE-HTTP»/tag-Mosaic</v>
+        <f t="shared" si="94"/>
+        <v>«SITE-HTTP»/tag-Post</v>
       </c>
       <c r="Y37" s="12"/>
       <c r="Z37" s="12"/>
@@ -4010,63 +4067,64 @@
       <c r="AD37" s="12"/>
       <c r="AE37" s="12"/>
       <c r="AF37" s="12"/>
-    </row>
-    <row r="38" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="AG37" s="12"/>
+    </row>
+    <row r="38" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A38" s="11" t="str">
-        <f>"tag-"&amp;SUBSTITUTE(Tags!$A8," ","-")</f>
-        <v>tag-Travel</v>
+        <f>"tag-"&amp;SUBSTITUTE(Tags!$A5," ","-")</f>
+        <v>tag-Finance</v>
       </c>
       <c r="B38" s="25" t="str">
-        <f>Tags!$B8</f>
+        <f>Tags!$B5</f>
         <v>No</v>
       </c>
       <c r="C38" s="25"/>
       <c r="D38" s="11" t="str">
-        <f>$D$34</f>
+        <f>$D$37</f>
         <v>«PAGE-SIMPLE»</v>
       </c>
       <c r="E38" s="11" t="str">
-        <f>$E$34</f>
+        <f>$E$37</f>
         <v>«TAGSELECT:Filter{"Tags"-&gt;_?(StringMatchQ[#,___~~"«POST:Load»"~~___]&amp;),"Type"-&gt;_,"Day"-&gt;_?NumberQ,"Month"-&gt;_?NumberQ,"Year"-&gt;_?NumberQ}»</v>
       </c>
       <c r="F38" s="25" t="str">
-        <f t="shared" si="73"/>
+        <f t="shared" si="97"/>
         <v>archive</v>
       </c>
       <c r="G38" s="11" t="str">
-        <f>"Classed as '"&amp;Tags!$A8&amp;"'"</f>
-        <v>Classed as 'Travel'</v>
+        <f>"Classed as '"&amp;Tags!$A5&amp;"'"</f>
+        <v>Classed as 'Finance'</v>
       </c>
       <c r="H38" s="11" t="str">
-        <f>Tags!$A8</f>
-        <v>Travel</v>
+        <f>Tags!$A5</f>
+        <v>Finance</v>
       </c>
       <c r="I38" s="22"/>
       <c r="J38" s="22" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="90"/>
         <v>2018-03-02</v>
       </c>
       <c r="K38" s="22" t="str">
-        <f t="shared" ca="1" si="59"/>
+        <f t="shared" ca="1" si="83"/>
         <v>yearly</v>
       </c>
       <c r="L38" s="29">
-        <v>43018</v>
+        <v>43139</v>
       </c>
       <c r="M38" s="15">
-        <f t="shared" si="67"/>
-        <v>10</v>
+        <f t="shared" si="91"/>
+        <v>8</v>
       </c>
       <c r="N38" s="30">
-        <f t="shared" si="68"/>
-        <v>10</v>
+        <f t="shared" si="92"/>
+        <v>2</v>
       </c>
       <c r="O38" s="30">
-        <f t="shared" si="69"/>
-        <v>2017</v>
+        <f t="shared" si="93"/>
+        <v>2018</v>
       </c>
       <c r="P38" s="25" t="str">
-        <f t="shared" si="74"/>
+        <f t="shared" si="98"/>
         <v>Tag</v>
       </c>
       <c r="Q38" s="25" t="str">
@@ -4075,21 +4133,21 @@
       </c>
       <c r="R38" s="12"/>
       <c r="S38" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="T38" s="11" t="str">
-        <f t="shared" si="71"/>
+        <f t="shared" si="95"/>
         <v>Octaflower, the Creative Archive's logo. A geometric lotus flower composed of eight rows of eight petals in rainbow progression.</v>
       </c>
       <c r="U38" s="11" t="str">
-        <f t="shared" si="72"/>
-        <v>All content classified under Travel</v>
+        <f t="shared" si="96"/>
+        <v>Classed as 'Finance' in the «SITE-NAME»</v>
       </c>
       <c r="V38" s="12"/>
       <c r="W38" s="11"/>
       <c r="X38" s="11" t="str">
-        <f t="shared" si="70"/>
-        <v>«SITE-HTTP»/tag-Travel</v>
+        <f t="shared" si="94"/>
+        <v>«SITE-HTTP»/tag-Finance</v>
       </c>
       <c r="Y38" s="12"/>
       <c r="Z38" s="12"/>
@@ -4099,63 +4157,64 @@
       <c r="AD38" s="12"/>
       <c r="AE38" s="12"/>
       <c r="AF38" s="12"/>
-    </row>
-    <row r="39" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="AG38" s="12"/>
+    </row>
+    <row r="39" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A39" s="11" t="str">
-        <f>"tag-"&amp;SUBSTITUTE(Tags!$A9," ","-")</f>
-        <v>tag-Wallpaper</v>
+        <f>"tag-"&amp;SUBSTITUTE(Tags!$A6," ","-")</f>
+        <v>tag-Creative-Archive</v>
       </c>
       <c r="B39" s="25" t="str">
-        <f>Tags!$B9</f>
-        <v>No</v>
+        <f>Tags!$B6</f>
+        <v>Yes</v>
       </c>
       <c r="C39" s="25"/>
       <c r="D39" s="11" t="str">
-        <f>D$37</f>
-        <v>«PAGE-FEATURED-EMPTY»</v>
+        <f>$D$37</f>
+        <v>«PAGE-SIMPLE»</v>
       </c>
       <c r="E39" s="11" t="str">
-        <f>E$37</f>
-        <v>«FEATURED-ITEM:Filter{"Tags"-&gt;_?(StringMatchQ[#,___~~"«POST:Load»"~~___]&amp;),"Type"-&gt;_,"Day"-&gt;_?NumberQ,"Month"-&gt;_?NumberQ,"Year"-&gt;_?NumberQ}»</v>
+        <f>$E$37</f>
+        <v>«TAGSELECT:Filter{"Tags"-&gt;_?(StringMatchQ[#,___~~"«POST:Load»"~~___]&amp;),"Type"-&gt;_,"Day"-&gt;_?NumberQ,"Month"-&gt;_?NumberQ,"Year"-&gt;_?NumberQ}»</v>
       </c>
       <c r="F39" s="25" t="str">
-        <f t="shared" si="73"/>
+        <f t="shared" si="97"/>
         <v>archive</v>
       </c>
       <c r="G39" s="11" t="str">
-        <f>"All"&amp;" "&amp;H39&amp;"s"</f>
-        <v>All Wallpapers</v>
+        <f>"Classed as '"&amp;Tags!$A6&amp;"'"</f>
+        <v>Classed as 'Creative-Archive'</v>
       </c>
       <c r="H39" s="11" t="str">
-        <f>Tags!$A9</f>
-        <v>Wallpaper</v>
+        <f>Tags!$A6</f>
+        <v>Creative-Archive</v>
       </c>
       <c r="I39" s="22"/>
       <c r="J39" s="22" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="90"/>
         <v>2018-03-02</v>
       </c>
       <c r="K39" s="22" t="str">
-        <f t="shared" ca="1" si="59"/>
+        <f t="shared" ca="1" si="83"/>
         <v>yearly</v>
       </c>
       <c r="L39" s="29">
-        <v>43018</v>
+        <v>43069</v>
       </c>
       <c r="M39" s="15">
-        <f t="shared" si="67"/>
-        <v>10</v>
+        <f t="shared" si="91"/>
+        <v>30</v>
       </c>
       <c r="N39" s="30">
-        <f t="shared" si="68"/>
-        <v>10</v>
+        <f t="shared" si="92"/>
+        <v>11</v>
       </c>
       <c r="O39" s="30">
-        <f t="shared" si="69"/>
+        <f t="shared" si="93"/>
         <v>2017</v>
       </c>
       <c r="P39" s="25" t="str">
-        <f t="shared" si="74"/>
+        <f t="shared" si="98"/>
         <v>Tag</v>
       </c>
       <c r="Q39" s="25" t="str">
@@ -4164,21 +4223,21 @@
       </c>
       <c r="R39" s="12"/>
       <c r="S39" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="T39" s="11" t="str">
-        <f t="shared" si="71"/>
+        <f t="shared" si="95"/>
         <v>Octaflower, the Creative Archive's logo. A geometric lotus flower composed of eight rows of eight petals in rainbow progression.</v>
       </c>
       <c r="U39" s="11" t="str">
-        <f t="shared" si="72"/>
-        <v>All content classified under Wallpaper</v>
+        <f t="shared" si="96"/>
+        <v>Classed as 'Creative-Archive' in the «SITE-NAME»</v>
       </c>
       <c r="V39" s="12"/>
       <c r="W39" s="11"/>
       <c r="X39" s="11" t="str">
-        <f t="shared" si="70"/>
-        <v>«SITE-HTTP»/tag-Wallpaper</v>
+        <f t="shared" si="94"/>
+        <v>«SITE-HTTP»/tag-Creative-Archive</v>
       </c>
       <c r="Y39" s="12"/>
       <c r="Z39" s="12"/>
@@ -4188,63 +4247,64 @@
       <c r="AD39" s="12"/>
       <c r="AE39" s="12"/>
       <c r="AF39" s="12"/>
-    </row>
-    <row r="40" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="AG39" s="12"/>
+    </row>
+    <row r="40" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A40" s="11" t="str">
-        <f>"tag-"&amp;SUBSTITUTE(Tags!$A10," ","-")</f>
-        <v>tag-Game</v>
+        <f>"tag-"&amp;SUBSTITUTE(Tags!$A7," ","-")</f>
+        <v>tag-Mosaic</v>
       </c>
       <c r="B40" s="25" t="str">
-        <f>Tags!$B10</f>
-        <v>Yes</v>
-      </c>
-      <c r="C40" s="25"/>
-      <c r="D40" s="11" t="str">
-        <f>D$37</f>
-        <v>«PAGE-FEATURED-EMPTY»</v>
-      </c>
-      <c r="E40" s="11" t="str">
-        <f>$E$37</f>
-        <v>«FEATURED-ITEM:Filter{"Tags"-&gt;_?(StringMatchQ[#,___~~"«POST:Load»"~~___]&amp;),"Type"-&gt;_,"Day"-&gt;_?NumberQ,"Month"-&gt;_?NumberQ,"Year"-&gt;_?NumberQ}»</v>
+        <f>Tags!$B7</f>
+        <v>No</v>
+      </c>
+      <c r="C40" s="32">
+        <v>5</v>
+      </c>
+      <c r="D40" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="E40" s="12" t="s">
+        <v>106</v>
       </c>
       <c r="F40" s="25" t="str">
-        <f t="shared" si="73"/>
+        <f t="shared" si="97"/>
         <v>archive</v>
       </c>
       <c r="G40" s="11" t="str">
-        <f>"All"&amp;" "&amp;H40&amp;"s"</f>
-        <v>All Games</v>
+        <f>H40&amp;"s"</f>
+        <v>Mosaics</v>
       </c>
       <c r="H40" s="11" t="str">
-        <f>Tags!$A10</f>
-        <v>Game</v>
+        <f>Tags!$A7</f>
+        <v>Mosaic</v>
       </c>
       <c r="I40" s="22"/>
       <c r="J40" s="22" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="90"/>
         <v>2018-03-02</v>
       </c>
       <c r="K40" s="22" t="str">
-        <f t="shared" ref="K40" ca="1" si="75">IF(TODAY()-DATEVALUE(J40)&lt;15,"weekly",IF(TODAY()-DATEVALUE(J40)&lt;60,"monthly","yearly"))</f>
+        <f t="shared" ca="1" si="83"/>
         <v>yearly</v>
       </c>
       <c r="L40" s="29">
-        <v>41773</v>
+        <v>43018</v>
       </c>
       <c r="M40" s="15">
-        <f t="shared" si="67"/>
-        <v>14</v>
+        <f t="shared" si="91"/>
+        <v>10</v>
       </c>
       <c r="N40" s="30">
-        <f t="shared" si="68"/>
-        <v>5</v>
+        <f t="shared" si="92"/>
+        <v>10</v>
       </c>
       <c r="O40" s="30">
-        <f t="shared" si="69"/>
-        <v>2014</v>
+        <f t="shared" si="93"/>
+        <v>2017</v>
       </c>
       <c r="P40" s="25" t="str">
-        <f t="shared" si="74"/>
+        <f t="shared" si="98"/>
         <v>Tag</v>
       </c>
       <c r="Q40" s="25" t="str">
@@ -4253,21 +4313,21 @@
       </c>
       <c r="R40" s="12"/>
       <c r="S40" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="T40" s="11" t="str">
-        <f t="shared" si="71"/>
+        <f t="shared" si="95"/>
         <v>Octaflower, the Creative Archive's logo. A geometric lotus flower composed of eight rows of eight petals in rainbow progression.</v>
       </c>
       <c r="U40" s="11" t="str">
-        <f t="shared" si="72"/>
-        <v>All content classified under Game</v>
+        <f t="shared" si="96"/>
+        <v>Mosaics in the «SITE-NAME»</v>
       </c>
       <c r="V40" s="12"/>
       <c r="W40" s="11"/>
       <c r="X40" s="11" t="str">
-        <f t="shared" si="70"/>
-        <v>«SITE-HTTP»/tag-Game</v>
+        <f t="shared" si="94"/>
+        <v>«SITE-HTTP»/tag-Mosaic</v>
       </c>
       <c r="Y40" s="12"/>
       <c r="Z40" s="12"/>
@@ -4277,63 +4337,64 @@
       <c r="AD40" s="12"/>
       <c r="AE40" s="12"/>
       <c r="AF40" s="12"/>
-    </row>
-    <row r="41" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="AG40" s="12"/>
+    </row>
+    <row r="41" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A41" s="11" t="str">
-        <f>"tag-"&amp;SUBSTITUTE(Tags!$A11," ","-")</f>
-        <v>tag-Sitemap</v>
+        <f>"tag-"&amp;SUBSTITUTE(Tags!$A8," ","-")</f>
+        <v>tag-Travel</v>
       </c>
       <c r="B41" s="25" t="str">
-        <f>Tags!$B11</f>
-        <v>Yes</v>
+        <f>Tags!$B8</f>
+        <v>No</v>
       </c>
       <c r="C41" s="25"/>
       <c r="D41" s="11" t="str">
-        <f>$D$34</f>
+        <f>$D$37</f>
         <v>«PAGE-SIMPLE»</v>
       </c>
       <c r="E41" s="11" t="str">
-        <f>$E$34</f>
+        <f>$E$37</f>
         <v>«TAGSELECT:Filter{"Tags"-&gt;_?(StringMatchQ[#,___~~"«POST:Load»"~~___]&amp;),"Type"-&gt;_,"Day"-&gt;_?NumberQ,"Month"-&gt;_?NumberQ,"Year"-&gt;_?NumberQ}»</v>
       </c>
       <c r="F41" s="25" t="str">
-        <f t="shared" si="73"/>
+        <f t="shared" si="97"/>
         <v>archive</v>
       </c>
       <c r="G41" s="11" t="str">
-        <f>"Classed as '"&amp;Tags!$A11&amp;"'"</f>
-        <v>Classed as 'Sitemap'</v>
+        <f>"Classed as '"&amp;Tags!$A8&amp;"'"</f>
+        <v>Classed as 'Travel'</v>
       </c>
       <c r="H41" s="11" t="str">
-        <f>Tags!$A11</f>
-        <v>Sitemap</v>
+        <f>Tags!$A8</f>
+        <v>Travel</v>
       </c>
       <c r="I41" s="22"/>
       <c r="J41" s="22" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="90"/>
         <v>2018-03-02</v>
       </c>
       <c r="K41" s="22" t="str">
-        <f t="shared" ref="K41" ca="1" si="76">IF(TODAY()-DATEVALUE(J41)&lt;15,"weekly",IF(TODAY()-DATEVALUE(J41)&lt;60,"monthly","yearly"))</f>
+        <f t="shared" ca="1" si="83"/>
         <v>yearly</v>
       </c>
       <c r="L41" s="29">
-        <v>43070</v>
+        <v>43018</v>
       </c>
       <c r="M41" s="15">
-        <f t="shared" si="67"/>
-        <v>1</v>
+        <f t="shared" si="91"/>
+        <v>10</v>
       </c>
       <c r="N41" s="30">
-        <f t="shared" si="68"/>
-        <v>12</v>
+        <f t="shared" si="92"/>
+        <v>10</v>
       </c>
       <c r="O41" s="30">
-        <f t="shared" si="69"/>
+        <f t="shared" si="93"/>
         <v>2017</v>
       </c>
       <c r="P41" s="25" t="str">
-        <f t="shared" si="74"/>
+        <f t="shared" si="98"/>
         <v>Tag</v>
       </c>
       <c r="Q41" s="25" t="str">
@@ -4342,21 +4403,21 @@
       </c>
       <c r="R41" s="12"/>
       <c r="S41" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="T41" s="11" t="str">
-        <f t="shared" si="71"/>
+        <f t="shared" si="95"/>
         <v>Octaflower, the Creative Archive's logo. A geometric lotus flower composed of eight rows of eight petals in rainbow progression.</v>
       </c>
       <c r="U41" s="11" t="str">
-        <f t="shared" si="72"/>
-        <v>All content classified under Sitemap</v>
+        <f t="shared" si="96"/>
+        <v>Classed as 'Travel' in the «SITE-NAME»</v>
       </c>
       <c r="V41" s="12"/>
       <c r="W41" s="11"/>
       <c r="X41" s="11" t="str">
-        <f t="shared" si="70"/>
-        <v>«SITE-HTTP»/tag-Sitemap</v>
+        <f t="shared" si="94"/>
+        <v>«SITE-HTTP»/tag-Travel</v>
       </c>
       <c r="Y41" s="12"/>
       <c r="Z41" s="12"/>
@@ -4366,63 +4427,64 @@
       <c r="AD41" s="12"/>
       <c r="AE41" s="12"/>
       <c r="AF41" s="12"/>
-    </row>
-    <row r="42" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="AG41" s="12"/>
+    </row>
+    <row r="42" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A42" s="11" t="str">
-        <f>"tag-"&amp;SUBSTITUTE(Tags!$A12," ","-")</f>
-        <v>tag-Class</v>
+        <f>"tag-"&amp;SUBSTITUTE(Tags!$A9," ","-")</f>
+        <v>tag-Wallpaper</v>
       </c>
       <c r="B42" s="25" t="str">
-        <f>Tags!$B12</f>
+        <f>Tags!$B9</f>
         <v>No</v>
       </c>
       <c r="C42" s="25"/>
       <c r="D42" s="11" t="str">
-        <f>$D$34</f>
-        <v>«PAGE-SIMPLE»</v>
+        <f>D$40</f>
+        <v>«PAGE-FEATURED-EMPTY»</v>
       </c>
       <c r="E42" s="11" t="str">
-        <f>$E$34</f>
-        <v>«TAGSELECT:Filter{"Tags"-&gt;_?(StringMatchQ[#,___~~"«POST:Load»"~~___]&amp;),"Type"-&gt;_,"Day"-&gt;_?NumberQ,"Month"-&gt;_?NumberQ,"Year"-&gt;_?NumberQ}»</v>
+        <f>E$40</f>
+        <v>«FEATURED-ITEM:Filter{"Tags"-&gt;_?(StringMatchQ[#,___~~"«POST:Load»"~~___]&amp;),"Type"-&gt;_,"Day"-&gt;_?NumberQ,"Month"-&gt;_?NumberQ,"Year"-&gt;_?NumberQ}»</v>
       </c>
       <c r="F42" s="25" t="str">
-        <f t="shared" si="73"/>
+        <f t="shared" si="97"/>
         <v>archive</v>
       </c>
       <c r="G42" s="11" t="str">
-        <f>"All"&amp;" "&amp;H42&amp;"es"</f>
-        <v>All Classes</v>
+        <f>"All"&amp;" "&amp;H42&amp;"s"</f>
+        <v>All Wallpapers</v>
       </c>
       <c r="H42" s="11" t="str">
-        <f>Tags!$A12</f>
-        <v>Class</v>
+        <f>Tags!$A9</f>
+        <v>Wallpaper</v>
       </c>
       <c r="I42" s="22"/>
       <c r="J42" s="22" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="90"/>
         <v>2018-03-02</v>
       </c>
       <c r="K42" s="22" t="str">
-        <f t="shared" ref="K42" ca="1" si="77">IF(TODAY()-DATEVALUE(J42)&lt;15,"weekly",IF(TODAY()-DATEVALUE(J42)&lt;60,"monthly","yearly"))</f>
+        <f t="shared" ca="1" si="83"/>
         <v>yearly</v>
       </c>
       <c r="L42" s="29">
-        <v>41773</v>
+        <v>43018</v>
       </c>
       <c r="M42" s="15">
-        <f t="shared" si="67"/>
-        <v>14</v>
+        <f t="shared" si="91"/>
+        <v>10</v>
       </c>
       <c r="N42" s="30">
-        <f t="shared" si="68"/>
-        <v>5</v>
+        <f t="shared" si="92"/>
+        <v>10</v>
       </c>
       <c r="O42" s="30">
-        <f t="shared" si="69"/>
-        <v>2014</v>
+        <f t="shared" si="93"/>
+        <v>2017</v>
       </c>
       <c r="P42" s="25" t="str">
-        <f t="shared" si="74"/>
+        <f t="shared" si="98"/>
         <v>Tag</v>
       </c>
       <c r="Q42" s="25" t="str">
@@ -4431,21 +4493,21 @@
       </c>
       <c r="R42" s="12"/>
       <c r="S42" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="T42" s="11" t="str">
-        <f t="shared" si="71"/>
+        <f t="shared" si="95"/>
         <v>Octaflower, the Creative Archive's logo. A geometric lotus flower composed of eight rows of eight petals in rainbow progression.</v>
       </c>
       <c r="U42" s="11" t="str">
-        <f t="shared" si="72"/>
-        <v>All content classified under Class</v>
+        <f t="shared" si="96"/>
+        <v>All Wallpapers in the «SITE-NAME»</v>
       </c>
       <c r="V42" s="12"/>
       <c r="W42" s="11"/>
       <c r="X42" s="11" t="str">
-        <f t="shared" si="70"/>
-        <v>«SITE-HTTP»/tag-Class</v>
+        <f t="shared" si="94"/>
+        <v>«SITE-HTTP»/tag-Wallpaper</v>
       </c>
       <c r="Y42" s="12"/>
       <c r="Z42" s="12"/>
@@ -4455,63 +4517,64 @@
       <c r="AD42" s="12"/>
       <c r="AE42" s="12"/>
       <c r="AF42" s="12"/>
-    </row>
-    <row r="43" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="AG42" s="12"/>
+    </row>
+    <row r="43" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A43" s="11" t="str">
-        <f>"tag-"&amp;SUBSTITUTE(Tags!$A13," ","-")</f>
-        <v>tag-Nature</v>
+        <f>"tag-"&amp;SUBSTITUTE(Tags!$A10," ","-")</f>
+        <v>tag-Game</v>
       </c>
       <c r="B43" s="25" t="str">
-        <f>Tags!$B13</f>
-        <v>No</v>
+        <f>Tags!$B10</f>
+        <v>Yes</v>
       </c>
       <c r="C43" s="25"/>
       <c r="D43" s="11" t="str">
-        <f>$D$34</f>
-        <v>«PAGE-SIMPLE»</v>
+        <f>D$40</f>
+        <v>«PAGE-FEATURED-EMPTY»</v>
       </c>
       <c r="E43" s="11" t="str">
-        <f>$E$34</f>
-        <v>«TAGSELECT:Filter{"Tags"-&gt;_?(StringMatchQ[#,___~~"«POST:Load»"~~___]&amp;),"Type"-&gt;_,"Day"-&gt;_?NumberQ,"Month"-&gt;_?NumberQ,"Year"-&gt;_?NumberQ}»</v>
+        <f>$E$40</f>
+        <v>«FEATURED-ITEM:Filter{"Tags"-&gt;_?(StringMatchQ[#,___~~"«POST:Load»"~~___]&amp;),"Type"-&gt;_,"Day"-&gt;_?NumberQ,"Month"-&gt;_?NumberQ,"Year"-&gt;_?NumberQ}»</v>
       </c>
       <c r="F43" s="25" t="str">
-        <f t="shared" si="73"/>
+        <f t="shared" si="97"/>
         <v>archive</v>
       </c>
       <c r="G43" s="11" t="str">
-        <f>"Classed as '"&amp;Tags!$A13&amp;"'"</f>
-        <v>Classed as 'Nature'</v>
+        <f>"All"&amp;" "&amp;H43&amp;"s"</f>
+        <v>All Games</v>
       </c>
       <c r="H43" s="11" t="str">
-        <f>Tags!$A13</f>
-        <v>Nature</v>
+        <f>Tags!$A10</f>
+        <v>Game</v>
       </c>
       <c r="I43" s="22"/>
       <c r="J43" s="22" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="90"/>
         <v>2018-03-02</v>
       </c>
       <c r="K43" s="22" t="str">
-        <f t="shared" ref="K43" ca="1" si="78">IF(TODAY()-DATEVALUE(J43)&lt;15,"weekly",IF(TODAY()-DATEVALUE(J43)&lt;60,"monthly","yearly"))</f>
+        <f t="shared" ref="K43" ca="1" si="99">IF(TODAY()-DATEVALUE(J43)&lt;15,"weekly",IF(TODAY()-DATEVALUE(J43)&lt;60,"monthly","yearly"))</f>
         <v>yearly</v>
       </c>
       <c r="L43" s="29">
-        <v>43225</v>
+        <v>41773</v>
       </c>
       <c r="M43" s="15">
-        <f t="shared" ref="M43" si="79">DAY(L43)</f>
+        <f t="shared" si="91"/>
+        <v>14</v>
+      </c>
+      <c r="N43" s="30">
+        <f t="shared" si="92"/>
         <v>5</v>
       </c>
-      <c r="N43" s="30">
-        <f t="shared" ref="N43" si="80">MONTH(L43)</f>
-        <v>5</v>
-      </c>
       <c r="O43" s="30">
-        <f t="shared" ref="O43" si="81">YEAR(L43)</f>
-        <v>2018</v>
+        <f t="shared" si="93"/>
+        <v>2014</v>
       </c>
       <c r="P43" s="25" t="str">
-        <f t="shared" si="74"/>
+        <f t="shared" si="98"/>
         <v>Tag</v>
       </c>
       <c r="Q43" s="25" t="str">
@@ -4520,21 +4583,21 @@
       </c>
       <c r="R43" s="12"/>
       <c r="S43" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="T43" s="11" t="str">
-        <f t="shared" si="71"/>
+        <f t="shared" si="95"/>
         <v>Octaflower, the Creative Archive's logo. A geometric lotus flower composed of eight rows of eight petals in rainbow progression.</v>
       </c>
       <c r="U43" s="11" t="str">
-        <f t="shared" ref="U43" si="82">"All content classified under "&amp;H43</f>
-        <v>All content classified under Nature</v>
+        <f t="shared" si="96"/>
+        <v>All Games in the «SITE-NAME»</v>
       </c>
       <c r="V43" s="12"/>
       <c r="W43" s="11"/>
       <c r="X43" s="11" t="str">
-        <f t="shared" si="70"/>
-        <v>«SITE-HTTP»/tag-Nature</v>
+        <f t="shared" si="94"/>
+        <v>«SITE-HTTP»/tag-Game</v>
       </c>
       <c r="Y43" s="12"/>
       <c r="Z43" s="12"/>
@@ -4544,63 +4607,64 @@
       <c r="AD43" s="12"/>
       <c r="AE43" s="12"/>
       <c r="AF43" s="12"/>
-    </row>
-    <row r="44" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="AG43" s="12"/>
+    </row>
+    <row r="44" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A44" s="11" t="str">
-        <f>"tag-"&amp;SUBSTITUTE(Tags!$A14," ","-")</f>
-        <v>tag-Role-playing</v>
+        <f>"tag-"&amp;SUBSTITUTE(Tags!$A11," ","-")</f>
+        <v>tag-Sitemap</v>
       </c>
       <c r="B44" s="25" t="str">
-        <f>Tags!$B14</f>
+        <f>Tags!$B11</f>
         <v>Yes</v>
       </c>
       <c r="C44" s="25"/>
       <c r="D44" s="11" t="str">
-        <f>D$37</f>
-        <v>«PAGE-FEATURED-EMPTY»</v>
+        <f>$D$37</f>
+        <v>«PAGE-SIMPLE»</v>
       </c>
       <c r="E44" s="11" t="str">
         <f>$E$37</f>
-        <v>«FEATURED-ITEM:Filter{"Tags"-&gt;_?(StringMatchQ[#,___~~"«POST:Load»"~~___]&amp;),"Type"-&gt;_,"Day"-&gt;_?NumberQ,"Month"-&gt;_?NumberQ,"Year"-&gt;_?NumberQ}»</v>
+        <v>«TAGSELECT:Filter{"Tags"-&gt;_?(StringMatchQ[#,___~~"«POST:Load»"~~___]&amp;),"Type"-&gt;_,"Day"-&gt;_?NumberQ,"Month"-&gt;_?NumberQ,"Year"-&gt;_?NumberQ}»</v>
       </c>
       <c r="F44" s="25" t="str">
-        <f t="shared" si="73"/>
+        <f t="shared" si="97"/>
         <v>archive</v>
       </c>
       <c r="G44" s="11" t="str">
-        <f>"Classed as '"&amp;Tags!$A14&amp;"'"</f>
-        <v>Classed as 'Role-playing'</v>
+        <f>"Classed as '"&amp;Tags!$A11&amp;"'"</f>
+        <v>Classed as 'Sitemap'</v>
       </c>
       <c r="H44" s="11" t="str">
-        <f>Tags!$A14</f>
-        <v>Role-playing</v>
+        <f>Tags!$A11</f>
+        <v>Sitemap</v>
       </c>
       <c r="I44" s="22"/>
       <c r="J44" s="22" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="90"/>
         <v>2018-03-02</v>
       </c>
       <c r="K44" s="22" t="str">
-        <f t="shared" ref="K44" ca="1" si="83">IF(TODAY()-DATEVALUE(J44)&lt;15,"weekly",IF(TODAY()-DATEVALUE(J44)&lt;60,"monthly","yearly"))</f>
+        <f t="shared" ref="K44" ca="1" si="100">IF(TODAY()-DATEVALUE(J44)&lt;15,"weekly",IF(TODAY()-DATEVALUE(J44)&lt;60,"monthly","yearly"))</f>
         <v>yearly</v>
       </c>
       <c r="L44" s="29">
-        <v>43320</v>
+        <v>43070</v>
       </c>
       <c r="M44" s="15">
-        <f t="shared" ref="M44" si="84">DAY(L44)</f>
-        <v>8</v>
+        <f t="shared" si="91"/>
+        <v>1</v>
       </c>
       <c r="N44" s="30">
-        <f t="shared" ref="N44" si="85">MONTH(L44)</f>
-        <v>8</v>
+        <f t="shared" si="92"/>
+        <v>12</v>
       </c>
       <c r="O44" s="30">
-        <f t="shared" ref="O44" si="86">YEAR(L44)</f>
-        <v>2018</v>
+        <f t="shared" si="93"/>
+        <v>2017</v>
       </c>
       <c r="P44" s="25" t="str">
-        <f t="shared" si="74"/>
+        <f t="shared" si="98"/>
         <v>Tag</v>
       </c>
       <c r="Q44" s="25" t="str">
@@ -4609,21 +4673,21 @@
       </c>
       <c r="R44" s="12"/>
       <c r="S44" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="T44" s="11" t="str">
-        <f t="shared" si="71"/>
+        <f t="shared" si="95"/>
         <v>Octaflower, the Creative Archive's logo. A geometric lotus flower composed of eight rows of eight petals in rainbow progression.</v>
       </c>
       <c r="U44" s="11" t="str">
-        <f t="shared" ref="U44" si="87">"All content classified under "&amp;H44</f>
-        <v>All content classified under Role-playing</v>
+        <f t="shared" si="96"/>
+        <v>Classed as 'Sitemap' in the «SITE-NAME»</v>
       </c>
       <c r="V44" s="12"/>
       <c r="W44" s="11"/>
       <c r="X44" s="11" t="str">
-        <f t="shared" ref="X44" si="88">"«SITE-HTTP»/"&amp;A44</f>
-        <v>«SITE-HTTP»/tag-Role-playing</v>
+        <f t="shared" si="94"/>
+        <v>«SITE-HTTP»/tag-Sitemap</v>
       </c>
       <c r="Y44" s="12"/>
       <c r="Z44" s="12"/>
@@ -4633,63 +4697,64 @@
       <c r="AD44" s="12"/>
       <c r="AE44" s="12"/>
       <c r="AF44" s="12"/>
-    </row>
-    <row r="45" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="AG44" s="12"/>
+    </row>
+    <row r="45" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A45" s="11" t="str">
-        <f>"tag-"&amp;SUBSTITUTE(Tags!$A15," ","-")</f>
-        <v>tag-Add-on</v>
+        <f>"tag-"&amp;SUBSTITUTE(Tags!$A12," ","-")</f>
+        <v>tag-Class</v>
       </c>
       <c r="B45" s="25" t="str">
-        <f>Tags!$B15</f>
+        <f>Tags!$B12</f>
         <v>No</v>
       </c>
       <c r="C45" s="25"/>
       <c r="D45" s="11" t="str">
-        <f>$D$34</f>
+        <f>$D$37</f>
         <v>«PAGE-SIMPLE»</v>
       </c>
       <c r="E45" s="11" t="str">
-        <f>$E$34</f>
+        <f>$E$37</f>
         <v>«TAGSELECT:Filter{"Tags"-&gt;_?(StringMatchQ[#,___~~"«POST:Load»"~~___]&amp;),"Type"-&gt;_,"Day"-&gt;_?NumberQ,"Month"-&gt;_?NumberQ,"Year"-&gt;_?NumberQ}»</v>
       </c>
       <c r="F45" s="25" t="str">
-        <f t="shared" si="73"/>
+        <f t="shared" si="97"/>
         <v>archive</v>
       </c>
       <c r="G45" s="11" t="str">
-        <f>"All"&amp;" "&amp;H45&amp;"s"</f>
-        <v>All Add-ons</v>
+        <f>"All"&amp;" "&amp;H45&amp;"es"</f>
+        <v>All Classes</v>
       </c>
       <c r="H45" s="11" t="str">
-        <f>Tags!$A15</f>
-        <v>Add-on</v>
+        <f>Tags!$A12</f>
+        <v>Class</v>
       </c>
       <c r="I45" s="22"/>
       <c r="J45" s="22" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="90"/>
         <v>2018-03-02</v>
       </c>
       <c r="K45" s="22" t="str">
-        <f t="shared" ref="K45" ca="1" si="89">IF(TODAY()-DATEVALUE(J45)&lt;15,"weekly",IF(TODAY()-DATEVALUE(J45)&lt;60,"monthly","yearly"))</f>
+        <f t="shared" ref="K45" ca="1" si="101">IF(TODAY()-DATEVALUE(J45)&lt;15,"weekly",IF(TODAY()-DATEVALUE(J45)&lt;60,"monthly","yearly"))</f>
         <v>yearly</v>
       </c>
       <c r="L45" s="29">
-        <v>43349</v>
+        <v>41773</v>
       </c>
       <c r="M45" s="15">
-        <f t="shared" ref="M45" si="90">DAY(L45)</f>
-        <v>6</v>
+        <f t="shared" si="91"/>
+        <v>14</v>
       </c>
       <c r="N45" s="30">
-        <f t="shared" ref="N45" si="91">MONTH(L45)</f>
-        <v>9</v>
+        <f t="shared" si="92"/>
+        <v>5</v>
       </c>
       <c r="O45" s="30">
-        <f t="shared" ref="O45" si="92">YEAR(L45)</f>
-        <v>2018</v>
+        <f t="shared" si="93"/>
+        <v>2014</v>
       </c>
       <c r="P45" s="25" t="str">
-        <f t="shared" si="74"/>
+        <f t="shared" si="98"/>
         <v>Tag</v>
       </c>
       <c r="Q45" s="25" t="str">
@@ -4698,21 +4763,21 @@
       </c>
       <c r="R45" s="12"/>
       <c r="S45" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="T45" s="11" t="str">
-        <f t="shared" si="71"/>
+        <f t="shared" si="95"/>
         <v>Octaflower, the Creative Archive's logo. A geometric lotus flower composed of eight rows of eight petals in rainbow progression.</v>
       </c>
       <c r="U45" s="11" t="str">
-        <f t="shared" ref="U45" si="93">"All content classified under "&amp;H45</f>
-        <v>All content classified under Add-on</v>
+        <f t="shared" si="96"/>
+        <v>All Classes in the «SITE-NAME»</v>
       </c>
       <c r="V45" s="12"/>
       <c r="W45" s="11"/>
       <c r="X45" s="11" t="str">
-        <f t="shared" ref="X45" si="94">"«SITE-HTTP»/"&amp;A45</f>
-        <v>«SITE-HTTP»/tag-Add-on</v>
+        <f t="shared" si="94"/>
+        <v>«SITE-HTTP»/tag-Class</v>
       </c>
       <c r="Y45" s="12"/>
       <c r="Z45" s="12"/>
@@ -4722,63 +4787,64 @@
       <c r="AD45" s="12"/>
       <c r="AE45" s="12"/>
       <c r="AF45" s="12"/>
-    </row>
-    <row r="46" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="AG45" s="12"/>
+    </row>
+    <row r="46" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A46" s="11" t="str">
-        <f>"tag-"&amp;SUBSTITUTE(Tags!$A16," ","-")</f>
-        <v>tag-Art</v>
+        <f>"tag-"&amp;SUBSTITUTE(Tags!$A13," ","-")</f>
+        <v>tag-Nature</v>
       </c>
       <c r="B46" s="25" t="str">
-        <f>Tags!$B16</f>
-        <v>Yes</v>
+        <f>Tags!$B13</f>
+        <v>No</v>
       </c>
       <c r="C46" s="25"/>
       <c r="D46" s="11" t="str">
-        <f>$D$34</f>
+        <f>$D$37</f>
         <v>«PAGE-SIMPLE»</v>
       </c>
       <c r="E46" s="11" t="str">
-        <f>$E$34</f>
+        <f>$E$37</f>
         <v>«TAGSELECT:Filter{"Tags"-&gt;_?(StringMatchQ[#,___~~"«POST:Load»"~~___]&amp;),"Type"-&gt;_,"Day"-&gt;_?NumberQ,"Month"-&gt;_?NumberQ,"Year"-&gt;_?NumberQ}»</v>
       </c>
       <c r="F46" s="25" t="str">
-        <f t="shared" si="73"/>
+        <f t="shared" si="97"/>
         <v>archive</v>
       </c>
       <c r="G46" s="11" t="str">
-        <f>"All"&amp;" "&amp;H46</f>
-        <v>All Art</v>
+        <f>"Classed as '"&amp;Tags!$A13&amp;"'"</f>
+        <v>Classed as 'Nature'</v>
       </c>
       <c r="H46" s="11" t="str">
-        <f>Tags!$A16</f>
-        <v>Art</v>
+        <f>Tags!$A13</f>
+        <v>Nature</v>
       </c>
       <c r="I46" s="22"/>
       <c r="J46" s="22" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="90"/>
         <v>2018-03-02</v>
       </c>
       <c r="K46" s="22" t="str">
-        <f t="shared" ref="K46" ca="1" si="95">IF(TODAY()-DATEVALUE(J46)&lt;15,"weekly",IF(TODAY()-DATEVALUE(J46)&lt;60,"monthly","yearly"))</f>
+        <f t="shared" ref="K46" ca="1" si="102">IF(TODAY()-DATEVALUE(J46)&lt;15,"weekly",IF(TODAY()-DATEVALUE(J46)&lt;60,"monthly","yearly"))</f>
         <v>yearly</v>
       </c>
       <c r="L46" s="29">
-        <v>43377</v>
+        <v>43225</v>
       </c>
       <c r="M46" s="15">
-        <f t="shared" ref="M46" si="96">DAY(L46)</f>
-        <v>4</v>
+        <f t="shared" ref="M46" si="103">DAY(L46)</f>
+        <v>5</v>
       </c>
       <c r="N46" s="30">
-        <f t="shared" ref="N46" si="97">MONTH(L46)</f>
-        <v>10</v>
+        <f t="shared" ref="N46" si="104">MONTH(L46)</f>
+        <v>5</v>
       </c>
       <c r="O46" s="30">
-        <f t="shared" ref="O46" si="98">YEAR(L46)</f>
+        <f t="shared" ref="O46" si="105">YEAR(L46)</f>
         <v>2018</v>
       </c>
       <c r="P46" s="25" t="str">
-        <f t="shared" si="74"/>
+        <f t="shared" si="98"/>
         <v>Tag</v>
       </c>
       <c r="Q46" s="25" t="str">
@@ -4787,21 +4853,21 @@
       </c>
       <c r="R46" s="12"/>
       <c r="S46" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="T46" s="11" t="str">
-        <f t="shared" si="71"/>
+        <f t="shared" si="95"/>
         <v>Octaflower, the Creative Archive's logo. A geometric lotus flower composed of eight rows of eight petals in rainbow progression.</v>
       </c>
       <c r="U46" s="11" t="str">
-        <f t="shared" ref="U46" si="99">"All content classified under "&amp;H46</f>
-        <v>All content classified under Art</v>
+        <f t="shared" si="96"/>
+        <v>Classed as 'Nature' in the «SITE-NAME»</v>
       </c>
       <c r="V46" s="12"/>
       <c r="W46" s="11"/>
       <c r="X46" s="11" t="str">
-        <f t="shared" ref="X46" si="100">"«SITE-HTTP»/"&amp;A46</f>
-        <v>«SITE-HTTP»/tag-Art</v>
+        <f t="shared" si="94"/>
+        <v>«SITE-HTTP»/tag-Nature</v>
       </c>
       <c r="Y46" s="12"/>
       <c r="Z46" s="12"/>
@@ -4811,6 +4877,367 @@
       <c r="AD46" s="12"/>
       <c r="AE46" s="12"/>
       <c r="AF46" s="12"/>
+      <c r="AG46" s="12"/>
+    </row>
+    <row r="47" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A47" s="11" t="str">
+        <f>"tag-"&amp;SUBSTITUTE(Tags!$A14," ","-")</f>
+        <v>tag-Role-playing</v>
+      </c>
+      <c r="B47" s="25" t="str">
+        <f>Tags!$B14</f>
+        <v>Yes</v>
+      </c>
+      <c r="C47" s="25"/>
+      <c r="D47" s="11" t="str">
+        <f>D$40</f>
+        <v>«PAGE-FEATURED-EMPTY»</v>
+      </c>
+      <c r="E47" s="11" t="str">
+        <f>$E$40</f>
+        <v>«FEATURED-ITEM:Filter{"Tags"-&gt;_?(StringMatchQ[#,___~~"«POST:Load»"~~___]&amp;),"Type"-&gt;_,"Day"-&gt;_?NumberQ,"Month"-&gt;_?NumberQ,"Year"-&gt;_?NumberQ}»</v>
+      </c>
+      <c r="F47" s="25" t="str">
+        <f t="shared" si="97"/>
+        <v>archive</v>
+      </c>
+      <c r="G47" s="11" t="str">
+        <f>"All"&amp;" "&amp;H47&amp;" games"</f>
+        <v>All Role-playing games</v>
+      </c>
+      <c r="H47" s="11" t="str">
+        <f>Tags!$A14</f>
+        <v>Role-playing</v>
+      </c>
+      <c r="I47" s="22"/>
+      <c r="J47" s="22" t="str">
+        <f t="shared" si="90"/>
+        <v>2018-03-02</v>
+      </c>
+      <c r="K47" s="22" t="str">
+        <f t="shared" ref="K47" ca="1" si="106">IF(TODAY()-DATEVALUE(J47)&lt;15,"weekly",IF(TODAY()-DATEVALUE(J47)&lt;60,"monthly","yearly"))</f>
+        <v>yearly</v>
+      </c>
+      <c r="L47" s="29">
+        <v>43320</v>
+      </c>
+      <c r="M47" s="15">
+        <f t="shared" ref="M47" si="107">DAY(L47)</f>
+        <v>8</v>
+      </c>
+      <c r="N47" s="30">
+        <f t="shared" ref="N47" si="108">MONTH(L47)</f>
+        <v>8</v>
+      </c>
+      <c r="O47" s="30">
+        <f t="shared" ref="O47" si="109">YEAR(L47)</f>
+        <v>2018</v>
+      </c>
+      <c r="P47" s="25" t="str">
+        <f t="shared" si="98"/>
+        <v>Tag</v>
+      </c>
+      <c r="Q47" s="25" t="str">
+        <f>Tags!$A$12</f>
+        <v>Class</v>
+      </c>
+      <c r="R47" s="12"/>
+      <c r="S47" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="T47" s="11" t="str">
+        <f t="shared" si="95"/>
+        <v>Octaflower, the Creative Archive's logo. A geometric lotus flower composed of eight rows of eight petals in rainbow progression.</v>
+      </c>
+      <c r="U47" s="11" t="str">
+        <f t="shared" si="96"/>
+        <v>All Role-playing games in the «SITE-NAME»</v>
+      </c>
+      <c r="V47" s="12"/>
+      <c r="W47" s="11"/>
+      <c r="X47" s="11" t="str">
+        <f t="shared" ref="X47" si="110">"«SITE-HTTP»/"&amp;A47</f>
+        <v>«SITE-HTTP»/tag-Role-playing</v>
+      </c>
+      <c r="Y47" s="12"/>
+      <c r="Z47" s="12"/>
+      <c r="AA47" s="12"/>
+      <c r="AB47" s="12"/>
+      <c r="AC47" s="12"/>
+      <c r="AD47" s="12"/>
+      <c r="AE47" s="12"/>
+      <c r="AF47" s="12"/>
+      <c r="AG47" s="12"/>
+    </row>
+    <row r="48" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A48" s="11" t="str">
+        <f>"tag-"&amp;SUBSTITUTE(Tags!$A15," ","-")</f>
+        <v>tag-Add-on</v>
+      </c>
+      <c r="B48" s="25" t="str">
+        <f>Tags!$B15</f>
+        <v>No</v>
+      </c>
+      <c r="C48" s="25"/>
+      <c r="D48" s="11" t="str">
+        <f>$D$37</f>
+        <v>«PAGE-SIMPLE»</v>
+      </c>
+      <c r="E48" s="11" t="str">
+        <f>$E$37</f>
+        <v>«TAGSELECT:Filter{"Tags"-&gt;_?(StringMatchQ[#,___~~"«POST:Load»"~~___]&amp;),"Type"-&gt;_,"Day"-&gt;_?NumberQ,"Month"-&gt;_?NumberQ,"Year"-&gt;_?NumberQ}»</v>
+      </c>
+      <c r="F48" s="25" t="str">
+        <f t="shared" si="97"/>
+        <v>archive</v>
+      </c>
+      <c r="G48" s="11" t="str">
+        <f>"All"&amp;" "&amp;H48&amp;"s"</f>
+        <v>All Add-ons</v>
+      </c>
+      <c r="H48" s="11" t="str">
+        <f>Tags!$A15</f>
+        <v>Add-on</v>
+      </c>
+      <c r="I48" s="22"/>
+      <c r="J48" s="22" t="str">
+        <f t="shared" si="90"/>
+        <v>2018-03-02</v>
+      </c>
+      <c r="K48" s="22" t="str">
+        <f t="shared" ref="K48" ca="1" si="111">IF(TODAY()-DATEVALUE(J48)&lt;15,"weekly",IF(TODAY()-DATEVALUE(J48)&lt;60,"monthly","yearly"))</f>
+        <v>yearly</v>
+      </c>
+      <c r="L48" s="29">
+        <v>43349</v>
+      </c>
+      <c r="M48" s="15">
+        <f t="shared" ref="M48" si="112">DAY(L48)</f>
+        <v>6</v>
+      </c>
+      <c r="N48" s="30">
+        <f t="shared" ref="N48" si="113">MONTH(L48)</f>
+        <v>9</v>
+      </c>
+      <c r="O48" s="30">
+        <f t="shared" ref="O48" si="114">YEAR(L48)</f>
+        <v>2018</v>
+      </c>
+      <c r="P48" s="25" t="str">
+        <f t="shared" si="98"/>
+        <v>Tag</v>
+      </c>
+      <c r="Q48" s="25" t="str">
+        <f>Tags!$A$12</f>
+        <v>Class</v>
+      </c>
+      <c r="R48" s="12"/>
+      <c r="S48" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="T48" s="11" t="str">
+        <f t="shared" si="95"/>
+        <v>Octaflower, the Creative Archive's logo. A geometric lotus flower composed of eight rows of eight petals in rainbow progression.</v>
+      </c>
+      <c r="U48" s="11" t="str">
+        <f t="shared" si="96"/>
+        <v>All Add-ons in the «SITE-NAME»</v>
+      </c>
+      <c r="V48" s="12"/>
+      <c r="W48" s="11"/>
+      <c r="X48" s="11" t="str">
+        <f t="shared" ref="X48" si="115">"«SITE-HTTP»/"&amp;A48</f>
+        <v>«SITE-HTTP»/tag-Add-on</v>
+      </c>
+      <c r="Y48" s="12"/>
+      <c r="Z48" s="12"/>
+      <c r="AA48" s="12"/>
+      <c r="AB48" s="12"/>
+      <c r="AC48" s="12"/>
+      <c r="AD48" s="12"/>
+      <c r="AE48" s="12"/>
+      <c r="AF48" s="12"/>
+      <c r="AG48" s="12"/>
+    </row>
+    <row r="49" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A49" s="11" t="str">
+        <f>"tag-"&amp;SUBSTITUTE(Tags!$A16," ","-")</f>
+        <v>tag-Art</v>
+      </c>
+      <c r="B49" s="25" t="str">
+        <f>Tags!$B16</f>
+        <v>Yes</v>
+      </c>
+      <c r="C49" s="25"/>
+      <c r="D49" s="11" t="str">
+        <f>$D$37</f>
+        <v>«PAGE-SIMPLE»</v>
+      </c>
+      <c r="E49" s="11" t="str">
+        <f>$E$37</f>
+        <v>«TAGSELECT:Filter{"Tags"-&gt;_?(StringMatchQ[#,___~~"«POST:Load»"~~___]&amp;),"Type"-&gt;_,"Day"-&gt;_?NumberQ,"Month"-&gt;_?NumberQ,"Year"-&gt;_?NumberQ}»</v>
+      </c>
+      <c r="F49" s="25" t="str">
+        <f t="shared" si="97"/>
+        <v>archive</v>
+      </c>
+      <c r="G49" s="11" t="str">
+        <f>"All"&amp;" "&amp;H49</f>
+        <v>All Art</v>
+      </c>
+      <c r="H49" s="11" t="str">
+        <f>Tags!$A16</f>
+        <v>Art</v>
+      </c>
+      <c r="I49" s="22"/>
+      <c r="J49" s="22" t="str">
+        <f t="shared" si="90"/>
+        <v>2018-03-02</v>
+      </c>
+      <c r="K49" s="22" t="str">
+        <f t="shared" ref="K49" ca="1" si="116">IF(TODAY()-DATEVALUE(J49)&lt;15,"weekly",IF(TODAY()-DATEVALUE(J49)&lt;60,"monthly","yearly"))</f>
+        <v>yearly</v>
+      </c>
+      <c r="L49" s="29">
+        <v>43377</v>
+      </c>
+      <c r="M49" s="15">
+        <f t="shared" ref="M49" si="117">DAY(L49)</f>
+        <v>4</v>
+      </c>
+      <c r="N49" s="30">
+        <f t="shared" ref="N49" si="118">MONTH(L49)</f>
+        <v>10</v>
+      </c>
+      <c r="O49" s="30">
+        <f t="shared" ref="O49" si="119">YEAR(L49)</f>
+        <v>2018</v>
+      </c>
+      <c r="P49" s="25" t="str">
+        <f t="shared" si="98"/>
+        <v>Tag</v>
+      </c>
+      <c r="Q49" s="25" t="str">
+        <f>Tags!$A$12</f>
+        <v>Class</v>
+      </c>
+      <c r="R49" s="12"/>
+      <c r="S49" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="T49" s="11" t="str">
+        <f t="shared" si="95"/>
+        <v>Octaflower, the Creative Archive's logo. A geometric lotus flower composed of eight rows of eight petals in rainbow progression.</v>
+      </c>
+      <c r="U49" s="11" t="str">
+        <f t="shared" si="96"/>
+        <v>All Art in the «SITE-NAME»</v>
+      </c>
+      <c r="V49" s="12"/>
+      <c r="W49" s="11"/>
+      <c r="X49" s="11" t="str">
+        <f t="shared" ref="X49" si="120">"«SITE-HTTP»/"&amp;A49</f>
+        <v>«SITE-HTTP»/tag-Art</v>
+      </c>
+      <c r="Y49" s="12"/>
+      <c r="Z49" s="12"/>
+      <c r="AA49" s="12"/>
+      <c r="AB49" s="12"/>
+      <c r="AC49" s="12"/>
+      <c r="AD49" s="12"/>
+      <c r="AE49" s="12"/>
+      <c r="AF49" s="12"/>
+      <c r="AG49" s="12"/>
+    </row>
+    <row r="50" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A50" s="11" t="str">
+        <f>"tag-"&amp;SUBSTITUTE(Tags!$A17," ","-")</f>
+        <v>tag-Log</v>
+      </c>
+      <c r="B50" s="25" t="str">
+        <f>Tags!$B17</f>
+        <v>Yes</v>
+      </c>
+      <c r="C50" s="25"/>
+      <c r="D50" s="11" t="str">
+        <f>$D$37</f>
+        <v>«PAGE-SIMPLE»</v>
+      </c>
+      <c r="E50" s="11" t="str">
+        <f>$E$37</f>
+        <v>«TAGSELECT:Filter{"Tags"-&gt;_?(StringMatchQ[#,___~~"«POST:Load»"~~___]&amp;),"Type"-&gt;_,"Day"-&gt;_?NumberQ,"Month"-&gt;_?NumberQ,"Year"-&gt;_?NumberQ}»</v>
+      </c>
+      <c r="F50" s="25" t="str">
+        <f t="shared" si="97"/>
+        <v>archive</v>
+      </c>
+      <c r="G50" s="11" t="str">
+        <f>"All Project "&amp;H50&amp;"s"</f>
+        <v>All Project Logs</v>
+      </c>
+      <c r="H50" s="11" t="str">
+        <f>Tags!$A17</f>
+        <v>Log</v>
+      </c>
+      <c r="I50" s="22"/>
+      <c r="J50" s="22" t="str">
+        <f t="shared" si="90"/>
+        <v>2018-03-02</v>
+      </c>
+      <c r="K50" s="22" t="str">
+        <f t="shared" ref="K50" ca="1" si="121">IF(TODAY()-DATEVALUE(J50)&lt;15,"weekly",IF(TODAY()-DATEVALUE(J50)&lt;60,"monthly","yearly"))</f>
+        <v>yearly</v>
+      </c>
+      <c r="L50" s="29">
+        <v>43426</v>
+      </c>
+      <c r="M50" s="15">
+        <f t="shared" ref="M50" si="122">DAY(L50)</f>
+        <v>22</v>
+      </c>
+      <c r="N50" s="30">
+        <f t="shared" ref="N50" si="123">MONTH(L50)</f>
+        <v>11</v>
+      </c>
+      <c r="O50" s="30">
+        <f t="shared" ref="O50" si="124">YEAR(L50)</f>
+        <v>2018</v>
+      </c>
+      <c r="P50" s="25" t="str">
+        <f t="shared" si="98"/>
+        <v>Tag</v>
+      </c>
+      <c r="Q50" s="25" t="str">
+        <f>Tags!$A$12</f>
+        <v>Class</v>
+      </c>
+      <c r="R50" s="12"/>
+      <c r="S50" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="T50" s="11" t="str">
+        <f t="shared" si="95"/>
+        <v>Octaflower, the Creative Archive's logo. A geometric lotus flower composed of eight rows of eight petals in rainbow progression.</v>
+      </c>
+      <c r="U50" s="11" t="str">
+        <f t="shared" si="96"/>
+        <v>All Project Logs in the «SITE-NAME»</v>
+      </c>
+      <c r="V50" s="12"/>
+      <c r="W50" s="11"/>
+      <c r="X50" s="11" t="str">
+        <f t="shared" ref="X50" si="125">"«SITE-HTTP»/"&amp;A50</f>
+        <v>«SITE-HTTP»/tag-Log</v>
+      </c>
+      <c r="Y50" s="12"/>
+      <c r="Z50" s="12"/>
+      <c r="AA50" s="12"/>
+      <c r="AB50" s="12"/>
+      <c r="AC50" s="12"/>
+      <c r="AD50" s="12"/>
+      <c r="AE50" s="12"/>
+      <c r="AF50" s="12"/>
+      <c r="AG50" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4820,10 +5247,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4836,24 +5263,24 @@
         <v>2</v>
       </c>
       <c r="B1" s="27" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B2" s="26" t="str">
-        <f>IF(COUNTIFS(EN!$Q$1:$Q$25,"*"&amp;Tags!$A2&amp;"*",EN!$B$1:$B$25,"Yes")&gt;0,"Yes","No")</f>
+        <f>IF(COUNTIFS(EN!$Q$1:$Q$28,"*"&amp;Tags!$A2&amp;"*",EN!$B$1:$B$28,"Yes")&gt;0,"Yes","No")</f>
         <v>Yes</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B3" s="26" t="str">
-        <f>IF(COUNTIFS(EN!$Q$1:$Q$25,"*"&amp;Tags!$A3&amp;"*",EN!$B$1:$B$25,"Yes")&gt;0,"Yes","No")</f>
+        <f>IF(COUNTIFS(EN!$Q$1:$Q$28,"*"&amp;Tags!$A3&amp;"*",EN!$B$1:$B$28,"Yes")&gt;0,"Yes","No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -4862,52 +5289,52 @@
         <v>3</v>
       </c>
       <c r="B4" s="26" t="str">
-        <f>IF(COUNTIFS(EN!$Q$1:$Q$25,"*"&amp;Tags!$A4&amp;"*",EN!$B$1:$B$25,"Yes")&gt;0,"Yes","No")</f>
+        <f>IF(COUNTIFS(EN!$Q$1:$Q$28,"*"&amp;Tags!$A4&amp;"*",EN!$B$1:$B$28,"Yes")&gt;0,"Yes","No")</f>
         <v>Yes</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B5" s="26" t="str">
-        <f>IF(COUNTIFS(EN!$Q$1:$Q$25,"*"&amp;Tags!$A5&amp;"*",EN!$B$1:$B$25,"Yes")&gt;0,"Yes","No")</f>
+        <f>IF(COUNTIFS(EN!$Q$1:$Q$28,"*"&amp;Tags!$A5&amp;"*",EN!$B$1:$B$28,"Yes")&gt;0,"Yes","No")</f>
         <v>No</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B6" s="26" t="str">
-        <f>IF(COUNTIFS(EN!$Q$1:$Q$25,"*"&amp;Tags!$A6&amp;"*",EN!$B$1:$B$25,"Yes")&gt;0,"Yes","No")</f>
+        <f>IF(COUNTIFS(EN!$Q$1:$Q$28,"*"&amp;Tags!$A6&amp;"*",EN!$B$1:$B$28,"Yes")&gt;0,"Yes","No")</f>
         <v>Yes</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B7" s="26" t="str">
-        <f>IF(COUNTIFS(EN!$Q$1:$Q$25,"*"&amp;Tags!$A7&amp;"*",EN!$B$1:$B$25,"Yes")&gt;0,"Yes","No")</f>
+        <f>IF(COUNTIFS(EN!$Q$1:$Q$28,"*"&amp;Tags!$A7&amp;"*",EN!$B$1:$B$28,"Yes")&gt;0,"Yes","No")</f>
         <v>No</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B8" s="26" t="str">
-        <f>IF(COUNTIFS(EN!$Q$1:$Q$25,"*"&amp;Tags!$A8&amp;"*",EN!$B$1:$B$25,"Yes")&gt;0,"Yes","No")</f>
+        <f>IF(COUNTIFS(EN!$Q$1:$Q$28,"*"&amp;Tags!$A8&amp;"*",EN!$B$1:$B$28,"Yes")&gt;0,"Yes","No")</f>
         <v>No</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B9" s="26" t="str">
-        <f>IF(COUNTIFS(EN!$Q$1:$Q$25,"*"&amp;Tags!$A9&amp;"*",EN!$B$1:$B$25,"Yes")&gt;0,"Yes","No")</f>
+        <f>IF(COUNTIFS(EN!$Q$1:$Q$28,"*"&amp;Tags!$A9&amp;"*",EN!$B$1:$B$28,"Yes")&gt;0,"Yes","No")</f>
         <v>No</v>
       </c>
     </row>
@@ -4916,194 +5343,72 @@
         <v>25</v>
       </c>
       <c r="B10" s="26" t="str">
-        <f>IF(COUNTIFS(EN!$Q$1:$Q$25,"*"&amp;Tags!$A10&amp;"*",EN!$B$1:$B$25,"Yes")&gt;0,"Yes","No")</f>
+        <f>IF(COUNTIFS(EN!$Q$1:$Q$28,"*"&amp;Tags!$A10&amp;"*",EN!$B$1:$B$28,"Yes")&gt;0,"Yes","No")</f>
         <v>Yes</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B11" s="26" t="str">
-        <f>IF(COUNTIFS(EN!$Q$1:$Q$25,"*"&amp;Tags!$A11&amp;"*",EN!$B$1:$B$25,"Yes")&gt;0,"Yes","No")</f>
+        <f>IF(COUNTIFS(EN!$Q$1:$Q$28,"*"&amp;Tags!$A11&amp;"*",EN!$B$1:$B$28,"Yes")&gt;0,"Yes","No")</f>
         <v>Yes</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B12" s="26" t="str">
-        <f>IF(COUNTIFS(EN!$Q$1:$Q$25,"*"&amp;Tags!$A12&amp;"*",EN!$B$1:$B$25,"Yes")&gt;0,"Yes","No")</f>
+        <f>IF(COUNTIFS(EN!$Q$1:$Q$28,"*"&amp;Tags!$A12&amp;"*",EN!$B$1:$B$28,"Yes")&gt;0,"Yes","No")</f>
         <v>No</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B13" s="26" t="str">
-        <f>IF(COUNTIFS(EN!$Q$1:$Q$25,"*"&amp;Tags!$A13&amp;"*",EN!$B$1:$B$25,"Yes")&gt;0,"Yes","No")</f>
+        <f>IF(COUNTIFS(EN!$Q$1:$Q$28,"*"&amp;Tags!$A13&amp;"*",EN!$B$1:$B$28,"Yes")&gt;0,"Yes","No")</f>
         <v>No</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B14" s="26" t="str">
-        <f>IF(COUNTIFS(EN!$Q$1:$Q$25,"*"&amp;Tags!$A14&amp;"*",EN!$B$1:$B$25,"Yes")&gt;0,"Yes","No")</f>
+        <f>IF(COUNTIFS(EN!$Q$1:$Q$28,"*"&amp;Tags!$A14&amp;"*",EN!$B$1:$B$28,"Yes")&gt;0,"Yes","No")</f>
         <v>Yes</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B15" s="26" t="str">
-        <f>IF(COUNTIFS(EN!$Q$1:$Q$25,"*"&amp;Tags!$A15&amp;"*",EN!$B$1:$B$25,"Yes")&gt;0,"Yes","No")</f>
+        <f>IF(COUNTIFS(EN!$Q$1:$Q$28,"*"&amp;Tags!$A15&amp;"*",EN!$B$1:$B$28,"Yes")&gt;0,"Yes","No")</f>
         <v>No</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B16" s="26" t="str">
-        <f>IF(COUNTIFS(EN!$Q$1:$Q$25,"*"&amp;Tags!$A16&amp;"*",EN!$B$1:$B$25,"Yes")&gt;0,"Yes","No")</f>
+        <f>IF(COUNTIFS(EN!$Q$1:$Q$28,"*"&amp;Tags!$A16&amp;"*",EN!$B$1:$B$28,"Yes")&gt;0,"Yes","No")</f>
         <v>Yes</v>
       </c>
     </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData>
-    <row r="1" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="5" t="str">
-        <f>EN!A1</f>
-        <v>Link</v>
-      </c>
-      <c r="B1" s="5" t="str">
-        <f>EN!B1</f>
-        <v>New</v>
-      </c>
-      <c r="C1" s="5" t="str">
-        <f>EN!D1</f>
-        <v>Page</v>
-      </c>
-      <c r="D1" s="5" t="str">
-        <f>EN!E1</f>
-        <v>Content</v>
-      </c>
-      <c r="E1" s="5" t="str">
-        <f>EN!F1</f>
-        <v>Style</v>
-      </c>
-      <c r="F1" s="5" t="str">
-        <f>EN!G1</f>
-        <v>Title</v>
-      </c>
-      <c r="G1" s="5" t="str">
-        <f>EN!H1</f>
-        <v>Post</v>
-      </c>
-      <c r="H1" s="5" t="str">
-        <f>EN!I1</f>
-        <v>Update</v>
-      </c>
-      <c r="I1" s="5" t="str">
-        <f>EN!J1</f>
-        <v>Up-da-te</v>
-      </c>
-      <c r="J1" s="5" t="str">
-        <f>EN!K1</f>
-        <v>Freq</v>
-      </c>
-      <c r="K1" s="5" t="str">
-        <f>EN!L1</f>
-        <v>Date</v>
-      </c>
-      <c r="L1" s="5" t="str">
-        <f>EN!M1</f>
-        <v>Day</v>
-      </c>
-      <c r="M1" s="5" t="str">
-        <f>EN!N1</f>
-        <v>Month</v>
-      </c>
-      <c r="N1" s="5" t="str">
-        <f>EN!O1</f>
-        <v>Year</v>
-      </c>
-      <c r="O1" s="5" t="str">
-        <f>EN!P1</f>
-        <v>Type</v>
-      </c>
-      <c r="P1" s="5" t="str">
-        <f>EN!Q1</f>
-        <v>Tags</v>
-      </c>
-      <c r="Q1" s="5" t="str">
-        <f>EN!R1</f>
-        <v>Featured</v>
-      </c>
-      <c r="R1" s="5" t="str">
-        <f>EN!S1</f>
-        <v>Image</v>
-      </c>
-      <c r="S1" s="5" t="str">
-        <f>EN!T1</f>
-        <v>Imagealt</v>
-      </c>
-      <c r="T1" s="5" t="str">
-        <f>EN!U1</f>
-        <v>Description</v>
-      </c>
-      <c r="U1" s="5" t="str">
-        <f>EN!V1</f>
-        <v>Typegraph</v>
-      </c>
-      <c r="V1" s="5" t="str">
-        <f>EN!W1</f>
-        <v>Ext</v>
-      </c>
-      <c r="W1" s="5" t="str">
-        <f>EN!Y1</f>
-        <v>Comment</v>
-      </c>
-      <c r="X1" s="5" t="str">
-        <f>EN!Z1</f>
-        <v>Honours</v>
-      </c>
-      <c r="Y1" s="5" t="str">
-        <f>EN!AA1</f>
-        <v>GN</v>
-      </c>
-      <c r="Z1" s="5" t="str">
-        <f>EN!AB1</f>
-        <v>Controls</v>
-      </c>
-    </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="P2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A6" s="7"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>178</v>
+      </c>
+      <c r="B17" s="26" t="str">
+        <f>IF(COUNTIFS(EN!$Q$1:$Q$28,"*"&amp;Tags!$A17&amp;"*",EN!$B$1:$B$28,"Yes")&gt;0,"Yes","No")</f>
+        <v>Yes</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/cms/CMS.xlsx
+++ b/cms/CMS.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="178">
   <si>
     <t>Title</t>
   </si>
@@ -341,24 +341,6 @@
     <t>«PAGE-FEATURED-EMPTY»</t>
   </si>
   <si>
-    <t>Forums</t>
-  </si>
-  <si>
-    <t>jT5Gev7</t>
-  </si>
-  <si>
-    <t>xncUgFx</t>
-  </si>
-  <si>
-    <t>tYb7GTx</t>
-  </si>
-  <si>
-    <t>8GmcCb</t>
-  </si>
-  <si>
-    <t>Gg6FVk</t>
-  </si>
-  <si>
     <t>Nature</t>
   </si>
   <si>
@@ -398,12 +380,6 @@
     <t>Hastefulll</t>
   </si>
   <si>
-    <t>RxUMt9V</t>
-  </si>
-  <si>
-    <t>ukcmt7g</t>
-  </si>
-  <si>
     <t>8b10ae059158c0c4a93c05c9437d0706</t>
   </si>
   <si>
@@ -536,9 +512,6 @@
     <t>Gravirinth</t>
   </si>
   <si>
-    <t>77937957/F835ABD0/purchase</t>
-  </si>
-  <si>
     <t>Status</t>
   </si>
   <si>
@@ -573,6 +546,9 @@
   </si>
   <si>
     <t>Subscribe</t>
+  </si>
+  <si>
+    <t>Rj1dstT8Y0wrQBS3tQSiTdLOS9SbIR1i</t>
   </si>
 </sst>
 </file>
@@ -1040,13 +1016,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG50"/>
+  <dimension ref="A1:AF50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="W14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E17" sqref="E17"/>
+      <selection pane="bottomRight" activeCell="AA25" sqref="AA25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1078,12 +1054,12 @@
     <col min="25" max="25" width="15.90625" style="2"/>
     <col min="26" max="26" width="19.54296875" style="2" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="25.36328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="28" max="32" width="15.90625" style="2"/>
-    <col min="33" max="33" width="23.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="34" max="16384" width="15.90625" style="2"/>
+    <col min="28" max="31" width="15.90625" style="2"/>
+    <col min="32" max="32" width="23.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="33" max="16384" width="15.90625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>10</v>
       </c>
@@ -1154,37 +1130,34 @@
         <v>80</v>
       </c>
       <c r="X1" s="5" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="Y1" s="5" t="s">
         <v>39</v>
       </c>
       <c r="Z1" s="5" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="AA1" s="5" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="AB1" s="5" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="AC1" s="5" t="s">
         <v>84</v>
       </c>
       <c r="AD1" s="5" t="s">
-        <v>108</v>
+        <v>124</v>
       </c>
       <c r="AE1" s="5" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="AF1" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="AG1" s="5" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.35">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="2" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A2" s="9" t="s">
         <v>46</v>
       </c>
@@ -1198,7 +1171,7 @@
         <v>34</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="H2" s="7" t="str">
         <f>"«"&amp;A2&amp;"»"</f>
@@ -1263,7 +1236,7 @@
         <v>«SITE-HTTP»/2017-12-01-first-post</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A3" s="9" t="s">
         <v>50</v>
       </c>
@@ -1278,7 +1251,7 @@
         <v>34</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="H3" s="7" t="str">
         <f>"«"&amp;A3&amp;"»"</f>
@@ -1343,7 +1316,7 @@
         <v>«SITE-HTTP»/2018-02-08-support-the-archive</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A4" s="9" t="s">
         <v>43</v>
       </c>
@@ -1423,7 +1396,7 @@
         <v>«SITE-HTTP»/2018-01-04-wikipedia-donation</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A5" s="16" t="s">
         <v>62</v>
       </c>
@@ -1507,7 +1480,7 @@
       </c>
       <c r="Z5" s="3"/>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A6" s="16" t="s">
         <v>69</v>
       </c>
@@ -1591,7 +1564,7 @@
       <c r="Y6" s="3"/>
       <c r="Z6" s="3"/>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A7" s="16" t="s">
         <v>63</v>
       </c>
@@ -1676,7 +1649,7 @@
       </c>
       <c r="Z7" s="3"/>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A8" s="16" t="s">
         <v>73</v>
       </c>
@@ -1759,7 +1732,7 @@
       <c r="Y8" s="3"/>
       <c r="Z8" s="3"/>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A9" s="7" t="str">
         <f>SUBSTITUTE(LOWER(G9)," ","-")</f>
         <v>about</v>
@@ -1782,7 +1755,7 @@
         <v>34</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="H9" s="7" t="str">
         <f>"«"&amp;A9&amp;"»"</f>
@@ -1843,7 +1816,7 @@
         <v>«SITE-HTTP»/about</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A10" s="9" t="s">
         <v>42</v>
       </c>
@@ -1854,10 +1827,10 @@
         <v>83</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="I10" s="16"/>
       <c r="J10" s="23" t="s">
@@ -1910,7 +1883,7 @@
         <v>«SITE-HTTP»/index</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A11" s="7" t="str">
         <f>SUBSTITUTE(LOWER(G11)," ","-")</f>
         <v>guestbook</v>
@@ -1925,13 +1898,13 @@
         <v>29</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>34</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="H11" s="7" t="str">
         <f t="shared" ref="H11:H18" si="8">"«"&amp;A11&amp;"»"</f>
@@ -1964,7 +1937,7 @@
         <v>2018</v>
       </c>
       <c r="P11" s="2" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="Q11" s="2" t="str">
         <f>Tags!$A$6</f>
@@ -1981,7 +1954,7 @@
         <v>Octaflower, the Creative Archive's logo. A geometric lotus flower composed of eight rows of eight petals in rainbow progression.</v>
       </c>
       <c r="U11" s="9" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="V11" s="7" t="str">
         <f>IF(P11="Post","article","website")</f>
@@ -1992,7 +1965,7 @@
         <v>«SITE-HTTP»/guestbook</v>
       </c>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A12" s="7" t="str">
         <f>SUBSTITUTE(LOWER(G12)," ","-")</f>
         <v>contact</v>
@@ -2040,7 +2013,7 @@
         <v>Octaflower, the Creative Archive's logo. A geometric lotus flower composed of eight rows of eight petals in rainbow progression.</v>
       </c>
       <c r="U12" s="9" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="V12" s="7" t="str">
         <f>IF(P12="Post","article","website")</f>
@@ -2051,7 +2024,7 @@
         <v>«SITE-HTTP»/contact</v>
       </c>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A13" s="7" t="str">
         <f>SUBSTITUTE(LOWER(G13)," ","-")</f>
         <v>hall-of-fame</v>
@@ -2119,7 +2092,7 @@
         <v>Octaflower, the Creative Archive's logo. A geometric lotus flower composed of eight rows of eight petals in rainbow progression.</v>
       </c>
       <c r="U13" s="9" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="V13" s="7" t="str">
         <f>IF(P13="Post","article","website")</f>
@@ -2130,7 +2103,7 @@
         <v>«SITE-HTTP»/hall-of-fame</v>
       </c>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A14" s="7" t="str">
         <f t="shared" ref="A14:A17" si="17">SUBSTITUTE(LOWER(G14)," ","-")</f>
         <v>tetrastrophe</v>
@@ -2142,7 +2115,7 @@
         <v>49</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>34</v>
@@ -2217,22 +2190,19 @@
         <v>38</v>
       </c>
       <c r="AB14" s="2" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="AD14" s="2" t="s">
-        <v>112</v>
+        <v>133</v>
       </c>
       <c r="AE14" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="AF14" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="AG14" s="4" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.35">
+        <v>135</v>
+      </c>
+      <c r="AF14" s="4" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A15" s="7" t="str">
         <f t="shared" si="17"/>
         <v>blockworks</v>
@@ -2245,7 +2215,7 @@
         <v>«PAGE-GAME-FULLSCREEN»</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="F15" s="28" t="str">
         <f>$F$14</f>
@@ -2322,22 +2292,19 @@
       </c>
       <c r="AA15"/>
       <c r="AB15" s="2" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="AD15" s="2" t="s">
-        <v>111</v>
+        <v>127</v>
       </c>
       <c r="AE15" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="AF15" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="AG15" s="4" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.35">
+        <v>128</v>
+      </c>
+      <c r="AF15" s="4" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A16" s="7" t="str">
         <f t="shared" ref="A16" si="24">SUBSTITUTE(LOWER(G16)," ","-")</f>
         <v>whirlpuzzle</v>
@@ -2350,7 +2317,7 @@
         <v>«PAGE-GAME-FULLSCREEN»</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="F16" s="28" t="str">
         <f t="shared" ref="F16:F24" si="26">$F$14</f>
@@ -2424,25 +2391,22 @@
       </c>
       <c r="AA16" s="18"/>
       <c r="AB16" s="2" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="AC16" s="2" t="s">
         <v>85</v>
       </c>
       <c r="AD16" s="2" t="s">
-        <v>110</v>
+        <v>129</v>
       </c>
       <c r="AE16" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="AF16" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="AF16" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="AG16" s="4" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.35">
+    </row>
+    <row r="17" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A17" s="7" t="str">
         <f t="shared" si="17"/>
         <v>unlucky-unlock</v>
@@ -2455,7 +2419,7 @@
         <v>«PAGE-GAME-FULLSCREEN»</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="F17" s="28" t="str">
         <f t="shared" si="26"/>
@@ -2528,25 +2492,22 @@
         <v>37</v>
       </c>
       <c r="AB17" s="2" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="AC17" s="2" t="s">
         <v>85</v>
       </c>
       <c r="AD17" s="2" t="s">
-        <v>113</v>
+        <v>136</v>
       </c>
       <c r="AE17" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="AF17" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="AG17" s="4" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.35">
+        <v>135</v>
+      </c>
+      <c r="AF17" s="4" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="18" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A18" s="9" t="s">
         <v>97</v>
       </c>
@@ -2628,39 +2589,36 @@
         <v>«SITE-HTTP»/pmgrp</v>
       </c>
       <c r="AB18" s="2" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="AC18" s="2" t="s">
         <v>85</v>
       </c>
       <c r="AD18" s="2" t="s">
-        <v>109</v>
+        <v>139</v>
       </c>
       <c r="AE18" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="AF18" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="AG18" s="4" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.35">
+        <v>130</v>
+      </c>
+      <c r="AF18" s="4" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="19" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A19" s="31" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>5</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="F19" s="28" t="s">
         <v>34</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="H19" s="9" t="str">
         <f>"«combinatura»"</f>
@@ -2712,26 +2670,23 @@
         <v>Combinatura</v>
       </c>
       <c r="U19" s="9" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="V19" s="7" t="str">
         <f t="shared" si="20"/>
         <v>game</v>
       </c>
       <c r="X19" s="31" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="Y19" s="2" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="AB19" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="AD19" s="2" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.35">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="20" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A20" s="7" t="str">
         <f t="shared" ref="A20:A23" si="37">SUBSTITUTE(LOWER(G20)," ","-")</f>
         <v>hastefulll</v>
@@ -2744,14 +2699,14 @@
         <v>«PAGE-GAME-FULLSCREEN»</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="F20" s="28" t="str">
         <f t="shared" si="26"/>
         <v>prose</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="H20" s="7" t="str">
         <f t="shared" ref="H20:H28" si="38">"«"&amp;A20&amp;"»"</f>
@@ -2815,25 +2770,22 @@
         <v>«SITE-HTTP»/hastefulll</v>
       </c>
       <c r="AB20" s="2" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="AC20" s="2" t="s">
         <v>85</v>
       </c>
       <c r="AD20" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="AE20" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="AE20" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="AF20" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="AG20" s="4" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="21" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="AF20" s="4" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="21" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A21" s="7" t="str">
         <f t="shared" si="37"/>
         <v>tiaradventur</v>
@@ -2846,14 +2798,14 @@
         <v>«PAGE-GAME-FULLSCREEN»</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="F21" s="28" t="str">
         <f t="shared" si="26"/>
         <v>prose</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="H21" s="7" t="str">
         <f t="shared" si="38"/>
@@ -2917,29 +2869,26 @@
         <v>«SITE-HTTP»/tiaradventur</v>
       </c>
       <c r="AA21" s="28" t="str">
-        <f>"«HONOURS-"&amp;UPPER(A21)&amp;"»"</f>
-        <v>«HONOURS-TIARADVENTUR»</v>
+        <f>"«HONOURS-HOF»"</f>
+        <v>«HONOURS-HOF»</v>
       </c>
       <c r="AB21" s="2" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="AC21" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="AD21" t="s">
-        <v>127</v>
+      <c r="AD21" s="2" t="s">
+        <v>150</v>
       </c>
       <c r="AE21" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="AF21" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="AG21" s="4" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="22" spans="1:33" x14ac:dyDescent="0.35">
+        <v>149</v>
+      </c>
+      <c r="AF21" s="4" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="22" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A22" s="7" t="str">
         <f t="shared" si="37"/>
         <v>nomadpage</v>
@@ -2951,13 +2900,13 @@
         <v>32</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="F22" s="4" t="s">
         <v>34</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="H22" s="7" t="str">
         <f t="shared" si="38"/>
@@ -3022,7 +2971,7 @@
         <v>«SITE-HTTP»/nomadpage</v>
       </c>
     </row>
-    <row r="23" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A23" s="7" t="str">
         <f t="shared" si="37"/>
         <v>abxtract-tractx</v>
@@ -3035,14 +2984,14 @@
         <v>«PAGE-GAME-FULLSCREEN»</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="F23" s="28" t="str">
         <f t="shared" si="26"/>
         <v>prose</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="H23" s="7" t="str">
         <f t="shared" ref="H23" si="54">"«"&amp;A23&amp;"»"</f>
@@ -3107,17 +3056,14 @@
       </c>
       <c r="AA23" s="28"/>
       <c r="AB23" s="2" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="AC23" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="AD23" t="s">
-        <v>127</v>
-      </c>
-      <c r="AG23" s="4"/>
-    </row>
-    <row r="24" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="AF23" s="4"/>
+    </row>
+    <row r="24" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A24" s="7" t="str">
         <f t="shared" ref="A24" si="63">SUBSTITUTE(LOWER(G24)," ","-")</f>
         <v>gravirinth</v>
@@ -3129,14 +3075,14 @@
         <v>32</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="F24" s="28" t="str">
         <f t="shared" si="26"/>
         <v>prose</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="H24" s="7" t="str">
         <f t="shared" si="38"/>
@@ -3152,7 +3098,7 @@
       </c>
       <c r="K24" s="10" t="str">
         <f t="shared" ca="1" si="49"/>
-        <v>weekly</v>
+        <v>monthly</v>
       </c>
       <c r="L24" s="3">
         <v>43427</v>
@@ -3200,21 +3146,21 @@
         <v>«SITE-HTTP»/gravirinth</v>
       </c>
       <c r="Z24" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="AA24" s="28"/>
+        <v>166</v>
+      </c>
+      <c r="AA24" s="28" t="str">
+        <f>$AA$21</f>
+        <v>«HONOURS-HOF»</v>
+      </c>
       <c r="AB24" s="2" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="AC24" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="AD24" t="s">
-        <v>127</v>
-      </c>
-      <c r="AG24" s="4"/>
-    </row>
-    <row r="25" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="AF24" s="4"/>
+    </row>
+    <row r="25" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A25" s="9" t="str">
         <f>A24&amp;"-log"</f>
         <v>gravirinth-log</v>
@@ -3296,7 +3242,7 @@
         <v>«SITE-HTTP»/gravirinth-log</v>
       </c>
     </row>
-    <row r="26" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A26" s="7" t="str">
         <f>SUBSTITUTE(LOWER(G26)," ","-")</f>
         <v>terms-of-use</v>
@@ -3375,7 +3321,7 @@
         <v>«SITE-HTTP»/terms-of-use</v>
       </c>
     </row>
-    <row r="27" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A27" s="7" t="str">
         <f>SUBSTITUTE(LOWER(G27)," ","-")</f>
         <v>privacy-policy</v>
@@ -3453,7 +3399,7 @@
         <v>«SITE-HTTP»/privacy-policy</v>
       </c>
     </row>
-    <row r="28" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A28" s="7" t="str">
         <f>SUBSTITUTE(LOWER(G28)," ","-")</f>
         <v>subscribe</v>
@@ -3472,7 +3418,7 @@
         <v>34</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="H28" s="7" t="str">
         <f t="shared" si="38"/>
@@ -3520,10 +3466,10 @@
         <v>gravirinth-log.png</v>
       </c>
       <c r="T28" s="9" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="U28" s="9" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="V28" s="7" t="str">
         <f t="shared" si="76"/>
@@ -3534,7 +3480,7 @@
         <v>«SITE-HTTP»/subscribe</v>
       </c>
     </row>
-    <row r="29" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A29" s="7" t="str">
         <f>SUBSTITUTE(LOWER(G29)," ","-")</f>
         <v>posts-by-date</v>
@@ -3596,7 +3542,7 @@
         <v>«SITE-HTTP»/posts-by-date</v>
       </c>
     </row>
-    <row r="30" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A30" s="7" t="str">
         <f>SUBSTITUTE(LOWER(G30)," ","-")</f>
         <v>posts-by-tag</v>
@@ -3611,7 +3557,7 @@
         <v>22</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>35</v>
@@ -3658,9 +3604,9 @@
         <v>«SITE-HTTP»/posts-by-tag</v>
       </c>
     </row>
-    <row r="31" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A31" s="7" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>5</v>
@@ -3669,10 +3615,10 @@
         <v>4</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>35</v>
@@ -3733,7 +3679,7 @@
         <v>«SITE-HTTP»/games</v>
       </c>
     </row>
-    <row r="32" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A32" s="7" t="s">
         <v>87</v>
       </c>
@@ -3752,7 +3698,7 @@
         <v>«SITE-HTTP»/robots</v>
       </c>
     </row>
-    <row r="33" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A33" s="7" t="s">
         <v>86</v>
       </c>
@@ -3774,7 +3720,7 @@
         <v>«SITE-HTTP»/sitemap</v>
       </c>
     </row>
-    <row r="34" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A34" s="7" t="s">
         <v>79</v>
       </c>
@@ -3803,7 +3749,7 @@
         <v>«SITE-HTTP»/rss</v>
       </c>
     </row>
-    <row r="35" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A35" s="11" t="str">
         <f>"tag-"&amp;SUBSTITUTE(Tags!$A2," ","-")</f>
         <v>tag-Platformer</v>
@@ -3889,9 +3835,8 @@
       <c r="AD35" s="12"/>
       <c r="AE35" s="12"/>
       <c r="AF35" s="12"/>
-      <c r="AG35" s="12"/>
-    </row>
-    <row r="36" spans="1:33" x14ac:dyDescent="0.35">
+    </row>
+    <row r="36" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A36" s="11" t="str">
         <f>"tag-"&amp;SUBSTITUTE(Tags!$A3," ","-")</f>
         <v>tag-Puzzle</v>
@@ -3979,9 +3924,8 @@
       <c r="AD36" s="12"/>
       <c r="AE36" s="12"/>
       <c r="AF36" s="12"/>
-      <c r="AG36" s="12"/>
-    </row>
-    <row r="37" spans="1:33" x14ac:dyDescent="0.35">
+    </row>
+    <row r="37" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A37" s="11" t="str">
         <f>"tag-"&amp;SUBSTITUTE(Tags!$A4," ","-")</f>
         <v>tag-Post</v>
@@ -4067,9 +4011,8 @@
       <c r="AD37" s="12"/>
       <c r="AE37" s="12"/>
       <c r="AF37" s="12"/>
-      <c r="AG37" s="12"/>
-    </row>
-    <row r="38" spans="1:33" x14ac:dyDescent="0.35">
+    </row>
+    <row r="38" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A38" s="11" t="str">
         <f>"tag-"&amp;SUBSTITUTE(Tags!$A5," ","-")</f>
         <v>tag-Finance</v>
@@ -4157,9 +4100,8 @@
       <c r="AD38" s="12"/>
       <c r="AE38" s="12"/>
       <c r="AF38" s="12"/>
-      <c r="AG38" s="12"/>
-    </row>
-    <row r="39" spans="1:33" x14ac:dyDescent="0.35">
+    </row>
+    <row r="39" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A39" s="11" t="str">
         <f>"tag-"&amp;SUBSTITUTE(Tags!$A6," ","-")</f>
         <v>tag-Creative-Archive</v>
@@ -4247,9 +4189,8 @@
       <c r="AD39" s="12"/>
       <c r="AE39" s="12"/>
       <c r="AF39" s="12"/>
-      <c r="AG39" s="12"/>
-    </row>
-    <row r="40" spans="1:33" x14ac:dyDescent="0.35">
+    </row>
+    <row r="40" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A40" s="11" t="str">
         <f>"tag-"&amp;SUBSTITUTE(Tags!$A7," ","-")</f>
         <v>tag-Mosaic</v>
@@ -4337,9 +4278,8 @@
       <c r="AD40" s="12"/>
       <c r="AE40" s="12"/>
       <c r="AF40" s="12"/>
-      <c r="AG40" s="12"/>
-    </row>
-    <row r="41" spans="1:33" x14ac:dyDescent="0.35">
+    </row>
+    <row r="41" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A41" s="11" t="str">
         <f>"tag-"&amp;SUBSTITUTE(Tags!$A8," ","-")</f>
         <v>tag-Travel</v>
@@ -4427,9 +4367,8 @@
       <c r="AD41" s="12"/>
       <c r="AE41" s="12"/>
       <c r="AF41" s="12"/>
-      <c r="AG41" s="12"/>
-    </row>
-    <row r="42" spans="1:33" x14ac:dyDescent="0.35">
+    </row>
+    <row r="42" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A42" s="11" t="str">
         <f>"tag-"&amp;SUBSTITUTE(Tags!$A9," ","-")</f>
         <v>tag-Wallpaper</v>
@@ -4517,9 +4456,8 @@
       <c r="AD42" s="12"/>
       <c r="AE42" s="12"/>
       <c r="AF42" s="12"/>
-      <c r="AG42" s="12"/>
-    </row>
-    <row r="43" spans="1:33" x14ac:dyDescent="0.35">
+    </row>
+    <row r="43" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A43" s="11" t="str">
         <f>"tag-"&amp;SUBSTITUTE(Tags!$A10," ","-")</f>
         <v>tag-Game</v>
@@ -4607,9 +4545,8 @@
       <c r="AD43" s="12"/>
       <c r="AE43" s="12"/>
       <c r="AF43" s="12"/>
-      <c r="AG43" s="12"/>
-    </row>
-    <row r="44" spans="1:33" x14ac:dyDescent="0.35">
+    </row>
+    <row r="44" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A44" s="11" t="str">
         <f>"tag-"&amp;SUBSTITUTE(Tags!$A11," ","-")</f>
         <v>tag-Sitemap</v>
@@ -4697,9 +4634,8 @@
       <c r="AD44" s="12"/>
       <c r="AE44" s="12"/>
       <c r="AF44" s="12"/>
-      <c r="AG44" s="12"/>
-    </row>
-    <row r="45" spans="1:33" x14ac:dyDescent="0.35">
+    </row>
+    <row r="45" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A45" s="11" t="str">
         <f>"tag-"&amp;SUBSTITUTE(Tags!$A12," ","-")</f>
         <v>tag-Class</v>
@@ -4787,9 +4723,8 @@
       <c r="AD45" s="12"/>
       <c r="AE45" s="12"/>
       <c r="AF45" s="12"/>
-      <c r="AG45" s="12"/>
-    </row>
-    <row r="46" spans="1:33" x14ac:dyDescent="0.35">
+    </row>
+    <row r="46" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A46" s="11" t="str">
         <f>"tag-"&amp;SUBSTITUTE(Tags!$A13," ","-")</f>
         <v>tag-Nature</v>
@@ -4877,9 +4812,8 @@
       <c r="AD46" s="12"/>
       <c r="AE46" s="12"/>
       <c r="AF46" s="12"/>
-      <c r="AG46" s="12"/>
-    </row>
-    <row r="47" spans="1:33" x14ac:dyDescent="0.35">
+    </row>
+    <row r="47" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A47" s="11" t="str">
         <f>"tag-"&amp;SUBSTITUTE(Tags!$A14," ","-")</f>
         <v>tag-Role-playing</v>
@@ -4967,9 +4901,8 @@
       <c r="AD47" s="12"/>
       <c r="AE47" s="12"/>
       <c r="AF47" s="12"/>
-      <c r="AG47" s="12"/>
-    </row>
-    <row r="48" spans="1:33" x14ac:dyDescent="0.35">
+    </row>
+    <row r="48" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A48" s="11" t="str">
         <f>"tag-"&amp;SUBSTITUTE(Tags!$A15," ","-")</f>
         <v>tag-Add-on</v>
@@ -5057,9 +4990,8 @@
       <c r="AD48" s="12"/>
       <c r="AE48" s="12"/>
       <c r="AF48" s="12"/>
-      <c r="AG48" s="12"/>
-    </row>
-    <row r="49" spans="1:33" x14ac:dyDescent="0.35">
+    </row>
+    <row r="49" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A49" s="11" t="str">
         <f>"tag-"&amp;SUBSTITUTE(Tags!$A16," ","-")</f>
         <v>tag-Art</v>
@@ -5147,9 +5079,8 @@
       <c r="AD49" s="12"/>
       <c r="AE49" s="12"/>
       <c r="AF49" s="12"/>
-      <c r="AG49" s="12"/>
-    </row>
-    <row r="50" spans="1:33" x14ac:dyDescent="0.35">
+    </row>
+    <row r="50" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A50" s="11" t="str">
         <f>"tag-"&amp;SUBSTITUTE(Tags!$A17," ","-")</f>
         <v>tag-Log</v>
@@ -5237,7 +5168,6 @@
       <c r="AD50" s="12"/>
       <c r="AE50" s="12"/>
       <c r="AF50" s="12"/>
-      <c r="AG50" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5367,7 +5297,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="B13" s="26" t="str">
         <f>IF(COUNTIFS(EN!$Q$1:$Q$28,"*"&amp;Tags!$A13&amp;"*",EN!$B$1:$B$28,"Yes")&gt;0,"Yes","No")</f>
@@ -5376,7 +5306,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="B14" s="26" t="str">
         <f>IF(COUNTIFS(EN!$Q$1:$Q$28,"*"&amp;Tags!$A14&amp;"*",EN!$B$1:$B$28,"Yes")&gt;0,"Yes","No")</f>
@@ -5385,7 +5315,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="B15" s="26" t="str">
         <f>IF(COUNTIFS(EN!$Q$1:$Q$28,"*"&amp;Tags!$A15&amp;"*",EN!$B$1:$B$28,"Yes")&gt;0,"Yes","No")</f>
@@ -5394,7 +5324,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="B16" s="26" t="str">
         <f>IF(COUNTIFS(EN!$Q$1:$Q$28,"*"&amp;Tags!$A16&amp;"*",EN!$B$1:$B$28,"Yes")&gt;0,"Yes","No")</f>
@@ -5403,7 +5333,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="B17" s="26" t="str">
         <f>IF(COUNTIFS(EN!$Q$1:$Q$28,"*"&amp;Tags!$A17&amp;"*",EN!$B$1:$B$28,"Yes")&gt;0,"Yes","No")</f>

--- a/cms/CMS.xlsx
+++ b/cms/CMS.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="177">
   <si>
     <t>Title</t>
   </si>
@@ -513,9 +513,6 @@
   </si>
   <si>
     <t>Status</t>
-  </si>
-  <si>
-    <t>«BUTTON-PREORDER»</t>
   </si>
   <si>
     <t>«NAV-LEVEL»</t>
@@ -1019,10 +1016,10 @@
   <dimension ref="A1:AF50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="W14" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AA25" sqref="AA25"/>
+      <selection pane="bottomRight" activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2115,7 +2112,7 @@
         <v>49</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>34</v>
@@ -2190,7 +2187,7 @@
         <v>38</v>
       </c>
       <c r="AB14" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AD14" s="2" t="s">
         <v>133</v>
@@ -2215,7 +2212,7 @@
         <v>«PAGE-GAME-FULLSCREEN»</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F15" s="28" t="str">
         <f>$F$14</f>
@@ -2292,7 +2289,7 @@
       </c>
       <c r="AA15"/>
       <c r="AB15" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AD15" s="2" t="s">
         <v>127</v>
@@ -2317,7 +2314,7 @@
         <v>«PAGE-GAME-FULLSCREEN»</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F16" s="28" t="str">
         <f t="shared" ref="F16:F24" si="26">$F$14</f>
@@ -2391,7 +2388,7 @@
       </c>
       <c r="AA16" s="18"/>
       <c r="AB16" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AC16" s="2" t="s">
         <v>85</v>
@@ -2419,7 +2416,7 @@
         <v>«PAGE-GAME-FULLSCREEN»</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F17" s="28" t="str">
         <f t="shared" si="26"/>
@@ -2492,7 +2489,7 @@
         <v>37</v>
       </c>
       <c r="AB17" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AC17" s="2" t="s">
         <v>85</v>
@@ -2589,7 +2586,7 @@
         <v>«SITE-HTTP»/pmgrp</v>
       </c>
       <c r="AB18" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AC18" s="2" t="s">
         <v>85</v>
@@ -2770,7 +2767,7 @@
         <v>«SITE-HTTP»/hastefulll</v>
       </c>
       <c r="AB20" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AC20" s="2" t="s">
         <v>85</v>
@@ -2873,7 +2870,7 @@
         <v>«HONOURS-HOF»</v>
       </c>
       <c r="AB21" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AC21" s="2" t="s">
         <v>85</v>
@@ -3056,7 +3053,7 @@
       </c>
       <c r="AA23" s="28"/>
       <c r="AB23" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AC23" s="2" t="s">
         <v>85</v>
@@ -3075,7 +3072,7 @@
         <v>32</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F24" s="28" t="str">
         <f t="shared" si="26"/>
@@ -3123,7 +3120,7 @@
         <v>Game, Platformer, Puzzle</v>
       </c>
       <c r="R24" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="S24" s="7" t="str">
         <f t="shared" si="42"/>
@@ -3145,15 +3142,12 @@
         <f t="shared" ref="X24:X25" si="65">"«SITE-HTTP»/"&amp;A24</f>
         <v>«SITE-HTTP»/gravirinth</v>
       </c>
-      <c r="Z24" s="2" t="s">
-        <v>166</v>
-      </c>
       <c r="AA24" s="28" t="str">
         <f>$AA$21</f>
         <v>«HONOURS-HOF»</v>
       </c>
       <c r="AB24" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AC24" s="2" t="s">
         <v>85</v>
@@ -3218,7 +3212,7 @@
         <v>Creative-Archive, Log, Post</v>
       </c>
       <c r="R25" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="S25" s="7" t="str">
         <f t="shared" si="42"/>
@@ -3418,7 +3412,7 @@
         <v>34</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H28" s="7" t="str">
         <f t="shared" si="38"/>
@@ -3466,10 +3460,10 @@
         <v>gravirinth-log.png</v>
       </c>
       <c r="T28" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="U28" s="9" t="s">
         <v>172</v>
-      </c>
-      <c r="U28" s="9" t="s">
-        <v>173</v>
       </c>
       <c r="V28" s="7" t="str">
         <f t="shared" si="76"/>
@@ -5333,7 +5327,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B17" s="26" t="str">
         <f>IF(COUNTIFS(EN!$Q$1:$Q$28,"*"&amp;Tags!$A17&amp;"*",EN!$B$1:$B$28,"Yes")&gt;0,"Yes","No")</f>

--- a/cms/CMS.xlsx
+++ b/cms/CMS.xlsx
@@ -545,7 +545,7 @@
     <t>Subscribe</t>
   </si>
   <si>
-    <t>Rj1dstT8Y0wrQBS3tQSiTdLOS9SbIR1i</t>
+    <t>xBTevvRk4eHt0GWdtOMma4uTPiR1HuOn</t>
   </si>
 </sst>
 </file>
@@ -3071,7 +3071,7 @@
       <c r="D24" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E24" s="4" t="s">
+      <c r="E24" t="s">
         <v>176</v>
       </c>
       <c r="F24" s="28" t="str">
@@ -3428,7 +3428,7 @@
       </c>
       <c r="K28" s="10" t="str">
         <f t="shared" ref="K28:K42" ca="1" si="83">IF(TODAY()-DATEVALUE(J28)&lt;15,"weekly",IF(TODAY()-DATEVALUE(J28)&lt;60,"monthly","yearly"))</f>
-        <v>weekly</v>
+        <v>monthly</v>
       </c>
       <c r="L28" s="3">
         <v>43440</v>

--- a/cms/CMS.xlsx
+++ b/cms/CMS.xlsx
@@ -1016,10 +1016,10 @@
   <dimension ref="A1:AF50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B14" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="P13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A24" sqref="A24"/>
+      <selection pane="bottomRight" activeCell="T26" sqref="T26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3087,30 +3087,30 @@
       </c>
       <c r="I24" s="10">
         <f t="shared" si="33"/>
-        <v>43427</v>
+        <v>43472</v>
       </c>
       <c r="J24" s="10" t="str">
         <f t="shared" si="48"/>
-        <v>2018-11-23</v>
+        <v>2019-01-07</v>
       </c>
       <c r="K24" s="10" t="str">
         <f t="shared" ca="1" si="49"/>
-        <v>monthly</v>
+        <v>weekly</v>
       </c>
       <c r="L24" s="3">
-        <v>43427</v>
+        <v>43472</v>
       </c>
       <c r="M24" s="13">
         <f t="shared" si="50"/>
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="N24" s="6">
         <f t="shared" si="51"/>
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="O24" s="6">
         <f t="shared" si="52"/>
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="P24" s="2" t="s">
         <v>25</v>
